--- a/doc/design_detail.xlsx
+++ b/doc/design_detail.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emi07\Desktop\追加課題6\【実習】各種設計書（テンプレ）\詳細設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A90D937C-4513-472D-9216-3A9F94537B42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{45432115-1B2E-4612-A6F5-ECB101F60BAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" tabRatio="774" firstSheet="22" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="4">IO関連図_更新!$A$1:$AG$42</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">IO関連図_削除!$A$1:$AG$42</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">IO関連図_登録!$A$1:$AG$42</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="22">イベント一覧!$A$1:$AG$43</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="22">イベント一覧!$A$1:$AG$46</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="19">画面_エラー!$A$1:$AG$42</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">画面_ログイン!$A$1:$AG$42</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="12">画面_一覧!$A$1:$AG$42</definedName>
@@ -111,7 +111,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="284">
   <si>
     <t>ユーザー名</t>
     <rPh sb="4" eb="5">
@@ -1114,6 +1114,12 @@
     <t>エラー画面に遷移し、権限エラーを表示する</t>
   </si>
   <si>
+    <t>GET=actionの場合</t>
+  </si>
+  <si>
+    <t>確認画面のデータを表示</t>
+  </si>
+  <si>
     <t>名前(姓).入力</t>
   </si>
   <si>
@@ -1186,6 +1192,9 @@
     <t>各入力フォームの下にエラーメッセージを表示する</t>
   </si>
   <si>
+    <t>アカウント登録確認</t>
+  </si>
+  <si>
     <t>セッション.ロード</t>
   </si>
   <si>
@@ -1213,7 +1222,7 @@
     <t>登録するボタン.クリック</t>
   </si>
   <si>
-    <t>登録処理を行う</t>
+    <t>insertへ遷移し、登録処理を行う</t>
   </si>
   <si>
     <t>データベース接続</t>
@@ -1222,7 +1231,7 @@
     <t>接続失敗</t>
   </si>
   <si>
-    <t>エラー画面へ背に</t>
+    <t>エラー画面へ遷移</t>
   </si>
   <si>
     <t>接続成功</t>
@@ -1247,6 +1256,33 @@
   </si>
   <si>
     <t>登録成功　登録完了画面へ遷移</t>
+  </si>
+  <si>
+    <t>アカウント登録完了</t>
+  </si>
+  <si>
+    <t>テキスト表示</t>
+  </si>
+  <si>
+    <t>登録完了を表示</t>
+  </si>
+  <si>
+    <t>TOPに戻るボタン.クリック</t>
+  </si>
+  <si>
+    <t>TOPページに戻る</t>
+  </si>
+  <si>
+    <t>GET=searchの場合</t>
+  </si>
+  <si>
+    <t>入力していた検索条件を表示</t>
+  </si>
+  <si>
+    <t>一覧画面を表示</t>
+  </si>
+  <si>
+    <t>input type="text"</t>
   </si>
   <si>
     <t>更新・処理仕様書</t>
@@ -1999,7 +2035,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="195">
+  <cellXfs count="197">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
@@ -2203,9 +2239,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2221,10 +2254,13 @@
     <xf numFmtId="176" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2233,13 +2269,13 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2269,6 +2305,15 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2277,15 +2322,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2350,6 +2386,8 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -12870,20 +12908,20 @@
       <c r="C8" s="26"/>
       <c r="D8" s="26"/>
       <c r="E8" s="27"/>
-      <c r="F8" s="176" t="s">
+      <c r="F8" s="178" t="s">
         <v>1</v>
       </c>
-      <c r="G8" s="177"/>
-      <c r="H8" s="177"/>
-      <c r="I8" s="177"/>
-      <c r="J8" s="177"/>
-      <c r="K8" s="177"/>
-      <c r="L8" s="177"/>
-      <c r="M8" s="177"/>
-      <c r="N8" s="177"/>
-      <c r="O8" s="177"/>
-      <c r="P8" s="177"/>
-      <c r="Q8" s="178"/>
+      <c r="G8" s="179"/>
+      <c r="H8" s="179"/>
+      <c r="I8" s="179"/>
+      <c r="J8" s="179"/>
+      <c r="K8" s="179"/>
+      <c r="L8" s="179"/>
+      <c r="M8" s="179"/>
+      <c r="N8" s="179"/>
+      <c r="O8" s="179"/>
+      <c r="P8" s="179"/>
+      <c r="Q8" s="180"/>
       <c r="R8" s="19"/>
       <c r="S8" s="19"/>
       <c r="T8" s="19"/>
@@ -12902,26 +12940,26 @@
     </row>
     <row r="9" spans="1:176" ht="12.95" customHeight="1">
       <c r="A9" s="22"/>
-      <c r="B9" s="179" t="s">
+      <c r="B9" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="180"/>
-      <c r="D9" s="180"/>
-      <c r="E9" s="181"/>
-      <c r="F9" s="182" t="s">
+      <c r="C9" s="182"/>
+      <c r="D9" s="182"/>
+      <c r="E9" s="183"/>
+      <c r="F9" s="184" t="s">
         <v>3</v>
       </c>
-      <c r="G9" s="183"/>
-      <c r="H9" s="183"/>
-      <c r="I9" s="183"/>
-      <c r="J9" s="183"/>
-      <c r="K9" s="183"/>
-      <c r="L9" s="183"/>
-      <c r="M9" s="183"/>
-      <c r="N9" s="183"/>
-      <c r="O9" s="183"/>
-      <c r="P9" s="183"/>
-      <c r="Q9" s="184"/>
+      <c r="G9" s="185"/>
+      <c r="H9" s="185"/>
+      <c r="I9" s="185"/>
+      <c r="J9" s="185"/>
+      <c r="K9" s="185"/>
+      <c r="L9" s="185"/>
+      <c r="M9" s="185"/>
+      <c r="N9" s="185"/>
+      <c r="O9" s="185"/>
+      <c r="P9" s="185"/>
+      <c r="Q9" s="186"/>
       <c r="R9" s="19"/>
       <c r="S9" s="19"/>
       <c r="T9" s="19"/>
@@ -12940,22 +12978,22 @@
     </row>
     <row r="10" spans="1:176" ht="12.95" customHeight="1">
       <c r="A10" s="22"/>
-      <c r="B10" s="185"/>
-      <c r="C10" s="186"/>
-      <c r="D10" s="186"/>
-      <c r="E10" s="187"/>
-      <c r="F10" s="188"/>
-      <c r="G10" s="189"/>
-      <c r="H10" s="189"/>
-      <c r="I10" s="189"/>
-      <c r="J10" s="189"/>
-      <c r="K10" s="189"/>
-      <c r="L10" s="189"/>
-      <c r="M10" s="189"/>
-      <c r="N10" s="189"/>
-      <c r="O10" s="189"/>
-      <c r="P10" s="189"/>
-      <c r="Q10" s="190"/>
+      <c r="B10" s="187"/>
+      <c r="C10" s="188"/>
+      <c r="D10" s="188"/>
+      <c r="E10" s="189"/>
+      <c r="F10" s="190"/>
+      <c r="G10" s="191"/>
+      <c r="H10" s="191"/>
+      <c r="I10" s="191"/>
+      <c r="J10" s="191"/>
+      <c r="K10" s="191"/>
+      <c r="L10" s="191"/>
+      <c r="M10" s="191"/>
+      <c r="N10" s="191"/>
+      <c r="O10" s="191"/>
+      <c r="P10" s="191"/>
+      <c r="Q10" s="192"/>
       <c r="R10" s="19"/>
       <c r="S10" s="19"/>
       <c r="T10" s="19"/>
@@ -13170,18 +13208,18 @@
       <c r="I17" s="19"/>
       <c r="J17" s="19"/>
       <c r="K17" s="19"/>
-      <c r="L17" s="191" t="s">
+      <c r="L17" s="193" t="s">
         <v>4</v>
       </c>
-      <c r="M17" s="192"/>
-      <c r="N17" s="192"/>
-      <c r="O17" s="192"/>
-      <c r="P17" s="192"/>
-      <c r="Q17" s="192"/>
-      <c r="R17" s="192"/>
-      <c r="S17" s="192"/>
-      <c r="T17" s="192"/>
-      <c r="U17" s="192"/>
+      <c r="M17" s="194"/>
+      <c r="N17" s="194"/>
+      <c r="O17" s="194"/>
+      <c r="P17" s="194"/>
+      <c r="Q17" s="194"/>
+      <c r="R17" s="194"/>
+      <c r="S17" s="194"/>
+      <c r="T17" s="194"/>
+      <c r="U17" s="194"/>
       <c r="V17" s="19"/>
       <c r="W17" s="19"/>
       <c r="AA17" s="19"/>
@@ -13203,16 +13241,16 @@
       <c r="I18" s="19"/>
       <c r="J18" s="19"/>
       <c r="K18" s="19"/>
-      <c r="L18" s="192"/>
-      <c r="M18" s="192"/>
-      <c r="N18" s="192"/>
-      <c r="O18" s="192"/>
-      <c r="P18" s="192"/>
-      <c r="Q18" s="192"/>
-      <c r="R18" s="192"/>
-      <c r="S18" s="192"/>
-      <c r="T18" s="192"/>
-      <c r="U18" s="192"/>
+      <c r="L18" s="194"/>
+      <c r="M18" s="194"/>
+      <c r="N18" s="194"/>
+      <c r="O18" s="194"/>
+      <c r="P18" s="194"/>
+      <c r="Q18" s="194"/>
+      <c r="R18" s="194"/>
+      <c r="S18" s="194"/>
+      <c r="T18" s="194"/>
+      <c r="U18" s="194"/>
       <c r="V18" s="19"/>
       <c r="W18" s="19"/>
       <c r="AA18" s="19"/>
@@ -13234,16 +13272,16 @@
       <c r="I19" s="19"/>
       <c r="J19" s="19"/>
       <c r="K19" s="19"/>
-      <c r="L19" s="192"/>
-      <c r="M19" s="192"/>
-      <c r="N19" s="192"/>
-      <c r="O19" s="192"/>
-      <c r="P19" s="192"/>
-      <c r="Q19" s="192"/>
-      <c r="R19" s="192"/>
-      <c r="S19" s="192"/>
-      <c r="T19" s="192"/>
-      <c r="U19" s="192"/>
+      <c r="L19" s="194"/>
+      <c r="M19" s="194"/>
+      <c r="N19" s="194"/>
+      <c r="O19" s="194"/>
+      <c r="P19" s="194"/>
+      <c r="Q19" s="194"/>
+      <c r="R19" s="194"/>
+      <c r="S19" s="194"/>
+      <c r="T19" s="194"/>
+      <c r="U19" s="194"/>
       <c r="V19" s="19"/>
       <c r="W19" s="19"/>
       <c r="X19" s="19"/>
@@ -14125,41 +14163,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:178" ht="12.75" customHeight="1">
-      <c r="A1" s="127" t="s">
+      <c r="A1" s="132" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="127"/>
-      <c r="F1" s="127"/>
-      <c r="G1" s="127"/>
-      <c r="H1" s="127"/>
-      <c r="I1" s="127"/>
-      <c r="J1" s="127"/>
-      <c r="K1" s="127"/>
-      <c r="L1" s="127"/>
-      <c r="M1" s="127"/>
-      <c r="N1" s="127"/>
-      <c r="O1" s="127"/>
-      <c r="P1" s="127"/>
-      <c r="Q1" s="127"/>
-      <c r="R1" s="127"/>
-      <c r="S1" s="127"/>
-      <c r="T1" s="127"/>
-      <c r="U1" s="127"/>
-      <c r="V1" s="127"/>
-      <c r="W1" s="127"/>
-      <c r="X1" s="127"/>
-      <c r="Y1" s="127"/>
-      <c r="Z1" s="127"/>
-      <c r="AA1" s="127"/>
-      <c r="AB1" s="127"/>
-      <c r="AC1" s="127"/>
-      <c r="AD1" s="127"/>
-      <c r="AE1" s="127"/>
-      <c r="AF1" s="127"/>
-      <c r="AG1" s="127"/>
+      <c r="B1" s="132"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
+      <c r="F1" s="132"/>
+      <c r="G1" s="132"/>
+      <c r="H1" s="132"/>
+      <c r="I1" s="132"/>
+      <c r="J1" s="132"/>
+      <c r="K1" s="132"/>
+      <c r="L1" s="132"/>
+      <c r="M1" s="132"/>
+      <c r="N1" s="132"/>
+      <c r="O1" s="132"/>
+      <c r="P1" s="132"/>
+      <c r="Q1" s="132"/>
+      <c r="R1" s="132"/>
+      <c r="S1" s="132"/>
+      <c r="T1" s="132"/>
+      <c r="U1" s="132"/>
+      <c r="V1" s="132"/>
+      <c r="W1" s="132"/>
+      <c r="X1" s="132"/>
+      <c r="Y1" s="132"/>
+      <c r="Z1" s="132"/>
+      <c r="AA1" s="132"/>
+      <c r="AB1" s="132"/>
+      <c r="AC1" s="132"/>
+      <c r="AD1" s="132"/>
+      <c r="AE1" s="132"/>
+      <c r="AF1" s="132"/>
+      <c r="AG1" s="132"/>
     </row>
     <row r="2" spans="1:178" ht="12" customHeight="1">
       <c r="A2" s="117" t="s">
@@ -14476,10 +14514,10 @@
       <c r="AE5" s="83"/>
       <c r="AF5" s="83"/>
       <c r="AG5" s="83"/>
-      <c r="AH5" s="193"/>
-      <c r="AI5" s="193"/>
-      <c r="AJ5" s="193"/>
-      <c r="AK5" s="193"/>
+      <c r="AH5" s="195"/>
+      <c r="AI5" s="195"/>
+      <c r="AJ5" s="195"/>
+      <c r="AK5" s="195"/>
       <c r="AL5" s="84"/>
       <c r="AM5" s="84"/>
       <c r="AN5" s="84"/>
@@ -14800,12 +14838,12 @@
     </row>
     <row r="12" spans="1:178" ht="12.75" customHeight="1">
       <c r="A12" s="19"/>
-      <c r="B12" s="131"/>
-      <c r="C12" s="131"/>
-      <c r="D12" s="131"/>
-      <c r="E12" s="131"/>
-      <c r="F12" s="131"/>
-      <c r="G12" s="131"/>
+      <c r="B12" s="130"/>
+      <c r="C12" s="130"/>
+      <c r="D12" s="130"/>
+      <c r="E12" s="130"/>
+      <c r="F12" s="130"/>
+      <c r="G12" s="130"/>
       <c r="N12" s="50"/>
       <c r="P12" s="90"/>
       <c r="Q12" s="50"/>
@@ -14813,23 +14851,23 @@
       <c r="S12" s="50"/>
       <c r="T12" s="50"/>
       <c r="U12" s="50"/>
-      <c r="V12" s="131"/>
-      <c r="W12" s="192"/>
-      <c r="X12" s="192"/>
-      <c r="Y12" s="131"/>
-      <c r="Z12" s="192"/>
-      <c r="AA12" s="192"/>
-      <c r="AB12" s="192"/>
-      <c r="AC12" s="192"/>
-      <c r="AD12" s="192"/>
-      <c r="AE12" s="192"/>
+      <c r="V12" s="130"/>
+      <c r="W12" s="194"/>
+      <c r="X12" s="194"/>
+      <c r="Y12" s="130"/>
+      <c r="Z12" s="194"/>
+      <c r="AA12" s="194"/>
+      <c r="AB12" s="194"/>
+      <c r="AC12" s="194"/>
+      <c r="AD12" s="194"/>
+      <c r="AE12" s="194"/>
       <c r="AF12" s="50"/>
       <c r="AG12" s="24"/>
     </row>
     <row r="13" spans="1:178" ht="12.75" customHeight="1">
       <c r="A13" s="19"/>
-      <c r="B13" s="130"/>
-      <c r="C13" s="130"/>
+      <c r="B13" s="129"/>
+      <c r="C13" s="129"/>
       <c r="D13" s="50"/>
       <c r="E13" s="50"/>
       <c r="F13" s="50"/>
@@ -14846,9 +14884,9 @@
       <c r="S13" s="50"/>
       <c r="T13" s="50"/>
       <c r="U13" s="50"/>
-      <c r="V13" s="132"/>
-      <c r="W13" s="132"/>
-      <c r="X13" s="132"/>
+      <c r="V13" s="131"/>
+      <c r="W13" s="131"/>
+      <c r="X13" s="131"/>
       <c r="Y13" s="52"/>
       <c r="Z13" s="50"/>
       <c r="AA13" s="50"/>
@@ -15754,10 +15792,10 @@
       <c r="AE42" s="133"/>
       <c r="AF42" s="133"/>
       <c r="AG42" s="133"/>
-      <c r="AH42" s="194"/>
-      <c r="AI42" s="194"/>
-      <c r="AJ42" s="194"/>
-      <c r="AK42" s="194"/>
+      <c r="AH42" s="196"/>
+      <c r="AI42" s="196"/>
+      <c r="AJ42" s="196"/>
+      <c r="AK42" s="196"/>
       <c r="AL42" s="94"/>
       <c r="AM42" s="94"/>
       <c r="AN42" s="94"/>
@@ -15902,17 +15940,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="V13:X13"/>
-    <mergeCell ref="A42:AG42"/>
-    <mergeCell ref="AH42:AI42"/>
-    <mergeCell ref="AJ42:AK42"/>
-    <mergeCell ref="AH5:AI5"/>
-    <mergeCell ref="AJ5:AK5"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="V12:X12"/>
-    <mergeCell ref="Y12:AE12"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="G3:AC3"/>
     <mergeCell ref="AD3:AE3"/>
@@ -15922,6 +15949,17 @@
     <mergeCell ref="G2:AC2"/>
     <mergeCell ref="AD2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="AH5:AI5"/>
+    <mergeCell ref="AJ5:AK5"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="V12:X12"/>
+    <mergeCell ref="Y12:AE12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="V13:X13"/>
+    <mergeCell ref="A42:AG42"/>
+    <mergeCell ref="AH42:AI42"/>
+    <mergeCell ref="AJ42:AK42"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -15952,41 +15990,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:178" ht="12.75" customHeight="1">
-      <c r="A1" s="127" t="s">
+      <c r="A1" s="132" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="127"/>
-      <c r="F1" s="127"/>
-      <c r="G1" s="127"/>
-      <c r="H1" s="127"/>
-      <c r="I1" s="127"/>
-      <c r="J1" s="127"/>
-      <c r="K1" s="127"/>
-      <c r="L1" s="127"/>
-      <c r="M1" s="127"/>
-      <c r="N1" s="127"/>
-      <c r="O1" s="127"/>
-      <c r="P1" s="127"/>
-      <c r="Q1" s="127"/>
-      <c r="R1" s="127"/>
-      <c r="S1" s="127"/>
-      <c r="T1" s="127"/>
-      <c r="U1" s="127"/>
-      <c r="V1" s="127"/>
-      <c r="W1" s="127"/>
-      <c r="X1" s="127"/>
-      <c r="Y1" s="127"/>
-      <c r="Z1" s="127"/>
-      <c r="AA1" s="127"/>
-      <c r="AB1" s="127"/>
-      <c r="AC1" s="127"/>
-      <c r="AD1" s="127"/>
-      <c r="AE1" s="127"/>
-      <c r="AF1" s="127"/>
-      <c r="AG1" s="127"/>
+      <c r="B1" s="132"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
+      <c r="F1" s="132"/>
+      <c r="G1" s="132"/>
+      <c r="H1" s="132"/>
+      <c r="I1" s="132"/>
+      <c r="J1" s="132"/>
+      <c r="K1" s="132"/>
+      <c r="L1" s="132"/>
+      <c r="M1" s="132"/>
+      <c r="N1" s="132"/>
+      <c r="O1" s="132"/>
+      <c r="P1" s="132"/>
+      <c r="Q1" s="132"/>
+      <c r="R1" s="132"/>
+      <c r="S1" s="132"/>
+      <c r="T1" s="132"/>
+      <c r="U1" s="132"/>
+      <c r="V1" s="132"/>
+      <c r="W1" s="132"/>
+      <c r="X1" s="132"/>
+      <c r="Y1" s="132"/>
+      <c r="Z1" s="132"/>
+      <c r="AA1" s="132"/>
+      <c r="AB1" s="132"/>
+      <c r="AC1" s="132"/>
+      <c r="AD1" s="132"/>
+      <c r="AE1" s="132"/>
+      <c r="AF1" s="132"/>
+      <c r="AG1" s="132"/>
     </row>
     <row r="2" spans="1:178" ht="12" customHeight="1">
       <c r="A2" s="117" t="s">
@@ -16303,10 +16341,10 @@
       <c r="AE5" s="83"/>
       <c r="AF5" s="83"/>
       <c r="AG5" s="83"/>
-      <c r="AH5" s="193"/>
-      <c r="AI5" s="193"/>
-      <c r="AJ5" s="193"/>
-      <c r="AK5" s="193"/>
+      <c r="AH5" s="195"/>
+      <c r="AI5" s="195"/>
+      <c r="AJ5" s="195"/>
+      <c r="AK5" s="195"/>
       <c r="AL5" s="84"/>
       <c r="AM5" s="84"/>
       <c r="AN5" s="84"/>
@@ -16621,12 +16659,12 @@
     </row>
     <row r="12" spans="1:178" ht="12.75" customHeight="1">
       <c r="A12" s="19"/>
-      <c r="B12" s="131"/>
-      <c r="C12" s="131"/>
-      <c r="D12" s="131"/>
-      <c r="E12" s="131"/>
-      <c r="F12" s="131"/>
-      <c r="G12" s="131"/>
+      <c r="B12" s="130"/>
+      <c r="C12" s="130"/>
+      <c r="D12" s="130"/>
+      <c r="E12" s="130"/>
+      <c r="F12" s="130"/>
+      <c r="G12" s="130"/>
       <c r="N12" s="50"/>
       <c r="P12" s="90"/>
       <c r="Q12" s="50"/>
@@ -16634,23 +16672,23 @@
       <c r="S12" s="50"/>
       <c r="T12" s="50"/>
       <c r="U12" s="50"/>
-      <c r="V12" s="131"/>
-      <c r="W12" s="192"/>
-      <c r="X12" s="192"/>
-      <c r="Y12" s="131"/>
-      <c r="Z12" s="192"/>
-      <c r="AA12" s="192"/>
-      <c r="AB12" s="192"/>
-      <c r="AC12" s="192"/>
-      <c r="AD12" s="192"/>
-      <c r="AE12" s="192"/>
+      <c r="V12" s="130"/>
+      <c r="W12" s="194"/>
+      <c r="X12" s="194"/>
+      <c r="Y12" s="130"/>
+      <c r="Z12" s="194"/>
+      <c r="AA12" s="194"/>
+      <c r="AB12" s="194"/>
+      <c r="AC12" s="194"/>
+      <c r="AD12" s="194"/>
+      <c r="AE12" s="194"/>
       <c r="AF12" s="50"/>
       <c r="AG12" s="24"/>
     </row>
     <row r="13" spans="1:178" ht="12.75" customHeight="1">
       <c r="A13" s="19"/>
-      <c r="B13" s="130"/>
-      <c r="C13" s="130"/>
+      <c r="B13" s="129"/>
+      <c r="C13" s="129"/>
       <c r="D13" s="50"/>
       <c r="E13" s="50"/>
       <c r="F13" s="50"/>
@@ -16663,9 +16701,9 @@
       <c r="S13" s="50"/>
       <c r="T13" s="50"/>
       <c r="U13" s="50"/>
-      <c r="V13" s="132"/>
-      <c r="W13" s="132"/>
-      <c r="X13" s="132"/>
+      <c r="V13" s="131"/>
+      <c r="W13" s="131"/>
+      <c r="X13" s="131"/>
       <c r="Y13" s="52"/>
       <c r="Z13" s="50"/>
       <c r="AA13" s="50"/>
@@ -17535,10 +17573,10 @@
       <c r="AE42" s="133"/>
       <c r="AF42" s="133"/>
       <c r="AG42" s="133"/>
-      <c r="AH42" s="194"/>
-      <c r="AI42" s="194"/>
-      <c r="AJ42" s="194"/>
-      <c r="AK42" s="194"/>
+      <c r="AH42" s="196"/>
+      <c r="AI42" s="196"/>
+      <c r="AJ42" s="196"/>
+      <c r="AK42" s="196"/>
       <c r="AL42" s="94"/>
       <c r="AM42" s="94"/>
       <c r="AN42" s="94"/>
@@ -17683,17 +17721,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="V13:X13"/>
-    <mergeCell ref="A42:AG42"/>
-    <mergeCell ref="AH42:AI42"/>
-    <mergeCell ref="AJ42:AK42"/>
-    <mergeCell ref="AH5:AI5"/>
-    <mergeCell ref="AJ5:AK5"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="V12:X12"/>
-    <mergeCell ref="Y12:AE12"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="G3:AC3"/>
     <mergeCell ref="AD3:AE3"/>
@@ -17703,6 +17730,17 @@
     <mergeCell ref="G2:AC2"/>
     <mergeCell ref="AD2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="AH5:AI5"/>
+    <mergeCell ref="AJ5:AK5"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="V12:X12"/>
+    <mergeCell ref="Y12:AE12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="V13:X13"/>
+    <mergeCell ref="A42:AG42"/>
+    <mergeCell ref="AH42:AI42"/>
+    <mergeCell ref="AJ42:AK42"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -17733,41 +17771,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:178" ht="12.75" customHeight="1">
-      <c r="A1" s="127" t="s">
+      <c r="A1" s="132" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="127"/>
-      <c r="F1" s="127"/>
-      <c r="G1" s="127"/>
-      <c r="H1" s="127"/>
-      <c r="I1" s="127"/>
-      <c r="J1" s="127"/>
-      <c r="K1" s="127"/>
-      <c r="L1" s="127"/>
-      <c r="M1" s="127"/>
-      <c r="N1" s="127"/>
-      <c r="O1" s="127"/>
-      <c r="P1" s="127"/>
-      <c r="Q1" s="127"/>
-      <c r="R1" s="127"/>
-      <c r="S1" s="127"/>
-      <c r="T1" s="127"/>
-      <c r="U1" s="127"/>
-      <c r="V1" s="127"/>
-      <c r="W1" s="127"/>
-      <c r="X1" s="127"/>
-      <c r="Y1" s="127"/>
-      <c r="Z1" s="127"/>
-      <c r="AA1" s="127"/>
-      <c r="AB1" s="127"/>
-      <c r="AC1" s="127"/>
-      <c r="AD1" s="127"/>
-      <c r="AE1" s="127"/>
-      <c r="AF1" s="127"/>
-      <c r="AG1" s="127"/>
+      <c r="B1" s="132"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
+      <c r="F1" s="132"/>
+      <c r="G1" s="132"/>
+      <c r="H1" s="132"/>
+      <c r="I1" s="132"/>
+      <c r="J1" s="132"/>
+      <c r="K1" s="132"/>
+      <c r="L1" s="132"/>
+      <c r="M1" s="132"/>
+      <c r="N1" s="132"/>
+      <c r="O1" s="132"/>
+      <c r="P1" s="132"/>
+      <c r="Q1" s="132"/>
+      <c r="R1" s="132"/>
+      <c r="S1" s="132"/>
+      <c r="T1" s="132"/>
+      <c r="U1" s="132"/>
+      <c r="V1" s="132"/>
+      <c r="W1" s="132"/>
+      <c r="X1" s="132"/>
+      <c r="Y1" s="132"/>
+      <c r="Z1" s="132"/>
+      <c r="AA1" s="132"/>
+      <c r="AB1" s="132"/>
+      <c r="AC1" s="132"/>
+      <c r="AD1" s="132"/>
+      <c r="AE1" s="132"/>
+      <c r="AF1" s="132"/>
+      <c r="AG1" s="132"/>
     </row>
     <row r="2" spans="1:178" ht="12" customHeight="1">
       <c r="A2" s="117" t="s">
@@ -18084,10 +18122,10 @@
       <c r="AE5" s="83"/>
       <c r="AF5" s="83"/>
       <c r="AG5" s="83"/>
-      <c r="AH5" s="193"/>
-      <c r="AI5" s="193"/>
-      <c r="AJ5" s="193"/>
-      <c r="AK5" s="193"/>
+      <c r="AH5" s="195"/>
+      <c r="AI5" s="195"/>
+      <c r="AJ5" s="195"/>
+      <c r="AK5" s="195"/>
       <c r="AL5" s="84"/>
       <c r="AM5" s="84"/>
       <c r="AN5" s="84"/>
@@ -18402,12 +18440,12 @@
     </row>
     <row r="12" spans="1:178" ht="12.75" customHeight="1">
       <c r="A12" s="19"/>
-      <c r="B12" s="131"/>
-      <c r="C12" s="131"/>
-      <c r="D12" s="131"/>
-      <c r="E12" s="131"/>
-      <c r="F12" s="131"/>
-      <c r="G12" s="131"/>
+      <c r="B12" s="130"/>
+      <c r="C12" s="130"/>
+      <c r="D12" s="130"/>
+      <c r="E12" s="130"/>
+      <c r="F12" s="130"/>
+      <c r="G12" s="130"/>
       <c r="N12" s="50"/>
       <c r="P12" s="90"/>
       <c r="Q12" s="50"/>
@@ -18415,23 +18453,23 @@
       <c r="S12" s="50"/>
       <c r="T12" s="50"/>
       <c r="U12" s="50"/>
-      <c r="V12" s="131"/>
-      <c r="W12" s="192"/>
-      <c r="X12" s="192"/>
-      <c r="Y12" s="131"/>
-      <c r="Z12" s="192"/>
-      <c r="AA12" s="192"/>
-      <c r="AB12" s="192"/>
-      <c r="AC12" s="192"/>
-      <c r="AD12" s="192"/>
-      <c r="AE12" s="192"/>
+      <c r="V12" s="130"/>
+      <c r="W12" s="194"/>
+      <c r="X12" s="194"/>
+      <c r="Y12" s="130"/>
+      <c r="Z12" s="194"/>
+      <c r="AA12" s="194"/>
+      <c r="AB12" s="194"/>
+      <c r="AC12" s="194"/>
+      <c r="AD12" s="194"/>
+      <c r="AE12" s="194"/>
       <c r="AF12" s="50"/>
       <c r="AG12" s="24"/>
     </row>
     <row r="13" spans="1:178" ht="12.75" customHeight="1">
       <c r="A13" s="19"/>
-      <c r="B13" s="130"/>
-      <c r="C13" s="130"/>
+      <c r="B13" s="129"/>
+      <c r="C13" s="129"/>
       <c r="D13" s="50"/>
       <c r="E13" s="50"/>
       <c r="F13" s="50"/>
@@ -18444,9 +18482,9 @@
       <c r="S13" s="50"/>
       <c r="T13" s="50"/>
       <c r="U13" s="50"/>
-      <c r="V13" s="132"/>
-      <c r="W13" s="132"/>
-      <c r="X13" s="132"/>
+      <c r="V13" s="131"/>
+      <c r="W13" s="131"/>
+      <c r="X13" s="131"/>
       <c r="Y13" s="52"/>
       <c r="Z13" s="50"/>
       <c r="AA13" s="50"/>
@@ -19316,10 +19354,10 @@
       <c r="AE42" s="133"/>
       <c r="AF42" s="133"/>
       <c r="AG42" s="133"/>
-      <c r="AH42" s="194"/>
-      <c r="AI42" s="194"/>
-      <c r="AJ42" s="194"/>
-      <c r="AK42" s="194"/>
+      <c r="AH42" s="196"/>
+      <c r="AI42" s="196"/>
+      <c r="AJ42" s="196"/>
+      <c r="AK42" s="196"/>
       <c r="AL42" s="94"/>
       <c r="AM42" s="94"/>
       <c r="AN42" s="94"/>
@@ -19464,17 +19502,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="V13:X13"/>
-    <mergeCell ref="A42:AG42"/>
-    <mergeCell ref="AH42:AI42"/>
-    <mergeCell ref="AJ42:AK42"/>
-    <mergeCell ref="AH5:AI5"/>
-    <mergeCell ref="AJ5:AK5"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="V12:X12"/>
-    <mergeCell ref="Y12:AE12"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="G3:AC3"/>
     <mergeCell ref="AD3:AE3"/>
@@ -19484,6 +19511,17 @@
     <mergeCell ref="G2:AC2"/>
     <mergeCell ref="AD2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="AH5:AI5"/>
+    <mergeCell ref="AJ5:AK5"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="V12:X12"/>
+    <mergeCell ref="Y12:AE12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="V13:X13"/>
+    <mergeCell ref="A42:AG42"/>
+    <mergeCell ref="AH42:AI42"/>
+    <mergeCell ref="AJ42:AK42"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -19516,41 +19554,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:178" ht="12.75" customHeight="1">
-      <c r="A1" s="127" t="s">
+      <c r="A1" s="132" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="127"/>
-      <c r="F1" s="127"/>
-      <c r="G1" s="127"/>
-      <c r="H1" s="127"/>
-      <c r="I1" s="127"/>
-      <c r="J1" s="127"/>
-      <c r="K1" s="127"/>
-      <c r="L1" s="127"/>
-      <c r="M1" s="127"/>
-      <c r="N1" s="127"/>
-      <c r="O1" s="127"/>
-      <c r="P1" s="127"/>
-      <c r="Q1" s="127"/>
-      <c r="R1" s="127"/>
-      <c r="S1" s="127"/>
-      <c r="T1" s="127"/>
-      <c r="U1" s="127"/>
-      <c r="V1" s="127"/>
-      <c r="W1" s="127"/>
-      <c r="X1" s="127"/>
-      <c r="Y1" s="127"/>
-      <c r="Z1" s="127"/>
-      <c r="AA1" s="127"/>
-      <c r="AB1" s="127"/>
-      <c r="AC1" s="127"/>
-      <c r="AD1" s="127"/>
-      <c r="AE1" s="127"/>
-      <c r="AF1" s="127"/>
-      <c r="AG1" s="127"/>
+      <c r="B1" s="132"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
+      <c r="F1" s="132"/>
+      <c r="G1" s="132"/>
+      <c r="H1" s="132"/>
+      <c r="I1" s="132"/>
+      <c r="J1" s="132"/>
+      <c r="K1" s="132"/>
+      <c r="L1" s="132"/>
+      <c r="M1" s="132"/>
+      <c r="N1" s="132"/>
+      <c r="O1" s="132"/>
+      <c r="P1" s="132"/>
+      <c r="Q1" s="132"/>
+      <c r="R1" s="132"/>
+      <c r="S1" s="132"/>
+      <c r="T1" s="132"/>
+      <c r="U1" s="132"/>
+      <c r="V1" s="132"/>
+      <c r="W1" s="132"/>
+      <c r="X1" s="132"/>
+      <c r="Y1" s="132"/>
+      <c r="Z1" s="132"/>
+      <c r="AA1" s="132"/>
+      <c r="AB1" s="132"/>
+      <c r="AC1" s="132"/>
+      <c r="AD1" s="132"/>
+      <c r="AE1" s="132"/>
+      <c r="AF1" s="132"/>
+      <c r="AG1" s="132"/>
     </row>
     <row r="2" spans="1:178" ht="12" customHeight="1">
       <c r="A2" s="117" t="s">
@@ -19867,10 +19905,10 @@
       <c r="AE5" s="83"/>
       <c r="AF5" s="83"/>
       <c r="AG5" s="83"/>
-      <c r="AH5" s="193"/>
-      <c r="AI5" s="193"/>
-      <c r="AJ5" s="193"/>
-      <c r="AK5" s="193"/>
+      <c r="AH5" s="195"/>
+      <c r="AI5" s="195"/>
+      <c r="AJ5" s="195"/>
+      <c r="AK5" s="195"/>
       <c r="AL5" s="84"/>
       <c r="AM5" s="84"/>
       <c r="AN5" s="84"/>
@@ -20191,8 +20229,8 @@
     </row>
     <row r="12" spans="1:178" ht="12.75" customHeight="1">
       <c r="A12" s="19"/>
-      <c r="B12" s="131"/>
-      <c r="C12" s="131"/>
+      <c r="B12" s="130"/>
+      <c r="C12" s="130"/>
       <c r="D12" s="51"/>
       <c r="E12" s="51"/>
       <c r="F12" s="51"/>
@@ -20203,23 +20241,23 @@
       <c r="S12" s="50"/>
       <c r="T12" s="50"/>
       <c r="U12" s="50"/>
-      <c r="V12" s="131"/>
-      <c r="W12" s="192"/>
-      <c r="X12" s="192"/>
-      <c r="Y12" s="131"/>
-      <c r="Z12" s="192"/>
-      <c r="AA12" s="192"/>
-      <c r="AB12" s="192"/>
-      <c r="AC12" s="192"/>
-      <c r="AD12" s="192"/>
-      <c r="AE12" s="192"/>
+      <c r="V12" s="130"/>
+      <c r="W12" s="194"/>
+      <c r="X12" s="194"/>
+      <c r="Y12" s="130"/>
+      <c r="Z12" s="194"/>
+      <c r="AA12" s="194"/>
+      <c r="AB12" s="194"/>
+      <c r="AC12" s="194"/>
+      <c r="AD12" s="194"/>
+      <c r="AE12" s="194"/>
       <c r="AF12" s="50"/>
       <c r="AG12" s="24"/>
     </row>
     <row r="13" spans="1:178" ht="12.75" customHeight="1">
       <c r="A13" s="19"/>
-      <c r="B13" s="130"/>
-      <c r="C13" s="130"/>
+      <c r="B13" s="129"/>
+      <c r="C13" s="129"/>
       <c r="D13" s="50"/>
       <c r="F13" s="50"/>
       <c r="H13" s="90" t="s">
@@ -20408,10 +20446,10 @@
       <c r="C19" s="97" t="s">
         <v>89</v>
       </c>
-      <c r="D19" s="134" t="s">
+      <c r="D19" s="137" t="s">
         <v>59</v>
       </c>
-      <c r="E19" s="134"/>
+      <c r="E19" s="137"/>
       <c r="F19" s="135" t="s">
         <v>60</v>
       </c>
@@ -20450,64 +20488,64 @@
       <c r="Y19" s="136" t="s">
         <v>92</v>
       </c>
-      <c r="Z19" s="137"/>
-      <c r="AA19" s="138" t="s">
+      <c r="Z19" s="138"/>
+      <c r="AA19" s="139" t="s">
         <v>93</v>
       </c>
-      <c r="AB19" s="138"/>
-      <c r="AC19" s="138"/>
-      <c r="AD19" s="138"/>
+      <c r="AB19" s="139"/>
+      <c r="AC19" s="139"/>
+      <c r="AD19" s="139"/>
       <c r="AE19" s="50"/>
       <c r="AF19" s="51"/>
       <c r="AG19" s="24"/>
     </row>
     <row r="20" spans="1:33" ht="12.75" customHeight="1">
-      <c r="C20" s="139" t="s">
+      <c r="C20" s="134" t="s">
         <v>94</v>
       </c>
-      <c r="D20" s="139" t="s">
+      <c r="D20" s="134" t="s">
         <v>94</v>
       </c>
-      <c r="E20" s="139"/>
-      <c r="F20" s="139" t="s">
+      <c r="E20" s="134"/>
+      <c r="F20" s="134" t="s">
         <v>94</v>
       </c>
-      <c r="G20" s="139"/>
-      <c r="H20" s="139" t="s">
+      <c r="G20" s="134"/>
+      <c r="H20" s="134" t="s">
         <v>94</v>
       </c>
-      <c r="I20" s="139"/>
-      <c r="J20" s="139" t="s">
+      <c r="I20" s="134"/>
+      <c r="J20" s="134" t="s">
         <v>94</v>
       </c>
-      <c r="K20" s="139"/>
-      <c r="L20" s="139" t="s">
+      <c r="K20" s="134"/>
+      <c r="L20" s="134" t="s">
         <v>95</v>
       </c>
-      <c r="M20" s="139"/>
-      <c r="N20" s="139"/>
-      <c r="O20" s="139" t="s">
+      <c r="M20" s="134"/>
+      <c r="N20" s="134"/>
+      <c r="O20" s="134" t="s">
         <v>96</v>
       </c>
-      <c r="P20" s="139"/>
-      <c r="Q20" s="139" t="s">
+      <c r="P20" s="134"/>
+      <c r="Q20" s="134" t="s">
         <v>94</v>
       </c>
-      <c r="R20" s="139"/>
-      <c r="S20" s="139"/>
-      <c r="T20" s="139" t="s">
+      <c r="R20" s="134"/>
+      <c r="S20" s="134"/>
+      <c r="T20" s="134" t="s">
         <v>96</v>
       </c>
-      <c r="U20" s="139"/>
-      <c r="V20" s="139"/>
-      <c r="W20" s="139" t="s">
+      <c r="U20" s="134"/>
+      <c r="V20" s="134"/>
+      <c r="W20" s="134" t="s">
         <v>97</v>
       </c>
       <c r="X20" s="140"/>
-      <c r="Y20" s="139" t="s">
+      <c r="Y20" s="134" t="s">
         <v>97</v>
       </c>
-      <c r="Z20" s="139"/>
+      <c r="Z20" s="134"/>
       <c r="AA20" s="98"/>
       <c r="AB20" s="98"/>
       <c r="AC20" s="50"/>
@@ -20517,30 +20555,30 @@
       <c r="AG20" s="24"/>
     </row>
     <row r="21" spans="1:33" ht="12.75" customHeight="1">
-      <c r="C21" s="139"/>
-      <c r="D21" s="139"/>
-      <c r="E21" s="139"/>
-      <c r="F21" s="139"/>
-      <c r="G21" s="139"/>
-      <c r="H21" s="139"/>
-      <c r="I21" s="139"/>
-      <c r="J21" s="139"/>
-      <c r="K21" s="139"/>
-      <c r="L21" s="139"/>
-      <c r="M21" s="139"/>
-      <c r="N21" s="139"/>
-      <c r="O21" s="139"/>
-      <c r="P21" s="139"/>
-      <c r="Q21" s="139"/>
-      <c r="R21" s="139"/>
-      <c r="S21" s="139"/>
-      <c r="T21" s="139"/>
-      <c r="U21" s="139"/>
-      <c r="V21" s="139"/>
-      <c r="W21" s="139"/>
+      <c r="C21" s="134"/>
+      <c r="D21" s="134"/>
+      <c r="E21" s="134"/>
+      <c r="F21" s="134"/>
+      <c r="G21" s="134"/>
+      <c r="H21" s="134"/>
+      <c r="I21" s="134"/>
+      <c r="J21" s="134"/>
+      <c r="K21" s="134"/>
+      <c r="L21" s="134"/>
+      <c r="M21" s="134"/>
+      <c r="N21" s="134"/>
+      <c r="O21" s="134"/>
+      <c r="P21" s="134"/>
+      <c r="Q21" s="134"/>
+      <c r="R21" s="134"/>
+      <c r="S21" s="134"/>
+      <c r="T21" s="134"/>
+      <c r="U21" s="134"/>
+      <c r="V21" s="134"/>
+      <c r="W21" s="134"/>
       <c r="X21" s="140"/>
-      <c r="Y21" s="139"/>
-      <c r="Z21" s="139"/>
+      <c r="Y21" s="134"/>
+      <c r="Z21" s="134"/>
       <c r="AA21" s="98"/>
       <c r="AB21" s="98"/>
       <c r="AC21" s="50"/>
@@ -21117,10 +21155,10 @@
       <c r="AE42" s="133"/>
       <c r="AF42" s="133"/>
       <c r="AG42" s="133"/>
-      <c r="AH42" s="194"/>
-      <c r="AI42" s="194"/>
-      <c r="AJ42" s="194"/>
-      <c r="AK42" s="194"/>
+      <c r="AH42" s="196"/>
+      <c r="AI42" s="196"/>
+      <c r="AJ42" s="196"/>
+      <c r="AK42" s="196"/>
       <c r="AL42" s="94"/>
       <c r="AM42" s="94"/>
       <c r="AN42" s="94"/>
@@ -21265,6 +21303,30 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:AC3"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="A1:AG1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:AC2"/>
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="AH5:AI5"/>
+    <mergeCell ref="AJ5:AK5"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="V12:X12"/>
+    <mergeCell ref="Y12:AE12"/>
+    <mergeCell ref="AJ42:AK42"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="Y19:Z19"/>
+    <mergeCell ref="AA19:AD19"/>
+    <mergeCell ref="W20:X21"/>
+    <mergeCell ref="Y20:Z21"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="A42:AG42"/>
     <mergeCell ref="AH42:AI42"/>
@@ -21281,30 +21343,6 @@
     <mergeCell ref="O20:P21"/>
     <mergeCell ref="Q20:S21"/>
     <mergeCell ref="T20:V21"/>
-    <mergeCell ref="AJ42:AK42"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="Y19:Z19"/>
-    <mergeCell ref="AA19:AD19"/>
-    <mergeCell ref="W20:X21"/>
-    <mergeCell ref="Y20:Z21"/>
-    <mergeCell ref="AH5:AI5"/>
-    <mergeCell ref="AJ5:AK5"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="V12:X12"/>
-    <mergeCell ref="Y12:AE12"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:AC3"/>
-    <mergeCell ref="AD3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="A1:AG1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:AC2"/>
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="AF2:AG2"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -21335,41 +21373,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:178" ht="12.75" customHeight="1">
-      <c r="A1" s="127" t="s">
+      <c r="A1" s="132" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="127"/>
-      <c r="F1" s="127"/>
-      <c r="G1" s="127"/>
-      <c r="H1" s="127"/>
-      <c r="I1" s="127"/>
-      <c r="J1" s="127"/>
-      <c r="K1" s="127"/>
-      <c r="L1" s="127"/>
-      <c r="M1" s="127"/>
-      <c r="N1" s="127"/>
-      <c r="O1" s="127"/>
-      <c r="P1" s="127"/>
-      <c r="Q1" s="127"/>
-      <c r="R1" s="127"/>
-      <c r="S1" s="127"/>
-      <c r="T1" s="127"/>
-      <c r="U1" s="127"/>
-      <c r="V1" s="127"/>
-      <c r="W1" s="127"/>
-      <c r="X1" s="127"/>
-      <c r="Y1" s="127"/>
-      <c r="Z1" s="127"/>
-      <c r="AA1" s="127"/>
-      <c r="AB1" s="127"/>
-      <c r="AC1" s="127"/>
-      <c r="AD1" s="127"/>
-      <c r="AE1" s="127"/>
-      <c r="AF1" s="127"/>
-      <c r="AG1" s="127"/>
+      <c r="B1" s="132"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
+      <c r="F1" s="132"/>
+      <c r="G1" s="132"/>
+      <c r="H1" s="132"/>
+      <c r="I1" s="132"/>
+      <c r="J1" s="132"/>
+      <c r="K1" s="132"/>
+      <c r="L1" s="132"/>
+      <c r="M1" s="132"/>
+      <c r="N1" s="132"/>
+      <c r="O1" s="132"/>
+      <c r="P1" s="132"/>
+      <c r="Q1" s="132"/>
+      <c r="R1" s="132"/>
+      <c r="S1" s="132"/>
+      <c r="T1" s="132"/>
+      <c r="U1" s="132"/>
+      <c r="V1" s="132"/>
+      <c r="W1" s="132"/>
+      <c r="X1" s="132"/>
+      <c r="Y1" s="132"/>
+      <c r="Z1" s="132"/>
+      <c r="AA1" s="132"/>
+      <c r="AB1" s="132"/>
+      <c r="AC1" s="132"/>
+      <c r="AD1" s="132"/>
+      <c r="AE1" s="132"/>
+      <c r="AF1" s="132"/>
+      <c r="AG1" s="132"/>
     </row>
     <row r="2" spans="1:178" ht="12" customHeight="1">
       <c r="A2" s="117" t="s">
@@ -21686,10 +21724,10 @@
       <c r="AE5" s="83"/>
       <c r="AF5" s="83"/>
       <c r="AG5" s="83"/>
-      <c r="AH5" s="193"/>
-      <c r="AI5" s="193"/>
-      <c r="AJ5" s="193"/>
-      <c r="AK5" s="193"/>
+      <c r="AH5" s="195"/>
+      <c r="AI5" s="195"/>
+      <c r="AJ5" s="195"/>
+      <c r="AK5" s="195"/>
       <c r="AL5" s="84"/>
       <c r="AM5" s="84"/>
       <c r="AN5" s="84"/>
@@ -22019,12 +22057,12 @@
     </row>
     <row r="12" spans="1:178" ht="12.75" customHeight="1">
       <c r="A12" s="19"/>
-      <c r="B12" s="131"/>
-      <c r="C12" s="131"/>
-      <c r="D12" s="131"/>
-      <c r="E12" s="131"/>
-      <c r="F12" s="131"/>
-      <c r="G12" s="131"/>
+      <c r="B12" s="130"/>
+      <c r="C12" s="130"/>
+      <c r="D12" s="130"/>
+      <c r="E12" s="130"/>
+      <c r="F12" s="130"/>
+      <c r="G12" s="130"/>
       <c r="K12" s="50"/>
       <c r="M12" s="90"/>
       <c r="N12" s="50"/>
@@ -22035,23 +22073,23 @@
       <c r="S12" s="50"/>
       <c r="T12" s="50"/>
       <c r="U12" s="50"/>
-      <c r="V12" s="131"/>
-      <c r="W12" s="192"/>
-      <c r="X12" s="192"/>
-      <c r="Y12" s="131"/>
-      <c r="Z12" s="192"/>
-      <c r="AA12" s="192"/>
-      <c r="AB12" s="192"/>
-      <c r="AC12" s="192"/>
-      <c r="AD12" s="192"/>
-      <c r="AE12" s="192"/>
+      <c r="V12" s="130"/>
+      <c r="W12" s="194"/>
+      <c r="X12" s="194"/>
+      <c r="Y12" s="130"/>
+      <c r="Z12" s="194"/>
+      <c r="AA12" s="194"/>
+      <c r="AB12" s="194"/>
+      <c r="AC12" s="194"/>
+      <c r="AD12" s="194"/>
+      <c r="AE12" s="194"/>
       <c r="AF12" s="50"/>
       <c r="AG12" s="24"/>
     </row>
     <row r="13" spans="1:178" ht="12.75" customHeight="1">
       <c r="A13" s="19"/>
-      <c r="B13" s="130"/>
-      <c r="C13" s="130"/>
+      <c r="B13" s="129"/>
+      <c r="C13" s="129"/>
       <c r="D13" s="50"/>
       <c r="E13" s="50"/>
       <c r="F13" s="50"/>
@@ -22071,9 +22109,9 @@
       <c r="S13" s="78"/>
       <c r="T13" s="78"/>
       <c r="U13" s="79"/>
-      <c r="V13" s="132"/>
-      <c r="W13" s="132"/>
-      <c r="X13" s="132"/>
+      <c r="V13" s="131"/>
+      <c r="W13" s="131"/>
+      <c r="X13" s="131"/>
       <c r="Y13" s="52"/>
       <c r="Z13" s="50"/>
       <c r="AA13" s="50"/>
@@ -23063,10 +23101,10 @@
       <c r="AE42" s="133"/>
       <c r="AF42" s="133"/>
       <c r="AG42" s="133"/>
-      <c r="AH42" s="194"/>
-      <c r="AI42" s="194"/>
-      <c r="AJ42" s="194"/>
-      <c r="AK42" s="194"/>
+      <c r="AH42" s="196"/>
+      <c r="AI42" s="196"/>
+      <c r="AJ42" s="196"/>
+      <c r="AK42" s="196"/>
       <c r="AL42" s="94"/>
       <c r="AM42" s="94"/>
       <c r="AN42" s="94"/>
@@ -23211,17 +23249,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A42:AG42"/>
-    <mergeCell ref="AH42:AI42"/>
-    <mergeCell ref="AJ42:AK42"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="V13:X13"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="AH5:AI5"/>
-    <mergeCell ref="AJ5:AK5"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="V12:X12"/>
-    <mergeCell ref="Y12:AE12"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="G3:AC3"/>
     <mergeCell ref="AD3:AE3"/>
@@ -23231,6 +23258,17 @@
     <mergeCell ref="G2:AC2"/>
     <mergeCell ref="AD2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="AH5:AI5"/>
+    <mergeCell ref="AJ5:AK5"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="V12:X12"/>
+    <mergeCell ref="Y12:AE12"/>
+    <mergeCell ref="A42:AG42"/>
+    <mergeCell ref="AH42:AI42"/>
+    <mergeCell ref="AJ42:AK42"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="V13:X13"/>
+    <mergeCell ref="B13:C13"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -23261,41 +23299,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:178" ht="12.75" customHeight="1">
-      <c r="A1" s="127" t="s">
+      <c r="A1" s="132" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="127"/>
-      <c r="F1" s="127"/>
-      <c r="G1" s="127"/>
-      <c r="H1" s="127"/>
-      <c r="I1" s="127"/>
-      <c r="J1" s="127"/>
-      <c r="K1" s="127"/>
-      <c r="L1" s="127"/>
-      <c r="M1" s="127"/>
-      <c r="N1" s="127"/>
-      <c r="O1" s="127"/>
-      <c r="P1" s="127"/>
-      <c r="Q1" s="127"/>
-      <c r="R1" s="127"/>
-      <c r="S1" s="127"/>
-      <c r="T1" s="127"/>
-      <c r="U1" s="127"/>
-      <c r="V1" s="127"/>
-      <c r="W1" s="127"/>
-      <c r="X1" s="127"/>
-      <c r="Y1" s="127"/>
-      <c r="Z1" s="127"/>
-      <c r="AA1" s="127"/>
-      <c r="AB1" s="127"/>
-      <c r="AC1" s="127"/>
-      <c r="AD1" s="127"/>
-      <c r="AE1" s="127"/>
-      <c r="AF1" s="127"/>
-      <c r="AG1" s="127"/>
+      <c r="B1" s="132"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
+      <c r="F1" s="132"/>
+      <c r="G1" s="132"/>
+      <c r="H1" s="132"/>
+      <c r="I1" s="132"/>
+      <c r="J1" s="132"/>
+      <c r="K1" s="132"/>
+      <c r="L1" s="132"/>
+      <c r="M1" s="132"/>
+      <c r="N1" s="132"/>
+      <c r="O1" s="132"/>
+      <c r="P1" s="132"/>
+      <c r="Q1" s="132"/>
+      <c r="R1" s="132"/>
+      <c r="S1" s="132"/>
+      <c r="T1" s="132"/>
+      <c r="U1" s="132"/>
+      <c r="V1" s="132"/>
+      <c r="W1" s="132"/>
+      <c r="X1" s="132"/>
+      <c r="Y1" s="132"/>
+      <c r="Z1" s="132"/>
+      <c r="AA1" s="132"/>
+      <c r="AB1" s="132"/>
+      <c r="AC1" s="132"/>
+      <c r="AD1" s="132"/>
+      <c r="AE1" s="132"/>
+      <c r="AF1" s="132"/>
+      <c r="AG1" s="132"/>
     </row>
     <row r="2" spans="1:178" ht="12" customHeight="1">
       <c r="A2" s="117" t="s">
@@ -23612,10 +23650,10 @@
       <c r="AE5" s="83"/>
       <c r="AF5" s="83"/>
       <c r="AG5" s="83"/>
-      <c r="AH5" s="193"/>
-      <c r="AI5" s="193"/>
-      <c r="AJ5" s="193"/>
-      <c r="AK5" s="193"/>
+      <c r="AH5" s="195"/>
+      <c r="AI5" s="195"/>
+      <c r="AJ5" s="195"/>
+      <c r="AK5" s="195"/>
       <c r="AL5" s="84"/>
       <c r="AM5" s="84"/>
       <c r="AN5" s="84"/>
@@ -23936,12 +23974,12 @@
     </row>
     <row r="12" spans="1:178" ht="12.75" customHeight="1">
       <c r="A12" s="19"/>
-      <c r="B12" s="131"/>
-      <c r="C12" s="131"/>
-      <c r="D12" s="131"/>
-      <c r="E12" s="131"/>
-      <c r="F12" s="131"/>
-      <c r="G12" s="131"/>
+      <c r="B12" s="130"/>
+      <c r="C12" s="130"/>
+      <c r="D12" s="130"/>
+      <c r="E12" s="130"/>
+      <c r="F12" s="130"/>
+      <c r="G12" s="130"/>
       <c r="N12" s="50"/>
       <c r="P12" s="90"/>
       <c r="Q12" s="50"/>
@@ -23949,23 +23987,23 @@
       <c r="S12" s="50"/>
       <c r="T12" s="50"/>
       <c r="U12" s="50"/>
-      <c r="V12" s="131"/>
-      <c r="W12" s="192"/>
-      <c r="X12" s="192"/>
-      <c r="Y12" s="131"/>
-      <c r="Z12" s="192"/>
-      <c r="AA12" s="192"/>
-      <c r="AB12" s="192"/>
-      <c r="AC12" s="192"/>
-      <c r="AD12" s="192"/>
-      <c r="AE12" s="192"/>
+      <c r="V12" s="130"/>
+      <c r="W12" s="194"/>
+      <c r="X12" s="194"/>
+      <c r="Y12" s="130"/>
+      <c r="Z12" s="194"/>
+      <c r="AA12" s="194"/>
+      <c r="AB12" s="194"/>
+      <c r="AC12" s="194"/>
+      <c r="AD12" s="194"/>
+      <c r="AE12" s="194"/>
       <c r="AF12" s="50"/>
       <c r="AG12" s="24"/>
     </row>
     <row r="13" spans="1:178" ht="12.75" customHeight="1">
       <c r="A13" s="19"/>
-      <c r="B13" s="130"/>
-      <c r="C13" s="130"/>
+      <c r="B13" s="129"/>
+      <c r="C13" s="129"/>
       <c r="D13" s="50"/>
       <c r="E13" s="50"/>
       <c r="F13" s="50"/>
@@ -23982,9 +24020,9 @@
       <c r="S13" s="50"/>
       <c r="T13" s="50"/>
       <c r="U13" s="50"/>
-      <c r="V13" s="132"/>
-      <c r="W13" s="132"/>
-      <c r="X13" s="132"/>
+      <c r="V13" s="131"/>
+      <c r="W13" s="131"/>
+      <c r="X13" s="131"/>
       <c r="Y13" s="52"/>
       <c r="Z13" s="50"/>
       <c r="AA13" s="50"/>
@@ -24890,10 +24928,10 @@
       <c r="AE42" s="133"/>
       <c r="AF42" s="133"/>
       <c r="AG42" s="133"/>
-      <c r="AH42" s="194"/>
-      <c r="AI42" s="194"/>
-      <c r="AJ42" s="194"/>
-      <c r="AK42" s="194"/>
+      <c r="AH42" s="196"/>
+      <c r="AI42" s="196"/>
+      <c r="AJ42" s="196"/>
+      <c r="AK42" s="196"/>
       <c r="AL42" s="94"/>
       <c r="AM42" s="94"/>
       <c r="AN42" s="94"/>
@@ -25038,17 +25076,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="V13:X13"/>
-    <mergeCell ref="A42:AG42"/>
-    <mergeCell ref="AH42:AI42"/>
-    <mergeCell ref="AJ42:AK42"/>
-    <mergeCell ref="AH5:AI5"/>
-    <mergeCell ref="AJ5:AK5"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="V12:X12"/>
-    <mergeCell ref="Y12:AE12"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="G3:AC3"/>
     <mergeCell ref="AD3:AE3"/>
@@ -25058,6 +25085,17 @@
     <mergeCell ref="G2:AC2"/>
     <mergeCell ref="AD2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="AH5:AI5"/>
+    <mergeCell ref="AJ5:AK5"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="V12:X12"/>
+    <mergeCell ref="Y12:AE12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="V13:X13"/>
+    <mergeCell ref="A42:AG42"/>
+    <mergeCell ref="AH42:AI42"/>
+    <mergeCell ref="AJ42:AK42"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -25088,41 +25126,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:178" ht="12.75" customHeight="1">
-      <c r="A1" s="127" t="s">
+      <c r="A1" s="132" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="127"/>
-      <c r="F1" s="127"/>
-      <c r="G1" s="127"/>
-      <c r="H1" s="127"/>
-      <c r="I1" s="127"/>
-      <c r="J1" s="127"/>
-      <c r="K1" s="127"/>
-      <c r="L1" s="127"/>
-      <c r="M1" s="127"/>
-      <c r="N1" s="127"/>
-      <c r="O1" s="127"/>
-      <c r="P1" s="127"/>
-      <c r="Q1" s="127"/>
-      <c r="R1" s="127"/>
-      <c r="S1" s="127"/>
-      <c r="T1" s="127"/>
-      <c r="U1" s="127"/>
-      <c r="V1" s="127"/>
-      <c r="W1" s="127"/>
-      <c r="X1" s="127"/>
-      <c r="Y1" s="127"/>
-      <c r="Z1" s="127"/>
-      <c r="AA1" s="127"/>
-      <c r="AB1" s="127"/>
-      <c r="AC1" s="127"/>
-      <c r="AD1" s="127"/>
-      <c r="AE1" s="127"/>
-      <c r="AF1" s="127"/>
-      <c r="AG1" s="127"/>
+      <c r="B1" s="132"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
+      <c r="F1" s="132"/>
+      <c r="G1" s="132"/>
+      <c r="H1" s="132"/>
+      <c r="I1" s="132"/>
+      <c r="J1" s="132"/>
+      <c r="K1" s="132"/>
+      <c r="L1" s="132"/>
+      <c r="M1" s="132"/>
+      <c r="N1" s="132"/>
+      <c r="O1" s="132"/>
+      <c r="P1" s="132"/>
+      <c r="Q1" s="132"/>
+      <c r="R1" s="132"/>
+      <c r="S1" s="132"/>
+      <c r="T1" s="132"/>
+      <c r="U1" s="132"/>
+      <c r="V1" s="132"/>
+      <c r="W1" s="132"/>
+      <c r="X1" s="132"/>
+      <c r="Y1" s="132"/>
+      <c r="Z1" s="132"/>
+      <c r="AA1" s="132"/>
+      <c r="AB1" s="132"/>
+      <c r="AC1" s="132"/>
+      <c r="AD1" s="132"/>
+      <c r="AE1" s="132"/>
+      <c r="AF1" s="132"/>
+      <c r="AG1" s="132"/>
     </row>
     <row r="2" spans="1:178" ht="12" customHeight="1">
       <c r="A2" s="117" t="s">
@@ -25439,10 +25477,10 @@
       <c r="AE5" s="83"/>
       <c r="AF5" s="83"/>
       <c r="AG5" s="83"/>
-      <c r="AH5" s="193"/>
-      <c r="AI5" s="193"/>
-      <c r="AJ5" s="193"/>
-      <c r="AK5" s="193"/>
+      <c r="AH5" s="195"/>
+      <c r="AI5" s="195"/>
+      <c r="AJ5" s="195"/>
+      <c r="AK5" s="195"/>
       <c r="AL5" s="84"/>
       <c r="AM5" s="84"/>
       <c r="AN5" s="84"/>
@@ -25757,12 +25795,12 @@
     </row>
     <row r="12" spans="1:178" ht="12.75" customHeight="1">
       <c r="A12" s="19"/>
-      <c r="B12" s="131"/>
-      <c r="C12" s="131"/>
-      <c r="D12" s="131"/>
-      <c r="E12" s="131"/>
-      <c r="F12" s="131"/>
-      <c r="G12" s="131"/>
+      <c r="B12" s="130"/>
+      <c r="C12" s="130"/>
+      <c r="D12" s="130"/>
+      <c r="E12" s="130"/>
+      <c r="F12" s="130"/>
+      <c r="G12" s="130"/>
       <c r="N12" s="50"/>
       <c r="P12" s="90"/>
       <c r="Q12" s="50"/>
@@ -25770,23 +25808,23 @@
       <c r="S12" s="50"/>
       <c r="T12" s="50"/>
       <c r="U12" s="50"/>
-      <c r="V12" s="131"/>
-      <c r="W12" s="192"/>
-      <c r="X12" s="192"/>
-      <c r="Y12" s="131"/>
-      <c r="Z12" s="192"/>
-      <c r="AA12" s="192"/>
-      <c r="AB12" s="192"/>
-      <c r="AC12" s="192"/>
-      <c r="AD12" s="192"/>
-      <c r="AE12" s="192"/>
+      <c r="V12" s="130"/>
+      <c r="W12" s="194"/>
+      <c r="X12" s="194"/>
+      <c r="Y12" s="130"/>
+      <c r="Z12" s="194"/>
+      <c r="AA12" s="194"/>
+      <c r="AB12" s="194"/>
+      <c r="AC12" s="194"/>
+      <c r="AD12" s="194"/>
+      <c r="AE12" s="194"/>
       <c r="AF12" s="50"/>
       <c r="AG12" s="24"/>
     </row>
     <row r="13" spans="1:178" ht="12.75" customHeight="1">
       <c r="A13" s="19"/>
-      <c r="B13" s="130"/>
-      <c r="C13" s="130"/>
+      <c r="B13" s="129"/>
+      <c r="C13" s="129"/>
       <c r="D13" s="50"/>
       <c r="E13" s="50"/>
       <c r="F13" s="50"/>
@@ -25799,9 +25837,9 @@
       <c r="S13" s="50"/>
       <c r="T13" s="50"/>
       <c r="U13" s="50"/>
-      <c r="V13" s="132"/>
-      <c r="W13" s="132"/>
-      <c r="X13" s="132"/>
+      <c r="V13" s="131"/>
+      <c r="W13" s="131"/>
+      <c r="X13" s="131"/>
       <c r="Y13" s="52"/>
       <c r="Z13" s="50"/>
       <c r="AA13" s="50"/>
@@ -26671,10 +26709,10 @@
       <c r="AE42" s="133"/>
       <c r="AF42" s="133"/>
       <c r="AG42" s="133"/>
-      <c r="AH42" s="194"/>
-      <c r="AI42" s="194"/>
-      <c r="AJ42" s="194"/>
-      <c r="AK42" s="194"/>
+      <c r="AH42" s="196"/>
+      <c r="AI42" s="196"/>
+      <c r="AJ42" s="196"/>
+      <c r="AK42" s="196"/>
       <c r="AL42" s="94"/>
       <c r="AM42" s="94"/>
       <c r="AN42" s="94"/>
@@ -26819,17 +26857,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="V13:X13"/>
-    <mergeCell ref="A42:AG42"/>
-    <mergeCell ref="AH42:AI42"/>
-    <mergeCell ref="AJ42:AK42"/>
-    <mergeCell ref="AH5:AI5"/>
-    <mergeCell ref="AJ5:AK5"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="V12:X12"/>
-    <mergeCell ref="Y12:AE12"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="G3:AC3"/>
     <mergeCell ref="AD3:AE3"/>
@@ -26839,6 +26866,17 @@
     <mergeCell ref="G2:AC2"/>
     <mergeCell ref="AD2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="AH5:AI5"/>
+    <mergeCell ref="AJ5:AK5"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="V12:X12"/>
+    <mergeCell ref="Y12:AE12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="V13:X13"/>
+    <mergeCell ref="A42:AG42"/>
+    <mergeCell ref="AH42:AI42"/>
+    <mergeCell ref="AJ42:AK42"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -26869,41 +26907,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:178" ht="12.75" customHeight="1">
-      <c r="A1" s="127" t="s">
+      <c r="A1" s="132" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="127"/>
-      <c r="F1" s="127"/>
-      <c r="G1" s="127"/>
-      <c r="H1" s="127"/>
-      <c r="I1" s="127"/>
-      <c r="J1" s="127"/>
-      <c r="K1" s="127"/>
-      <c r="L1" s="127"/>
-      <c r="M1" s="127"/>
-      <c r="N1" s="127"/>
-      <c r="O1" s="127"/>
-      <c r="P1" s="127"/>
-      <c r="Q1" s="127"/>
-      <c r="R1" s="127"/>
-      <c r="S1" s="127"/>
-      <c r="T1" s="127"/>
-      <c r="U1" s="127"/>
-      <c r="V1" s="127"/>
-      <c r="W1" s="127"/>
-      <c r="X1" s="127"/>
-      <c r="Y1" s="127"/>
-      <c r="Z1" s="127"/>
-      <c r="AA1" s="127"/>
-      <c r="AB1" s="127"/>
-      <c r="AC1" s="127"/>
-      <c r="AD1" s="127"/>
-      <c r="AE1" s="127"/>
-      <c r="AF1" s="127"/>
-      <c r="AG1" s="127"/>
+      <c r="B1" s="132"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
+      <c r="F1" s="132"/>
+      <c r="G1" s="132"/>
+      <c r="H1" s="132"/>
+      <c r="I1" s="132"/>
+      <c r="J1" s="132"/>
+      <c r="K1" s="132"/>
+      <c r="L1" s="132"/>
+      <c r="M1" s="132"/>
+      <c r="N1" s="132"/>
+      <c r="O1" s="132"/>
+      <c r="P1" s="132"/>
+      <c r="Q1" s="132"/>
+      <c r="R1" s="132"/>
+      <c r="S1" s="132"/>
+      <c r="T1" s="132"/>
+      <c r="U1" s="132"/>
+      <c r="V1" s="132"/>
+      <c r="W1" s="132"/>
+      <c r="X1" s="132"/>
+      <c r="Y1" s="132"/>
+      <c r="Z1" s="132"/>
+      <c r="AA1" s="132"/>
+      <c r="AB1" s="132"/>
+      <c r="AC1" s="132"/>
+      <c r="AD1" s="132"/>
+      <c r="AE1" s="132"/>
+      <c r="AF1" s="132"/>
+      <c r="AG1" s="132"/>
     </row>
     <row r="2" spans="1:178" ht="12" customHeight="1">
       <c r="A2" s="117" t="s">
@@ -27220,10 +27258,10 @@
       <c r="AE5" s="83"/>
       <c r="AF5" s="83"/>
       <c r="AG5" s="83"/>
-      <c r="AH5" s="193"/>
-      <c r="AI5" s="193"/>
-      <c r="AJ5" s="193"/>
-      <c r="AK5" s="193"/>
+      <c r="AH5" s="195"/>
+      <c r="AI5" s="195"/>
+      <c r="AJ5" s="195"/>
+      <c r="AK5" s="195"/>
       <c r="AL5" s="84"/>
       <c r="AM5" s="84"/>
       <c r="AN5" s="84"/>
@@ -27544,12 +27582,12 @@
     </row>
     <row r="12" spans="1:178" ht="12.75" customHeight="1">
       <c r="A12" s="19"/>
-      <c r="B12" s="131"/>
-      <c r="C12" s="131"/>
-      <c r="D12" s="131"/>
-      <c r="E12" s="131"/>
-      <c r="F12" s="131"/>
-      <c r="G12" s="131"/>
+      <c r="B12" s="130"/>
+      <c r="C12" s="130"/>
+      <c r="D12" s="130"/>
+      <c r="E12" s="130"/>
+      <c r="F12" s="130"/>
+      <c r="G12" s="130"/>
       <c r="N12" s="50"/>
       <c r="P12" s="90"/>
       <c r="Q12" s="50"/>
@@ -27557,23 +27595,23 @@
       <c r="S12" s="50"/>
       <c r="T12" s="50"/>
       <c r="U12" s="50"/>
-      <c r="V12" s="131"/>
-      <c r="W12" s="192"/>
-      <c r="X12" s="192"/>
-      <c r="Y12" s="131"/>
-      <c r="Z12" s="192"/>
-      <c r="AA12" s="192"/>
-      <c r="AB12" s="192"/>
-      <c r="AC12" s="192"/>
-      <c r="AD12" s="192"/>
-      <c r="AE12" s="192"/>
+      <c r="V12" s="130"/>
+      <c r="W12" s="194"/>
+      <c r="X12" s="194"/>
+      <c r="Y12" s="130"/>
+      <c r="Z12" s="194"/>
+      <c r="AA12" s="194"/>
+      <c r="AB12" s="194"/>
+      <c r="AC12" s="194"/>
+      <c r="AD12" s="194"/>
+      <c r="AE12" s="194"/>
       <c r="AF12" s="50"/>
       <c r="AG12" s="24"/>
     </row>
     <row r="13" spans="1:178" ht="12.75" customHeight="1">
       <c r="A13" s="19"/>
-      <c r="B13" s="130"/>
-      <c r="C13" s="130"/>
+      <c r="B13" s="129"/>
+      <c r="C13" s="129"/>
       <c r="D13" s="50"/>
       <c r="E13" s="50"/>
       <c r="F13" s="50"/>
@@ -27590,9 +27628,9 @@
       <c r="S13" s="50"/>
       <c r="T13" s="50"/>
       <c r="U13" s="50"/>
-      <c r="V13" s="132"/>
-      <c r="W13" s="132"/>
-      <c r="X13" s="132"/>
+      <c r="V13" s="131"/>
+      <c r="W13" s="131"/>
+      <c r="X13" s="131"/>
       <c r="Y13" s="52"/>
       <c r="Z13" s="50"/>
       <c r="AA13" s="50"/>
@@ -28498,10 +28536,10 @@
       <c r="AE42" s="133"/>
       <c r="AF42" s="133"/>
       <c r="AG42" s="133"/>
-      <c r="AH42" s="194"/>
-      <c r="AI42" s="194"/>
-      <c r="AJ42" s="194"/>
-      <c r="AK42" s="194"/>
+      <c r="AH42" s="196"/>
+      <c r="AI42" s="196"/>
+      <c r="AJ42" s="196"/>
+      <c r="AK42" s="196"/>
       <c r="AL42" s="94"/>
       <c r="AM42" s="94"/>
       <c r="AN42" s="94"/>
@@ -28646,17 +28684,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="V13:X13"/>
-    <mergeCell ref="A42:AG42"/>
-    <mergeCell ref="AH42:AI42"/>
-    <mergeCell ref="AJ42:AK42"/>
-    <mergeCell ref="AH5:AI5"/>
-    <mergeCell ref="AJ5:AK5"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="V12:X12"/>
-    <mergeCell ref="Y12:AE12"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="G3:AC3"/>
     <mergeCell ref="AD3:AE3"/>
@@ -28666,6 +28693,17 @@
     <mergeCell ref="G2:AC2"/>
     <mergeCell ref="AD2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="AH5:AI5"/>
+    <mergeCell ref="AJ5:AK5"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="V12:X12"/>
+    <mergeCell ref="Y12:AE12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="V13:X13"/>
+    <mergeCell ref="A42:AG42"/>
+    <mergeCell ref="AH42:AI42"/>
+    <mergeCell ref="AJ42:AK42"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -28696,41 +28734,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:178" ht="12.75" customHeight="1">
-      <c r="A1" s="127" t="s">
+      <c r="A1" s="132" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="127"/>
-      <c r="F1" s="127"/>
-      <c r="G1" s="127"/>
-      <c r="H1" s="127"/>
-      <c r="I1" s="127"/>
-      <c r="J1" s="127"/>
-      <c r="K1" s="127"/>
-      <c r="L1" s="127"/>
-      <c r="M1" s="127"/>
-      <c r="N1" s="127"/>
-      <c r="O1" s="127"/>
-      <c r="P1" s="127"/>
-      <c r="Q1" s="127"/>
-      <c r="R1" s="127"/>
-      <c r="S1" s="127"/>
-      <c r="T1" s="127"/>
-      <c r="U1" s="127"/>
-      <c r="V1" s="127"/>
-      <c r="W1" s="127"/>
-      <c r="X1" s="127"/>
-      <c r="Y1" s="127"/>
-      <c r="Z1" s="127"/>
-      <c r="AA1" s="127"/>
-      <c r="AB1" s="127"/>
-      <c r="AC1" s="127"/>
-      <c r="AD1" s="127"/>
-      <c r="AE1" s="127"/>
-      <c r="AF1" s="127"/>
-      <c r="AG1" s="127"/>
+      <c r="B1" s="132"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
+      <c r="F1" s="132"/>
+      <c r="G1" s="132"/>
+      <c r="H1" s="132"/>
+      <c r="I1" s="132"/>
+      <c r="J1" s="132"/>
+      <c r="K1" s="132"/>
+      <c r="L1" s="132"/>
+      <c r="M1" s="132"/>
+      <c r="N1" s="132"/>
+      <c r="O1" s="132"/>
+      <c r="P1" s="132"/>
+      <c r="Q1" s="132"/>
+      <c r="R1" s="132"/>
+      <c r="S1" s="132"/>
+      <c r="T1" s="132"/>
+      <c r="U1" s="132"/>
+      <c r="V1" s="132"/>
+      <c r="W1" s="132"/>
+      <c r="X1" s="132"/>
+      <c r="Y1" s="132"/>
+      <c r="Z1" s="132"/>
+      <c r="AA1" s="132"/>
+      <c r="AB1" s="132"/>
+      <c r="AC1" s="132"/>
+      <c r="AD1" s="132"/>
+      <c r="AE1" s="132"/>
+      <c r="AF1" s="132"/>
+      <c r="AG1" s="132"/>
     </row>
     <row r="2" spans="1:178" ht="12" customHeight="1">
       <c r="A2" s="117" t="s">
@@ -29047,10 +29085,10 @@
       <c r="AE5" s="83"/>
       <c r="AF5" s="83"/>
       <c r="AG5" s="83"/>
-      <c r="AH5" s="193"/>
-      <c r="AI5" s="193"/>
-      <c r="AJ5" s="193"/>
-      <c r="AK5" s="193"/>
+      <c r="AH5" s="195"/>
+      <c r="AI5" s="195"/>
+      <c r="AJ5" s="195"/>
+      <c r="AK5" s="195"/>
       <c r="AL5" s="84"/>
       <c r="AM5" s="84"/>
       <c r="AN5" s="84"/>
@@ -29377,12 +29415,12 @@
     </row>
     <row r="12" spans="1:178" ht="12.75" customHeight="1">
       <c r="A12" s="19"/>
-      <c r="B12" s="131"/>
-      <c r="C12" s="131"/>
-      <c r="D12" s="131"/>
-      <c r="E12" s="131"/>
-      <c r="F12" s="131"/>
-      <c r="G12" s="131"/>
+      <c r="B12" s="130"/>
+      <c r="C12" s="130"/>
+      <c r="D12" s="130"/>
+      <c r="E12" s="130"/>
+      <c r="F12" s="130"/>
+      <c r="G12" s="130"/>
       <c r="N12" s="50"/>
       <c r="P12" s="90"/>
       <c r="Q12" s="50"/>
@@ -29390,23 +29428,23 @@
       <c r="S12" s="50"/>
       <c r="T12" s="50"/>
       <c r="U12" s="50"/>
-      <c r="V12" s="131"/>
-      <c r="W12" s="192"/>
-      <c r="X12" s="192"/>
-      <c r="Y12" s="131"/>
-      <c r="Z12" s="192"/>
-      <c r="AA12" s="192"/>
-      <c r="AB12" s="192"/>
-      <c r="AC12" s="192"/>
-      <c r="AD12" s="192"/>
-      <c r="AE12" s="192"/>
+      <c r="V12" s="130"/>
+      <c r="W12" s="194"/>
+      <c r="X12" s="194"/>
+      <c r="Y12" s="130"/>
+      <c r="Z12" s="194"/>
+      <c r="AA12" s="194"/>
+      <c r="AB12" s="194"/>
+      <c r="AC12" s="194"/>
+      <c r="AD12" s="194"/>
+      <c r="AE12" s="194"/>
       <c r="AF12" s="50"/>
       <c r="AG12" s="24"/>
     </row>
     <row r="13" spans="1:178" ht="12.75" customHeight="1">
       <c r="A13" s="19"/>
-      <c r="B13" s="130"/>
-      <c r="C13" s="130"/>
+      <c r="B13" s="129"/>
+      <c r="C13" s="129"/>
       <c r="D13" s="50"/>
       <c r="E13" s="50"/>
       <c r="F13" s="50"/>
@@ -29419,9 +29457,9 @@
       <c r="S13" s="50"/>
       <c r="T13" s="50"/>
       <c r="U13" s="50"/>
-      <c r="V13" s="132"/>
-      <c r="W13" s="132"/>
-      <c r="X13" s="132"/>
+      <c r="V13" s="131"/>
+      <c r="W13" s="131"/>
+      <c r="X13" s="131"/>
       <c r="Y13" s="52"/>
       <c r="Z13" s="50"/>
       <c r="AA13" s="50"/>
@@ -30291,10 +30329,10 @@
       <c r="AE42" s="133"/>
       <c r="AF42" s="133"/>
       <c r="AG42" s="133"/>
-      <c r="AH42" s="194"/>
-      <c r="AI42" s="194"/>
-      <c r="AJ42" s="194"/>
-      <c r="AK42" s="194"/>
+      <c r="AH42" s="196"/>
+      <c r="AI42" s="196"/>
+      <c r="AJ42" s="196"/>
+      <c r="AK42" s="196"/>
       <c r="AL42" s="94"/>
       <c r="AM42" s="94"/>
       <c r="AN42" s="94"/>
@@ -30439,18 +30477,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="V13:X13"/>
-    <mergeCell ref="A42:AG42"/>
-    <mergeCell ref="AH42:AI42"/>
-    <mergeCell ref="AJ42:AK42"/>
-    <mergeCell ref="I9:W10"/>
-    <mergeCell ref="AH5:AI5"/>
-    <mergeCell ref="AJ5:AK5"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="V12:X12"/>
-    <mergeCell ref="Y12:AE12"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="G3:AC3"/>
     <mergeCell ref="AD3:AE3"/>
@@ -30460,6 +30486,18 @@
     <mergeCell ref="G2:AC2"/>
     <mergeCell ref="AD2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="I9:W10"/>
+    <mergeCell ref="AH5:AI5"/>
+    <mergeCell ref="AJ5:AK5"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="V12:X12"/>
+    <mergeCell ref="Y12:AE12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="V13:X13"/>
+    <mergeCell ref="A42:AG42"/>
+    <mergeCell ref="AH42:AI42"/>
+    <mergeCell ref="AJ42:AK42"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -30490,41 +30528,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:178" ht="12.75" customHeight="1">
-      <c r="A1" s="127" t="s">
+      <c r="A1" s="132" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="127"/>
-      <c r="F1" s="127"/>
-      <c r="G1" s="127"/>
-      <c r="H1" s="127"/>
-      <c r="I1" s="127"/>
-      <c r="J1" s="127"/>
-      <c r="K1" s="127"/>
-      <c r="L1" s="127"/>
-      <c r="M1" s="127"/>
-      <c r="N1" s="127"/>
-      <c r="O1" s="127"/>
-      <c r="P1" s="127"/>
-      <c r="Q1" s="127"/>
-      <c r="R1" s="127"/>
-      <c r="S1" s="127"/>
-      <c r="T1" s="127"/>
-      <c r="U1" s="127"/>
-      <c r="V1" s="127"/>
-      <c r="W1" s="127"/>
-      <c r="X1" s="127"/>
-      <c r="Y1" s="127"/>
-      <c r="Z1" s="127"/>
-      <c r="AA1" s="127"/>
-      <c r="AB1" s="127"/>
-      <c r="AC1" s="127"/>
-      <c r="AD1" s="127"/>
-      <c r="AE1" s="127"/>
-      <c r="AF1" s="127"/>
-      <c r="AG1" s="127"/>
+      <c r="B1" s="132"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
+      <c r="F1" s="132"/>
+      <c r="G1" s="132"/>
+      <c r="H1" s="132"/>
+      <c r="I1" s="132"/>
+      <c r="J1" s="132"/>
+      <c r="K1" s="132"/>
+      <c r="L1" s="132"/>
+      <c r="M1" s="132"/>
+      <c r="N1" s="132"/>
+      <c r="O1" s="132"/>
+      <c r="P1" s="132"/>
+      <c r="Q1" s="132"/>
+      <c r="R1" s="132"/>
+      <c r="S1" s="132"/>
+      <c r="T1" s="132"/>
+      <c r="U1" s="132"/>
+      <c r="V1" s="132"/>
+      <c r="W1" s="132"/>
+      <c r="X1" s="132"/>
+      <c r="Y1" s="132"/>
+      <c r="Z1" s="132"/>
+      <c r="AA1" s="132"/>
+      <c r="AB1" s="132"/>
+      <c r="AC1" s="132"/>
+      <c r="AD1" s="132"/>
+      <c r="AE1" s="132"/>
+      <c r="AF1" s="132"/>
+      <c r="AG1" s="132"/>
     </row>
     <row r="2" spans="1:178" ht="12" customHeight="1">
       <c r="A2" s="117" t="s">
@@ -30841,10 +30879,10 @@
       <c r="AE5" s="83"/>
       <c r="AF5" s="83"/>
       <c r="AG5" s="83"/>
-      <c r="AH5" s="193"/>
-      <c r="AI5" s="193"/>
-      <c r="AJ5" s="193"/>
-      <c r="AK5" s="193"/>
+      <c r="AH5" s="195"/>
+      <c r="AI5" s="195"/>
+      <c r="AJ5" s="195"/>
+      <c r="AK5" s="195"/>
       <c r="AL5" s="84"/>
       <c r="AM5" s="84"/>
       <c r="AN5" s="84"/>
@@ -31171,12 +31209,12 @@
     </row>
     <row r="12" spans="1:178" ht="12.75" customHeight="1">
       <c r="A12" s="19"/>
-      <c r="B12" s="131"/>
-      <c r="C12" s="131"/>
-      <c r="D12" s="131"/>
-      <c r="E12" s="131"/>
-      <c r="F12" s="131"/>
-      <c r="G12" s="131"/>
+      <c r="B12" s="130"/>
+      <c r="C12" s="130"/>
+      <c r="D12" s="130"/>
+      <c r="E12" s="130"/>
+      <c r="F12" s="130"/>
+      <c r="G12" s="130"/>
       <c r="N12" s="50"/>
       <c r="P12" s="90"/>
       <c r="Q12" s="50"/>
@@ -31184,23 +31222,23 @@
       <c r="S12" s="50"/>
       <c r="T12" s="50"/>
       <c r="U12" s="50"/>
-      <c r="V12" s="131"/>
-      <c r="W12" s="192"/>
-      <c r="X12" s="192"/>
-      <c r="Y12" s="131"/>
-      <c r="Z12" s="192"/>
-      <c r="AA12" s="192"/>
-      <c r="AB12" s="192"/>
-      <c r="AC12" s="192"/>
-      <c r="AD12" s="192"/>
-      <c r="AE12" s="192"/>
+      <c r="V12" s="130"/>
+      <c r="W12" s="194"/>
+      <c r="X12" s="194"/>
+      <c r="Y12" s="130"/>
+      <c r="Z12" s="194"/>
+      <c r="AA12" s="194"/>
+      <c r="AB12" s="194"/>
+      <c r="AC12" s="194"/>
+      <c r="AD12" s="194"/>
+      <c r="AE12" s="194"/>
       <c r="AF12" s="50"/>
       <c r="AG12" s="24"/>
     </row>
     <row r="13" spans="1:178" ht="12.75" customHeight="1">
       <c r="A13" s="19"/>
-      <c r="B13" s="130"/>
-      <c r="C13" s="130"/>
+      <c r="B13" s="129"/>
+      <c r="C13" s="129"/>
       <c r="D13" s="50"/>
       <c r="E13" s="50"/>
       <c r="F13" s="50"/>
@@ -31213,9 +31251,9 @@
       <c r="S13" s="50"/>
       <c r="T13" s="50"/>
       <c r="U13" s="50"/>
-      <c r="V13" s="132"/>
-      <c r="W13" s="132"/>
-      <c r="X13" s="132"/>
+      <c r="V13" s="131"/>
+      <c r="W13" s="131"/>
+      <c r="X13" s="131"/>
       <c r="Y13" s="52"/>
       <c r="Z13" s="50"/>
       <c r="AA13" s="50"/>
@@ -32085,10 +32123,10 @@
       <c r="AE42" s="133"/>
       <c r="AF42" s="133"/>
       <c r="AG42" s="133"/>
-      <c r="AH42" s="194"/>
-      <c r="AI42" s="194"/>
-      <c r="AJ42" s="194"/>
-      <c r="AK42" s="194"/>
+      <c r="AH42" s="196"/>
+      <c r="AI42" s="196"/>
+      <c r="AJ42" s="196"/>
+      <c r="AK42" s="196"/>
       <c r="AL42" s="94"/>
       <c r="AM42" s="94"/>
       <c r="AN42" s="94"/>
@@ -32233,18 +32271,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="V13:X13"/>
-    <mergeCell ref="A42:AG42"/>
-    <mergeCell ref="AH42:AI42"/>
-    <mergeCell ref="AJ42:AK42"/>
-    <mergeCell ref="AH5:AI5"/>
-    <mergeCell ref="AJ5:AK5"/>
-    <mergeCell ref="I9:W10"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="V12:X12"/>
-    <mergeCell ref="Y12:AE12"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="G3:AC3"/>
     <mergeCell ref="AD3:AE3"/>
@@ -32254,6 +32280,18 @@
     <mergeCell ref="G2:AC2"/>
     <mergeCell ref="AD2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="AH5:AI5"/>
+    <mergeCell ref="AJ5:AK5"/>
+    <mergeCell ref="I9:W10"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="V12:X12"/>
+    <mergeCell ref="Y12:AE12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="V13:X13"/>
+    <mergeCell ref="A42:AG42"/>
+    <mergeCell ref="AH42:AI42"/>
+    <mergeCell ref="AJ42:AK42"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -33839,41 +33877,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:178" ht="12.75" customHeight="1">
-      <c r="A1" s="127" t="s">
+      <c r="A1" s="132" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="127"/>
-      <c r="F1" s="127"/>
-      <c r="G1" s="127"/>
-      <c r="H1" s="127"/>
-      <c r="I1" s="127"/>
-      <c r="J1" s="127"/>
-      <c r="K1" s="127"/>
-      <c r="L1" s="127"/>
-      <c r="M1" s="127"/>
-      <c r="N1" s="127"/>
-      <c r="O1" s="127"/>
-      <c r="P1" s="127"/>
-      <c r="Q1" s="127"/>
-      <c r="R1" s="127"/>
-      <c r="S1" s="127"/>
-      <c r="T1" s="127"/>
-      <c r="U1" s="127"/>
-      <c r="V1" s="127"/>
-      <c r="W1" s="127"/>
-      <c r="X1" s="127"/>
-      <c r="Y1" s="127"/>
-      <c r="Z1" s="127"/>
-      <c r="AA1" s="127"/>
-      <c r="AB1" s="127"/>
-      <c r="AC1" s="127"/>
-      <c r="AD1" s="127"/>
-      <c r="AE1" s="127"/>
-      <c r="AF1" s="127"/>
-      <c r="AG1" s="127"/>
+      <c r="B1" s="132"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
+      <c r="F1" s="132"/>
+      <c r="G1" s="132"/>
+      <c r="H1" s="132"/>
+      <c r="I1" s="132"/>
+      <c r="J1" s="132"/>
+      <c r="K1" s="132"/>
+      <c r="L1" s="132"/>
+      <c r="M1" s="132"/>
+      <c r="N1" s="132"/>
+      <c r="O1" s="132"/>
+      <c r="P1" s="132"/>
+      <c r="Q1" s="132"/>
+      <c r="R1" s="132"/>
+      <c r="S1" s="132"/>
+      <c r="T1" s="132"/>
+      <c r="U1" s="132"/>
+      <c r="V1" s="132"/>
+      <c r="W1" s="132"/>
+      <c r="X1" s="132"/>
+      <c r="Y1" s="132"/>
+      <c r="Z1" s="132"/>
+      <c r="AA1" s="132"/>
+      <c r="AB1" s="132"/>
+      <c r="AC1" s="132"/>
+      <c r="AD1" s="132"/>
+      <c r="AE1" s="132"/>
+      <c r="AF1" s="132"/>
+      <c r="AG1" s="132"/>
     </row>
     <row r="2" spans="1:178" ht="12" customHeight="1">
       <c r="A2" s="117" t="s">
@@ -34190,10 +34228,10 @@
       <c r="AE5" s="83"/>
       <c r="AF5" s="83"/>
       <c r="AG5" s="83"/>
-      <c r="AH5" s="193"/>
-      <c r="AI5" s="193"/>
-      <c r="AJ5" s="193"/>
-      <c r="AK5" s="193"/>
+      <c r="AH5" s="195"/>
+      <c r="AI5" s="195"/>
+      <c r="AJ5" s="195"/>
+      <c r="AK5" s="195"/>
       <c r="AL5" s="84"/>
       <c r="AM5" s="84"/>
       <c r="AN5" s="84"/>
@@ -34526,12 +34564,12 @@
     </row>
     <row r="12" spans="1:178" ht="12.75" customHeight="1">
       <c r="A12" s="19"/>
-      <c r="B12" s="131"/>
-      <c r="C12" s="131"/>
-      <c r="D12" s="131"/>
-      <c r="E12" s="131"/>
-      <c r="F12" s="131"/>
-      <c r="G12" s="131"/>
+      <c r="B12" s="130"/>
+      <c r="C12" s="130"/>
+      <c r="D12" s="130"/>
+      <c r="E12" s="130"/>
+      <c r="F12" s="130"/>
+      <c r="G12" s="130"/>
       <c r="N12" s="50"/>
       <c r="P12" s="90"/>
       <c r="Q12" s="50"/>
@@ -34539,23 +34577,23 @@
       <c r="S12" s="50"/>
       <c r="T12" s="50"/>
       <c r="U12" s="50"/>
-      <c r="V12" s="131"/>
-      <c r="W12" s="192"/>
-      <c r="X12" s="192"/>
-      <c r="Y12" s="131"/>
-      <c r="Z12" s="192"/>
-      <c r="AA12" s="192"/>
-      <c r="AB12" s="192"/>
-      <c r="AC12" s="192"/>
-      <c r="AD12" s="192"/>
-      <c r="AE12" s="192"/>
+      <c r="V12" s="130"/>
+      <c r="W12" s="194"/>
+      <c r="X12" s="194"/>
+      <c r="Y12" s="130"/>
+      <c r="Z12" s="194"/>
+      <c r="AA12" s="194"/>
+      <c r="AB12" s="194"/>
+      <c r="AC12" s="194"/>
+      <c r="AD12" s="194"/>
+      <c r="AE12" s="194"/>
       <c r="AF12" s="50"/>
       <c r="AG12" s="24"/>
     </row>
     <row r="13" spans="1:178" ht="12.75" customHeight="1">
       <c r="A13" s="19"/>
-      <c r="B13" s="130"/>
-      <c r="C13" s="130"/>
+      <c r="B13" s="129"/>
+      <c r="C13" s="129"/>
       <c r="D13" s="50"/>
       <c r="E13" s="50"/>
       <c r="F13" s="50"/>
@@ -34568,9 +34606,9 @@
       <c r="S13" s="50"/>
       <c r="T13" s="50"/>
       <c r="U13" s="50"/>
-      <c r="V13" s="132"/>
-      <c r="W13" s="132"/>
-      <c r="X13" s="132"/>
+      <c r="V13" s="131"/>
+      <c r="W13" s="131"/>
+      <c r="X13" s="131"/>
       <c r="Y13" s="52"/>
       <c r="Z13" s="50"/>
       <c r="AA13" s="50"/>
@@ -35440,10 +35478,10 @@
       <c r="AE42" s="133"/>
       <c r="AF42" s="133"/>
       <c r="AG42" s="133"/>
-      <c r="AH42" s="194"/>
-      <c r="AI42" s="194"/>
-      <c r="AJ42" s="194"/>
-      <c r="AK42" s="194"/>
+      <c r="AH42" s="196"/>
+      <c r="AI42" s="196"/>
+      <c r="AJ42" s="196"/>
+      <c r="AK42" s="196"/>
       <c r="AL42" s="94"/>
       <c r="AM42" s="94"/>
       <c r="AN42" s="94"/>
@@ -35588,18 +35626,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="V13:X13"/>
-    <mergeCell ref="A42:AG42"/>
-    <mergeCell ref="AH42:AI42"/>
-    <mergeCell ref="AJ42:AK42"/>
-    <mergeCell ref="D9:AC10"/>
-    <mergeCell ref="AH5:AI5"/>
-    <mergeCell ref="AJ5:AK5"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="V12:X12"/>
-    <mergeCell ref="Y12:AE12"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="G3:AC3"/>
     <mergeCell ref="AD3:AE3"/>
@@ -35609,6 +35635,18 @@
     <mergeCell ref="G2:AC2"/>
     <mergeCell ref="AD2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="D9:AC10"/>
+    <mergeCell ref="AH5:AI5"/>
+    <mergeCell ref="AJ5:AK5"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="V12:X12"/>
+    <mergeCell ref="Y12:AE12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="V13:X13"/>
+    <mergeCell ref="A42:AG42"/>
+    <mergeCell ref="AH42:AI42"/>
+    <mergeCell ref="AJ42:AK42"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -39344,10 +39382,10 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:FU80"/>
+  <dimension ref="A1:FU117"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A57" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A81" sqref="A81:XFD84"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A95" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G118" sqref="G118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
@@ -39360,41 +39398,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A1" s="152" t="s">
+      <c r="A1" s="149" t="s">
         <v>166</v>
       </c>
-      <c r="B1" s="153"/>
-      <c r="C1" s="153"/>
-      <c r="D1" s="153"/>
-      <c r="E1" s="153"/>
-      <c r="F1" s="153"/>
-      <c r="G1" s="153"/>
-      <c r="H1" s="153"/>
-      <c r="I1" s="153"/>
-      <c r="J1" s="153"/>
-      <c r="K1" s="153"/>
-      <c r="L1" s="153"/>
-      <c r="M1" s="153"/>
-      <c r="N1" s="153"/>
-      <c r="O1" s="153"/>
-      <c r="P1" s="153"/>
-      <c r="Q1" s="153"/>
-      <c r="R1" s="153"/>
-      <c r="S1" s="153"/>
-      <c r="T1" s="153"/>
-      <c r="U1" s="153"/>
-      <c r="V1" s="153"/>
-      <c r="W1" s="153"/>
-      <c r="X1" s="153"/>
-      <c r="Y1" s="153"/>
-      <c r="Z1" s="153"/>
-      <c r="AA1" s="153"/>
-      <c r="AB1" s="153"/>
-      <c r="AC1" s="153"/>
-      <c r="AD1" s="153"/>
-      <c r="AE1" s="153"/>
-      <c r="AF1" s="153"/>
-      <c r="AG1" s="154"/>
+      <c r="B1" s="150"/>
+      <c r="C1" s="150"/>
+      <c r="D1" s="150"/>
+      <c r="E1" s="150"/>
+      <c r="F1" s="150"/>
+      <c r="G1" s="150"/>
+      <c r="H1" s="150"/>
+      <c r="I1" s="150"/>
+      <c r="J1" s="150"/>
+      <c r="K1" s="150"/>
+      <c r="L1" s="150"/>
+      <c r="M1" s="150"/>
+      <c r="N1" s="150"/>
+      <c r="O1" s="150"/>
+      <c r="P1" s="150"/>
+      <c r="Q1" s="150"/>
+      <c r="R1" s="150"/>
+      <c r="S1" s="150"/>
+      <c r="T1" s="150"/>
+      <c r="U1" s="150"/>
+      <c r="V1" s="150"/>
+      <c r="W1" s="150"/>
+      <c r="X1" s="150"/>
+      <c r="Y1" s="150"/>
+      <c r="Z1" s="150"/>
+      <c r="AA1" s="150"/>
+      <c r="AB1" s="150"/>
+      <c r="AC1" s="150"/>
+      <c r="AD1" s="150"/>
+      <c r="AE1" s="150"/>
+      <c r="AF1" s="150"/>
+      <c r="AG1" s="151"/>
     </row>
     <row r="2" spans="1:177" s="12" customFormat="1" ht="12">
       <c r="A2" s="117" t="s">
@@ -40124,88 +40162,80 @@
       <c r="AG16" s="31"/>
     </row>
     <row r="17" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A17" s="152" t="s">
+      <c r="A17" s="29"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="30"/>
+      <c r="O17" s="30"/>
+      <c r="P17" s="30"/>
+      <c r="Q17" s="30"/>
+      <c r="R17" s="30"/>
+      <c r="S17" s="30"/>
+      <c r="T17" s="30"/>
+      <c r="U17" s="30"/>
+      <c r="V17" s="30"/>
+      <c r="W17" s="30"/>
+      <c r="X17" s="30"/>
+      <c r="Y17" s="30"/>
+      <c r="Z17" s="30"/>
+      <c r="AA17" s="30"/>
+      <c r="AB17" s="30"/>
+      <c r="AC17" s="30"/>
+      <c r="AD17" s="30"/>
+      <c r="AE17" s="30"/>
+      <c r="AF17" s="30"/>
+      <c r="AG17" s="31"/>
+    </row>
+    <row r="18" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A18" s="149" t="s">
         <v>166</v>
       </c>
-      <c r="B17" s="153"/>
-      <c r="C17" s="153"/>
-      <c r="D17" s="153"/>
-      <c r="E17" s="153"/>
-      <c r="F17" s="153"/>
-      <c r="G17" s="153"/>
-      <c r="H17" s="153"/>
-      <c r="I17" s="153"/>
-      <c r="J17" s="153"/>
-      <c r="K17" s="153"/>
-      <c r="L17" s="153"/>
-      <c r="M17" s="153"/>
-      <c r="N17" s="153"/>
-      <c r="O17" s="153"/>
-      <c r="P17" s="153"/>
-      <c r="Q17" s="153"/>
-      <c r="R17" s="153"/>
-      <c r="S17" s="153"/>
-      <c r="T17" s="153"/>
-      <c r="U17" s="153"/>
-      <c r="V17" s="153"/>
-      <c r="W17" s="153"/>
-      <c r="X17" s="153"/>
-      <c r="Y17" s="153"/>
-      <c r="Z17" s="153"/>
-      <c r="AA17" s="153"/>
-      <c r="AB17" s="153"/>
-      <c r="AC17" s="153"/>
-      <c r="AD17" s="153"/>
-      <c r="AE17" s="153"/>
-      <c r="AF17" s="153"/>
-      <c r="AG17" s="154"/>
-    </row>
-    <row r="18" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A18" s="117" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="118"/>
-      <c r="C18" s="118"/>
-      <c r="D18" s="118"/>
-      <c r="E18" s="118"/>
-      <c r="F18" s="119"/>
-      <c r="G18" s="117" t="s">
-        <v>17</v>
-      </c>
-      <c r="H18" s="118"/>
-      <c r="I18" s="118"/>
-      <c r="J18" s="118"/>
-      <c r="K18" s="118"/>
-      <c r="L18" s="118"/>
-      <c r="M18" s="118"/>
-      <c r="N18" s="118"/>
-      <c r="O18" s="118"/>
-      <c r="P18" s="118"/>
-      <c r="Q18" s="118"/>
-      <c r="R18" s="118"/>
-      <c r="S18" s="118"/>
-      <c r="T18" s="118"/>
-      <c r="U18" s="118"/>
-      <c r="V18" s="118"/>
-      <c r="W18" s="118"/>
-      <c r="X18" s="118"/>
-      <c r="Y18" s="118"/>
-      <c r="Z18" s="118"/>
-      <c r="AA18" s="118"/>
-      <c r="AB18" s="118"/>
-      <c r="AC18" s="119"/>
-      <c r="AD18" s="117" t="s">
-        <v>18</v>
-      </c>
-      <c r="AE18" s="119"/>
-      <c r="AF18" s="117" t="s">
-        <v>19</v>
-      </c>
-      <c r="AG18" s="119"/>
+      <c r="B18" s="150"/>
+      <c r="C18" s="150"/>
+      <c r="D18" s="150"/>
+      <c r="E18" s="150"/>
+      <c r="F18" s="150"/>
+      <c r="G18" s="150"/>
+      <c r="H18" s="150"/>
+      <c r="I18" s="150"/>
+      <c r="J18" s="150"/>
+      <c r="K18" s="150"/>
+      <c r="L18" s="150"/>
+      <c r="M18" s="150"/>
+      <c r="N18" s="150"/>
+      <c r="O18" s="150"/>
+      <c r="P18" s="150"/>
+      <c r="Q18" s="150"/>
+      <c r="R18" s="150"/>
+      <c r="S18" s="150"/>
+      <c r="T18" s="150"/>
+      <c r="U18" s="150"/>
+      <c r="V18" s="150"/>
+      <c r="W18" s="150"/>
+      <c r="X18" s="150"/>
+      <c r="Y18" s="150"/>
+      <c r="Z18" s="150"/>
+      <c r="AA18" s="150"/>
+      <c r="AB18" s="150"/>
+      <c r="AC18" s="150"/>
+      <c r="AD18" s="150"/>
+      <c r="AE18" s="150"/>
+      <c r="AF18" s="150"/>
+      <c r="AG18" s="151"/>
     </row>
     <row r="19" spans="1:33" ht="12.75" customHeight="1">
       <c r="A19" s="117" t="s">
-        <v>167</v>
+        <v>16</v>
       </c>
       <c r="B19" s="118"/>
       <c r="C19" s="118"/>
@@ -40213,7 +40243,7 @@
       <c r="E19" s="118"/>
       <c r="F19" s="119"/>
       <c r="G19" s="117" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="H19" s="118"/>
       <c r="I19" s="118"/>
@@ -40238,105 +40268,111 @@
       <c r="AB19" s="118"/>
       <c r="AC19" s="119"/>
       <c r="AD19" s="117" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AE19" s="119"/>
       <c r="AF19" s="117" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG19" s="119"/>
+    </row>
+    <row r="20" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A20" s="117" t="s">
+        <v>167</v>
+      </c>
+      <c r="B20" s="118"/>
+      <c r="C20" s="118"/>
+      <c r="D20" s="118"/>
+      <c r="E20" s="118"/>
+      <c r="F20" s="119"/>
+      <c r="G20" s="117" t="s">
+        <v>56</v>
+      </c>
+      <c r="H20" s="118"/>
+      <c r="I20" s="118"/>
+      <c r="J20" s="118"/>
+      <c r="K20" s="118"/>
+      <c r="L20" s="118"/>
+      <c r="M20" s="118"/>
+      <c r="N20" s="118"/>
+      <c r="O20" s="118"/>
+      <c r="P20" s="118"/>
+      <c r="Q20" s="118"/>
+      <c r="R20" s="118"/>
+      <c r="S20" s="118"/>
+      <c r="T20" s="118"/>
+      <c r="U20" s="118"/>
+      <c r="V20" s="118"/>
+      <c r="W20" s="118"/>
+      <c r="X20" s="118"/>
+      <c r="Y20" s="118"/>
+      <c r="Z20" s="118"/>
+      <c r="AA20" s="118"/>
+      <c r="AB20" s="118"/>
+      <c r="AC20" s="119"/>
+      <c r="AD20" s="117" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE20" s="119"/>
+      <c r="AF20" s="117" t="s">
         <v>21</v>
       </c>
-      <c r="AG19" s="119"/>
-    </row>
-    <row r="20" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A20" s="107" t="s">
+      <c r="AG20" s="119"/>
+    </row>
+    <row r="21" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A21" s="107" t="s">
         <v>168</v>
       </c>
-      <c r="B20" s="108"/>
-      <c r="C20" s="108"/>
-      <c r="D20" s="108"/>
-      <c r="E20" s="108"/>
-      <c r="F20" s="109"/>
-      <c r="G20" s="107" t="s">
+      <c r="B21" s="108"/>
+      <c r="C21" s="108"/>
+      <c r="D21" s="108"/>
+      <c r="E21" s="108"/>
+      <c r="F21" s="109"/>
+      <c r="G21" s="107" t="s">
         <v>169</v>
       </c>
-      <c r="H20" s="108"/>
-      <c r="I20" s="108"/>
-      <c r="J20" s="108"/>
-      <c r="K20" s="108"/>
-      <c r="L20" s="108"/>
-      <c r="M20" s="108"/>
-      <c r="N20" s="108"/>
-      <c r="O20" s="108"/>
-      <c r="P20" s="108"/>
-      <c r="Q20" s="108"/>
-      <c r="R20" s="108"/>
-      <c r="S20" s="108"/>
-      <c r="T20" s="108"/>
-      <c r="U20" s="108"/>
-      <c r="V20" s="108"/>
-      <c r="W20" s="108"/>
-      <c r="X20" s="108"/>
-      <c r="Y20" s="108"/>
-      <c r="Z20" s="108"/>
-      <c r="AA20" s="108"/>
-      <c r="AB20" s="109"/>
-      <c r="AC20" s="107" t="s">
+      <c r="H21" s="108"/>
+      <c r="I21" s="108"/>
+      <c r="J21" s="108"/>
+      <c r="K21" s="108"/>
+      <c r="L21" s="108"/>
+      <c r="M21" s="108"/>
+      <c r="N21" s="108"/>
+      <c r="O21" s="108"/>
+      <c r="P21" s="108"/>
+      <c r="Q21" s="108"/>
+      <c r="R21" s="108"/>
+      <c r="S21" s="108"/>
+      <c r="T21" s="108"/>
+      <c r="U21" s="108"/>
+      <c r="V21" s="108"/>
+      <c r="W21" s="108"/>
+      <c r="X21" s="108"/>
+      <c r="Y21" s="108"/>
+      <c r="Z21" s="108"/>
+      <c r="AA21" s="108"/>
+      <c r="AB21" s="109"/>
+      <c r="AC21" s="107" t="s">
         <v>170</v>
       </c>
-      <c r="AD20" s="108"/>
-      <c r="AE20" s="108"/>
-      <c r="AF20" s="108"/>
-      <c r="AG20" s="109"/>
-    </row>
-    <row r="21" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A21" s="29" t="s">
+      <c r="AD21" s="108"/>
+      <c r="AE21" s="108"/>
+      <c r="AF21" s="108"/>
+      <c r="AG21" s="109"/>
+    </row>
+    <row r="22" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A22" s="29" t="s">
         <v>171</v>
       </c>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="30" t="s">
-        <v>188</v>
-      </c>
-      <c r="H21" s="30"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="30"/>
-      <c r="M21" s="30"/>
-      <c r="N21" s="30"/>
-      <c r="O21" s="30"/>
-      <c r="P21" s="30"/>
-      <c r="Q21" s="30"/>
-      <c r="R21" s="30"/>
-      <c r="S21" s="30"/>
-      <c r="T21" s="30"/>
-      <c r="U21" s="30"/>
-      <c r="V21" s="30"/>
-      <c r="W21" s="30"/>
-      <c r="X21" s="30"/>
-      <c r="Y21" s="30"/>
-      <c r="Z21" s="30"/>
-      <c r="AA21" s="30"/>
-      <c r="AB21" s="31"/>
-      <c r="AC21" s="30"/>
-      <c r="AD21" s="30"/>
-      <c r="AE21" s="30"/>
-      <c r="AF21" s="30"/>
-      <c r="AG21" s="31"/>
-    </row>
-    <row r="22" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A22" s="29"/>
       <c r="B22" s="30"/>
       <c r="C22" s="30"/>
       <c r="D22" s="30"/>
       <c r="E22" s="30"/>
-      <c r="F22" s="58"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="30" t="s">
-        <v>189</v>
-      </c>
+      <c r="F22" s="31"/>
+      <c r="G22" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="H22" s="30"/>
       <c r="I22" s="30"/>
       <c r="J22" s="30"/>
       <c r="K22" s="30"/>
@@ -40349,15 +40385,15 @@
       <c r="R22" s="30"/>
       <c r="S22" s="30"/>
       <c r="T22" s="30"/>
-      <c r="U22" s="32"/>
+      <c r="U22" s="30"/>
       <c r="V22" s="30"/>
       <c r="W22" s="30"/>
       <c r="X22" s="30"/>
       <c r="Y22" s="30"/>
-      <c r="Z22" s="32"/>
+      <c r="Z22" s="30"/>
       <c r="AA22" s="30"/>
-      <c r="AB22" s="58"/>
-      <c r="AC22" s="32"/>
+      <c r="AB22" s="31"/>
+      <c r="AC22" s="30"/>
       <c r="AD22" s="30"/>
       <c r="AE22" s="30"/>
       <c r="AF22" s="30"/>
@@ -40371,10 +40407,10 @@
       <c r="E23" s="30"/>
       <c r="F23" s="58"/>
       <c r="G23" s="32"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="30" t="s">
-        <v>190</v>
-      </c>
+      <c r="H23" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="I23" s="30"/>
       <c r="J23" s="30"/>
       <c r="K23" s="30"/>
       <c r="L23" s="30"/>
@@ -40408,10 +40444,10 @@
       <c r="E24" s="30"/>
       <c r="F24" s="58"/>
       <c r="G24" s="32"/>
-      <c r="H24" s="30" t="s">
-        <v>191</v>
-      </c>
-      <c r="I24" s="30"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30" t="s">
+        <v>190</v>
+      </c>
       <c r="J24" s="30"/>
       <c r="K24" s="30"/>
       <c r="L24" s="30"/>
@@ -40445,10 +40481,10 @@
       <c r="E25" s="30"/>
       <c r="F25" s="58"/>
       <c r="G25" s="32"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="30" t="s">
-        <v>192</v>
-      </c>
+      <c r="H25" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="I25" s="30"/>
       <c r="J25" s="30"/>
       <c r="K25" s="30"/>
       <c r="L25" s="30"/>
@@ -40468,26 +40504,24 @@
       <c r="Z25" s="32"/>
       <c r="AA25" s="30"/>
       <c r="AB25" s="58"/>
-      <c r="AC25" s="113"/>
-      <c r="AD25" s="40"/>
-      <c r="AE25" s="40"/>
-      <c r="AF25" s="40"/>
-      <c r="AG25" s="41"/>
+      <c r="AC25" s="32"/>
+      <c r="AD25" s="30"/>
+      <c r="AE25" s="30"/>
+      <c r="AF25" s="30"/>
+      <c r="AG25" s="31"/>
     </row>
     <row r="26" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A26" s="29" t="s">
-        <v>193</v>
-      </c>
+      <c r="A26" s="29"/>
       <c r="B26" s="30"/>
       <c r="C26" s="30"/>
       <c r="D26" s="30"/>
       <c r="E26" s="30"/>
       <c r="F26" s="58"/>
-      <c r="G26" s="30" t="s">
-        <v>143</v>
-      </c>
+      <c r="G26" s="32"/>
       <c r="H26" s="30"/>
-      <c r="I26" s="30"/>
+      <c r="I26" s="30" t="s">
+        <v>192</v>
+      </c>
       <c r="J26" s="30"/>
       <c r="K26" s="30"/>
       <c r="L26" s="30"/>
@@ -40504,30 +40538,24 @@
       <c r="W26" s="30"/>
       <c r="X26" s="30"/>
       <c r="Y26" s="30"/>
-      <c r="Z26" s="32" t="s">
-        <v>174</v>
-      </c>
+      <c r="Z26" s="32"/>
       <c r="AA26" s="30"/>
-      <c r="AB26" s="32"/>
-      <c r="AC26" s="149" t="s">
-        <v>194</v>
-      </c>
-      <c r="AD26" s="150"/>
-      <c r="AE26" s="150"/>
-      <c r="AF26" s="150"/>
-      <c r="AG26" s="151"/>
+      <c r="AB26" s="58"/>
+      <c r="AC26" s="32"/>
+      <c r="AD26" s="30"/>
+      <c r="AE26" s="30"/>
+      <c r="AF26" s="30"/>
+      <c r="AG26" s="31"/>
     </row>
     <row r="27" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A27" s="29" t="s">
-        <v>195</v>
-      </c>
+      <c r="A27" s="29"/>
       <c r="B27" s="30"/>
       <c r="C27" s="30"/>
       <c r="D27" s="30"/>
       <c r="E27" s="30"/>
       <c r="F27" s="58"/>
-      <c r="G27" s="30" t="s">
-        <v>143</v>
+      <c r="G27" s="32" t="s">
+        <v>193</v>
       </c>
       <c r="H27" s="30"/>
       <c r="I27" s="30"/>
@@ -40547,32 +40575,26 @@
       <c r="W27" s="30"/>
       <c r="X27" s="30"/>
       <c r="Y27" s="30"/>
-      <c r="Z27" s="32" t="s">
-        <v>174</v>
-      </c>
+      <c r="Z27" s="32"/>
       <c r="AA27" s="30"/>
       <c r="AB27" s="58"/>
-      <c r="AC27" s="149" t="s">
-        <v>194</v>
-      </c>
-      <c r="AD27" s="150"/>
-      <c r="AE27" s="150"/>
-      <c r="AF27" s="150"/>
-      <c r="AG27" s="151"/>
+      <c r="AC27" s="32"/>
+      <c r="AD27" s="30"/>
+      <c r="AE27" s="30"/>
+      <c r="AF27" s="30"/>
+      <c r="AG27" s="31"/>
     </row>
     <row r="28" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A28" s="29" t="s">
-        <v>196</v>
-      </c>
+      <c r="A28" s="29"/>
       <c r="B28" s="30"/>
       <c r="C28" s="30"/>
       <c r="D28" s="30"/>
       <c r="E28" s="30"/>
       <c r="F28" s="58"/>
-      <c r="G28" s="32" t="s">
-        <v>146</v>
-      </c>
-      <c r="H28" s="30"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="30" t="s">
+        <v>194</v>
+      </c>
       <c r="I28" s="30"/>
       <c r="J28" s="30"/>
       <c r="K28" s="30"/>
@@ -40590,30 +40612,26 @@
       <c r="W28" s="30"/>
       <c r="X28" s="30"/>
       <c r="Y28" s="30"/>
-      <c r="Z28" s="32" t="s">
-        <v>174</v>
-      </c>
+      <c r="Z28" s="32"/>
       <c r="AA28" s="30"/>
-      <c r="AB28" s="58"/>
-      <c r="AC28" s="149" t="s">
-        <v>194</v>
-      </c>
-      <c r="AD28" s="150"/>
-      <c r="AE28" s="150"/>
-      <c r="AF28" s="150"/>
-      <c r="AG28" s="151"/>
+      <c r="AB28" s="32"/>
+      <c r="AC28" s="176"/>
+      <c r="AD28" s="177"/>
+      <c r="AE28" s="177"/>
+      <c r="AF28" s="177"/>
+      <c r="AG28" s="177"/>
     </row>
     <row r="29" spans="1:33" ht="12.75" customHeight="1">
       <c r="A29" s="29" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B29" s="30"/>
       <c r="C29" s="30"/>
       <c r="D29" s="30"/>
       <c r="E29" s="30"/>
       <c r="F29" s="58"/>
-      <c r="G29" s="32" t="s">
-        <v>146</v>
+      <c r="G29" s="30" t="s">
+        <v>143</v>
       </c>
       <c r="H29" s="30"/>
       <c r="I29" s="30"/>
@@ -40637,26 +40655,26 @@
         <v>174</v>
       </c>
       <c r="AA29" s="30"/>
-      <c r="AB29" s="58"/>
-      <c r="AC29" s="149" t="s">
-        <v>194</v>
-      </c>
-      <c r="AD29" s="150"/>
-      <c r="AE29" s="150"/>
-      <c r="AF29" s="150"/>
-      <c r="AG29" s="151"/>
+      <c r="AB29" s="32"/>
+      <c r="AC29" s="152" t="s">
+        <v>196</v>
+      </c>
+      <c r="AD29" s="153"/>
+      <c r="AE29" s="153"/>
+      <c r="AF29" s="153"/>
+      <c r="AG29" s="154"/>
     </row>
     <row r="30" spans="1:33" ht="12.75" customHeight="1">
       <c r="A30" s="29" t="s">
-        <v>173</v>
+        <v>197</v>
       </c>
       <c r="B30" s="30"/>
       <c r="C30" s="30"/>
       <c r="D30" s="30"/>
       <c r="E30" s="30"/>
-      <c r="F30" s="31"/>
+      <c r="F30" s="58"/>
       <c r="G30" s="30" t="s">
-        <v>198</v>
+        <v>143</v>
       </c>
       <c r="H30" s="30"/>
       <c r="I30" s="30"/>
@@ -40671,36 +40689,35 @@
       <c r="R30" s="30"/>
       <c r="S30" s="30"/>
       <c r="T30" s="30"/>
-      <c r="U30" s="30"/>
+      <c r="U30" s="32"/>
       <c r="V30" s="30"/>
-      <c r="W30" s="30" t="s">
-        <v>199</v>
-      </c>
+      <c r="W30" s="30"/>
       <c r="X30" s="30"/>
       <c r="Y30" s="30"/>
-      <c r="AA30" s="32" t="s">
+      <c r="Z30" s="32" t="s">
         <v>174</v>
       </c>
+      <c r="AA30" s="30"/>
       <c r="AB30" s="58"/>
-      <c r="AC30" s="149" t="s">
-        <v>194</v>
-      </c>
-      <c r="AD30" s="150"/>
-      <c r="AE30" s="150"/>
-      <c r="AF30" s="150"/>
-      <c r="AG30" s="151"/>
+      <c r="AC30" s="152" t="s">
+        <v>196</v>
+      </c>
+      <c r="AD30" s="153"/>
+      <c r="AE30" s="153"/>
+      <c r="AF30" s="153"/>
+      <c r="AG30" s="154"/>
     </row>
     <row r="31" spans="1:33" ht="12.75" customHeight="1">
       <c r="A31" s="29" t="s">
-        <v>176</v>
+        <v>198</v>
       </c>
       <c r="B31" s="30"/>
       <c r="C31" s="30"/>
       <c r="D31" s="30"/>
       <c r="E31" s="30"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="30" t="s">
-        <v>200</v>
+      <c r="F31" s="58"/>
+      <c r="G31" s="32" t="s">
+        <v>146</v>
       </c>
       <c r="H31" s="30"/>
       <c r="I31" s="30"/>
@@ -40715,7 +40732,7 @@
       <c r="R31" s="30"/>
       <c r="S31" s="30"/>
       <c r="T31" s="30"/>
-      <c r="U31" s="30"/>
+      <c r="U31" s="32"/>
       <c r="V31" s="30"/>
       <c r="W31" s="30"/>
       <c r="X31" s="30"/>
@@ -40725,25 +40742,25 @@
       </c>
       <c r="AA31" s="30"/>
       <c r="AB31" s="58"/>
-      <c r="AC31" s="149" t="s">
-        <v>194</v>
-      </c>
-      <c r="AD31" s="150"/>
-      <c r="AE31" s="150"/>
-      <c r="AF31" s="150"/>
-      <c r="AG31" s="151"/>
+      <c r="AC31" s="152" t="s">
+        <v>196</v>
+      </c>
+      <c r="AD31" s="153"/>
+      <c r="AE31" s="153"/>
+      <c r="AF31" s="153"/>
+      <c r="AG31" s="154"/>
     </row>
     <row r="32" spans="1:33" ht="12.75" customHeight="1">
       <c r="A32" s="29" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B32" s="30"/>
       <c r="C32" s="30"/>
       <c r="D32" s="30"/>
       <c r="E32" s="30"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="30" t="s">
-        <v>202</v>
+      <c r="F32" s="58"/>
+      <c r="G32" s="32" t="s">
+        <v>146</v>
       </c>
       <c r="H32" s="30"/>
       <c r="I32" s="30"/>
@@ -40758,7 +40775,7 @@
       <c r="R32" s="30"/>
       <c r="S32" s="30"/>
       <c r="T32" s="30"/>
-      <c r="U32" s="30"/>
+      <c r="U32" s="32"/>
       <c r="V32" s="30"/>
       <c r="W32" s="30"/>
       <c r="X32" s="30"/>
@@ -40768,17 +40785,17 @@
       </c>
       <c r="AA32" s="30"/>
       <c r="AB32" s="58"/>
-      <c r="AC32" s="149" t="s">
-        <v>194</v>
-      </c>
-      <c r="AD32" s="150"/>
-      <c r="AE32" s="150"/>
-      <c r="AF32" s="150"/>
-      <c r="AG32" s="151"/>
+      <c r="AC32" s="152" t="s">
+        <v>196</v>
+      </c>
+      <c r="AD32" s="153"/>
+      <c r="AE32" s="153"/>
+      <c r="AF32" s="153"/>
+      <c r="AG32" s="154"/>
     </row>
     <row r="33" spans="1:33" ht="12.75" customHeight="1">
       <c r="A33" s="29" t="s">
-        <v>203</v>
+        <v>173</v>
       </c>
       <c r="B33" s="30"/>
       <c r="C33" s="30"/>
@@ -40786,7 +40803,7 @@
       <c r="E33" s="30"/>
       <c r="F33" s="31"/>
       <c r="G33" s="30" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="H33" s="30"/>
       <c r="I33" s="30"/>
@@ -40803,36 +40820,37 @@
       <c r="T33" s="30"/>
       <c r="U33" s="30"/>
       <c r="V33" s="30"/>
-      <c r="W33" s="30"/>
+      <c r="W33" s="30" t="s">
+        <v>201</v>
+      </c>
       <c r="X33" s="30"/>
       <c r="Y33" s="30"/>
-      <c r="Z33" s="32" t="s">
+      <c r="AA33" s="32" t="s">
         <v>174</v>
       </c>
-      <c r="AA33" s="30"/>
       <c r="AB33" s="58"/>
-      <c r="AC33" s="149" t="s">
-        <v>194</v>
-      </c>
-      <c r="AD33" s="150"/>
-      <c r="AE33" s="150"/>
-      <c r="AF33" s="150"/>
-      <c r="AG33" s="151"/>
+      <c r="AC33" s="152" t="s">
+        <v>196</v>
+      </c>
+      <c r="AD33" s="153"/>
+      <c r="AE33" s="153"/>
+      <c r="AF33" s="153"/>
+      <c r="AG33" s="154"/>
     </row>
     <row r="34" spans="1:33" ht="12.75" customHeight="1">
       <c r="A34" s="29" t="s">
-        <v>205</v>
+        <v>176</v>
       </c>
       <c r="B34" s="30"/>
       <c r="C34" s="30"/>
       <c r="D34" s="30"/>
       <c r="E34" s="30"/>
       <c r="F34" s="31"/>
-      <c r="G34" s="29" t="s">
-        <v>206</v>
+      <c r="G34" s="30" t="s">
+        <v>202</v>
       </c>
       <c r="H34" s="30"/>
-      <c r="I34" s="32"/>
+      <c r="I34" s="30"/>
       <c r="J34" s="30"/>
       <c r="K34" s="30"/>
       <c r="L34" s="30"/>
@@ -40853,26 +40871,26 @@
         <v>174</v>
       </c>
       <c r="AA34" s="30"/>
-      <c r="AB34" s="31"/>
-      <c r="AC34" s="149" t="s">
-        <v>194</v>
-      </c>
-      <c r="AD34" s="150"/>
-      <c r="AE34" s="150"/>
-      <c r="AF34" s="150"/>
-      <c r="AG34" s="151"/>
+      <c r="AB34" s="58"/>
+      <c r="AC34" s="152" t="s">
+        <v>196</v>
+      </c>
+      <c r="AD34" s="153"/>
+      <c r="AE34" s="153"/>
+      <c r="AF34" s="153"/>
+      <c r="AG34" s="154"/>
     </row>
     <row r="35" spans="1:33" ht="12.75" customHeight="1">
       <c r="A35" s="29" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B35" s="30"/>
       <c r="C35" s="30"/>
       <c r="D35" s="30"/>
       <c r="E35" s="30"/>
-      <c r="F35" s="58"/>
+      <c r="F35" s="31"/>
       <c r="G35" s="30" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="H35" s="30"/>
       <c r="I35" s="30"/>
@@ -40896,18 +40914,18 @@
         <v>174</v>
       </c>
       <c r="AA35" s="30"/>
-      <c r="AB35" s="31"/>
-      <c r="AC35" s="149" t="s">
-        <v>194</v>
-      </c>
-      <c r="AD35" s="150"/>
-      <c r="AE35" s="150"/>
-      <c r="AF35" s="150"/>
-      <c r="AG35" s="151"/>
+      <c r="AB35" s="58"/>
+      <c r="AC35" s="152" t="s">
+        <v>196</v>
+      </c>
+      <c r="AD35" s="153"/>
+      <c r="AE35" s="153"/>
+      <c r="AF35" s="153"/>
+      <c r="AG35" s="154"/>
     </row>
     <row r="36" spans="1:33" ht="12.75" customHeight="1">
       <c r="A36" s="29" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B36" s="30"/>
       <c r="C36" s="30"/>
@@ -40915,7 +40933,7 @@
       <c r="E36" s="30"/>
       <c r="F36" s="31"/>
       <c r="G36" s="30" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H36" s="30"/>
       <c r="I36" s="30"/>
@@ -40939,18 +40957,18 @@
         <v>174</v>
       </c>
       <c r="AA36" s="30"/>
-      <c r="AB36" s="31"/>
-      <c r="AC36" s="149" t="s">
-        <v>194</v>
-      </c>
-      <c r="AD36" s="150"/>
-      <c r="AE36" s="150"/>
-      <c r="AF36" s="150"/>
-      <c r="AG36" s="151"/>
+      <c r="AB36" s="58"/>
+      <c r="AC36" s="152" t="s">
+        <v>196</v>
+      </c>
+      <c r="AD36" s="153"/>
+      <c r="AE36" s="153"/>
+      <c r="AF36" s="153"/>
+      <c r="AG36" s="154"/>
     </row>
     <row r="37" spans="1:33" ht="12.75" customHeight="1">
       <c r="A37" s="29" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B37" s="30"/>
       <c r="C37" s="30"/>
@@ -40958,10 +40976,10 @@
       <c r="E37" s="30"/>
       <c r="F37" s="31"/>
       <c r="G37" s="29" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="H37" s="30"/>
-      <c r="I37" s="30"/>
+      <c r="I37" s="32"/>
       <c r="J37" s="30"/>
       <c r="K37" s="30"/>
       <c r="L37" s="30"/>
@@ -40978,26 +40996,30 @@
       <c r="W37" s="30"/>
       <c r="X37" s="30"/>
       <c r="Y37" s="30"/>
-      <c r="Z37" s="30"/>
+      <c r="Z37" s="32" t="s">
+        <v>174</v>
+      </c>
       <c r="AA37" s="30"/>
       <c r="AB37" s="31"/>
-      <c r="AC37" s="30"/>
-      <c r="AD37" s="30"/>
-      <c r="AE37" s="30"/>
-      <c r="AF37" s="30"/>
-      <c r="AG37" s="31"/>
+      <c r="AC37" s="152" t="s">
+        <v>196</v>
+      </c>
+      <c r="AD37" s="153"/>
+      <c r="AE37" s="153"/>
+      <c r="AF37" s="153"/>
+      <c r="AG37" s="154"/>
     </row>
     <row r="38" spans="1:33" ht="12.75" customHeight="1">
       <c r="A38" s="29" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B38" s="30"/>
       <c r="C38" s="30"/>
       <c r="D38" s="30"/>
       <c r="E38" s="30"/>
-      <c r="F38" s="31"/>
+      <c r="F38" s="58"/>
       <c r="G38" s="30" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H38" s="30"/>
       <c r="I38" s="30"/>
@@ -41017,26 +41039,32 @@
       <c r="W38" s="30"/>
       <c r="X38" s="30"/>
       <c r="Y38" s="30"/>
-      <c r="Z38" s="30"/>
+      <c r="Z38" s="32" t="s">
+        <v>174</v>
+      </c>
       <c r="AA38" s="30"/>
       <c r="AB38" s="31"/>
-      <c r="AC38" s="30"/>
-      <c r="AD38" s="30"/>
-      <c r="AE38" s="30"/>
-      <c r="AF38" s="30"/>
-      <c r="AG38" s="31"/>
+      <c r="AC38" s="152" t="s">
+        <v>196</v>
+      </c>
+      <c r="AD38" s="153"/>
+      <c r="AE38" s="153"/>
+      <c r="AF38" s="153"/>
+      <c r="AG38" s="154"/>
     </row>
     <row r="39" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A39" s="29"/>
+      <c r="A39" s="29" t="s">
+        <v>211</v>
+      </c>
       <c r="B39" s="30"/>
       <c r="C39" s="30"/>
       <c r="D39" s="30"/>
       <c r="E39" s="30"/>
-      <c r="F39" s="58"/>
-      <c r="G39" s="30"/>
-      <c r="H39" s="30" t="s">
-        <v>213</v>
-      </c>
+      <c r="F39" s="31"/>
+      <c r="G39" s="30" t="s">
+        <v>210</v>
+      </c>
+      <c r="H39" s="30"/>
       <c r="I39" s="30"/>
       <c r="J39" s="30"/>
       <c r="K39" s="30"/>
@@ -41054,27 +41082,33 @@
       <c r="W39" s="30"/>
       <c r="X39" s="30"/>
       <c r="Y39" s="30"/>
-      <c r="Z39" s="30"/>
+      <c r="Z39" s="32" t="s">
+        <v>174</v>
+      </c>
       <c r="AA39" s="30"/>
       <c r="AB39" s="31"/>
-      <c r="AC39" s="30"/>
-      <c r="AD39" s="30"/>
-      <c r="AE39" s="30"/>
-      <c r="AF39" s="30"/>
-      <c r="AG39" s="31"/>
+      <c r="AC39" s="152" t="s">
+        <v>196</v>
+      </c>
+      <c r="AD39" s="153"/>
+      <c r="AE39" s="153"/>
+      <c r="AF39" s="153"/>
+      <c r="AG39" s="154"/>
     </row>
     <row r="40" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A40" s="29"/>
+      <c r="A40" s="29" t="s">
+        <v>212</v>
+      </c>
       <c r="B40" s="30"/>
       <c r="C40" s="30"/>
       <c r="D40" s="30"/>
       <c r="E40" s="30"/>
       <c r="F40" s="31"/>
-      <c r="G40" s="30"/>
+      <c r="G40" s="29" t="s">
+        <v>208</v>
+      </c>
       <c r="H40" s="30"/>
-      <c r="I40" s="30" t="s">
-        <v>214</v>
-      </c>
+      <c r="I40" s="30"/>
       <c r="J40" s="30"/>
       <c r="K40" s="30"/>
       <c r="L40" s="30"/>
@@ -41101,16 +41135,18 @@
       <c r="AG40" s="31"/>
     </row>
     <row r="41" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A41" s="29"/>
+      <c r="A41" s="29" t="s">
+        <v>213</v>
+      </c>
       <c r="B41" s="30"/>
       <c r="C41" s="30"/>
       <c r="D41" s="30"/>
       <c r="E41" s="30"/>
       <c r="F41" s="31"/>
-      <c r="G41" s="30"/>
-      <c r="H41" s="30" t="s">
-        <v>215</v>
-      </c>
+      <c r="G41" s="30" t="s">
+        <v>214</v>
+      </c>
+      <c r="H41" s="30"/>
       <c r="I41" s="30"/>
       <c r="J41" s="30"/>
       <c r="K41" s="30"/>
@@ -41144,11 +41180,11 @@
       <c r="D42" s="30"/>
       <c r="E42" s="30"/>
       <c r="F42" s="58"/>
-      <c r="G42" s="32"/>
-      <c r="H42" s="30"/>
-      <c r="I42" s="30" t="s">
-        <v>216</v>
-      </c>
+      <c r="G42" s="30"/>
+      <c r="H42" s="30" t="s">
+        <v>215</v>
+      </c>
+      <c r="I42" s="30"/>
       <c r="J42" s="30"/>
       <c r="K42" s="30"/>
       <c r="L42" s="30"/>
@@ -41180,10 +41216,12 @@
       <c r="C43" s="30"/>
       <c r="D43" s="30"/>
       <c r="E43" s="30"/>
-      <c r="F43" s="58"/>
-      <c r="G43" s="32"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="30"/>
       <c r="H43" s="30"/>
-      <c r="I43" s="30"/>
+      <c r="I43" s="30" t="s">
+        <v>216</v>
+      </c>
       <c r="J43" s="30"/>
       <c r="K43" s="30"/>
       <c r="L43" s="30"/>
@@ -41210,293 +41248,291 @@
       <c r="AG43" s="31"/>
     </row>
     <row r="44" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A44" s="152" t="s">
+      <c r="A44" s="29"/>
+      <c r="B44" s="30"/>
+      <c r="C44" s="30"/>
+      <c r="D44" s="30"/>
+      <c r="E44" s="30"/>
+      <c r="F44" s="31"/>
+      <c r="G44" s="30"/>
+      <c r="H44" s="30" t="s">
+        <v>217</v>
+      </c>
+      <c r="I44" s="30"/>
+      <c r="J44" s="30"/>
+      <c r="K44" s="30"/>
+      <c r="L44" s="30"/>
+      <c r="M44" s="30"/>
+      <c r="N44" s="30"/>
+      <c r="O44" s="30"/>
+      <c r="P44" s="30"/>
+      <c r="Q44" s="30"/>
+      <c r="R44" s="30"/>
+      <c r="S44" s="30"/>
+      <c r="T44" s="30"/>
+      <c r="U44" s="30"/>
+      <c r="V44" s="30"/>
+      <c r="W44" s="30"/>
+      <c r="X44" s="30"/>
+      <c r="Y44" s="30"/>
+      <c r="Z44" s="30"/>
+      <c r="AA44" s="30"/>
+      <c r="AB44" s="31"/>
+      <c r="AC44" s="30"/>
+      <c r="AD44" s="30"/>
+      <c r="AE44" s="30"/>
+      <c r="AF44" s="30"/>
+      <c r="AG44" s="31"/>
+    </row>
+    <row r="45" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A45" s="29"/>
+      <c r="B45" s="30"/>
+      <c r="C45" s="30"/>
+      <c r="D45" s="30"/>
+      <c r="E45" s="30"/>
+      <c r="F45" s="58"/>
+      <c r="G45" s="32"/>
+      <c r="H45" s="30"/>
+      <c r="I45" s="30" t="s">
+        <v>218</v>
+      </c>
+      <c r="J45" s="30"/>
+      <c r="K45" s="30"/>
+      <c r="L45" s="30"/>
+      <c r="M45" s="30"/>
+      <c r="N45" s="30"/>
+      <c r="O45" s="30"/>
+      <c r="P45" s="30"/>
+      <c r="Q45" s="30"/>
+      <c r="R45" s="30"/>
+      <c r="S45" s="30"/>
+      <c r="T45" s="30"/>
+      <c r="U45" s="30"/>
+      <c r="V45" s="30"/>
+      <c r="W45" s="30"/>
+      <c r="X45" s="30"/>
+      <c r="Y45" s="30"/>
+      <c r="Z45" s="30"/>
+      <c r="AA45" s="30"/>
+      <c r="AB45" s="31"/>
+      <c r="AC45" s="30"/>
+      <c r="AD45" s="30"/>
+      <c r="AE45" s="30"/>
+      <c r="AF45" s="30"/>
+      <c r="AG45" s="31"/>
+    </row>
+    <row r="46" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A46" s="29"/>
+      <c r="B46" s="30"/>
+      <c r="C46" s="30"/>
+      <c r="D46" s="30"/>
+      <c r="E46" s="30"/>
+      <c r="F46" s="58"/>
+      <c r="G46" s="32"/>
+      <c r="H46" s="30"/>
+      <c r="I46" s="30"/>
+      <c r="J46" s="30"/>
+      <c r="K46" s="30"/>
+      <c r="L46" s="30"/>
+      <c r="M46" s="30"/>
+      <c r="N46" s="30"/>
+      <c r="O46" s="30"/>
+      <c r="P46" s="30"/>
+      <c r="Q46" s="30"/>
+      <c r="R46" s="30"/>
+      <c r="S46" s="30"/>
+      <c r="T46" s="30"/>
+      <c r="U46" s="30"/>
+      <c r="V46" s="30"/>
+      <c r="W46" s="30"/>
+      <c r="X46" s="30"/>
+      <c r="Y46" s="30"/>
+      <c r="Z46" s="30"/>
+      <c r="AA46" s="30"/>
+      <c r="AB46" s="31"/>
+      <c r="AC46" s="30"/>
+      <c r="AD46" s="30"/>
+      <c r="AE46" s="30"/>
+      <c r="AF46" s="30"/>
+      <c r="AG46" s="31"/>
+    </row>
+    <row r="47" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A47" s="149" t="s">
         <v>166</v>
       </c>
-      <c r="B44" s="153"/>
-      <c r="C44" s="153"/>
-      <c r="D44" s="153"/>
-      <c r="E44" s="153"/>
-      <c r="F44" s="153"/>
-      <c r="G44" s="153"/>
-      <c r="H44" s="153"/>
-      <c r="I44" s="153"/>
-      <c r="J44" s="153"/>
-      <c r="K44" s="153"/>
-      <c r="L44" s="153"/>
-      <c r="M44" s="153"/>
-      <c r="N44" s="153"/>
-      <c r="O44" s="153"/>
-      <c r="P44" s="153"/>
-      <c r="Q44" s="153"/>
-      <c r="R44" s="153"/>
-      <c r="S44" s="153"/>
-      <c r="T44" s="153"/>
-      <c r="U44" s="153"/>
-      <c r="V44" s="153"/>
-      <c r="W44" s="153"/>
-      <c r="X44" s="153"/>
-      <c r="Y44" s="153"/>
-      <c r="Z44" s="153"/>
-      <c r="AA44" s="153"/>
-      <c r="AB44" s="153"/>
-      <c r="AC44" s="153"/>
-      <c r="AD44" s="153"/>
-      <c r="AE44" s="153"/>
-      <c r="AF44" s="153"/>
-      <c r="AG44" s="154"/>
-    </row>
-    <row r="45" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A45" s="117" t="s">
+      <c r="B47" s="150"/>
+      <c r="C47" s="150"/>
+      <c r="D47" s="150"/>
+      <c r="E47" s="150"/>
+      <c r="F47" s="150"/>
+      <c r="G47" s="150"/>
+      <c r="H47" s="150"/>
+      <c r="I47" s="150"/>
+      <c r="J47" s="150"/>
+      <c r="K47" s="150"/>
+      <c r="L47" s="150"/>
+      <c r="M47" s="150"/>
+      <c r="N47" s="150"/>
+      <c r="O47" s="150"/>
+      <c r="P47" s="150"/>
+      <c r="Q47" s="150"/>
+      <c r="R47" s="150"/>
+      <c r="S47" s="150"/>
+      <c r="T47" s="150"/>
+      <c r="U47" s="150"/>
+      <c r="V47" s="150"/>
+      <c r="W47" s="150"/>
+      <c r="X47" s="150"/>
+      <c r="Y47" s="150"/>
+      <c r="Z47" s="150"/>
+      <c r="AA47" s="150"/>
+      <c r="AB47" s="150"/>
+      <c r="AC47" s="150"/>
+      <c r="AD47" s="150"/>
+      <c r="AE47" s="150"/>
+      <c r="AF47" s="150"/>
+      <c r="AG47" s="151"/>
+    </row>
+    <row r="48" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A48" s="117" t="s">
         <v>16</v>
       </c>
-      <c r="B45" s="118"/>
-      <c r="C45" s="118"/>
-      <c r="D45" s="118"/>
-      <c r="E45" s="118"/>
-      <c r="F45" s="119"/>
-      <c r="G45" s="117" t="s">
+      <c r="B48" s="118"/>
+      <c r="C48" s="118"/>
+      <c r="D48" s="118"/>
+      <c r="E48" s="118"/>
+      <c r="F48" s="119"/>
+      <c r="G48" s="117" t="s">
         <v>17</v>
       </c>
-      <c r="H45" s="118"/>
-      <c r="I45" s="118"/>
-      <c r="J45" s="118"/>
-      <c r="K45" s="118"/>
-      <c r="L45" s="118"/>
-      <c r="M45" s="118"/>
-      <c r="N45" s="118"/>
-      <c r="O45" s="118"/>
-      <c r="P45" s="118"/>
-      <c r="Q45" s="118"/>
-      <c r="R45" s="118"/>
-      <c r="S45" s="118"/>
-      <c r="T45" s="118"/>
-      <c r="U45" s="118"/>
-      <c r="V45" s="118"/>
-      <c r="W45" s="118"/>
-      <c r="X45" s="118"/>
-      <c r="Y45" s="118"/>
-      <c r="Z45" s="118"/>
-      <c r="AA45" s="118"/>
-      <c r="AB45" s="118"/>
-      <c r="AC45" s="119"/>
-      <c r="AD45" s="117" t="s">
+      <c r="H48" s="118"/>
+      <c r="I48" s="118"/>
+      <c r="J48" s="118"/>
+      <c r="K48" s="118"/>
+      <c r="L48" s="118"/>
+      <c r="M48" s="118"/>
+      <c r="N48" s="118"/>
+      <c r="O48" s="118"/>
+      <c r="P48" s="118"/>
+      <c r="Q48" s="118"/>
+      <c r="R48" s="118"/>
+      <c r="S48" s="118"/>
+      <c r="T48" s="118"/>
+      <c r="U48" s="118"/>
+      <c r="V48" s="118"/>
+      <c r="W48" s="118"/>
+      <c r="X48" s="118"/>
+      <c r="Y48" s="118"/>
+      <c r="Z48" s="118"/>
+      <c r="AA48" s="118"/>
+      <c r="AB48" s="118"/>
+      <c r="AC48" s="119"/>
+      <c r="AD48" s="117" t="s">
         <v>18</v>
       </c>
-      <c r="AE45" s="119"/>
-      <c r="AF45" s="117" t="s">
+      <c r="AE48" s="119"/>
+      <c r="AF48" s="117" t="s">
         <v>19</v>
       </c>
-      <c r="AG45" s="119"/>
-    </row>
-    <row r="46" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A46" s="117" t="s">
+      <c r="AG48" s="119"/>
+    </row>
+    <row r="49" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A49" s="117" t="s">
         <v>167</v>
       </c>
-      <c r="B46" s="118"/>
-      <c r="C46" s="118"/>
-      <c r="D46" s="118"/>
-      <c r="E46" s="118"/>
-      <c r="F46" s="119"/>
-      <c r="G46" s="117" t="s">
-        <v>56</v>
-      </c>
-      <c r="H46" s="118"/>
-      <c r="I46" s="118"/>
-      <c r="J46" s="118"/>
-      <c r="K46" s="118"/>
-      <c r="L46" s="118"/>
-      <c r="M46" s="118"/>
-      <c r="N46" s="118"/>
-      <c r="O46" s="118"/>
-      <c r="P46" s="118"/>
-      <c r="Q46" s="118"/>
-      <c r="R46" s="118"/>
-      <c r="S46" s="118"/>
-      <c r="T46" s="118"/>
-      <c r="U46" s="118"/>
-      <c r="V46" s="118"/>
-      <c r="W46" s="118"/>
-      <c r="X46" s="118"/>
-      <c r="Y46" s="118"/>
-      <c r="Z46" s="118"/>
-      <c r="AA46" s="118"/>
-      <c r="AB46" s="118"/>
-      <c r="AC46" s="119"/>
-      <c r="AD46" s="117" t="s">
+      <c r="B49" s="118"/>
+      <c r="C49" s="118"/>
+      <c r="D49" s="118"/>
+      <c r="E49" s="118"/>
+      <c r="F49" s="119"/>
+      <c r="G49" s="117" t="s">
+        <v>219</v>
+      </c>
+      <c r="H49" s="118"/>
+      <c r="I49" s="118"/>
+      <c r="J49" s="118"/>
+      <c r="K49" s="118"/>
+      <c r="L49" s="118"/>
+      <c r="M49" s="118"/>
+      <c r="N49" s="118"/>
+      <c r="O49" s="118"/>
+      <c r="P49" s="118"/>
+      <c r="Q49" s="118"/>
+      <c r="R49" s="118"/>
+      <c r="S49" s="118"/>
+      <c r="T49" s="118"/>
+      <c r="U49" s="118"/>
+      <c r="V49" s="118"/>
+      <c r="W49" s="118"/>
+      <c r="X49" s="118"/>
+      <c r="Y49" s="118"/>
+      <c r="Z49" s="118"/>
+      <c r="AA49" s="118"/>
+      <c r="AB49" s="118"/>
+      <c r="AC49" s="119"/>
+      <c r="AD49" s="117" t="s">
         <v>20</v>
       </c>
-      <c r="AE46" s="119"/>
-      <c r="AF46" s="117" t="s">
+      <c r="AE49" s="119"/>
+      <c r="AF49" s="117" t="s">
         <v>21</v>
       </c>
-      <c r="AG46" s="119"/>
-    </row>
-    <row r="47" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A47" s="107" t="s">
+      <c r="AG49" s="119"/>
+    </row>
+    <row r="50" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A50" s="107" t="s">
         <v>168</v>
       </c>
-      <c r="B47" s="108"/>
-      <c r="C47" s="108"/>
-      <c r="D47" s="108"/>
-      <c r="E47" s="108"/>
-      <c r="F47" s="109"/>
-      <c r="G47" s="107" t="s">
+      <c r="B50" s="108"/>
+      <c r="C50" s="108"/>
+      <c r="D50" s="108"/>
+      <c r="E50" s="108"/>
+      <c r="F50" s="109"/>
+      <c r="G50" s="107" t="s">
         <v>169</v>
       </c>
-      <c r="H47" s="108"/>
-      <c r="I47" s="108"/>
-      <c r="J47" s="108"/>
-      <c r="K47" s="108"/>
-      <c r="L47" s="108"/>
-      <c r="M47" s="108"/>
-      <c r="N47" s="108"/>
-      <c r="O47" s="108"/>
-      <c r="P47" s="108"/>
-      <c r="Q47" s="108"/>
-      <c r="R47" s="108"/>
-      <c r="S47" s="108"/>
-      <c r="T47" s="108"/>
-      <c r="U47" s="108"/>
-      <c r="V47" s="108"/>
-      <c r="W47" s="108"/>
-      <c r="X47" s="108"/>
-      <c r="Y47" s="108"/>
-      <c r="Z47" s="108"/>
-      <c r="AA47" s="108"/>
-      <c r="AB47" s="109"/>
-      <c r="AC47" s="107" t="s">
+      <c r="H50" s="108"/>
+      <c r="I50" s="108"/>
+      <c r="J50" s="108"/>
+      <c r="K50" s="108"/>
+      <c r="L50" s="108"/>
+      <c r="M50" s="108"/>
+      <c r="N50" s="108"/>
+      <c r="O50" s="108"/>
+      <c r="P50" s="108"/>
+      <c r="Q50" s="108"/>
+      <c r="R50" s="108"/>
+      <c r="S50" s="108"/>
+      <c r="T50" s="108"/>
+      <c r="U50" s="108"/>
+      <c r="V50" s="108"/>
+      <c r="W50" s="108"/>
+      <c r="X50" s="108"/>
+      <c r="Y50" s="108"/>
+      <c r="Z50" s="108"/>
+      <c r="AA50" s="108"/>
+      <c r="AB50" s="109"/>
+      <c r="AC50" s="107" t="s">
         <v>170</v>
       </c>
-      <c r="AD47" s="108"/>
-      <c r="AE47" s="108"/>
-      <c r="AF47" s="108"/>
-      <c r="AG47" s="109"/>
-    </row>
-    <row r="48" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A48" s="29" t="s">
+      <c r="AD50" s="108"/>
+      <c r="AE50" s="108"/>
+      <c r="AF50" s="108"/>
+      <c r="AG50" s="109"/>
+    </row>
+    <row r="51" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A51" s="29" t="s">
         <v>171</v>
       </c>
-      <c r="B48" s="30"/>
-      <c r="C48" s="30"/>
-      <c r="D48" s="30"/>
-      <c r="E48" s="30"/>
-      <c r="F48" s="31"/>
-      <c r="G48" s="30" t="s">
-        <v>188</v>
-      </c>
-      <c r="H48" s="30"/>
-      <c r="I48" s="30"/>
-      <c r="J48" s="30"/>
-      <c r="K48" s="30"/>
-      <c r="L48" s="30"/>
-      <c r="M48" s="30"/>
-      <c r="N48" s="30"/>
-      <c r="O48" s="30"/>
-      <c r="P48" s="30"/>
-      <c r="Q48" s="30"/>
-      <c r="R48" s="30"/>
-      <c r="S48" s="30"/>
-      <c r="T48" s="30"/>
-      <c r="U48" s="30"/>
-      <c r="V48" s="30"/>
-      <c r="W48" s="30"/>
-      <c r="X48" s="30"/>
-      <c r="Y48" s="30"/>
-      <c r="Z48" s="30"/>
-      <c r="AA48" s="30"/>
-      <c r="AB48" s="31"/>
-      <c r="AC48" s="30"/>
-      <c r="AD48" s="30"/>
-      <c r="AE48" s="30"/>
-      <c r="AF48" s="30"/>
-      <c r="AG48" s="31"/>
-    </row>
-    <row r="49" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A49" s="29"/>
-      <c r="B49" s="30"/>
-      <c r="C49" s="30"/>
-      <c r="D49" s="30"/>
-      <c r="E49" s="30"/>
-      <c r="F49" s="58"/>
-      <c r="G49" s="32"/>
-      <c r="H49" s="30" t="s">
-        <v>189</v>
-      </c>
-      <c r="I49" s="30"/>
-      <c r="J49" s="30"/>
-      <c r="K49" s="30"/>
-      <c r="L49" s="30"/>
-      <c r="M49" s="30"/>
-      <c r="N49" s="30"/>
-      <c r="O49" s="30"/>
-      <c r="P49" s="30"/>
-      <c r="Q49" s="30"/>
-      <c r="R49" s="30"/>
-      <c r="S49" s="30"/>
-      <c r="T49" s="30"/>
-      <c r="U49" s="32"/>
-      <c r="V49" s="30"/>
-      <c r="W49" s="30"/>
-      <c r="X49" s="30"/>
-      <c r="Y49" s="30"/>
-      <c r="Z49" s="32"/>
-      <c r="AA49" s="30"/>
-      <c r="AB49" s="58"/>
-      <c r="AC49" s="32"/>
-      <c r="AD49" s="30"/>
-      <c r="AE49" s="30"/>
-      <c r="AF49" s="30"/>
-      <c r="AG49" s="31"/>
-    </row>
-    <row r="50" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A50" s="29"/>
-      <c r="B50" s="30"/>
-      <c r="C50" s="30"/>
-      <c r="D50" s="30"/>
-      <c r="E50" s="30"/>
-      <c r="F50" s="58"/>
-      <c r="G50" s="32"/>
-      <c r="H50" s="30"/>
-      <c r="I50" s="30" t="s">
-        <v>190</v>
-      </c>
-      <c r="J50" s="30"/>
-      <c r="K50" s="30"/>
-      <c r="L50" s="30"/>
-      <c r="M50" s="30"/>
-      <c r="N50" s="30"/>
-      <c r="O50" s="30"/>
-      <c r="P50" s="30"/>
-      <c r="Q50" s="30"/>
-      <c r="R50" s="30"/>
-      <c r="S50" s="30"/>
-      <c r="T50" s="30"/>
-      <c r="U50" s="32"/>
-      <c r="V50" s="30"/>
-      <c r="W50" s="30"/>
-      <c r="X50" s="30"/>
-      <c r="Y50" s="30"/>
-      <c r="Z50" s="32"/>
-      <c r="AA50" s="30"/>
-      <c r="AB50" s="58"/>
-      <c r="AC50" s="32"/>
-      <c r="AD50" s="30"/>
-      <c r="AE50" s="30"/>
-      <c r="AF50" s="30"/>
-      <c r="AG50" s="31"/>
-    </row>
-    <row r="51" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A51" s="29"/>
       <c r="B51" s="30"/>
       <c r="C51" s="30"/>
       <c r="D51" s="30"/>
       <c r="E51" s="30"/>
-      <c r="F51" s="58"/>
-      <c r="G51" s="32"/>
-      <c r="H51" s="30" t="s">
-        <v>191</v>
-      </c>
+      <c r="F51" s="31"/>
+      <c r="G51" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="H51" s="30"/>
       <c r="I51" s="30"/>
       <c r="J51" s="30"/>
       <c r="K51" s="30"/>
@@ -41509,15 +41545,15 @@
       <c r="R51" s="30"/>
       <c r="S51" s="30"/>
       <c r="T51" s="30"/>
-      <c r="U51" s="32"/>
+      <c r="U51" s="30"/>
       <c r="V51" s="30"/>
       <c r="W51" s="30"/>
       <c r="X51" s="30"/>
       <c r="Y51" s="30"/>
-      <c r="Z51" s="32"/>
+      <c r="Z51" s="30"/>
       <c r="AA51" s="30"/>
-      <c r="AB51" s="58"/>
-      <c r="AC51" s="32"/>
+      <c r="AB51" s="31"/>
+      <c r="AC51" s="30"/>
       <c r="AD51" s="30"/>
       <c r="AE51" s="30"/>
       <c r="AF51" s="30"/>
@@ -41531,10 +41567,10 @@
       <c r="E52" s="30"/>
       <c r="F52" s="58"/>
       <c r="G52" s="32"/>
-      <c r="H52" s="30"/>
-      <c r="I52" s="30" t="s">
-        <v>192</v>
-      </c>
+      <c r="H52" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="I52" s="30"/>
       <c r="J52" s="30"/>
       <c r="K52" s="30"/>
       <c r="L52" s="30"/>
@@ -41554,26 +41590,24 @@
       <c r="Z52" s="32"/>
       <c r="AA52" s="30"/>
       <c r="AB52" s="58"/>
-      <c r="AC52" s="113"/>
-      <c r="AD52" s="40"/>
-      <c r="AE52" s="40"/>
-      <c r="AF52" s="40"/>
-      <c r="AG52" s="41"/>
+      <c r="AC52" s="32"/>
+      <c r="AD52" s="30"/>
+      <c r="AE52" s="30"/>
+      <c r="AF52" s="30"/>
+      <c r="AG52" s="31"/>
     </row>
     <row r="53" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A53" s="29" t="s">
-        <v>217</v>
-      </c>
+      <c r="A53" s="29"/>
       <c r="B53" s="30"/>
       <c r="C53" s="30"/>
       <c r="D53" s="30"/>
       <c r="E53" s="30"/>
       <c r="F53" s="58"/>
-      <c r="G53" s="30" t="s">
-        <v>218</v>
-      </c>
+      <c r="G53" s="32"/>
       <c r="H53" s="30"/>
-      <c r="I53" s="30"/>
+      <c r="I53" s="30" t="s">
+        <v>190</v>
+      </c>
       <c r="J53" s="30"/>
       <c r="K53" s="30"/>
       <c r="L53" s="30"/>
@@ -41592,25 +41626,23 @@
       <c r="Y53" s="30"/>
       <c r="Z53" s="32"/>
       <c r="AA53" s="30"/>
-      <c r="AB53" s="32"/>
-      <c r="AC53" s="149"/>
-      <c r="AD53" s="150"/>
-      <c r="AE53" s="150"/>
-      <c r="AF53" s="150"/>
-      <c r="AG53" s="151"/>
+      <c r="AB53" s="58"/>
+      <c r="AC53" s="32"/>
+      <c r="AD53" s="30"/>
+      <c r="AE53" s="30"/>
+      <c r="AF53" s="30"/>
+      <c r="AG53" s="31"/>
     </row>
     <row r="54" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A54" s="29" t="s">
-        <v>59</v>
-      </c>
+      <c r="A54" s="29"/>
       <c r="B54" s="30"/>
       <c r="C54" s="30"/>
       <c r="D54" s="30"/>
       <c r="E54" s="30"/>
       <c r="F54" s="58"/>
-      <c r="G54" s="30"/>
+      <c r="G54" s="32"/>
       <c r="H54" s="30" t="s">
-        <v>219</v>
+        <v>191</v>
       </c>
       <c r="I54" s="30"/>
       <c r="J54" s="30"/>
@@ -41629,31 +41661,27 @@
       <c r="W54" s="30"/>
       <c r="X54" s="30"/>
       <c r="Y54" s="30"/>
-      <c r="Z54" s="32" t="s">
-        <v>174</v>
-      </c>
+      <c r="Z54" s="32"/>
       <c r="AA54" s="30"/>
-      <c r="AB54" s="32"/>
-      <c r="AC54" s="149"/>
-      <c r="AD54" s="150"/>
-      <c r="AE54" s="150"/>
-      <c r="AF54" s="150"/>
-      <c r="AG54" s="151"/>
+      <c r="AB54" s="58"/>
+      <c r="AC54" s="32"/>
+      <c r="AD54" s="30"/>
+      <c r="AE54" s="30"/>
+      <c r="AF54" s="30"/>
+      <c r="AG54" s="31"/>
     </row>
     <row r="55" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A55" s="29" t="s">
-        <v>60</v>
-      </c>
+      <c r="A55" s="29"/>
       <c r="B55" s="30"/>
       <c r="C55" s="30"/>
       <c r="D55" s="30"/>
       <c r="E55" s="30"/>
       <c r="F55" s="58"/>
-      <c r="G55" s="30"/>
-      <c r="H55" s="30" t="s">
-        <v>219</v>
-      </c>
-      <c r="I55" s="30"/>
+      <c r="G55" s="32"/>
+      <c r="H55" s="30"/>
+      <c r="I55" s="30" t="s">
+        <v>192</v>
+      </c>
       <c r="J55" s="30"/>
       <c r="K55" s="30"/>
       <c r="L55" s="30"/>
@@ -41670,30 +41698,28 @@
       <c r="W55" s="30"/>
       <c r="X55" s="30"/>
       <c r="Y55" s="30"/>
-      <c r="Z55" s="32" t="s">
-        <v>174</v>
-      </c>
+      <c r="Z55" s="32"/>
       <c r="AA55" s="30"/>
       <c r="AB55" s="58"/>
-      <c r="AC55" s="110"/>
-      <c r="AD55" s="111"/>
-      <c r="AE55" s="111"/>
-      <c r="AF55" s="111"/>
-      <c r="AG55" s="112"/>
+      <c r="AC55" s="113"/>
+      <c r="AD55" s="40"/>
+      <c r="AE55" s="40"/>
+      <c r="AF55" s="40"/>
+      <c r="AG55" s="41"/>
     </row>
     <row r="56" spans="1:33" ht="12.75" customHeight="1">
       <c r="A56" s="29" t="s">
-        <v>61</v>
+        <v>220</v>
       </c>
       <c r="B56" s="30"/>
       <c r="C56" s="30"/>
       <c r="D56" s="30"/>
       <c r="E56" s="30"/>
       <c r="F56" s="58"/>
-      <c r="G56" s="32"/>
-      <c r="H56" s="30" t="s">
-        <v>219</v>
-      </c>
+      <c r="G56" s="30" t="s">
+        <v>221</v>
+      </c>
+      <c r="H56" s="30"/>
       <c r="I56" s="30"/>
       <c r="J56" s="30"/>
       <c r="K56" s="30"/>
@@ -41711,29 +41737,27 @@
       <c r="W56" s="30"/>
       <c r="X56" s="30"/>
       <c r="Y56" s="30"/>
-      <c r="Z56" s="32" t="s">
-        <v>174</v>
-      </c>
+      <c r="Z56" s="32"/>
       <c r="AA56" s="30"/>
-      <c r="AB56" s="58"/>
-      <c r="AC56" s="110"/>
-      <c r="AD56" s="111"/>
-      <c r="AE56" s="111"/>
-      <c r="AF56" s="111"/>
-      <c r="AG56" s="112"/>
+      <c r="AB56" s="32"/>
+      <c r="AC56" s="152"/>
+      <c r="AD56" s="153"/>
+      <c r="AE56" s="153"/>
+      <c r="AF56" s="153"/>
+      <c r="AG56" s="154"/>
     </row>
     <row r="57" spans="1:33" ht="12.75" customHeight="1">
       <c r="A57" s="29" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B57" s="30"/>
       <c r="C57" s="30"/>
       <c r="D57" s="30"/>
       <c r="E57" s="30"/>
       <c r="F57" s="58"/>
-      <c r="G57" s="32"/>
+      <c r="G57" s="30"/>
       <c r="H57" s="30" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="I57" s="30"/>
       <c r="J57" s="30"/>
@@ -41756,25 +41780,25 @@
         <v>174</v>
       </c>
       <c r="AA57" s="30"/>
-      <c r="AB57" s="58"/>
-      <c r="AC57" s="110"/>
-      <c r="AD57" s="111"/>
-      <c r="AE57" s="111"/>
-      <c r="AF57" s="111"/>
-      <c r="AG57" s="112"/>
+      <c r="AB57" s="32"/>
+      <c r="AC57" s="152"/>
+      <c r="AD57" s="153"/>
+      <c r="AE57" s="153"/>
+      <c r="AF57" s="153"/>
+      <c r="AG57" s="154"/>
     </row>
     <row r="58" spans="1:33" ht="12.75" customHeight="1">
       <c r="A58" s="29" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="B58" s="30"/>
       <c r="C58" s="30"/>
       <c r="D58" s="30"/>
       <c r="E58" s="30"/>
-      <c r="F58" s="31"/>
+      <c r="F58" s="58"/>
       <c r="G58" s="30"/>
       <c r="H58" s="30" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="I58" s="30"/>
       <c r="J58" s="30"/>
@@ -41788,14 +41812,15 @@
       <c r="R58" s="30"/>
       <c r="S58" s="30"/>
       <c r="T58" s="30"/>
-      <c r="U58" s="30"/>
+      <c r="U58" s="32"/>
       <c r="V58" s="30"/>
       <c r="W58" s="30"/>
       <c r="X58" s="30"/>
       <c r="Y58" s="30"/>
-      <c r="AA58" s="32" t="s">
+      <c r="Z58" s="32" t="s">
         <v>174</v>
       </c>
+      <c r="AA58" s="30"/>
       <c r="AB58" s="58"/>
       <c r="AC58" s="110"/>
       <c r="AD58" s="111"/>
@@ -41805,16 +41830,16 @@
     </row>
     <row r="59" spans="1:33" ht="12.75" customHeight="1">
       <c r="A59" s="29" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="B59" s="30"/>
       <c r="C59" s="30"/>
       <c r="D59" s="30"/>
       <c r="E59" s="30"/>
-      <c r="F59" s="31"/>
-      <c r="G59" s="30"/>
+      <c r="F59" s="58"/>
+      <c r="G59" s="32"/>
       <c r="H59" s="30" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="I59" s="30"/>
       <c r="J59" s="30"/>
@@ -41828,7 +41853,7 @@
       <c r="R59" s="30"/>
       <c r="S59" s="30"/>
       <c r="T59" s="30"/>
-      <c r="U59" s="30"/>
+      <c r="U59" s="32"/>
       <c r="V59" s="30"/>
       <c r="W59" s="30"/>
       <c r="X59" s="30"/>
@@ -41846,16 +41871,16 @@
     </row>
     <row r="60" spans="1:33" ht="12.75" customHeight="1">
       <c r="A60" s="29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B60" s="30"/>
       <c r="C60" s="30"/>
       <c r="D60" s="30"/>
       <c r="E60" s="30"/>
-      <c r="F60" s="31"/>
-      <c r="G60" s="30"/>
+      <c r="F60" s="58"/>
+      <c r="G60" s="32"/>
       <c r="H60" s="30" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="I60" s="30"/>
       <c r="J60" s="30"/>
@@ -41869,7 +41894,7 @@
       <c r="R60" s="30"/>
       <c r="S60" s="30"/>
       <c r="T60" s="30"/>
-      <c r="U60" s="30"/>
+      <c r="U60" s="32"/>
       <c r="V60" s="30"/>
       <c r="W60" s="30"/>
       <c r="X60" s="30"/>
@@ -41887,7 +41912,7 @@
     </row>
     <row r="61" spans="1:33" ht="12.75" customHeight="1">
       <c r="A61" s="29" t="s">
-        <v>221</v>
+        <v>52</v>
       </c>
       <c r="B61" s="30"/>
       <c r="C61" s="30"/>
@@ -41918,7 +41943,7 @@
       <c r="Z61" s="32" t="s">
         <v>174</v>
       </c>
-      <c r="AA61" s="30"/>
+      <c r="AA61" s="32"/>
       <c r="AB61" s="58"/>
       <c r="AC61" s="110"/>
       <c r="AD61" s="111"/>
@@ -41928,18 +41953,18 @@
     </row>
     <row r="62" spans="1:33" ht="12.75" customHeight="1">
       <c r="A62" s="29" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="B62" s="30"/>
       <c r="C62" s="30"/>
       <c r="D62" s="30"/>
       <c r="E62" s="30"/>
       <c r="F62" s="31"/>
-      <c r="G62" s="29"/>
+      <c r="G62" s="30"/>
       <c r="H62" s="30" t="s">
-        <v>219</v>
-      </c>
-      <c r="I62" s="32"/>
+        <v>223</v>
+      </c>
+      <c r="I62" s="30"/>
       <c r="J62" s="30"/>
       <c r="K62" s="30"/>
       <c r="L62" s="30"/>
@@ -41960,7 +41985,7 @@
         <v>174</v>
       </c>
       <c r="AA62" s="30"/>
-      <c r="AB62" s="31"/>
+      <c r="AB62" s="58"/>
       <c r="AC62" s="110"/>
       <c r="AD62" s="111"/>
       <c r="AE62" s="111"/>
@@ -41969,13 +41994,13 @@
     </row>
     <row r="63" spans="1:33" ht="12.75" customHeight="1">
       <c r="A63" s="29" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B63" s="30"/>
       <c r="C63" s="30"/>
       <c r="D63" s="30"/>
       <c r="E63" s="30"/>
-      <c r="F63" s="58"/>
+      <c r="F63" s="31"/>
       <c r="G63" s="30"/>
       <c r="H63" s="30" t="s">
         <v>222</v>
@@ -42001,7 +42026,7 @@
         <v>174</v>
       </c>
       <c r="AA63" s="30"/>
-      <c r="AB63" s="31"/>
+      <c r="AB63" s="58"/>
       <c r="AC63" s="110"/>
       <c r="AD63" s="111"/>
       <c r="AE63" s="111"/>
@@ -42010,7 +42035,7 @@
     </row>
     <row r="64" spans="1:33" ht="12.75" customHeight="1">
       <c r="A64" s="29" t="s">
-        <v>69</v>
+        <v>224</v>
       </c>
       <c r="B64" s="30"/>
       <c r="C64" s="30"/>
@@ -42019,7 +42044,7 @@
       <c r="F64" s="31"/>
       <c r="G64" s="30"/>
       <c r="H64" s="30" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="I64" s="30"/>
       <c r="J64" s="30"/>
@@ -42042,7 +42067,7 @@
         <v>174</v>
       </c>
       <c r="AA64" s="30"/>
-      <c r="AB64" s="31"/>
+      <c r="AB64" s="58"/>
       <c r="AC64" s="110"/>
       <c r="AD64" s="111"/>
       <c r="AE64" s="111"/>
@@ -42051,7 +42076,7 @@
     </row>
     <row r="65" spans="1:33" ht="12.75" customHeight="1">
       <c r="A65" s="29" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B65" s="30"/>
       <c r="C65" s="30"/>
@@ -42060,9 +42085,9 @@
       <c r="F65" s="31"/>
       <c r="G65" s="29"/>
       <c r="H65" s="30" t="s">
-        <v>219</v>
-      </c>
-      <c r="I65" s="30"/>
+        <v>222</v>
+      </c>
+      <c r="I65" s="32"/>
       <c r="J65" s="30"/>
       <c r="K65" s="30"/>
       <c r="L65" s="30"/>
@@ -42079,27 +42104,29 @@
       <c r="W65" s="30"/>
       <c r="X65" s="30"/>
       <c r="Y65" s="30"/>
-      <c r="Z65" s="30"/>
+      <c r="Z65" s="32" t="s">
+        <v>174</v>
+      </c>
       <c r="AA65" s="30"/>
       <c r="AB65" s="31"/>
-      <c r="AC65" s="30"/>
-      <c r="AD65" s="30"/>
-      <c r="AE65" s="30"/>
-      <c r="AF65" s="30"/>
-      <c r="AG65" s="31"/>
+      <c r="AC65" s="110"/>
+      <c r="AD65" s="111"/>
+      <c r="AE65" s="111"/>
+      <c r="AF65" s="111"/>
+      <c r="AG65" s="112"/>
     </row>
     <row r="66" spans="1:33" ht="12.75" customHeight="1">
       <c r="A66" s="29" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B66" s="30"/>
       <c r="C66" s="30"/>
       <c r="D66" s="30"/>
       <c r="E66" s="30"/>
-      <c r="F66" s="31"/>
+      <c r="F66" s="58"/>
       <c r="G66" s="30"/>
       <c r="H66" s="30" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="I66" s="30"/>
       <c r="J66" s="30"/>
@@ -42118,28 +42145,30 @@
       <c r="W66" s="30"/>
       <c r="X66" s="30"/>
       <c r="Y66" s="30"/>
-      <c r="Z66" s="30"/>
+      <c r="Z66" s="32" t="s">
+        <v>174</v>
+      </c>
       <c r="AA66" s="30"/>
       <c r="AB66" s="31"/>
-      <c r="AC66" s="30"/>
-      <c r="AD66" s="30"/>
-      <c r="AE66" s="30"/>
-      <c r="AF66" s="30"/>
-      <c r="AG66" s="31"/>
+      <c r="AC66" s="110"/>
+      <c r="AD66" s="111"/>
+      <c r="AE66" s="111"/>
+      <c r="AF66" s="111"/>
+      <c r="AG66" s="112"/>
     </row>
     <row r="67" spans="1:33" ht="12.75" customHeight="1">
       <c r="A67" s="29" t="s">
-        <v>223</v>
+        <v>69</v>
       </c>
       <c r="B67" s="30"/>
       <c r="C67" s="30"/>
       <c r="D67" s="30"/>
       <c r="E67" s="30"/>
-      <c r="F67" s="58"/>
-      <c r="G67" s="30" t="s">
-        <v>224</v>
-      </c>
-      <c r="H67" s="30"/>
+      <c r="F67" s="31"/>
+      <c r="G67" s="30"/>
+      <c r="H67" s="30" t="s">
+        <v>222</v>
+      </c>
       <c r="I67" s="30"/>
       <c r="J67" s="30"/>
       <c r="K67" s="30"/>
@@ -42157,28 +42186,30 @@
       <c r="W67" s="30"/>
       <c r="X67" s="30"/>
       <c r="Y67" s="30"/>
-      <c r="Z67" s="30"/>
+      <c r="Z67" s="32" t="s">
+        <v>174</v>
+      </c>
       <c r="AA67" s="30"/>
       <c r="AB67" s="31"/>
-      <c r="AC67" s="30"/>
-      <c r="AD67" s="30"/>
-      <c r="AE67" s="30"/>
-      <c r="AF67" s="30"/>
-      <c r="AG67" s="31"/>
+      <c r="AC67" s="110"/>
+      <c r="AD67" s="111"/>
+      <c r="AE67" s="111"/>
+      <c r="AF67" s="111"/>
+      <c r="AG67" s="112"/>
     </row>
     <row r="68" spans="1:33" ht="12.75" customHeight="1">
       <c r="A68" s="29" t="s">
-        <v>225</v>
+        <v>70</v>
       </c>
       <c r="B68" s="30"/>
       <c r="C68" s="30"/>
       <c r="D68" s="30"/>
       <c r="E68" s="30"/>
       <c r="F68" s="31"/>
-      <c r="G68" s="30" t="s">
-        <v>226</v>
-      </c>
-      <c r="H68" s="30"/>
+      <c r="G68" s="29"/>
+      <c r="H68" s="30" t="s">
+        <v>222</v>
+      </c>
       <c r="I68" s="30"/>
       <c r="J68" s="30"/>
       <c r="K68" s="30"/>
@@ -42206,7 +42237,9 @@
       <c r="AG68" s="31"/>
     </row>
     <row r="69" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A69" s="29"/>
+      <c r="A69" s="29" t="s">
+        <v>71</v>
+      </c>
       <c r="B69" s="30"/>
       <c r="C69" s="30"/>
       <c r="D69" s="30"/>
@@ -42214,7 +42247,7 @@
       <c r="F69" s="31"/>
       <c r="G69" s="30"/>
       <c r="H69" s="30" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I69" s="30"/>
       <c r="J69" s="30"/>
@@ -42243,17 +42276,19 @@
       <c r="AG69" s="31"/>
     </row>
     <row r="70" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A70" s="29"/>
+      <c r="A70" s="29" t="s">
+        <v>226</v>
+      </c>
       <c r="B70" s="30"/>
       <c r="C70" s="30"/>
       <c r="D70" s="30"/>
       <c r="E70" s="30"/>
       <c r="F70" s="58"/>
-      <c r="G70" s="32"/>
+      <c r="G70" s="30" t="s">
+        <v>227</v>
+      </c>
       <c r="H70" s="30"/>
-      <c r="I70" s="30" t="s">
-        <v>228</v>
-      </c>
+      <c r="I70" s="30"/>
       <c r="J70" s="30"/>
       <c r="K70" s="30"/>
       <c r="L70" s="30"/>
@@ -42280,18 +42315,20 @@
       <c r="AG70" s="31"/>
     </row>
     <row r="71" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A71" s="29"/>
+      <c r="A71" s="29" t="s">
+        <v>228</v>
+      </c>
       <c r="B71" s="30"/>
       <c r="C71" s="30"/>
       <c r="D71" s="30"/>
       <c r="E71" s="30"/>
-      <c r="F71" s="58"/>
-      <c r="G71" s="32"/>
+      <c r="F71" s="31"/>
+      <c r="G71" s="30" t="s">
+        <v>229</v>
+      </c>
       <c r="H71" s="30"/>
       <c r="I71" s="30"/>
-      <c r="J71" s="30" t="s">
-        <v>229</v>
-      </c>
+      <c r="J71" s="30"/>
       <c r="K71" s="30"/>
       <c r="L71" s="30"/>
       <c r="M71" s="30"/>
@@ -42322,12 +42359,12 @@
       <c r="C72" s="30"/>
       <c r="D72" s="30"/>
       <c r="E72" s="30"/>
-      <c r="F72" s="58"/>
-      <c r="G72" s="32"/>
-      <c r="H72" s="30"/>
-      <c r="I72" s="30" t="s">
+      <c r="F72" s="31"/>
+      <c r="G72" s="30"/>
+      <c r="H72" s="30" t="s">
         <v>230</v>
       </c>
+      <c r="I72" s="30"/>
       <c r="J72" s="30"/>
       <c r="K72" s="30"/>
       <c r="L72" s="30"/>
@@ -42362,10 +42399,10 @@
       <c r="F73" s="58"/>
       <c r="G73" s="32"/>
       <c r="H73" s="30"/>
-      <c r="I73" s="30"/>
-      <c r="J73" s="30" t="s">
+      <c r="I73" s="30" t="s">
         <v>231</v>
       </c>
+      <c r="J73" s="30"/>
       <c r="K73" s="30"/>
       <c r="L73" s="30"/>
       <c r="M73" s="30"/>
@@ -42436,10 +42473,10 @@
       <c r="F75" s="58"/>
       <c r="G75" s="32"/>
       <c r="H75" s="30"/>
-      <c r="I75" s="30"/>
-      <c r="J75" s="30" t="s">
+      <c r="I75" s="30" t="s">
         <v>233</v>
       </c>
+      <c r="J75" s="30"/>
       <c r="K75" s="30"/>
       <c r="L75" s="30"/>
       <c r="M75" s="30"/>
@@ -42474,10 +42511,10 @@
       <c r="G76" s="32"/>
       <c r="H76" s="30"/>
       <c r="I76" s="30"/>
-      <c r="J76" s="30"/>
-      <c r="K76" s="30" t="s">
+      <c r="J76" s="30" t="s">
         <v>234</v>
       </c>
+      <c r="K76" s="30"/>
       <c r="L76" s="30"/>
       <c r="M76" s="30"/>
       <c r="N76" s="30"/>
@@ -42511,11 +42548,11 @@
       <c r="G77" s="32"/>
       <c r="H77" s="30"/>
       <c r="I77" s="30"/>
-      <c r="J77" s="30"/>
+      <c r="J77" s="30" t="s">
+        <v>235</v>
+      </c>
       <c r="K77" s="30"/>
-      <c r="L77" s="30" t="s">
-        <v>235</v>
-      </c>
+      <c r="L77" s="30"/>
       <c r="M77" s="30"/>
       <c r="N77" s="30"/>
       <c r="O77" s="30"/>
@@ -42548,10 +42585,10 @@
       <c r="G78" s="32"/>
       <c r="H78" s="30"/>
       <c r="I78" s="30"/>
-      <c r="J78" s="30"/>
-      <c r="K78" s="30" t="s">
+      <c r="J78" s="30" t="s">
         <v>236</v>
       </c>
+      <c r="K78" s="30"/>
       <c r="L78" s="30"/>
       <c r="M78" s="30"/>
       <c r="N78" s="30"/>
@@ -42586,10 +42623,10 @@
       <c r="H79" s="30"/>
       <c r="I79" s="30"/>
       <c r="J79" s="30"/>
-      <c r="K79" s="30"/>
-      <c r="L79" s="30" t="s">
+      <c r="K79" s="30" t="s">
         <v>237</v>
       </c>
+      <c r="L79" s="30"/>
       <c r="M79" s="30"/>
       <c r="N79" s="30"/>
       <c r="O79" s="30"/>
@@ -42624,7 +42661,9 @@
       <c r="I80" s="30"/>
       <c r="J80" s="30"/>
       <c r="K80" s="30"/>
-      <c r="L80" s="30"/>
+      <c r="L80" s="30" t="s">
+        <v>238</v>
+      </c>
       <c r="M80" s="30"/>
       <c r="N80" s="30"/>
       <c r="O80" s="30"/>
@@ -42647,8 +42686,1490 @@
       <c r="AF80" s="30"/>
       <c r="AG80" s="31"/>
     </row>
+    <row r="81" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A81" s="29"/>
+      <c r="B81" s="30"/>
+      <c r="C81" s="30"/>
+      <c r="D81" s="30"/>
+      <c r="E81" s="30"/>
+      <c r="F81" s="58"/>
+      <c r="G81" s="32"/>
+      <c r="H81" s="30"/>
+      <c r="I81" s="30"/>
+      <c r="J81" s="30"/>
+      <c r="K81" s="30" t="s">
+        <v>239</v>
+      </c>
+      <c r="L81" s="30"/>
+      <c r="M81" s="30"/>
+      <c r="N81" s="30"/>
+      <c r="O81" s="30"/>
+      <c r="P81" s="30"/>
+      <c r="Q81" s="30"/>
+      <c r="R81" s="30"/>
+      <c r="S81" s="30"/>
+      <c r="T81" s="30"/>
+      <c r="U81" s="30"/>
+      <c r="V81" s="30"/>
+      <c r="W81" s="30"/>
+      <c r="X81" s="30"/>
+      <c r="Y81" s="30"/>
+      <c r="Z81" s="30"/>
+      <c r="AA81" s="30"/>
+      <c r="AB81" s="31"/>
+      <c r="AC81" s="30"/>
+      <c r="AD81" s="30"/>
+      <c r="AE81" s="30"/>
+      <c r="AF81" s="30"/>
+      <c r="AG81" s="31"/>
+    </row>
+    <row r="82" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A82" s="29"/>
+      <c r="B82" s="30"/>
+      <c r="C82" s="30"/>
+      <c r="D82" s="30"/>
+      <c r="E82" s="30"/>
+      <c r="F82" s="58"/>
+      <c r="G82" s="32"/>
+      <c r="H82" s="30"/>
+      <c r="I82" s="30"/>
+      <c r="J82" s="30"/>
+      <c r="K82" s="30"/>
+      <c r="L82" s="30" t="s">
+        <v>240</v>
+      </c>
+      <c r="M82" s="30"/>
+      <c r="N82" s="30"/>
+      <c r="O82" s="30"/>
+      <c r="P82" s="30"/>
+      <c r="Q82" s="30"/>
+      <c r="R82" s="30"/>
+      <c r="S82" s="30"/>
+      <c r="T82" s="30"/>
+      <c r="U82" s="30"/>
+      <c r="V82" s="30"/>
+      <c r="W82" s="30"/>
+      <c r="X82" s="30"/>
+      <c r="Y82" s="30"/>
+      <c r="Z82" s="30"/>
+      <c r="AA82" s="30"/>
+      <c r="AB82" s="31"/>
+      <c r="AC82" s="30"/>
+      <c r="AD82" s="30"/>
+      <c r="AE82" s="30"/>
+      <c r="AF82" s="30"/>
+      <c r="AG82" s="31"/>
+    </row>
+    <row r="83" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A83" s="29"/>
+      <c r="B83" s="30"/>
+      <c r="C83" s="30"/>
+      <c r="D83" s="30"/>
+      <c r="E83" s="30"/>
+      <c r="F83" s="58"/>
+      <c r="G83" s="32"/>
+      <c r="H83" s="30"/>
+      <c r="I83" s="30"/>
+      <c r="J83" s="30"/>
+      <c r="K83" s="30"/>
+      <c r="L83" s="30"/>
+      <c r="M83" s="30"/>
+      <c r="N83" s="30"/>
+      <c r="O83" s="30"/>
+      <c r="P83" s="30"/>
+      <c r="Q83" s="30"/>
+      <c r="R83" s="30"/>
+      <c r="S83" s="30"/>
+      <c r="T83" s="30"/>
+      <c r="U83" s="30"/>
+      <c r="V83" s="30"/>
+      <c r="W83" s="30"/>
+      <c r="X83" s="30"/>
+      <c r="Y83" s="30"/>
+      <c r="Z83" s="30"/>
+      <c r="AA83" s="30"/>
+      <c r="AB83" s="31"/>
+      <c r="AC83" s="30"/>
+      <c r="AD83" s="30"/>
+      <c r="AE83" s="30"/>
+      <c r="AF83" s="30"/>
+      <c r="AG83" s="31"/>
+    </row>
+    <row r="84" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A84" s="149" t="s">
+        <v>166</v>
+      </c>
+      <c r="B84" s="150"/>
+      <c r="C84" s="150"/>
+      <c r="D84" s="150"/>
+      <c r="E84" s="150"/>
+      <c r="F84" s="150"/>
+      <c r="G84" s="150"/>
+      <c r="H84" s="150"/>
+      <c r="I84" s="150"/>
+      <c r="J84" s="150"/>
+      <c r="K84" s="150"/>
+      <c r="L84" s="150"/>
+      <c r="M84" s="150"/>
+      <c r="N84" s="150"/>
+      <c r="O84" s="150"/>
+      <c r="P84" s="150"/>
+      <c r="Q84" s="150"/>
+      <c r="R84" s="150"/>
+      <c r="S84" s="150"/>
+      <c r="T84" s="150"/>
+      <c r="U84" s="150"/>
+      <c r="V84" s="150"/>
+      <c r="W84" s="150"/>
+      <c r="X84" s="150"/>
+      <c r="Y84" s="150"/>
+      <c r="Z84" s="150"/>
+      <c r="AA84" s="150"/>
+      <c r="AB84" s="150"/>
+      <c r="AC84" s="150"/>
+      <c r="AD84" s="150"/>
+      <c r="AE84" s="150"/>
+      <c r="AF84" s="150"/>
+      <c r="AG84" s="151"/>
+    </row>
+    <row r="85" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A85" s="117" t="s">
+        <v>16</v>
+      </c>
+      <c r="B85" s="118"/>
+      <c r="C85" s="118"/>
+      <c r="D85" s="118"/>
+      <c r="E85" s="118"/>
+      <c r="F85" s="119"/>
+      <c r="G85" s="117" t="s">
+        <v>17</v>
+      </c>
+      <c r="H85" s="118"/>
+      <c r="I85" s="118"/>
+      <c r="J85" s="118"/>
+      <c r="K85" s="118"/>
+      <c r="L85" s="118"/>
+      <c r="M85" s="118"/>
+      <c r="N85" s="118"/>
+      <c r="O85" s="118"/>
+      <c r="P85" s="118"/>
+      <c r="Q85" s="118"/>
+      <c r="R85" s="118"/>
+      <c r="S85" s="118"/>
+      <c r="T85" s="118"/>
+      <c r="U85" s="118"/>
+      <c r="V85" s="118"/>
+      <c r="W85" s="118"/>
+      <c r="X85" s="118"/>
+      <c r="Y85" s="118"/>
+      <c r="Z85" s="118"/>
+      <c r="AA85" s="118"/>
+      <c r="AB85" s="118"/>
+      <c r="AC85" s="119"/>
+      <c r="AD85" s="117" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE85" s="119"/>
+      <c r="AF85" s="117" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG85" s="119"/>
+    </row>
+    <row r="86" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A86" s="117" t="s">
+        <v>167</v>
+      </c>
+      <c r="B86" s="118"/>
+      <c r="C86" s="118"/>
+      <c r="D86" s="118"/>
+      <c r="E86" s="118"/>
+      <c r="F86" s="119"/>
+      <c r="G86" s="117" t="s">
+        <v>241</v>
+      </c>
+      <c r="H86" s="118"/>
+      <c r="I86" s="118"/>
+      <c r="J86" s="118"/>
+      <c r="K86" s="118"/>
+      <c r="L86" s="118"/>
+      <c r="M86" s="118"/>
+      <c r="N86" s="118"/>
+      <c r="O86" s="118"/>
+      <c r="P86" s="118"/>
+      <c r="Q86" s="118"/>
+      <c r="R86" s="118"/>
+      <c r="S86" s="118"/>
+      <c r="T86" s="118"/>
+      <c r="U86" s="118"/>
+      <c r="V86" s="118"/>
+      <c r="W86" s="118"/>
+      <c r="X86" s="118"/>
+      <c r="Y86" s="118"/>
+      <c r="Z86" s="118"/>
+      <c r="AA86" s="118"/>
+      <c r="AB86" s="118"/>
+      <c r="AC86" s="119"/>
+      <c r="AD86" s="117" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE86" s="119"/>
+      <c r="AF86" s="117" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG86" s="119"/>
+    </row>
+    <row r="87" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A87" s="107" t="s">
+        <v>168</v>
+      </c>
+      <c r="B87" s="108"/>
+      <c r="C87" s="108"/>
+      <c r="D87" s="108"/>
+      <c r="E87" s="108"/>
+      <c r="F87" s="109"/>
+      <c r="G87" s="107" t="s">
+        <v>169</v>
+      </c>
+      <c r="H87" s="108"/>
+      <c r="I87" s="108"/>
+      <c r="J87" s="108"/>
+      <c r="K87" s="108"/>
+      <c r="L87" s="108"/>
+      <c r="M87" s="108"/>
+      <c r="N87" s="108"/>
+      <c r="O87" s="108"/>
+      <c r="P87" s="108"/>
+      <c r="Q87" s="108"/>
+      <c r="R87" s="108"/>
+      <c r="S87" s="108"/>
+      <c r="T87" s="108"/>
+      <c r="U87" s="108"/>
+      <c r="V87" s="108"/>
+      <c r="W87" s="108"/>
+      <c r="X87" s="108"/>
+      <c r="Y87" s="108"/>
+      <c r="Z87" s="108"/>
+      <c r="AA87" s="108"/>
+      <c r="AB87" s="109"/>
+      <c r="AC87" s="107" t="s">
+        <v>170</v>
+      </c>
+      <c r="AD87" s="108"/>
+      <c r="AE87" s="108"/>
+      <c r="AF87" s="108"/>
+      <c r="AG87" s="109"/>
+    </row>
+    <row r="88" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A88" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="B88" s="30"/>
+      <c r="C88" s="30"/>
+      <c r="D88" s="30"/>
+      <c r="E88" s="30"/>
+      <c r="F88" s="31"/>
+      <c r="G88" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="H88" s="30"/>
+      <c r="I88" s="30"/>
+      <c r="J88" s="30"/>
+      <c r="K88" s="30"/>
+      <c r="L88" s="30"/>
+      <c r="M88" s="30"/>
+      <c r="N88" s="30"/>
+      <c r="O88" s="30"/>
+      <c r="P88" s="30"/>
+      <c r="Q88" s="30"/>
+      <c r="R88" s="30"/>
+      <c r="S88" s="30"/>
+      <c r="T88" s="30"/>
+      <c r="U88" s="30"/>
+      <c r="V88" s="30"/>
+      <c r="W88" s="30"/>
+      <c r="X88" s="30"/>
+      <c r="Y88" s="30"/>
+      <c r="Z88" s="30"/>
+      <c r="AA88" s="30"/>
+      <c r="AB88" s="31"/>
+      <c r="AC88" s="30"/>
+      <c r="AD88" s="30"/>
+      <c r="AE88" s="30"/>
+      <c r="AF88" s="30"/>
+      <c r="AG88" s="31"/>
+    </row>
+    <row r="89" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A89" s="29"/>
+      <c r="B89" s="30"/>
+      <c r="C89" s="30"/>
+      <c r="D89" s="30"/>
+      <c r="E89" s="30"/>
+      <c r="F89" s="58"/>
+      <c r="G89" s="32"/>
+      <c r="H89" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="I89" s="30"/>
+      <c r="J89" s="30"/>
+      <c r="K89" s="30"/>
+      <c r="L89" s="30"/>
+      <c r="M89" s="30"/>
+      <c r="N89" s="30"/>
+      <c r="O89" s="30"/>
+      <c r="P89" s="30"/>
+      <c r="Q89" s="30"/>
+      <c r="R89" s="30"/>
+      <c r="S89" s="30"/>
+      <c r="T89" s="30"/>
+      <c r="U89" s="32"/>
+      <c r="V89" s="30"/>
+      <c r="W89" s="30"/>
+      <c r="X89" s="30"/>
+      <c r="Y89" s="30"/>
+      <c r="Z89" s="32"/>
+      <c r="AA89" s="30"/>
+      <c r="AB89" s="58"/>
+      <c r="AC89" s="32"/>
+      <c r="AD89" s="30"/>
+      <c r="AE89" s="30"/>
+      <c r="AF89" s="30"/>
+      <c r="AG89" s="31"/>
+    </row>
+    <row r="90" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A90" s="29"/>
+      <c r="B90" s="30"/>
+      <c r="C90" s="30"/>
+      <c r="D90" s="30"/>
+      <c r="E90" s="30"/>
+      <c r="F90" s="58"/>
+      <c r="G90" s="32"/>
+      <c r="H90" s="30"/>
+      <c r="I90" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="J90" s="30"/>
+      <c r="K90" s="30"/>
+      <c r="L90" s="30"/>
+      <c r="M90" s="30"/>
+      <c r="N90" s="30"/>
+      <c r="O90" s="30"/>
+      <c r="P90" s="30"/>
+      <c r="Q90" s="30"/>
+      <c r="R90" s="30"/>
+      <c r="S90" s="30"/>
+      <c r="T90" s="30"/>
+      <c r="U90" s="32"/>
+      <c r="V90" s="30"/>
+      <c r="W90" s="30"/>
+      <c r="X90" s="30"/>
+      <c r="Y90" s="30"/>
+      <c r="Z90" s="32"/>
+      <c r="AA90" s="30"/>
+      <c r="AB90" s="58"/>
+      <c r="AC90" s="32"/>
+      <c r="AD90" s="30"/>
+      <c r="AE90" s="30"/>
+      <c r="AF90" s="30"/>
+      <c r="AG90" s="31"/>
+    </row>
+    <row r="91" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A91" s="29"/>
+      <c r="B91" s="30"/>
+      <c r="C91" s="30"/>
+      <c r="D91" s="30"/>
+      <c r="E91" s="30"/>
+      <c r="F91" s="58"/>
+      <c r="G91" s="32"/>
+      <c r="H91" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="I91" s="30"/>
+      <c r="J91" s="30"/>
+      <c r="K91" s="30"/>
+      <c r="L91" s="30"/>
+      <c r="M91" s="30"/>
+      <c r="N91" s="30"/>
+      <c r="O91" s="30"/>
+      <c r="P91" s="30"/>
+      <c r="Q91" s="30"/>
+      <c r="R91" s="30"/>
+      <c r="S91" s="30"/>
+      <c r="T91" s="30"/>
+      <c r="U91" s="32"/>
+      <c r="V91" s="30"/>
+      <c r="W91" s="30"/>
+      <c r="X91" s="30"/>
+      <c r="Y91" s="30"/>
+      <c r="Z91" s="32"/>
+      <c r="AA91" s="30"/>
+      <c r="AB91" s="58"/>
+      <c r="AC91" s="32"/>
+      <c r="AD91" s="30"/>
+      <c r="AE91" s="30"/>
+      <c r="AF91" s="30"/>
+      <c r="AG91" s="31"/>
+    </row>
+    <row r="92" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A92" s="29"/>
+      <c r="B92" s="30"/>
+      <c r="C92" s="30"/>
+      <c r="D92" s="30"/>
+      <c r="E92" s="30"/>
+      <c r="F92" s="58"/>
+      <c r="G92" s="32"/>
+      <c r="H92" s="30"/>
+      <c r="I92" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="J92" s="30"/>
+      <c r="K92" s="30"/>
+      <c r="L92" s="30"/>
+      <c r="M92" s="30"/>
+      <c r="N92" s="30"/>
+      <c r="O92" s="30"/>
+      <c r="P92" s="30"/>
+      <c r="Q92" s="30"/>
+      <c r="R92" s="30"/>
+      <c r="S92" s="30"/>
+      <c r="T92" s="30"/>
+      <c r="U92" s="32"/>
+      <c r="V92" s="30"/>
+      <c r="W92" s="30"/>
+      <c r="X92" s="30"/>
+      <c r="Y92" s="30"/>
+      <c r="Z92" s="32"/>
+      <c r="AA92" s="30"/>
+      <c r="AB92" s="58"/>
+      <c r="AC92" s="113"/>
+      <c r="AD92" s="40"/>
+      <c r="AE92" s="40"/>
+      <c r="AF92" s="40"/>
+      <c r="AG92" s="41"/>
+    </row>
+    <row r="93" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A93" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="B93" s="30"/>
+      <c r="C93" s="30"/>
+      <c r="D93" s="30"/>
+      <c r="E93" s="30"/>
+      <c r="F93" s="58"/>
+      <c r="G93" s="30" t="s">
+        <v>243</v>
+      </c>
+      <c r="H93" s="30"/>
+      <c r="I93" s="30"/>
+      <c r="J93" s="30"/>
+      <c r="K93" s="30"/>
+      <c r="L93" s="30"/>
+      <c r="M93" s="30"/>
+      <c r="N93" s="30"/>
+      <c r="O93" s="30"/>
+      <c r="P93" s="30"/>
+      <c r="Q93" s="30"/>
+      <c r="R93" s="30"/>
+      <c r="S93" s="30"/>
+      <c r="T93" s="30"/>
+      <c r="U93" s="32"/>
+      <c r="V93" s="30"/>
+      <c r="W93" s="30"/>
+      <c r="X93" s="30"/>
+      <c r="Y93" s="30"/>
+      <c r="Z93" s="32"/>
+      <c r="AA93" s="30"/>
+      <c r="AB93" s="32"/>
+      <c r="AC93" s="152"/>
+      <c r="AD93" s="153"/>
+      <c r="AE93" s="153"/>
+      <c r="AF93" s="153"/>
+      <c r="AG93" s="154"/>
+    </row>
+    <row r="94" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A94" s="29" t="s">
+        <v>244</v>
+      </c>
+      <c r="B94" s="30"/>
+      <c r="C94" s="30"/>
+      <c r="D94" s="30"/>
+      <c r="E94" s="30"/>
+      <c r="F94" s="58"/>
+      <c r="G94" s="30" t="s">
+        <v>245</v>
+      </c>
+      <c r="H94" s="30"/>
+      <c r="I94" s="30"/>
+      <c r="J94" s="30"/>
+      <c r="K94" s="30"/>
+      <c r="L94" s="30"/>
+      <c r="M94" s="30"/>
+      <c r="N94" s="30"/>
+      <c r="O94" s="30"/>
+      <c r="P94" s="30"/>
+      <c r="Q94" s="30"/>
+      <c r="R94" s="30"/>
+      <c r="S94" s="30"/>
+      <c r="T94" s="30"/>
+      <c r="U94" s="32"/>
+      <c r="V94" s="30"/>
+      <c r="W94" s="30"/>
+      <c r="X94" s="30"/>
+      <c r="Y94" s="30"/>
+      <c r="Z94" s="32"/>
+      <c r="AA94" s="30"/>
+      <c r="AB94" s="32"/>
+      <c r="AC94" s="152"/>
+      <c r="AD94" s="153"/>
+      <c r="AE94" s="153"/>
+      <c r="AF94" s="153"/>
+      <c r="AG94" s="154"/>
+    </row>
+    <row r="95" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A95" s="29"/>
+      <c r="B95" s="30"/>
+      <c r="C95" s="30"/>
+      <c r="D95" s="30"/>
+      <c r="E95" s="30"/>
+      <c r="F95" s="58"/>
+      <c r="G95" s="30"/>
+      <c r="H95" s="30"/>
+      <c r="I95" s="30"/>
+      <c r="J95" s="30"/>
+      <c r="K95" s="30"/>
+      <c r="L95" s="30"/>
+      <c r="M95" s="30"/>
+      <c r="N95" s="30"/>
+      <c r="O95" s="30"/>
+      <c r="P95" s="30"/>
+      <c r="Q95" s="30"/>
+      <c r="R95" s="30"/>
+      <c r="S95" s="30"/>
+      <c r="T95" s="30"/>
+      <c r="U95" s="32"/>
+      <c r="V95" s="30"/>
+      <c r="W95" s="30"/>
+      <c r="X95" s="30"/>
+      <c r="Y95" s="30"/>
+      <c r="Z95" s="32"/>
+      <c r="AA95" s="30"/>
+      <c r="AB95" s="58"/>
+      <c r="AC95" s="110"/>
+      <c r="AD95" s="111"/>
+      <c r="AE95" s="111"/>
+      <c r="AF95" s="111"/>
+      <c r="AG95" s="112"/>
+    </row>
+    <row r="96" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A96" s="149" t="s">
+        <v>166</v>
+      </c>
+      <c r="B96" s="150"/>
+      <c r="C96" s="150"/>
+      <c r="D96" s="150"/>
+      <c r="E96" s="150"/>
+      <c r="F96" s="150"/>
+      <c r="G96" s="150"/>
+      <c r="H96" s="150"/>
+      <c r="I96" s="150"/>
+      <c r="J96" s="150"/>
+      <c r="K96" s="150"/>
+      <c r="L96" s="150"/>
+      <c r="M96" s="150"/>
+      <c r="N96" s="150"/>
+      <c r="O96" s="150"/>
+      <c r="P96" s="150"/>
+      <c r="Q96" s="150"/>
+      <c r="R96" s="150"/>
+      <c r="S96" s="150"/>
+      <c r="T96" s="150"/>
+      <c r="U96" s="150"/>
+      <c r="V96" s="150"/>
+      <c r="W96" s="150"/>
+      <c r="X96" s="150"/>
+      <c r="Y96" s="150"/>
+      <c r="Z96" s="150"/>
+      <c r="AA96" s="150"/>
+      <c r="AB96" s="150"/>
+      <c r="AC96" s="150"/>
+      <c r="AD96" s="150"/>
+      <c r="AE96" s="150"/>
+      <c r="AF96" s="150"/>
+      <c r="AG96" s="151"/>
+    </row>
+    <row r="97" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A97" s="117" t="s">
+        <v>16</v>
+      </c>
+      <c r="B97" s="118"/>
+      <c r="C97" s="118"/>
+      <c r="D97" s="118"/>
+      <c r="E97" s="118"/>
+      <c r="F97" s="119"/>
+      <c r="G97" s="117" t="s">
+        <v>17</v>
+      </c>
+      <c r="H97" s="118"/>
+      <c r="I97" s="118"/>
+      <c r="J97" s="118"/>
+      <c r="K97" s="118"/>
+      <c r="L97" s="118"/>
+      <c r="M97" s="118"/>
+      <c r="N97" s="118"/>
+      <c r="O97" s="118"/>
+      <c r="P97" s="118"/>
+      <c r="Q97" s="118"/>
+      <c r="R97" s="118"/>
+      <c r="S97" s="118"/>
+      <c r="T97" s="118"/>
+      <c r="U97" s="118"/>
+      <c r="V97" s="118"/>
+      <c r="W97" s="118"/>
+      <c r="X97" s="118"/>
+      <c r="Y97" s="118"/>
+      <c r="Z97" s="118"/>
+      <c r="AA97" s="118"/>
+      <c r="AB97" s="118"/>
+      <c r="AC97" s="119"/>
+      <c r="AD97" s="117" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE97" s="119"/>
+      <c r="AF97" s="117" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG97" s="119"/>
+    </row>
+    <row r="98" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A98" s="117" t="s">
+        <v>167</v>
+      </c>
+      <c r="B98" s="118"/>
+      <c r="C98" s="118"/>
+      <c r="D98" s="118"/>
+      <c r="E98" s="118"/>
+      <c r="F98" s="119"/>
+      <c r="G98" s="117" t="s">
+        <v>57</v>
+      </c>
+      <c r="H98" s="118"/>
+      <c r="I98" s="118"/>
+      <c r="J98" s="118"/>
+      <c r="K98" s="118"/>
+      <c r="L98" s="118"/>
+      <c r="M98" s="118"/>
+      <c r="N98" s="118"/>
+      <c r="O98" s="118"/>
+      <c r="P98" s="118"/>
+      <c r="Q98" s="118"/>
+      <c r="R98" s="118"/>
+      <c r="S98" s="118"/>
+      <c r="T98" s="118"/>
+      <c r="U98" s="118"/>
+      <c r="V98" s="118"/>
+      <c r="W98" s="118"/>
+      <c r="X98" s="118"/>
+      <c r="Y98" s="118"/>
+      <c r="Z98" s="118"/>
+      <c r="AA98" s="118"/>
+      <c r="AB98" s="118"/>
+      <c r="AC98" s="119"/>
+      <c r="AD98" s="117" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE98" s="119"/>
+      <c r="AF98" s="117" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG98" s="119"/>
+    </row>
+    <row r="99" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A99" s="107" t="s">
+        <v>168</v>
+      </c>
+      <c r="B99" s="108"/>
+      <c r="C99" s="108"/>
+      <c r="D99" s="108"/>
+      <c r="E99" s="108"/>
+      <c r="F99" s="109"/>
+      <c r="G99" s="107" t="s">
+        <v>169</v>
+      </c>
+      <c r="H99" s="108"/>
+      <c r="I99" s="108"/>
+      <c r="J99" s="108"/>
+      <c r="K99" s="108"/>
+      <c r="L99" s="108"/>
+      <c r="M99" s="108"/>
+      <c r="N99" s="108"/>
+      <c r="O99" s="108"/>
+      <c r="P99" s="108"/>
+      <c r="Q99" s="108"/>
+      <c r="R99" s="108"/>
+      <c r="S99" s="108"/>
+      <c r="T99" s="108"/>
+      <c r="U99" s="108"/>
+      <c r="V99" s="108"/>
+      <c r="W99" s="108"/>
+      <c r="X99" s="108"/>
+      <c r="Y99" s="108"/>
+      <c r="Z99" s="108"/>
+      <c r="AA99" s="108"/>
+      <c r="AB99" s="109"/>
+      <c r="AC99" s="107" t="s">
+        <v>170</v>
+      </c>
+      <c r="AD99" s="108"/>
+      <c r="AE99" s="108"/>
+      <c r="AF99" s="108"/>
+      <c r="AG99" s="109"/>
+    </row>
+    <row r="100" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A100" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="B100" s="30"/>
+      <c r="C100" s="30"/>
+      <c r="D100" s="30"/>
+      <c r="E100" s="30"/>
+      <c r="F100" s="31"/>
+      <c r="G100" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="H100" s="30"/>
+      <c r="I100" s="30"/>
+      <c r="J100" s="30"/>
+      <c r="K100" s="30"/>
+      <c r="L100" s="30"/>
+      <c r="M100" s="30"/>
+      <c r="N100" s="30"/>
+      <c r="O100" s="30"/>
+      <c r="P100" s="30"/>
+      <c r="Q100" s="30"/>
+      <c r="R100" s="30"/>
+      <c r="S100" s="30"/>
+      <c r="T100" s="30"/>
+      <c r="U100" s="30"/>
+      <c r="V100" s="30"/>
+      <c r="W100" s="30"/>
+      <c r="X100" s="30"/>
+      <c r="Y100" s="30"/>
+      <c r="Z100" s="30"/>
+      <c r="AA100" s="30"/>
+      <c r="AB100" s="31"/>
+      <c r="AC100" s="30"/>
+      <c r="AD100" s="30"/>
+      <c r="AE100" s="30"/>
+      <c r="AF100" s="30"/>
+      <c r="AG100" s="31"/>
+    </row>
+    <row r="101" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A101" s="29"/>
+      <c r="B101" s="30"/>
+      <c r="C101" s="30"/>
+      <c r="D101" s="30"/>
+      <c r="E101" s="30"/>
+      <c r="F101" s="58"/>
+      <c r="G101" s="32"/>
+      <c r="H101" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="I101" s="30"/>
+      <c r="J101" s="30"/>
+      <c r="K101" s="30"/>
+      <c r="L101" s="30"/>
+      <c r="M101" s="30"/>
+      <c r="N101" s="30"/>
+      <c r="O101" s="30"/>
+      <c r="P101" s="30"/>
+      <c r="Q101" s="30"/>
+      <c r="R101" s="30"/>
+      <c r="S101" s="30"/>
+      <c r="T101" s="30"/>
+      <c r="U101" s="32"/>
+      <c r="V101" s="30"/>
+      <c r="W101" s="30"/>
+      <c r="X101" s="30"/>
+      <c r="Y101" s="30"/>
+      <c r="Z101" s="32"/>
+      <c r="AA101" s="30"/>
+      <c r="AB101" s="58"/>
+      <c r="AC101" s="32"/>
+      <c r="AD101" s="30"/>
+      <c r="AE101" s="30"/>
+      <c r="AF101" s="30"/>
+      <c r="AG101" s="31"/>
+    </row>
+    <row r="102" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A102" s="29"/>
+      <c r="B102" s="30"/>
+      <c r="C102" s="30"/>
+      <c r="D102" s="30"/>
+      <c r="E102" s="30"/>
+      <c r="F102" s="58"/>
+      <c r="G102" s="32"/>
+      <c r="H102" s="30"/>
+      <c r="I102" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="J102" s="30"/>
+      <c r="K102" s="30"/>
+      <c r="L102" s="30"/>
+      <c r="M102" s="30"/>
+      <c r="N102" s="30"/>
+      <c r="O102" s="30"/>
+      <c r="P102" s="30"/>
+      <c r="Q102" s="30"/>
+      <c r="R102" s="30"/>
+      <c r="S102" s="30"/>
+      <c r="T102" s="30"/>
+      <c r="U102" s="32"/>
+      <c r="V102" s="30"/>
+      <c r="W102" s="30"/>
+      <c r="X102" s="30"/>
+      <c r="Y102" s="30"/>
+      <c r="Z102" s="32"/>
+      <c r="AA102" s="30"/>
+      <c r="AB102" s="58"/>
+      <c r="AC102" s="32"/>
+      <c r="AD102" s="30"/>
+      <c r="AE102" s="30"/>
+      <c r="AF102" s="30"/>
+      <c r="AG102" s="31"/>
+    </row>
+    <row r="103" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A103" s="29"/>
+      <c r="B103" s="30"/>
+      <c r="C103" s="30"/>
+      <c r="D103" s="30"/>
+      <c r="E103" s="30"/>
+      <c r="F103" s="58"/>
+      <c r="G103" s="32"/>
+      <c r="H103" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="I103" s="30"/>
+      <c r="J103" s="30"/>
+      <c r="K103" s="30"/>
+      <c r="L103" s="30"/>
+      <c r="M103" s="30"/>
+      <c r="N103" s="30"/>
+      <c r="O103" s="30"/>
+      <c r="P103" s="30"/>
+      <c r="Q103" s="30"/>
+      <c r="R103" s="30"/>
+      <c r="S103" s="30"/>
+      <c r="T103" s="30"/>
+      <c r="U103" s="32"/>
+      <c r="V103" s="30"/>
+      <c r="W103" s="30"/>
+      <c r="X103" s="30"/>
+      <c r="Y103" s="30"/>
+      <c r="Z103" s="32"/>
+      <c r="AA103" s="30"/>
+      <c r="AB103" s="58"/>
+      <c r="AC103" s="32"/>
+      <c r="AD103" s="30"/>
+      <c r="AE103" s="30"/>
+      <c r="AF103" s="30"/>
+      <c r="AG103" s="31"/>
+    </row>
+    <row r="104" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A104" s="29"/>
+      <c r="B104" s="30"/>
+      <c r="C104" s="30"/>
+      <c r="D104" s="30"/>
+      <c r="E104" s="30"/>
+      <c r="F104" s="58"/>
+      <c r="G104" s="32"/>
+      <c r="H104" s="30"/>
+      <c r="I104" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="J104" s="30"/>
+      <c r="K104" s="30"/>
+      <c r="L104" s="30"/>
+      <c r="M104" s="30"/>
+      <c r="N104" s="30"/>
+      <c r="O104" s="30"/>
+      <c r="P104" s="30"/>
+      <c r="Q104" s="30"/>
+      <c r="R104" s="30"/>
+      <c r="S104" s="30"/>
+      <c r="T104" s="30"/>
+      <c r="U104" s="32"/>
+      <c r="V104" s="30"/>
+      <c r="W104" s="30"/>
+      <c r="X104" s="30"/>
+      <c r="Y104" s="30"/>
+      <c r="Z104" s="32"/>
+      <c r="AA104" s="30"/>
+      <c r="AB104" s="58"/>
+      <c r="AC104" s="113"/>
+      <c r="AD104" s="40"/>
+      <c r="AE104" s="40"/>
+      <c r="AF104" s="40"/>
+      <c r="AG104" s="41"/>
+    </row>
+    <row r="105" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A105" s="29"/>
+      <c r="B105" s="30"/>
+      <c r="C105" s="30"/>
+      <c r="D105" s="30"/>
+      <c r="E105" s="30"/>
+      <c r="F105" s="58"/>
+      <c r="G105" s="32" t="s">
+        <v>246</v>
+      </c>
+      <c r="H105" s="30"/>
+      <c r="I105" s="30"/>
+      <c r="J105" s="30"/>
+      <c r="K105" s="30"/>
+      <c r="L105" s="30"/>
+      <c r="M105" s="30"/>
+      <c r="N105" s="30"/>
+      <c r="O105" s="30"/>
+      <c r="P105" s="30"/>
+      <c r="Q105" s="30"/>
+      <c r="R105" s="30"/>
+      <c r="S105" s="30"/>
+      <c r="T105" s="30"/>
+      <c r="U105" s="32"/>
+      <c r="V105" s="30"/>
+      <c r="W105" s="30"/>
+      <c r="X105" s="30"/>
+      <c r="Y105" s="30"/>
+      <c r="Z105" s="32"/>
+      <c r="AA105" s="30"/>
+      <c r="AB105" s="32"/>
+      <c r="AC105" s="152"/>
+      <c r="AD105" s="153"/>
+      <c r="AE105" s="153"/>
+      <c r="AF105" s="153"/>
+      <c r="AG105" s="154"/>
+    </row>
+    <row r="106" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A106" s="29"/>
+      <c r="B106" s="30"/>
+      <c r="C106" s="30"/>
+      <c r="D106" s="30"/>
+      <c r="E106" s="30"/>
+      <c r="F106" s="58"/>
+      <c r="G106" s="32"/>
+      <c r="H106" s="30" t="s">
+        <v>247</v>
+      </c>
+      <c r="I106" s="30"/>
+      <c r="J106" s="30"/>
+      <c r="K106" s="30"/>
+      <c r="L106" s="30"/>
+      <c r="M106" s="30"/>
+      <c r="N106" s="30"/>
+      <c r="O106" s="30"/>
+      <c r="P106" s="30"/>
+      <c r="Q106" s="30"/>
+      <c r="R106" s="30"/>
+      <c r="S106" s="30"/>
+      <c r="T106" s="30"/>
+      <c r="U106" s="32"/>
+      <c r="V106" s="30"/>
+      <c r="W106" s="30"/>
+      <c r="X106" s="30"/>
+      <c r="Y106" s="30"/>
+      <c r="Z106" s="32"/>
+      <c r="AA106" s="30"/>
+      <c r="AB106" s="58"/>
+      <c r="AC106" s="152"/>
+      <c r="AD106" s="153"/>
+      <c r="AE106" s="153"/>
+      <c r="AF106" s="153"/>
+      <c r="AG106" s="154"/>
+    </row>
+    <row r="107" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A107" s="29" t="s">
+        <v>230</v>
+      </c>
+      <c r="B107" s="30"/>
+      <c r="C107" s="30"/>
+      <c r="D107" s="30"/>
+      <c r="E107" s="30"/>
+      <c r="F107" s="58"/>
+      <c r="G107" s="30" t="s">
+        <v>231</v>
+      </c>
+      <c r="H107" s="30"/>
+      <c r="I107" s="30"/>
+      <c r="J107" s="30"/>
+      <c r="K107" s="30"/>
+      <c r="L107" s="30"/>
+      <c r="M107" s="30"/>
+      <c r="N107" s="30"/>
+      <c r="O107" s="30"/>
+      <c r="P107" s="30"/>
+      <c r="Q107" s="30"/>
+      <c r="R107" s="30"/>
+      <c r="S107" s="30"/>
+      <c r="T107" s="30"/>
+      <c r="U107" s="32"/>
+      <c r="V107" s="30"/>
+      <c r="W107" s="30"/>
+      <c r="X107" s="30"/>
+      <c r="Y107" s="30"/>
+      <c r="Z107" s="32"/>
+      <c r="AA107" s="30"/>
+      <c r="AB107" s="58"/>
+      <c r="AC107" s="152"/>
+      <c r="AD107" s="153"/>
+      <c r="AE107" s="153"/>
+      <c r="AF107" s="153"/>
+      <c r="AG107" s="154"/>
+    </row>
+    <row r="108" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A108" s="29"/>
+      <c r="B108" s="30"/>
+      <c r="C108" s="30"/>
+      <c r="D108" s="30"/>
+      <c r="E108" s="30"/>
+      <c r="F108" s="58"/>
+      <c r="G108" s="30"/>
+      <c r="H108" s="30" t="s">
+        <v>232</v>
+      </c>
+      <c r="I108" s="30"/>
+      <c r="J108" s="30"/>
+      <c r="K108" s="30"/>
+      <c r="L108" s="30"/>
+      <c r="M108" s="30"/>
+      <c r="N108" s="30"/>
+      <c r="O108" s="30"/>
+      <c r="P108" s="30"/>
+      <c r="Q108" s="30"/>
+      <c r="R108" s="30"/>
+      <c r="S108" s="30"/>
+      <c r="T108" s="30"/>
+      <c r="U108" s="32"/>
+      <c r="V108" s="30"/>
+      <c r="W108" s="30"/>
+      <c r="X108" s="30"/>
+      <c r="Y108" s="30"/>
+      <c r="Z108" s="32"/>
+      <c r="AA108" s="30"/>
+      <c r="AB108" s="58"/>
+      <c r="AC108" s="152"/>
+      <c r="AD108" s="153"/>
+      <c r="AE108" s="153"/>
+      <c r="AF108" s="153"/>
+      <c r="AG108" s="154"/>
+    </row>
+    <row r="109" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A109" s="29"/>
+      <c r="B109" s="30"/>
+      <c r="C109" s="30"/>
+      <c r="D109" s="30"/>
+      <c r="E109" s="30"/>
+      <c r="F109" s="58"/>
+      <c r="G109" s="30" t="s">
+        <v>233</v>
+      </c>
+      <c r="H109" s="30"/>
+      <c r="I109" s="30"/>
+      <c r="J109" s="30"/>
+      <c r="K109" s="30"/>
+      <c r="L109" s="30"/>
+      <c r="M109" s="30"/>
+      <c r="N109" s="30"/>
+      <c r="O109" s="30"/>
+      <c r="P109" s="30"/>
+      <c r="Q109" s="30"/>
+      <c r="R109" s="30"/>
+      <c r="S109" s="30"/>
+      <c r="T109" s="30"/>
+      <c r="U109" s="30"/>
+      <c r="V109" s="30"/>
+      <c r="W109" s="30"/>
+      <c r="X109" s="30"/>
+      <c r="Y109" s="30"/>
+      <c r="AA109" s="32"/>
+      <c r="AB109" s="58"/>
+      <c r="AC109" s="152"/>
+      <c r="AD109" s="153"/>
+      <c r="AE109" s="153"/>
+      <c r="AF109" s="153"/>
+      <c r="AG109" s="154"/>
+    </row>
+    <row r="110" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A110" s="29"/>
+      <c r="B110" s="30"/>
+      <c r="C110" s="30"/>
+      <c r="D110" s="30"/>
+      <c r="E110" s="30"/>
+      <c r="F110" s="58"/>
+      <c r="G110" s="32"/>
+      <c r="H110" s="30" t="s">
+        <v>248</v>
+      </c>
+      <c r="I110" s="30"/>
+      <c r="J110" s="30"/>
+      <c r="K110" s="30"/>
+      <c r="L110" s="30"/>
+      <c r="M110" s="30"/>
+      <c r="N110" s="30"/>
+      <c r="O110" s="30"/>
+      <c r="P110" s="30"/>
+      <c r="Q110" s="30"/>
+      <c r="R110" s="30"/>
+      <c r="S110" s="30"/>
+      <c r="T110" s="30"/>
+      <c r="U110" s="30"/>
+      <c r="V110" s="30"/>
+      <c r="W110" s="30"/>
+      <c r="X110" s="30"/>
+      <c r="Y110" s="30"/>
+      <c r="Z110" s="32"/>
+      <c r="AA110" s="30"/>
+      <c r="AB110" s="58"/>
+      <c r="AC110" s="152"/>
+      <c r="AD110" s="153"/>
+      <c r="AE110" s="153"/>
+      <c r="AF110" s="153"/>
+      <c r="AG110" s="154"/>
+    </row>
+    <row r="111" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A111" s="29" t="s">
+        <v>195</v>
+      </c>
+      <c r="B111" s="30"/>
+      <c r="C111" s="30"/>
+      <c r="D111" s="30"/>
+      <c r="E111" s="30"/>
+      <c r="F111" s="58"/>
+      <c r="G111" s="30" t="s">
+        <v>249</v>
+      </c>
+      <c r="H111" s="30"/>
+      <c r="I111" s="30"/>
+      <c r="J111" s="30"/>
+      <c r="K111" s="30"/>
+      <c r="L111" s="30"/>
+      <c r="M111" s="30"/>
+      <c r="N111" s="30"/>
+      <c r="O111" s="30"/>
+      <c r="P111" s="30"/>
+      <c r="Q111" s="30"/>
+      <c r="R111" s="30"/>
+      <c r="S111" s="30"/>
+      <c r="T111" s="30"/>
+      <c r="U111" s="30"/>
+      <c r="V111" s="30"/>
+      <c r="W111" s="30"/>
+      <c r="X111" s="30"/>
+      <c r="Y111" s="30"/>
+      <c r="Z111" s="32"/>
+      <c r="AA111" s="30"/>
+      <c r="AB111" s="58"/>
+      <c r="AC111" s="152"/>
+      <c r="AD111" s="153"/>
+      <c r="AE111" s="153"/>
+      <c r="AF111" s="153"/>
+      <c r="AG111" s="154"/>
+    </row>
+    <row r="112" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A112" s="29" t="s">
+        <v>197</v>
+      </c>
+      <c r="B112" s="30"/>
+      <c r="C112" s="30"/>
+      <c r="D112" s="30"/>
+      <c r="E112" s="30"/>
+      <c r="F112" s="58"/>
+      <c r="G112" s="30" t="s">
+        <v>249</v>
+      </c>
+      <c r="H112" s="30"/>
+      <c r="I112" s="30"/>
+      <c r="J112" s="30"/>
+      <c r="K112" s="30"/>
+      <c r="L112" s="30"/>
+      <c r="M112" s="30"/>
+      <c r="N112" s="30"/>
+      <c r="O112" s="30"/>
+      <c r="P112" s="30"/>
+      <c r="Q112" s="30"/>
+      <c r="R112" s="30"/>
+      <c r="S112" s="30"/>
+      <c r="T112" s="30"/>
+      <c r="U112" s="30"/>
+      <c r="V112" s="30"/>
+      <c r="W112" s="30"/>
+      <c r="X112" s="30"/>
+      <c r="Y112" s="30"/>
+      <c r="Z112" s="32"/>
+      <c r="AA112" s="30"/>
+      <c r="AB112" s="58"/>
+      <c r="AC112" s="152"/>
+      <c r="AD112" s="153"/>
+      <c r="AE112" s="153"/>
+      <c r="AF112" s="153"/>
+      <c r="AG112" s="154"/>
+    </row>
+    <row r="113" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A113" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="B113" s="30"/>
+      <c r="C113" s="30"/>
+      <c r="D113" s="30"/>
+      <c r="E113" s="30"/>
+      <c r="F113" s="58"/>
+      <c r="G113" s="30" t="s">
+        <v>249</v>
+      </c>
+      <c r="H113" s="30"/>
+      <c r="I113" s="30"/>
+      <c r="J113" s="30"/>
+      <c r="K113" s="30"/>
+      <c r="L113" s="30"/>
+      <c r="M113" s="30"/>
+      <c r="N113" s="30"/>
+      <c r="O113" s="30"/>
+      <c r="P113" s="30"/>
+      <c r="Q113" s="30"/>
+      <c r="R113" s="30"/>
+      <c r="S113" s="30"/>
+      <c r="T113" s="30"/>
+      <c r="U113" s="30"/>
+      <c r="V113" s="30"/>
+      <c r="W113" s="30"/>
+      <c r="X113" s="30"/>
+      <c r="Y113" s="30"/>
+      <c r="Z113" s="32"/>
+      <c r="AA113" s="30"/>
+      <c r="AB113" s="31"/>
+      <c r="AC113" s="152"/>
+      <c r="AD113" s="153"/>
+      <c r="AE113" s="153"/>
+      <c r="AF113" s="153"/>
+      <c r="AG113" s="154"/>
+    </row>
+    <row r="114" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A114" s="29" t="s">
+        <v>199</v>
+      </c>
+      <c r="B114" s="30"/>
+      <c r="C114" s="30"/>
+      <c r="D114" s="30"/>
+      <c r="E114" s="30"/>
+      <c r="F114" s="58"/>
+      <c r="G114" s="30" t="s">
+        <v>249</v>
+      </c>
+      <c r="H114" s="30"/>
+      <c r="I114" s="30"/>
+      <c r="J114" s="30"/>
+      <c r="K114" s="30"/>
+      <c r="L114" s="30"/>
+      <c r="M114" s="30"/>
+      <c r="N114" s="30"/>
+      <c r="O114" s="30"/>
+      <c r="P114" s="30"/>
+      <c r="Q114" s="30"/>
+      <c r="R114" s="30"/>
+      <c r="S114" s="30"/>
+      <c r="T114" s="30"/>
+      <c r="U114" s="30"/>
+      <c r="V114" s="30"/>
+      <c r="W114" s="30"/>
+      <c r="X114" s="30"/>
+      <c r="Y114" s="30"/>
+      <c r="Z114" s="32"/>
+      <c r="AA114" s="30"/>
+      <c r="AB114" s="31"/>
+      <c r="AC114" s="152"/>
+      <c r="AD114" s="153"/>
+      <c r="AE114" s="153"/>
+      <c r="AF114" s="153"/>
+      <c r="AG114" s="154"/>
+    </row>
+    <row r="115" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A115" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="B115" s="30"/>
+      <c r="C115" s="30"/>
+      <c r="D115" s="30"/>
+      <c r="E115" s="30"/>
+      <c r="F115" s="31"/>
+      <c r="G115" s="30" t="s">
+        <v>249</v>
+      </c>
+      <c r="H115" s="30"/>
+      <c r="I115" s="30"/>
+      <c r="J115" s="30"/>
+      <c r="K115" s="30"/>
+      <c r="L115" s="30"/>
+      <c r="M115" s="30"/>
+      <c r="N115" s="30"/>
+      <c r="O115" s="30"/>
+      <c r="P115" s="30"/>
+      <c r="Q115" s="30"/>
+      <c r="R115" s="30"/>
+      <c r="S115" s="30"/>
+      <c r="T115" s="30"/>
+      <c r="U115" s="30"/>
+      <c r="V115" s="30"/>
+      <c r="W115" s="30"/>
+      <c r="X115" s="30"/>
+      <c r="Y115" s="30"/>
+      <c r="Z115" s="32"/>
+      <c r="AA115" s="30"/>
+      <c r="AB115" s="31"/>
+      <c r="AC115" s="152"/>
+      <c r="AD115" s="153"/>
+      <c r="AE115" s="153"/>
+      <c r="AF115" s="153"/>
+      <c r="AG115" s="154"/>
+    </row>
+    <row r="116" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A116" s="29" t="s">
+        <v>203</v>
+      </c>
+      <c r="B116" s="30"/>
+      <c r="C116" s="30"/>
+      <c r="D116" s="30"/>
+      <c r="E116" s="30"/>
+      <c r="F116" s="31"/>
+      <c r="G116" s="30" t="s">
+        <v>204</v>
+      </c>
+      <c r="H116" s="30"/>
+      <c r="I116" s="30"/>
+      <c r="J116" s="30"/>
+      <c r="K116" s="30"/>
+      <c r="L116" s="30"/>
+      <c r="M116" s="30"/>
+      <c r="N116" s="30"/>
+      <c r="O116" s="30"/>
+      <c r="P116" s="30"/>
+      <c r="Q116" s="30"/>
+      <c r="R116" s="30"/>
+      <c r="S116" s="30"/>
+      <c r="T116" s="30"/>
+      <c r="U116" s="30"/>
+      <c r="V116" s="30"/>
+      <c r="W116" s="30"/>
+      <c r="X116" s="30"/>
+      <c r="Y116" s="30"/>
+      <c r="Z116" s="30"/>
+      <c r="AA116" s="30"/>
+      <c r="AB116" s="31"/>
+      <c r="AC116" s="30"/>
+      <c r="AD116" s="30"/>
+      <c r="AE116" s="30"/>
+      <c r="AF116" s="30"/>
+      <c r="AG116" s="31"/>
+    </row>
+    <row r="117" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A117" s="29" t="s">
+        <v>212</v>
+      </c>
+      <c r="B117" s="30"/>
+      <c r="C117" s="30"/>
+      <c r="D117" s="30"/>
+      <c r="E117" s="30"/>
+      <c r="F117" s="31"/>
+      <c r="G117" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="H117" s="30"/>
+      <c r="I117" s="30"/>
+      <c r="J117" s="30"/>
+      <c r="K117" s="30"/>
+      <c r="L117" s="30"/>
+      <c r="M117" s="30"/>
+      <c r="N117" s="30"/>
+      <c r="O117" s="30"/>
+      <c r="P117" s="30"/>
+      <c r="Q117" s="30"/>
+      <c r="R117" s="30"/>
+      <c r="S117" s="30"/>
+      <c r="T117" s="30"/>
+      <c r="U117" s="30"/>
+      <c r="V117" s="30"/>
+      <c r="W117" s="30"/>
+      <c r="X117" s="30"/>
+      <c r="Y117" s="30"/>
+      <c r="Z117" s="30"/>
+      <c r="AA117" s="30"/>
+      <c r="AB117" s="31"/>
+      <c r="AC117" s="30"/>
+      <c r="AD117" s="30"/>
+      <c r="AE117" s="30"/>
+      <c r="AF117" s="30"/>
+      <c r="AG117" s="31"/>
+    </row>
   </sheetData>
-  <mergeCells count="40">
+  <mergeCells count="71">
+    <mergeCell ref="AC111:AG111"/>
+    <mergeCell ref="AC112:AG112"/>
+    <mergeCell ref="AC113:AG113"/>
+    <mergeCell ref="AC114:AG114"/>
+    <mergeCell ref="AC115:AG115"/>
+    <mergeCell ref="AC106:AG106"/>
+    <mergeCell ref="AC107:AG107"/>
+    <mergeCell ref="AC108:AG108"/>
+    <mergeCell ref="AC109:AG109"/>
+    <mergeCell ref="AC110:AG110"/>
+    <mergeCell ref="A98:F98"/>
+    <mergeCell ref="G98:AC98"/>
+    <mergeCell ref="AD98:AE98"/>
+    <mergeCell ref="AF98:AG98"/>
+    <mergeCell ref="AC105:AG105"/>
+    <mergeCell ref="AC94:AG94"/>
+    <mergeCell ref="A96:AG96"/>
+    <mergeCell ref="A97:F97"/>
+    <mergeCell ref="G97:AC97"/>
+    <mergeCell ref="AD97:AE97"/>
+    <mergeCell ref="AF97:AG97"/>
+    <mergeCell ref="A86:F86"/>
+    <mergeCell ref="G86:AC86"/>
+    <mergeCell ref="AD86:AE86"/>
+    <mergeCell ref="AF86:AG86"/>
+    <mergeCell ref="AC93:AG93"/>
+    <mergeCell ref="A84:AG84"/>
+    <mergeCell ref="A85:F85"/>
+    <mergeCell ref="G85:AC85"/>
+    <mergeCell ref="AD85:AE85"/>
+    <mergeCell ref="AF85:AG85"/>
+    <mergeCell ref="AC57:AG57"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="G49:AC49"/>
+    <mergeCell ref="AD49:AE49"/>
+    <mergeCell ref="AF49:AG49"/>
+    <mergeCell ref="AC56:AG56"/>
+    <mergeCell ref="A47:AG47"/>
+    <mergeCell ref="A48:F48"/>
+    <mergeCell ref="G48:AC48"/>
+    <mergeCell ref="AD48:AE48"/>
+    <mergeCell ref="AF48:AG48"/>
+    <mergeCell ref="AC35:AG35"/>
+    <mergeCell ref="AC36:AG36"/>
+    <mergeCell ref="AC37:AG37"/>
+    <mergeCell ref="AC38:AG38"/>
+    <mergeCell ref="AC39:AG39"/>
+    <mergeCell ref="AC30:AG30"/>
+    <mergeCell ref="AC31:AG31"/>
+    <mergeCell ref="AC32:AG32"/>
+    <mergeCell ref="AC33:AG33"/>
+    <mergeCell ref="AC34:AG34"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="G20:AC20"/>
+    <mergeCell ref="AD20:AE20"/>
+    <mergeCell ref="AF20:AG20"/>
+    <mergeCell ref="AC29:AG29"/>
+    <mergeCell ref="A18:AG18"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="G19:AC19"/>
+    <mergeCell ref="AD19:AE19"/>
+    <mergeCell ref="AF19:AG19"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="G3:AC3"/>
     <mergeCell ref="AD3:AE3"/>
@@ -42658,37 +44179,6 @@
     <mergeCell ref="G2:AC2"/>
     <mergeCell ref="AD2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="A17:AG17"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="G18:AC18"/>
-    <mergeCell ref="AD18:AE18"/>
-    <mergeCell ref="AF18:AG18"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="G19:AC19"/>
-    <mergeCell ref="AD19:AE19"/>
-    <mergeCell ref="AF19:AG19"/>
-    <mergeCell ref="AC26:AG26"/>
-    <mergeCell ref="AC27:AG27"/>
-    <mergeCell ref="AC28:AG28"/>
-    <mergeCell ref="AC29:AG29"/>
-    <mergeCell ref="AC30:AG30"/>
-    <mergeCell ref="AC31:AG31"/>
-    <mergeCell ref="AC32:AG32"/>
-    <mergeCell ref="AC33:AG33"/>
-    <mergeCell ref="AC34:AG34"/>
-    <mergeCell ref="AC35:AG35"/>
-    <mergeCell ref="AC36:AG36"/>
-    <mergeCell ref="A44:AG44"/>
-    <mergeCell ref="A45:F45"/>
-    <mergeCell ref="G45:AC45"/>
-    <mergeCell ref="AD45:AE45"/>
-    <mergeCell ref="AF45:AG45"/>
-    <mergeCell ref="AC54:AG54"/>
-    <mergeCell ref="A46:F46"/>
-    <mergeCell ref="G46:AC46"/>
-    <mergeCell ref="AD46:AE46"/>
-    <mergeCell ref="AF46:AG46"/>
-    <mergeCell ref="AC53:AG53"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -42717,7 +44207,7 @@
   <sheetData>
     <row r="1" spans="1:177" ht="12.75" customHeight="1">
       <c r="A1" s="146" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="B1" s="147"/>
       <c r="C1" s="147"/>
@@ -42797,7 +44287,7 @@
     </row>
     <row r="3" spans="1:177" s="12" customFormat="1" ht="12">
       <c r="A3" s="117" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="B3" s="118"/>
       <c r="C3" s="118"/>
@@ -42805,7 +44295,7 @@
       <c r="E3" s="118"/>
       <c r="F3" s="119"/>
       <c r="G3" s="117" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="H3" s="118"/>
       <c r="I3" s="118"/>
@@ -42840,7 +44330,7 @@
     </row>
     <row r="4" spans="1:177" ht="14.25" customHeight="1">
       <c r="A4" s="155" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="B4" s="156"/>
       <c r="C4" s="156"/>
@@ -42852,7 +44342,7 @@
       <c r="I4" s="156"/>
       <c r="J4" s="157"/>
       <c r="K4" s="170" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="L4" s="171"/>
       <c r="M4" s="171"/>
@@ -42860,7 +44350,7 @@
       <c r="O4" s="171"/>
       <c r="P4" s="172"/>
       <c r="Q4" s="167" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="R4" s="168"/>
       <c r="S4" s="168"/>
@@ -42883,7 +44373,7 @@
     </row>
     <row r="5" spans="1:177" s="3" customFormat="1" ht="15.75" customHeight="1">
       <c r="A5" s="158" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="B5" s="159"/>
       <c r="C5" s="159"/>
@@ -42899,7 +44389,7 @@
         <v>119</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="173"/>
@@ -42909,21 +44399,21 @@
       <c r="O5" s="174"/>
       <c r="P5" s="175"/>
       <c r="Q5" s="158" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="R5" s="159"/>
       <c r="S5" s="159"/>
       <c r="T5" s="159"/>
       <c r="U5" s="160"/>
       <c r="V5" s="6" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="W5" s="7"/>
       <c r="X5" s="7"/>
       <c r="Y5" s="7"/>
       <c r="Z5" s="8"/>
       <c r="AA5" s="8" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="AB5" s="164"/>
       <c r="AC5" s="165"/>
@@ -43088,7 +44578,7 @@
       <c r="I6" s="30"/>
       <c r="J6" s="31"/>
       <c r="K6" s="29" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="L6" s="30"/>
       <c r="M6" s="30"/>
@@ -43096,14 +44586,14 @@
       <c r="O6" s="30"/>
       <c r="P6" s="31"/>
       <c r="Q6" s="29" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="R6" s="30"/>
       <c r="S6" s="30"/>
       <c r="T6" s="30"/>
       <c r="U6" s="30"/>
       <c r="V6" s="29" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="W6" s="30"/>
       <c r="X6" s="30"/>
@@ -43119,27 +44609,27 @@
     </row>
     <row r="7" spans="1:177" ht="12.75" customHeight="1">
       <c r="A7" s="29" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="B7" s="30"/>
       <c r="C7" s="30"/>
       <c r="D7" s="30"/>
       <c r="E7" s="31"/>
       <c r="F7" s="56" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="G7" s="57" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="H7" s="56">
         <v>10</v>
       </c>
       <c r="I7" s="30" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="J7" s="31"/>
       <c r="K7" s="29" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="L7" s="30"/>
       <c r="M7" s="30"/>
@@ -43152,14 +44642,14 @@
       <c r="T7" s="30"/>
       <c r="U7" s="30"/>
       <c r="V7" s="29" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="W7" s="30"/>
       <c r="X7" s="30"/>
       <c r="Y7" s="30"/>
       <c r="Z7" s="31"/>
       <c r="AA7" s="57" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="AB7" s="30"/>
       <c r="AC7" s="30"/>
@@ -43170,27 +44660,27 @@
     </row>
     <row r="8" spans="1:177" ht="12.75" customHeight="1">
       <c r="A8" s="29" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="B8" s="30"/>
       <c r="C8" s="30"/>
       <c r="D8" s="30"/>
       <c r="E8" s="57"/>
       <c r="F8" s="56" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="G8" s="57" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="H8" s="56">
         <v>8</v>
       </c>
       <c r="I8" s="30" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="J8" s="31"/>
       <c r="K8" s="29" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="L8" s="30"/>
       <c r="M8" s="30"/>
@@ -43203,14 +44693,14 @@
       <c r="T8" s="30"/>
       <c r="U8" s="30"/>
       <c r="V8" s="29" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="W8" s="30"/>
       <c r="X8" s="30"/>
       <c r="Y8" s="30"/>
       <c r="Z8" s="31"/>
       <c r="AA8" s="57" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="AB8" s="30"/>
       <c r="AC8" s="30"/>
@@ -43221,27 +44711,27 @@
     </row>
     <row r="9" spans="1:177" ht="12.75" customHeight="1">
       <c r="A9" s="29" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="B9" s="30"/>
       <c r="C9" s="30"/>
       <c r="D9" s="30"/>
       <c r="E9" s="31"/>
       <c r="F9" s="56" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="G9" s="57" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="H9" s="56">
         <v>8</v>
       </c>
       <c r="I9" s="30" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="J9" s="31"/>
       <c r="K9" s="29" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="L9" s="30"/>
       <c r="M9" s="30"/>
@@ -43254,14 +44744,14 @@
       <c r="T9" s="30"/>
       <c r="U9" s="30"/>
       <c r="V9" s="29" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="W9" s="30"/>
       <c r="X9" s="32"/>
       <c r="Y9" s="32"/>
       <c r="Z9" s="58"/>
       <c r="AA9" s="57" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="AB9" s="30"/>
       <c r="AC9" s="30"/>
@@ -43272,27 +44762,27 @@
     </row>
     <row r="10" spans="1:177" ht="12.75" customHeight="1">
       <c r="A10" s="29" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="B10" s="30"/>
       <c r="C10" s="30"/>
       <c r="D10" s="30"/>
       <c r="E10" s="31"/>
       <c r="F10" s="56" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="G10" s="57" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="H10" s="56">
         <v>8</v>
       </c>
       <c r="I10" s="30" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="J10" s="31"/>
       <c r="K10" s="29" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="L10" s="30"/>
       <c r="M10" s="30"/>
@@ -43305,14 +44795,14 @@
       <c r="T10" s="30"/>
       <c r="U10" s="30"/>
       <c r="V10" s="29" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="W10" s="30"/>
       <c r="X10" s="30"/>
       <c r="Y10" s="32"/>
       <c r="Z10" s="58"/>
       <c r="AA10" s="57" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="AB10" s="30"/>
       <c r="AC10" s="30"/>
@@ -43323,27 +44813,27 @@
     </row>
     <row r="11" spans="1:177" ht="12.75" customHeight="1">
       <c r="A11" s="29" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="B11" s="30"/>
       <c r="C11" s="30"/>
       <c r="D11" s="30"/>
       <c r="E11" s="31"/>
       <c r="F11" s="56" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="G11" s="57" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="H11" s="56">
         <v>2</v>
       </c>
       <c r="I11" s="30" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="J11" s="31"/>
       <c r="K11" s="29" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="L11" s="30"/>
       <c r="M11" s="30"/>
@@ -43356,14 +44846,14 @@
       <c r="T11" s="30"/>
       <c r="U11" s="30"/>
       <c r="V11" s="29" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="W11" s="30"/>
       <c r="X11" s="30"/>
       <c r="Y11" s="32"/>
       <c r="Z11" s="58"/>
       <c r="AA11" s="57" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="AB11" s="30"/>
       <c r="AC11" s="30"/>
@@ -43374,27 +44864,27 @@
     </row>
     <row r="12" spans="1:177" ht="12.75" customHeight="1">
       <c r="A12" s="29" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="B12" s="30"/>
       <c r="C12" s="30"/>
       <c r="D12" s="30"/>
       <c r="E12" s="31"/>
       <c r="F12" s="56" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="G12" s="57" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="H12" s="56">
         <v>10</v>
       </c>
       <c r="I12" s="30" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="J12" s="31"/>
       <c r="K12" s="29" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="L12" s="30"/>
       <c r="M12" s="30"/>
@@ -43407,14 +44897,14 @@
       <c r="T12" s="30"/>
       <c r="U12" s="30"/>
       <c r="V12" s="29" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="W12" s="30"/>
       <c r="X12" s="32"/>
       <c r="Y12" s="32"/>
       <c r="Z12" s="58"/>
       <c r="AA12" s="57" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="AB12" s="30"/>
       <c r="AC12" s="30"/>
@@ -43425,25 +44915,25 @@
     </row>
     <row r="13" spans="1:177" ht="12.75" customHeight="1">
       <c r="A13" s="29" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="B13" s="30"/>
       <c r="C13" s="30"/>
       <c r="D13" s="30"/>
       <c r="E13" s="31"/>
       <c r="F13" s="56" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="G13" s="57"/>
       <c r="H13" s="56">
         <v>7</v>
       </c>
       <c r="I13" s="30" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="J13" s="31"/>
       <c r="K13" s="29" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="L13" s="30"/>
       <c r="M13" s="30"/>
@@ -43456,14 +44946,14 @@
       <c r="T13" s="30"/>
       <c r="U13" s="30"/>
       <c r="V13" s="29" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="W13" s="30"/>
       <c r="X13" s="30"/>
       <c r="Y13" s="30"/>
       <c r="Z13" s="31"/>
       <c r="AA13" s="57" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="AB13" s="30"/>
       <c r="AC13" s="30"/>
@@ -43474,25 +44964,25 @@
     </row>
     <row r="14" spans="1:177" ht="12.75" customHeight="1">
       <c r="A14" s="29" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="B14" s="30"/>
       <c r="C14" s="30"/>
       <c r="D14" s="30"/>
       <c r="E14" s="31"/>
       <c r="F14" s="56" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="G14" s="57"/>
       <c r="H14" s="56">
         <v>7</v>
       </c>
       <c r="I14" s="30" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="J14" s="31"/>
       <c r="K14" s="29" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="L14" s="30"/>
       <c r="M14" s="30"/>
@@ -43505,14 +44995,14 @@
       <c r="T14" s="30"/>
       <c r="U14" s="30"/>
       <c r="V14" s="29" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="W14" s="30"/>
       <c r="X14" s="30"/>
       <c r="Y14" s="30"/>
       <c r="Z14" s="31"/>
       <c r="AA14" s="57" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="AB14" s="30"/>
       <c r="AC14" s="30"/>
@@ -43523,27 +45013,27 @@
     </row>
     <row r="15" spans="1:177" ht="12.75" customHeight="1">
       <c r="A15" s="29" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="B15" s="30"/>
       <c r="C15" s="30"/>
       <c r="D15" s="30"/>
       <c r="E15" s="31"/>
       <c r="F15" s="56" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="G15" s="57" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="H15" s="56">
         <v>1</v>
       </c>
       <c r="I15" s="30" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="J15" s="31"/>
       <c r="K15" s="29" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="L15" s="30"/>
       <c r="M15" s="30"/>
@@ -43556,14 +45046,14 @@
       <c r="T15" s="30"/>
       <c r="U15" s="30"/>
       <c r="V15" s="29" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="W15" s="30"/>
       <c r="X15" s="30"/>
       <c r="Y15" s="30"/>
       <c r="Z15" s="58"/>
       <c r="AA15" s="57" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="AB15" s="30"/>
       <c r="AC15" s="30"/>
@@ -44643,7 +46133,7 @@
     </row>
     <row r="3" spans="1:177" ht="12">
       <c r="A3" s="117" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="B3" s="118"/>
       <c r="C3" s="118"/>
@@ -44651,7 +46141,7 @@
       <c r="E3" s="118"/>
       <c r="F3" s="119"/>
       <c r="G3" s="117" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="H3" s="118"/>
       <c r="I3" s="118"/>
@@ -44866,7 +46356,7 @@
     <row r="5" spans="1:177" ht="12.75" customHeight="1">
       <c r="A5" s="22"/>
       <c r="B5" s="19" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="C5" s="19"/>
       <c r="D5" s="19"/>
@@ -44899,7 +46389,7 @@
       <c r="A6" s="22"/>
       <c r="B6" s="19"/>
       <c r="C6" s="19" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="D6" s="19"/>
       <c r="E6" s="19"/>
@@ -44959,7 +46449,7 @@
     <row r="8" spans="1:177" ht="12.75" customHeight="1">
       <c r="A8" s="22"/>
       <c r="B8" s="19" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
@@ -44984,7 +46474,7 @@
       <c r="A9" s="22"/>
       <c r="B9" s="19"/>
       <c r="C9" s="19" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="D9" s="19"/>
       <c r="E9" s="19"/>
@@ -45009,7 +46499,7 @@
       <c r="A10" s="22"/>
       <c r="B10" s="19"/>
       <c r="C10" s="19" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="D10" s="19"/>
       <c r="E10" s="19"/>
@@ -45035,7 +46525,7 @@
       <c r="B11" s="19"/>
       <c r="C11" s="19"/>
       <c r="D11" s="19" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="E11" s="19"/>
       <c r="F11" s="19"/>
@@ -54503,41 +55993,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A1" s="127" t="s">
+      <c r="A1" s="132" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="127"/>
-      <c r="F1" s="127"/>
-      <c r="G1" s="127"/>
-      <c r="H1" s="127"/>
-      <c r="I1" s="127"/>
-      <c r="J1" s="127"/>
-      <c r="K1" s="127"/>
-      <c r="L1" s="127"/>
-      <c r="M1" s="127"/>
-      <c r="N1" s="127"/>
-      <c r="O1" s="127"/>
-      <c r="P1" s="127"/>
-      <c r="Q1" s="127"/>
-      <c r="R1" s="127"/>
-      <c r="S1" s="127"/>
-      <c r="T1" s="127"/>
-      <c r="U1" s="127"/>
-      <c r="V1" s="127"/>
-      <c r="W1" s="127"/>
-      <c r="X1" s="127"/>
-      <c r="Y1" s="127"/>
-      <c r="Z1" s="127"/>
-      <c r="AA1" s="127"/>
-      <c r="AB1" s="127"/>
-      <c r="AC1" s="127"/>
-      <c r="AD1" s="127"/>
-      <c r="AE1" s="127"/>
-      <c r="AF1" s="127"/>
-      <c r="AG1" s="127"/>
+      <c r="B1" s="132"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
+      <c r="F1" s="132"/>
+      <c r="G1" s="132"/>
+      <c r="H1" s="132"/>
+      <c r="I1" s="132"/>
+      <c r="J1" s="132"/>
+      <c r="K1" s="132"/>
+      <c r="L1" s="132"/>
+      <c r="M1" s="132"/>
+      <c r="N1" s="132"/>
+      <c r="O1" s="132"/>
+      <c r="P1" s="132"/>
+      <c r="Q1" s="132"/>
+      <c r="R1" s="132"/>
+      <c r="S1" s="132"/>
+      <c r="T1" s="132"/>
+      <c r="U1" s="132"/>
+      <c r="V1" s="132"/>
+      <c r="W1" s="132"/>
+      <c r="X1" s="132"/>
+      <c r="Y1" s="132"/>
+      <c r="Z1" s="132"/>
+      <c r="AA1" s="132"/>
+      <c r="AB1" s="132"/>
+      <c r="AC1" s="132"/>
+      <c r="AD1" s="132"/>
+      <c r="AE1" s="132"/>
+      <c r="AF1" s="132"/>
+      <c r="AG1" s="132"/>
     </row>
     <row r="2" spans="1:177" ht="12" customHeight="1">
       <c r="A2" s="117" t="s">
@@ -55004,12 +56494,12 @@
     </row>
     <row r="12" spans="1:177" ht="12.75" customHeight="1">
       <c r="A12" s="19"/>
-      <c r="B12" s="131"/>
-      <c r="C12" s="131"/>
-      <c r="D12" s="131"/>
-      <c r="E12" s="131"/>
-      <c r="F12" s="131"/>
-      <c r="G12" s="131"/>
+      <c r="B12" s="130"/>
+      <c r="C12" s="130"/>
+      <c r="D12" s="130"/>
+      <c r="E12" s="130"/>
+      <c r="F12" s="130"/>
+      <c r="G12" s="130"/>
       <c r="H12" s="50"/>
       <c r="I12" s="51"/>
       <c r="J12" s="51"/>
@@ -55024,23 +56514,23 @@
       <c r="S12" s="50"/>
       <c r="T12" s="50"/>
       <c r="U12" s="50"/>
-      <c r="V12" s="131"/>
-      <c r="W12" s="192"/>
-      <c r="X12" s="192"/>
-      <c r="Y12" s="131"/>
-      <c r="Z12" s="192"/>
-      <c r="AA12" s="192"/>
-      <c r="AB12" s="192"/>
-      <c r="AC12" s="192"/>
-      <c r="AD12" s="192"/>
-      <c r="AE12" s="192"/>
+      <c r="V12" s="130"/>
+      <c r="W12" s="194"/>
+      <c r="X12" s="194"/>
+      <c r="Y12" s="130"/>
+      <c r="Z12" s="194"/>
+      <c r="AA12" s="194"/>
+      <c r="AB12" s="194"/>
+      <c r="AC12" s="194"/>
+      <c r="AD12" s="194"/>
+      <c r="AE12" s="194"/>
       <c r="AF12" s="50"/>
       <c r="AG12" s="24"/>
     </row>
     <row r="13" spans="1:177" ht="12.75" customHeight="1">
       <c r="A13" s="19"/>
-      <c r="B13" s="130"/>
-      <c r="C13" s="130"/>
+      <c r="B13" s="129"/>
+      <c r="C13" s="129"/>
       <c r="D13" s="50"/>
       <c r="E13" s="50"/>
       <c r="F13" s="50"/>
@@ -55059,9 +56549,9 @@
       <c r="S13" s="50"/>
       <c r="T13" s="50"/>
       <c r="U13" s="50"/>
-      <c r="V13" s="132"/>
-      <c r="W13" s="132"/>
-      <c r="X13" s="132"/>
+      <c r="V13" s="131"/>
+      <c r="W13" s="131"/>
+      <c r="X13" s="131"/>
       <c r="Y13" s="52"/>
       <c r="Z13" s="50"/>
       <c r="AA13" s="50"/>
@@ -56001,51 +57491,44 @@
       <c r="AG41" s="24"/>
     </row>
     <row r="42" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A42" s="128" t="s">
+      <c r="A42" s="127" t="s">
         <v>54</v>
       </c>
-      <c r="B42" s="128"/>
-      <c r="C42" s="128"/>
-      <c r="D42" s="128"/>
-      <c r="E42" s="128"/>
-      <c r="F42" s="128"/>
-      <c r="G42" s="128"/>
-      <c r="H42" s="128"/>
-      <c r="I42" s="128"/>
-      <c r="J42" s="128"/>
-      <c r="K42" s="128"/>
-      <c r="L42" s="128"/>
-      <c r="M42" s="128"/>
-      <c r="N42" s="128"/>
-      <c r="O42" s="128"/>
-      <c r="P42" s="128"/>
-      <c r="Q42" s="128"/>
-      <c r="R42" s="128"/>
-      <c r="S42" s="128"/>
-      <c r="T42" s="128"/>
-      <c r="U42" s="128"/>
-      <c r="V42" s="128"/>
-      <c r="W42" s="128"/>
-      <c r="X42" s="128"/>
-      <c r="Y42" s="128"/>
-      <c r="Z42" s="128"/>
-      <c r="AA42" s="128"/>
-      <c r="AB42" s="128"/>
-      <c r="AC42" s="128"/>
-      <c r="AD42" s="128"/>
-      <c r="AE42" s="128"/>
-      <c r="AF42" s="128"/>
-      <c r="AG42" s="129"/>
+      <c r="B42" s="127"/>
+      <c r="C42" s="127"/>
+      <c r="D42" s="127"/>
+      <c r="E42" s="127"/>
+      <c r="F42" s="127"/>
+      <c r="G42" s="127"/>
+      <c r="H42" s="127"/>
+      <c r="I42" s="127"/>
+      <c r="J42" s="127"/>
+      <c r="K42" s="127"/>
+      <c r="L42" s="127"/>
+      <c r="M42" s="127"/>
+      <c r="N42" s="127"/>
+      <c r="O42" s="127"/>
+      <c r="P42" s="127"/>
+      <c r="Q42" s="127"/>
+      <c r="R42" s="127"/>
+      <c r="S42" s="127"/>
+      <c r="T42" s="127"/>
+      <c r="U42" s="127"/>
+      <c r="V42" s="127"/>
+      <c r="W42" s="127"/>
+      <c r="X42" s="127"/>
+      <c r="Y42" s="127"/>
+      <c r="Z42" s="127"/>
+      <c r="AA42" s="127"/>
+      <c r="AB42" s="127"/>
+      <c r="AC42" s="127"/>
+      <c r="AD42" s="127"/>
+      <c r="AE42" s="127"/>
+      <c r="AF42" s="127"/>
+      <c r="AG42" s="128"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A42:AG42"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="V12:X12"/>
-    <mergeCell ref="V13:X13"/>
-    <mergeCell ref="Y12:AE12"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:G12"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="G3:AC3"/>
     <mergeCell ref="AD3:AE3"/>
@@ -56055,6 +57538,13 @@
     <mergeCell ref="G2:AC2"/>
     <mergeCell ref="AD2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="A42:AG42"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="V12:X12"/>
+    <mergeCell ref="V13:X13"/>
+    <mergeCell ref="Y12:AE12"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:G12"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -56085,41 +57575,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:178" ht="12.75" customHeight="1">
-      <c r="A1" s="127" t="s">
+      <c r="A1" s="132" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="127"/>
-      <c r="F1" s="127"/>
-      <c r="G1" s="127"/>
-      <c r="H1" s="127"/>
-      <c r="I1" s="127"/>
-      <c r="J1" s="127"/>
-      <c r="K1" s="127"/>
-      <c r="L1" s="127"/>
-      <c r="M1" s="127"/>
-      <c r="N1" s="127"/>
-      <c r="O1" s="127"/>
-      <c r="P1" s="127"/>
-      <c r="Q1" s="127"/>
-      <c r="R1" s="127"/>
-      <c r="S1" s="127"/>
-      <c r="T1" s="127"/>
-      <c r="U1" s="127"/>
-      <c r="V1" s="127"/>
-      <c r="W1" s="127"/>
-      <c r="X1" s="127"/>
-      <c r="Y1" s="127"/>
-      <c r="Z1" s="127"/>
-      <c r="AA1" s="127"/>
-      <c r="AB1" s="127"/>
-      <c r="AC1" s="127"/>
-      <c r="AD1" s="127"/>
-      <c r="AE1" s="127"/>
-      <c r="AF1" s="127"/>
-      <c r="AG1" s="127"/>
+      <c r="B1" s="132"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
+      <c r="F1" s="132"/>
+      <c r="G1" s="132"/>
+      <c r="H1" s="132"/>
+      <c r="I1" s="132"/>
+      <c r="J1" s="132"/>
+      <c r="K1" s="132"/>
+      <c r="L1" s="132"/>
+      <c r="M1" s="132"/>
+      <c r="N1" s="132"/>
+      <c r="O1" s="132"/>
+      <c r="P1" s="132"/>
+      <c r="Q1" s="132"/>
+      <c r="R1" s="132"/>
+      <c r="S1" s="132"/>
+      <c r="T1" s="132"/>
+      <c r="U1" s="132"/>
+      <c r="V1" s="132"/>
+      <c r="W1" s="132"/>
+      <c r="X1" s="132"/>
+      <c r="Y1" s="132"/>
+      <c r="Z1" s="132"/>
+      <c r="AA1" s="132"/>
+      <c r="AB1" s="132"/>
+      <c r="AC1" s="132"/>
+      <c r="AD1" s="132"/>
+      <c r="AE1" s="132"/>
+      <c r="AF1" s="132"/>
+      <c r="AG1" s="132"/>
     </row>
     <row r="2" spans="1:178" ht="12" customHeight="1">
       <c r="A2" s="117" t="s">
@@ -56436,10 +57926,10 @@
       <c r="AE5" s="83"/>
       <c r="AF5" s="83"/>
       <c r="AG5" s="83"/>
-      <c r="AH5" s="193"/>
-      <c r="AI5" s="193"/>
-      <c r="AJ5" s="193"/>
-      <c r="AK5" s="193"/>
+      <c r="AH5" s="195"/>
+      <c r="AI5" s="195"/>
+      <c r="AJ5" s="195"/>
+      <c r="AK5" s="195"/>
       <c r="AL5" s="84"/>
       <c r="AM5" s="84"/>
       <c r="AN5" s="84"/>
@@ -56765,12 +58255,12 @@
     </row>
     <row r="12" spans="1:178" ht="12.75" customHeight="1">
       <c r="A12" s="19"/>
-      <c r="B12" s="131"/>
-      <c r="C12" s="131"/>
-      <c r="D12" s="131"/>
-      <c r="E12" s="131"/>
-      <c r="F12" s="131"/>
-      <c r="G12" s="131"/>
+      <c r="B12" s="130"/>
+      <c r="C12" s="130"/>
+      <c r="D12" s="130"/>
+      <c r="E12" s="130"/>
+      <c r="F12" s="130"/>
+      <c r="G12" s="130"/>
       <c r="K12" s="50"/>
       <c r="M12" s="90"/>
       <c r="N12" s="50"/>
@@ -56781,23 +58271,23 @@
       <c r="S12" s="50"/>
       <c r="T12" s="50"/>
       <c r="U12" s="50"/>
-      <c r="V12" s="131"/>
-      <c r="W12" s="192"/>
-      <c r="X12" s="192"/>
-      <c r="Y12" s="131"/>
-      <c r="Z12" s="192"/>
-      <c r="AA12" s="192"/>
-      <c r="AB12" s="192"/>
-      <c r="AC12" s="192"/>
-      <c r="AD12" s="192"/>
-      <c r="AE12" s="192"/>
+      <c r="V12" s="130"/>
+      <c r="W12" s="194"/>
+      <c r="X12" s="194"/>
+      <c r="Y12" s="130"/>
+      <c r="Z12" s="194"/>
+      <c r="AA12" s="194"/>
+      <c r="AB12" s="194"/>
+      <c r="AC12" s="194"/>
+      <c r="AD12" s="194"/>
+      <c r="AE12" s="194"/>
       <c r="AF12" s="50"/>
       <c r="AG12" s="24"/>
     </row>
     <row r="13" spans="1:178" ht="12.75" customHeight="1">
       <c r="A13" s="19"/>
-      <c r="B13" s="130"/>
-      <c r="C13" s="130"/>
+      <c r="B13" s="129"/>
+      <c r="C13" s="129"/>
       <c r="D13" s="50"/>
       <c r="E13" s="50"/>
       <c r="F13" s="50"/>
@@ -56815,9 +58305,9 @@
       <c r="S13" s="78"/>
       <c r="T13" s="78"/>
       <c r="U13" s="79"/>
-      <c r="V13" s="132"/>
-      <c r="W13" s="132"/>
-      <c r="X13" s="132"/>
+      <c r="V13" s="131"/>
+      <c r="W13" s="131"/>
+      <c r="X13" s="131"/>
       <c r="Y13" s="52"/>
       <c r="Z13" s="50"/>
       <c r="AA13" s="50"/>
@@ -57793,10 +59283,10 @@
       <c r="AE42" s="133"/>
       <c r="AF42" s="133"/>
       <c r="AG42" s="133"/>
-      <c r="AH42" s="194"/>
-      <c r="AI42" s="194"/>
-      <c r="AJ42" s="194"/>
-      <c r="AK42" s="194"/>
+      <c r="AH42" s="196"/>
+      <c r="AI42" s="196"/>
+      <c r="AJ42" s="196"/>
+      <c r="AK42" s="196"/>
       <c r="AL42" s="94"/>
       <c r="AM42" s="94"/>
       <c r="AN42" s="94"/>
@@ -57941,6 +59431,15 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:AC3"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="A1:AG1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:AC2"/>
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="A42:AG42"/>
     <mergeCell ref="AH5:AI5"/>
     <mergeCell ref="AJ5:AK5"/>
@@ -57952,15 +59451,6 @@
     <mergeCell ref="Y12:AE12"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="V13:X13"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:AC3"/>
-    <mergeCell ref="AD3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="A1:AG1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:AC2"/>
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="AF2:AG2"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>

--- a/doc/design_detail.xlsx
+++ b/doc/design_detail.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27021"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emi07\Desktop\追加課題6\【実習】各種設計書（テンプレ）\詳細設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{45432115-1B2E-4612-A6F5-ECB101F60BAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{84A41F1E-87A9-4D52-B71E-8CADCB5FEC19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" tabRatio="774" firstSheet="22" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -111,7 +111,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="309">
   <si>
     <t>ユーザー名</t>
     <rPh sb="4" eb="5">
@@ -1285,6 +1285,84 @@
     <t>input type="text"</t>
   </si>
   <si>
+    <t>検索ボタン.クリック</t>
+  </si>
+  <si>
+    <t>入力したデータを結合</t>
+  </si>
+  <si>
+    <t>クエリ実行準備</t>
+  </si>
+  <si>
+    <t>入力データをバインド</t>
+  </si>
+  <si>
+    <t>テーブルから検索</t>
+  </si>
+  <si>
+    <t>検索結果をID降順で表示</t>
+  </si>
+  <si>
+    <t>全件表示ボタン.クリック</t>
+  </si>
+  <si>
+    <t>テーブルから全件のデータをID降順で表示</t>
+  </si>
+  <si>
+    <t>検索結果表示</t>
+  </si>
+  <si>
+    <t>レコードがある場合</t>
+  </si>
+  <si>
+    <t>カナ(姓）</t>
+  </si>
+  <si>
+    <t>author</t>
+  </si>
+  <si>
+    <t>delete_flag=0の場合</t>
+  </si>
+  <si>
+    <t>更新</t>
+  </si>
+  <si>
+    <t>更新ボタンを表示</t>
+  </si>
+  <si>
+    <t>削除</t>
+  </si>
+  <si>
+    <t>削除ボタンを表示</t>
+  </si>
+  <si>
+    <t>delete_flag=0以外の場合</t>
+  </si>
+  <si>
+    <t>ボタンを表示せず、セルを連結し「削除済み」を表示</t>
+  </si>
+  <si>
+    <t>レコードがない場合</t>
+  </si>
+  <si>
+    <t>「条件に一致するアカウントがありませんでした」を表示</t>
+  </si>
+  <si>
+    <t>更新ボタン.クリック</t>
+  </si>
+  <si>
+    <t>対象データの更新画面に遷移</t>
+  </si>
+  <si>
+    <t>削除ボタン.クリック</t>
+  </si>
+  <si>
+    <t>対象データの削除画面に遷移</t>
+  </si>
+  <si>
+    <t>アカウント更新</t>
+  </si>
+  <si>
     <t>更新・処理仕様書</t>
     <rPh sb="0" eb="2">
       <t>コウシン</t>
@@ -1359,9 +1437,6 @@
       <t>レツ</t>
     </rPh>
     <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>更新</t>
   </si>
   <si>
     <t>（自動採番ロジック）</t>
@@ -2035,7 +2110,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="197">
+  <cellXfs count="195">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
@@ -2239,6 +2314,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2254,13 +2332,10 @@
     <xf numFmtId="176" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2269,13 +2344,13 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2305,6 +2380,15 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2313,15 +2397,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2386,8 +2461,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -2459,8 +2532,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7181850" y="161925"/>
-          <a:ext cx="1508125" cy="168275"/>
+          <a:off x="8172450" y="161925"/>
+          <a:ext cx="1698625" cy="168275"/>
           <a:chOff x="733" y="95"/>
           <a:chExt cx="180" cy="17"/>
         </a:xfrm>
@@ -12517,9 +12590,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="4" width="4.140625" style="12" customWidth="1"/>
-    <col min="5" max="6" width="4.140625" style="38" customWidth="1"/>
-    <col min="7" max="32" width="4.140625" style="12" customWidth="1"/>
+    <col min="1" max="4" width="4.125" style="12" customWidth="1"/>
+    <col min="5" max="6" width="4.125" style="38" customWidth="1"/>
+    <col min="7" max="32" width="4.125" style="12" customWidth="1"/>
     <col min="33" max="36" width="4" style="12" customWidth="1"/>
     <col min="37" max="16384" width="9" style="12"/>
   </cols>
@@ -12908,20 +12981,20 @@
       <c r="C8" s="26"/>
       <c r="D8" s="26"/>
       <c r="E8" s="27"/>
-      <c r="F8" s="178" t="s">
+      <c r="F8" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="G8" s="179"/>
-      <c r="H8" s="179"/>
-      <c r="I8" s="179"/>
-      <c r="J8" s="179"/>
-      <c r="K8" s="179"/>
-      <c r="L8" s="179"/>
-      <c r="M8" s="179"/>
-      <c r="N8" s="179"/>
-      <c r="O8" s="179"/>
-      <c r="P8" s="179"/>
-      <c r="Q8" s="180"/>
+      <c r="G8" s="177"/>
+      <c r="H8" s="177"/>
+      <c r="I8" s="177"/>
+      <c r="J8" s="177"/>
+      <c r="K8" s="177"/>
+      <c r="L8" s="177"/>
+      <c r="M8" s="177"/>
+      <c r="N8" s="177"/>
+      <c r="O8" s="177"/>
+      <c r="P8" s="177"/>
+      <c r="Q8" s="178"/>
       <c r="R8" s="19"/>
       <c r="S8" s="19"/>
       <c r="T8" s="19"/>
@@ -12940,26 +13013,26 @@
     </row>
     <row r="9" spans="1:176" ht="12.95" customHeight="1">
       <c r="A9" s="22"/>
-      <c r="B9" s="181" t="s">
+      <c r="B9" s="179" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="182"/>
-      <c r="D9" s="182"/>
-      <c r="E9" s="183"/>
-      <c r="F9" s="184" t="s">
+      <c r="C9" s="180"/>
+      <c r="D9" s="180"/>
+      <c r="E9" s="181"/>
+      <c r="F9" s="182" t="s">
         <v>3</v>
       </c>
-      <c r="G9" s="185"/>
-      <c r="H9" s="185"/>
-      <c r="I9" s="185"/>
-      <c r="J9" s="185"/>
-      <c r="K9" s="185"/>
-      <c r="L9" s="185"/>
-      <c r="M9" s="185"/>
-      <c r="N9" s="185"/>
-      <c r="O9" s="185"/>
-      <c r="P9" s="185"/>
-      <c r="Q9" s="186"/>
+      <c r="G9" s="183"/>
+      <c r="H9" s="183"/>
+      <c r="I9" s="183"/>
+      <c r="J9" s="183"/>
+      <c r="K9" s="183"/>
+      <c r="L9" s="183"/>
+      <c r="M9" s="183"/>
+      <c r="N9" s="183"/>
+      <c r="O9" s="183"/>
+      <c r="P9" s="183"/>
+      <c r="Q9" s="184"/>
       <c r="R9" s="19"/>
       <c r="S9" s="19"/>
       <c r="T9" s="19"/>
@@ -12978,22 +13051,22 @@
     </row>
     <row r="10" spans="1:176" ht="12.95" customHeight="1">
       <c r="A10" s="22"/>
-      <c r="B10" s="187"/>
-      <c r="C10" s="188"/>
-      <c r="D10" s="188"/>
-      <c r="E10" s="189"/>
-      <c r="F10" s="190"/>
-      <c r="G10" s="191"/>
-      <c r="H10" s="191"/>
-      <c r="I10" s="191"/>
-      <c r="J10" s="191"/>
-      <c r="K10" s="191"/>
-      <c r="L10" s="191"/>
-      <c r="M10" s="191"/>
-      <c r="N10" s="191"/>
-      <c r="O10" s="191"/>
-      <c r="P10" s="191"/>
-      <c r="Q10" s="192"/>
+      <c r="B10" s="185"/>
+      <c r="C10" s="186"/>
+      <c r="D10" s="186"/>
+      <c r="E10" s="187"/>
+      <c r="F10" s="188"/>
+      <c r="G10" s="189"/>
+      <c r="H10" s="189"/>
+      <c r="I10" s="189"/>
+      <c r="J10" s="189"/>
+      <c r="K10" s="189"/>
+      <c r="L10" s="189"/>
+      <c r="M10" s="189"/>
+      <c r="N10" s="189"/>
+      <c r="O10" s="189"/>
+      <c r="P10" s="189"/>
+      <c r="Q10" s="190"/>
       <c r="R10" s="19"/>
       <c r="S10" s="19"/>
       <c r="T10" s="19"/>
@@ -13208,18 +13281,18 @@
       <c r="I17" s="19"/>
       <c r="J17" s="19"/>
       <c r="K17" s="19"/>
-      <c r="L17" s="193" t="s">
+      <c r="L17" s="191" t="s">
         <v>4</v>
       </c>
-      <c r="M17" s="194"/>
-      <c r="N17" s="194"/>
-      <c r="O17" s="194"/>
-      <c r="P17" s="194"/>
-      <c r="Q17" s="194"/>
-      <c r="R17" s="194"/>
-      <c r="S17" s="194"/>
-      <c r="T17" s="194"/>
-      <c r="U17" s="194"/>
+      <c r="M17" s="192"/>
+      <c r="N17" s="192"/>
+      <c r="O17" s="192"/>
+      <c r="P17" s="192"/>
+      <c r="Q17" s="192"/>
+      <c r="R17" s="192"/>
+      <c r="S17" s="192"/>
+      <c r="T17" s="192"/>
+      <c r="U17" s="192"/>
       <c r="V17" s="19"/>
       <c r="W17" s="19"/>
       <c r="AA17" s="19"/>
@@ -13241,16 +13314,16 @@
       <c r="I18" s="19"/>
       <c r="J18" s="19"/>
       <c r="K18" s="19"/>
-      <c r="L18" s="194"/>
-      <c r="M18" s="194"/>
-      <c r="N18" s="194"/>
-      <c r="O18" s="194"/>
-      <c r="P18" s="194"/>
-      <c r="Q18" s="194"/>
-      <c r="R18" s="194"/>
-      <c r="S18" s="194"/>
-      <c r="T18" s="194"/>
-      <c r="U18" s="194"/>
+      <c r="L18" s="192"/>
+      <c r="M18" s="192"/>
+      <c r="N18" s="192"/>
+      <c r="O18" s="192"/>
+      <c r="P18" s="192"/>
+      <c r="Q18" s="192"/>
+      <c r="R18" s="192"/>
+      <c r="S18" s="192"/>
+      <c r="T18" s="192"/>
+      <c r="U18" s="192"/>
       <c r="V18" s="19"/>
       <c r="W18" s="19"/>
       <c r="AA18" s="19"/>
@@ -13272,16 +13345,16 @@
       <c r="I19" s="19"/>
       <c r="J19" s="19"/>
       <c r="K19" s="19"/>
-      <c r="L19" s="194"/>
-      <c r="M19" s="194"/>
-      <c r="N19" s="194"/>
-      <c r="O19" s="194"/>
-      <c r="P19" s="194"/>
-      <c r="Q19" s="194"/>
-      <c r="R19" s="194"/>
-      <c r="S19" s="194"/>
-      <c r="T19" s="194"/>
-      <c r="U19" s="194"/>
+      <c r="L19" s="192"/>
+      <c r="M19" s="192"/>
+      <c r="N19" s="192"/>
+      <c r="O19" s="192"/>
+      <c r="P19" s="192"/>
+      <c r="Q19" s="192"/>
+      <c r="R19" s="192"/>
+      <c r="S19" s="192"/>
+      <c r="T19" s="192"/>
+      <c r="U19" s="192"/>
       <c r="V19" s="19"/>
       <c r="W19" s="19"/>
       <c r="X19" s="19"/>
@@ -14155,49 +14228,49 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="4" width="4.140625" style="12" customWidth="1"/>
-    <col min="5" max="6" width="4.140625" style="38" customWidth="1"/>
-    <col min="7" max="33" width="4.140625" style="12" customWidth="1"/>
+    <col min="1" max="4" width="4.125" style="12" customWidth="1"/>
+    <col min="5" max="6" width="4.125" style="38" customWidth="1"/>
+    <col min="7" max="33" width="4.125" style="12" customWidth="1"/>
     <col min="34" max="37" width="4" style="12" customWidth="1"/>
     <col min="38" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:178" ht="12.75" customHeight="1">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="127" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="132"/>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
-      <c r="E1" s="132"/>
-      <c r="F1" s="132"/>
-      <c r="G1" s="132"/>
-      <c r="H1" s="132"/>
-      <c r="I1" s="132"/>
-      <c r="J1" s="132"/>
-      <c r="K1" s="132"/>
-      <c r="L1" s="132"/>
-      <c r="M1" s="132"/>
-      <c r="N1" s="132"/>
-      <c r="O1" s="132"/>
-      <c r="P1" s="132"/>
-      <c r="Q1" s="132"/>
-      <c r="R1" s="132"/>
-      <c r="S1" s="132"/>
-      <c r="T1" s="132"/>
-      <c r="U1" s="132"/>
-      <c r="V1" s="132"/>
-      <c r="W1" s="132"/>
-      <c r="X1" s="132"/>
-      <c r="Y1" s="132"/>
-      <c r="Z1" s="132"/>
-      <c r="AA1" s="132"/>
-      <c r="AB1" s="132"/>
-      <c r="AC1" s="132"/>
-      <c r="AD1" s="132"/>
-      <c r="AE1" s="132"/>
-      <c r="AF1" s="132"/>
-      <c r="AG1" s="132"/>
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="127"/>
+      <c r="J1" s="127"/>
+      <c r="K1" s="127"/>
+      <c r="L1" s="127"/>
+      <c r="M1" s="127"/>
+      <c r="N1" s="127"/>
+      <c r="O1" s="127"/>
+      <c r="P1" s="127"/>
+      <c r="Q1" s="127"/>
+      <c r="R1" s="127"/>
+      <c r="S1" s="127"/>
+      <c r="T1" s="127"/>
+      <c r="U1" s="127"/>
+      <c r="V1" s="127"/>
+      <c r="W1" s="127"/>
+      <c r="X1" s="127"/>
+      <c r="Y1" s="127"/>
+      <c r="Z1" s="127"/>
+      <c r="AA1" s="127"/>
+      <c r="AB1" s="127"/>
+      <c r="AC1" s="127"/>
+      <c r="AD1" s="127"/>
+      <c r="AE1" s="127"/>
+      <c r="AF1" s="127"/>
+      <c r="AG1" s="127"/>
     </row>
     <row r="2" spans="1:178" ht="12" customHeight="1">
       <c r="A2" s="117" t="s">
@@ -14514,10 +14587,10 @@
       <c r="AE5" s="83"/>
       <c r="AF5" s="83"/>
       <c r="AG5" s="83"/>
-      <c r="AH5" s="195"/>
-      <c r="AI5" s="195"/>
-      <c r="AJ5" s="195"/>
-      <c r="AK5" s="195"/>
+      <c r="AH5" s="193"/>
+      <c r="AI5" s="193"/>
+      <c r="AJ5" s="193"/>
+      <c r="AK5" s="193"/>
       <c r="AL5" s="84"/>
       <c r="AM5" s="84"/>
       <c r="AN5" s="84"/>
@@ -14838,12 +14911,12 @@
     </row>
     <row r="12" spans="1:178" ht="12.75" customHeight="1">
       <c r="A12" s="19"/>
-      <c r="B12" s="130"/>
-      <c r="C12" s="130"/>
-      <c r="D12" s="130"/>
-      <c r="E12" s="130"/>
-      <c r="F12" s="130"/>
-      <c r="G12" s="130"/>
+      <c r="B12" s="131"/>
+      <c r="C12" s="131"/>
+      <c r="D12" s="131"/>
+      <c r="E12" s="131"/>
+      <c r="F12" s="131"/>
+      <c r="G12" s="131"/>
       <c r="N12" s="50"/>
       <c r="P12" s="90"/>
       <c r="Q12" s="50"/>
@@ -14851,23 +14924,23 @@
       <c r="S12" s="50"/>
       <c r="T12" s="50"/>
       <c r="U12" s="50"/>
-      <c r="V12" s="130"/>
-      <c r="W12" s="194"/>
-      <c r="X12" s="194"/>
-      <c r="Y12" s="130"/>
-      <c r="Z12" s="194"/>
-      <c r="AA12" s="194"/>
-      <c r="AB12" s="194"/>
-      <c r="AC12" s="194"/>
-      <c r="AD12" s="194"/>
-      <c r="AE12" s="194"/>
+      <c r="V12" s="131"/>
+      <c r="W12" s="192"/>
+      <c r="X12" s="192"/>
+      <c r="Y12" s="131"/>
+      <c r="Z12" s="192"/>
+      <c r="AA12" s="192"/>
+      <c r="AB12" s="192"/>
+      <c r="AC12" s="192"/>
+      <c r="AD12" s="192"/>
+      <c r="AE12" s="192"/>
       <c r="AF12" s="50"/>
       <c r="AG12" s="24"/>
     </row>
     <row r="13" spans="1:178" ht="12.75" customHeight="1">
       <c r="A13" s="19"/>
-      <c r="B13" s="129"/>
-      <c r="C13" s="129"/>
+      <c r="B13" s="130"/>
+      <c r="C13" s="130"/>
       <c r="D13" s="50"/>
       <c r="E13" s="50"/>
       <c r="F13" s="50"/>
@@ -14884,9 +14957,9 @@
       <c r="S13" s="50"/>
       <c r="T13" s="50"/>
       <c r="U13" s="50"/>
-      <c r="V13" s="131"/>
-      <c r="W13" s="131"/>
-      <c r="X13" s="131"/>
+      <c r="V13" s="132"/>
+      <c r="W13" s="132"/>
+      <c r="X13" s="132"/>
       <c r="Y13" s="52"/>
       <c r="Z13" s="50"/>
       <c r="AA13" s="50"/>
@@ -15792,10 +15865,10 @@
       <c r="AE42" s="133"/>
       <c r="AF42" s="133"/>
       <c r="AG42" s="133"/>
-      <c r="AH42" s="196"/>
-      <c r="AI42" s="196"/>
-      <c r="AJ42" s="196"/>
-      <c r="AK42" s="196"/>
+      <c r="AH42" s="194"/>
+      <c r="AI42" s="194"/>
+      <c r="AJ42" s="194"/>
+      <c r="AK42" s="194"/>
       <c r="AL42" s="94"/>
       <c r="AM42" s="94"/>
       <c r="AN42" s="94"/>
@@ -15940,6 +16013,17 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="V13:X13"/>
+    <mergeCell ref="A42:AG42"/>
+    <mergeCell ref="AH42:AI42"/>
+    <mergeCell ref="AJ42:AK42"/>
+    <mergeCell ref="AH5:AI5"/>
+    <mergeCell ref="AJ5:AK5"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="V12:X12"/>
+    <mergeCell ref="Y12:AE12"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="G3:AC3"/>
     <mergeCell ref="AD3:AE3"/>
@@ -15949,17 +16033,6 @@
     <mergeCell ref="G2:AC2"/>
     <mergeCell ref="AD2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="AH5:AI5"/>
-    <mergeCell ref="AJ5:AK5"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="V12:X12"/>
-    <mergeCell ref="Y12:AE12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="V13:X13"/>
-    <mergeCell ref="A42:AG42"/>
-    <mergeCell ref="AH42:AI42"/>
-    <mergeCell ref="AJ42:AK42"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -15982,49 +16055,49 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="4" width="4.140625" style="12" customWidth="1"/>
-    <col min="5" max="6" width="4.140625" style="38" customWidth="1"/>
-    <col min="7" max="33" width="4.140625" style="12" customWidth="1"/>
+    <col min="1" max="4" width="4.125" style="12" customWidth="1"/>
+    <col min="5" max="6" width="4.125" style="38" customWidth="1"/>
+    <col min="7" max="33" width="4.125" style="12" customWidth="1"/>
     <col min="34" max="37" width="4" style="12" customWidth="1"/>
     <col min="38" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:178" ht="12.75" customHeight="1">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="127" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="132"/>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
-      <c r="E1" s="132"/>
-      <c r="F1" s="132"/>
-      <c r="G1" s="132"/>
-      <c r="H1" s="132"/>
-      <c r="I1" s="132"/>
-      <c r="J1" s="132"/>
-      <c r="K1" s="132"/>
-      <c r="L1" s="132"/>
-      <c r="M1" s="132"/>
-      <c r="N1" s="132"/>
-      <c r="O1" s="132"/>
-      <c r="P1" s="132"/>
-      <c r="Q1" s="132"/>
-      <c r="R1" s="132"/>
-      <c r="S1" s="132"/>
-      <c r="T1" s="132"/>
-      <c r="U1" s="132"/>
-      <c r="V1" s="132"/>
-      <c r="W1" s="132"/>
-      <c r="X1" s="132"/>
-      <c r="Y1" s="132"/>
-      <c r="Z1" s="132"/>
-      <c r="AA1" s="132"/>
-      <c r="AB1" s="132"/>
-      <c r="AC1" s="132"/>
-      <c r="AD1" s="132"/>
-      <c r="AE1" s="132"/>
-      <c r="AF1" s="132"/>
-      <c r="AG1" s="132"/>
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="127"/>
+      <c r="J1" s="127"/>
+      <c r="K1" s="127"/>
+      <c r="L1" s="127"/>
+      <c r="M1" s="127"/>
+      <c r="N1" s="127"/>
+      <c r="O1" s="127"/>
+      <c r="P1" s="127"/>
+      <c r="Q1" s="127"/>
+      <c r="R1" s="127"/>
+      <c r="S1" s="127"/>
+      <c r="T1" s="127"/>
+      <c r="U1" s="127"/>
+      <c r="V1" s="127"/>
+      <c r="W1" s="127"/>
+      <c r="X1" s="127"/>
+      <c r="Y1" s="127"/>
+      <c r="Z1" s="127"/>
+      <c r="AA1" s="127"/>
+      <c r="AB1" s="127"/>
+      <c r="AC1" s="127"/>
+      <c r="AD1" s="127"/>
+      <c r="AE1" s="127"/>
+      <c r="AF1" s="127"/>
+      <c r="AG1" s="127"/>
     </row>
     <row r="2" spans="1:178" ht="12" customHeight="1">
       <c r="A2" s="117" t="s">
@@ -16341,10 +16414,10 @@
       <c r="AE5" s="83"/>
       <c r="AF5" s="83"/>
       <c r="AG5" s="83"/>
-      <c r="AH5" s="195"/>
-      <c r="AI5" s="195"/>
-      <c r="AJ5" s="195"/>
-      <c r="AK5" s="195"/>
+      <c r="AH5" s="193"/>
+      <c r="AI5" s="193"/>
+      <c r="AJ5" s="193"/>
+      <c r="AK5" s="193"/>
       <c r="AL5" s="84"/>
       <c r="AM5" s="84"/>
       <c r="AN5" s="84"/>
@@ -16659,12 +16732,12 @@
     </row>
     <row r="12" spans="1:178" ht="12.75" customHeight="1">
       <c r="A12" s="19"/>
-      <c r="B12" s="130"/>
-      <c r="C12" s="130"/>
-      <c r="D12" s="130"/>
-      <c r="E12" s="130"/>
-      <c r="F12" s="130"/>
-      <c r="G12" s="130"/>
+      <c r="B12" s="131"/>
+      <c r="C12" s="131"/>
+      <c r="D12" s="131"/>
+      <c r="E12" s="131"/>
+      <c r="F12" s="131"/>
+      <c r="G12" s="131"/>
       <c r="N12" s="50"/>
       <c r="P12" s="90"/>
       <c r="Q12" s="50"/>
@@ -16672,23 +16745,23 @@
       <c r="S12" s="50"/>
       <c r="T12" s="50"/>
       <c r="U12" s="50"/>
-      <c r="V12" s="130"/>
-      <c r="W12" s="194"/>
-      <c r="X12" s="194"/>
-      <c r="Y12" s="130"/>
-      <c r="Z12" s="194"/>
-      <c r="AA12" s="194"/>
-      <c r="AB12" s="194"/>
-      <c r="AC12" s="194"/>
-      <c r="AD12" s="194"/>
-      <c r="AE12" s="194"/>
+      <c r="V12" s="131"/>
+      <c r="W12" s="192"/>
+      <c r="X12" s="192"/>
+      <c r="Y12" s="131"/>
+      <c r="Z12" s="192"/>
+      <c r="AA12" s="192"/>
+      <c r="AB12" s="192"/>
+      <c r="AC12" s="192"/>
+      <c r="AD12" s="192"/>
+      <c r="AE12" s="192"/>
       <c r="AF12" s="50"/>
       <c r="AG12" s="24"/>
     </row>
     <row r="13" spans="1:178" ht="12.75" customHeight="1">
       <c r="A13" s="19"/>
-      <c r="B13" s="129"/>
-      <c r="C13" s="129"/>
+      <c r="B13" s="130"/>
+      <c r="C13" s="130"/>
       <c r="D13" s="50"/>
       <c r="E13" s="50"/>
       <c r="F13" s="50"/>
@@ -16701,9 +16774,9 @@
       <c r="S13" s="50"/>
       <c r="T13" s="50"/>
       <c r="U13" s="50"/>
-      <c r="V13" s="131"/>
-      <c r="W13" s="131"/>
-      <c r="X13" s="131"/>
+      <c r="V13" s="132"/>
+      <c r="W13" s="132"/>
+      <c r="X13" s="132"/>
       <c r="Y13" s="52"/>
       <c r="Z13" s="50"/>
       <c r="AA13" s="50"/>
@@ -17573,10 +17646,10 @@
       <c r="AE42" s="133"/>
       <c r="AF42" s="133"/>
       <c r="AG42" s="133"/>
-      <c r="AH42" s="196"/>
-      <c r="AI42" s="196"/>
-      <c r="AJ42" s="196"/>
-      <c r="AK42" s="196"/>
+      <c r="AH42" s="194"/>
+      <c r="AI42" s="194"/>
+      <c r="AJ42" s="194"/>
+      <c r="AK42" s="194"/>
       <c r="AL42" s="94"/>
       <c r="AM42" s="94"/>
       <c r="AN42" s="94"/>
@@ -17721,6 +17794,17 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="V13:X13"/>
+    <mergeCell ref="A42:AG42"/>
+    <mergeCell ref="AH42:AI42"/>
+    <mergeCell ref="AJ42:AK42"/>
+    <mergeCell ref="AH5:AI5"/>
+    <mergeCell ref="AJ5:AK5"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="V12:X12"/>
+    <mergeCell ref="Y12:AE12"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="G3:AC3"/>
     <mergeCell ref="AD3:AE3"/>
@@ -17730,17 +17814,6 @@
     <mergeCell ref="G2:AC2"/>
     <mergeCell ref="AD2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="AH5:AI5"/>
-    <mergeCell ref="AJ5:AK5"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="V12:X12"/>
-    <mergeCell ref="Y12:AE12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="V13:X13"/>
-    <mergeCell ref="A42:AG42"/>
-    <mergeCell ref="AH42:AI42"/>
-    <mergeCell ref="AJ42:AK42"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -17763,49 +17836,49 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="4" width="4.140625" style="12" customWidth="1"/>
-    <col min="5" max="6" width="4.140625" style="38" customWidth="1"/>
-    <col min="7" max="33" width="4.140625" style="12" customWidth="1"/>
+    <col min="1" max="4" width="4.125" style="12" customWidth="1"/>
+    <col min="5" max="6" width="4.125" style="38" customWidth="1"/>
+    <col min="7" max="33" width="4.125" style="12" customWidth="1"/>
     <col min="34" max="37" width="4" style="12" customWidth="1"/>
     <col min="38" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:178" ht="12.75" customHeight="1">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="127" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="132"/>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
-      <c r="E1" s="132"/>
-      <c r="F1" s="132"/>
-      <c r="G1" s="132"/>
-      <c r="H1" s="132"/>
-      <c r="I1" s="132"/>
-      <c r="J1" s="132"/>
-      <c r="K1" s="132"/>
-      <c r="L1" s="132"/>
-      <c r="M1" s="132"/>
-      <c r="N1" s="132"/>
-      <c r="O1" s="132"/>
-      <c r="P1" s="132"/>
-      <c r="Q1" s="132"/>
-      <c r="R1" s="132"/>
-      <c r="S1" s="132"/>
-      <c r="T1" s="132"/>
-      <c r="U1" s="132"/>
-      <c r="V1" s="132"/>
-      <c r="W1" s="132"/>
-      <c r="X1" s="132"/>
-      <c r="Y1" s="132"/>
-      <c r="Z1" s="132"/>
-      <c r="AA1" s="132"/>
-      <c r="AB1" s="132"/>
-      <c r="AC1" s="132"/>
-      <c r="AD1" s="132"/>
-      <c r="AE1" s="132"/>
-      <c r="AF1" s="132"/>
-      <c r="AG1" s="132"/>
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="127"/>
+      <c r="J1" s="127"/>
+      <c r="K1" s="127"/>
+      <c r="L1" s="127"/>
+      <c r="M1" s="127"/>
+      <c r="N1" s="127"/>
+      <c r="O1" s="127"/>
+      <c r="P1" s="127"/>
+      <c r="Q1" s="127"/>
+      <c r="R1" s="127"/>
+      <c r="S1" s="127"/>
+      <c r="T1" s="127"/>
+      <c r="U1" s="127"/>
+      <c r="V1" s="127"/>
+      <c r="W1" s="127"/>
+      <c r="X1" s="127"/>
+      <c r="Y1" s="127"/>
+      <c r="Z1" s="127"/>
+      <c r="AA1" s="127"/>
+      <c r="AB1" s="127"/>
+      <c r="AC1" s="127"/>
+      <c r="AD1" s="127"/>
+      <c r="AE1" s="127"/>
+      <c r="AF1" s="127"/>
+      <c r="AG1" s="127"/>
     </row>
     <row r="2" spans="1:178" ht="12" customHeight="1">
       <c r="A2" s="117" t="s">
@@ -18122,10 +18195,10 @@
       <c r="AE5" s="83"/>
       <c r="AF5" s="83"/>
       <c r="AG5" s="83"/>
-      <c r="AH5" s="195"/>
-      <c r="AI5" s="195"/>
-      <c r="AJ5" s="195"/>
-      <c r="AK5" s="195"/>
+      <c r="AH5" s="193"/>
+      <c r="AI5" s="193"/>
+      <c r="AJ5" s="193"/>
+      <c r="AK5" s="193"/>
       <c r="AL5" s="84"/>
       <c r="AM5" s="84"/>
       <c r="AN5" s="84"/>
@@ -18440,12 +18513,12 @@
     </row>
     <row r="12" spans="1:178" ht="12.75" customHeight="1">
       <c r="A12" s="19"/>
-      <c r="B12" s="130"/>
-      <c r="C12" s="130"/>
-      <c r="D12" s="130"/>
-      <c r="E12" s="130"/>
-      <c r="F12" s="130"/>
-      <c r="G12" s="130"/>
+      <c r="B12" s="131"/>
+      <c r="C12" s="131"/>
+      <c r="D12" s="131"/>
+      <c r="E12" s="131"/>
+      <c r="F12" s="131"/>
+      <c r="G12" s="131"/>
       <c r="N12" s="50"/>
       <c r="P12" s="90"/>
       <c r="Q12" s="50"/>
@@ -18453,23 +18526,23 @@
       <c r="S12" s="50"/>
       <c r="T12" s="50"/>
       <c r="U12" s="50"/>
-      <c r="V12" s="130"/>
-      <c r="W12" s="194"/>
-      <c r="X12" s="194"/>
-      <c r="Y12" s="130"/>
-      <c r="Z12" s="194"/>
-      <c r="AA12" s="194"/>
-      <c r="AB12" s="194"/>
-      <c r="AC12" s="194"/>
-      <c r="AD12" s="194"/>
-      <c r="AE12" s="194"/>
+      <c r="V12" s="131"/>
+      <c r="W12" s="192"/>
+      <c r="X12" s="192"/>
+      <c r="Y12" s="131"/>
+      <c r="Z12" s="192"/>
+      <c r="AA12" s="192"/>
+      <c r="AB12" s="192"/>
+      <c r="AC12" s="192"/>
+      <c r="AD12" s="192"/>
+      <c r="AE12" s="192"/>
       <c r="AF12" s="50"/>
       <c r="AG12" s="24"/>
     </row>
     <row r="13" spans="1:178" ht="12.75" customHeight="1">
       <c r="A13" s="19"/>
-      <c r="B13" s="129"/>
-      <c r="C13" s="129"/>
+      <c r="B13" s="130"/>
+      <c r="C13" s="130"/>
       <c r="D13" s="50"/>
       <c r="E13" s="50"/>
       <c r="F13" s="50"/>
@@ -18482,9 +18555,9 @@
       <c r="S13" s="50"/>
       <c r="T13" s="50"/>
       <c r="U13" s="50"/>
-      <c r="V13" s="131"/>
-      <c r="W13" s="131"/>
-      <c r="X13" s="131"/>
+      <c r="V13" s="132"/>
+      <c r="W13" s="132"/>
+      <c r="X13" s="132"/>
       <c r="Y13" s="52"/>
       <c r="Z13" s="50"/>
       <c r="AA13" s="50"/>
@@ -19354,10 +19427,10 @@
       <c r="AE42" s="133"/>
       <c r="AF42" s="133"/>
       <c r="AG42" s="133"/>
-      <c r="AH42" s="196"/>
-      <c r="AI42" s="196"/>
-      <c r="AJ42" s="196"/>
-      <c r="AK42" s="196"/>
+      <c r="AH42" s="194"/>
+      <c r="AI42" s="194"/>
+      <c r="AJ42" s="194"/>
+      <c r="AK42" s="194"/>
       <c r="AL42" s="94"/>
       <c r="AM42" s="94"/>
       <c r="AN42" s="94"/>
@@ -19502,6 +19575,17 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="V13:X13"/>
+    <mergeCell ref="A42:AG42"/>
+    <mergeCell ref="AH42:AI42"/>
+    <mergeCell ref="AJ42:AK42"/>
+    <mergeCell ref="AH5:AI5"/>
+    <mergeCell ref="AJ5:AK5"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="V12:X12"/>
+    <mergeCell ref="Y12:AE12"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="G3:AC3"/>
     <mergeCell ref="AD3:AE3"/>
@@ -19511,17 +19595,6 @@
     <mergeCell ref="G2:AC2"/>
     <mergeCell ref="AD2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="AH5:AI5"/>
-    <mergeCell ref="AJ5:AK5"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="V12:X12"/>
-    <mergeCell ref="Y12:AE12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="V13:X13"/>
-    <mergeCell ref="A42:AG42"/>
-    <mergeCell ref="AH42:AI42"/>
-    <mergeCell ref="AJ42:AK42"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -19544,51 +19617,51 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="4" width="4.140625" style="12" customWidth="1"/>
-    <col min="5" max="6" width="4.140625" style="38" customWidth="1"/>
-    <col min="7" max="23" width="4.140625" style="12" customWidth="1"/>
-    <col min="24" max="25" width="7.28515625" style="12" customWidth="1"/>
-    <col min="26" max="33" width="4.140625" style="12" customWidth="1"/>
+    <col min="1" max="4" width="4.125" style="12" customWidth="1"/>
+    <col min="5" max="6" width="4.125" style="38" customWidth="1"/>
+    <col min="7" max="23" width="4.125" style="12" customWidth="1"/>
+    <col min="24" max="25" width="7.25" style="12" customWidth="1"/>
+    <col min="26" max="33" width="4.125" style="12" customWidth="1"/>
     <col min="34" max="37" width="4" style="12" customWidth="1"/>
     <col min="38" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:178" ht="12.75" customHeight="1">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="127" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="132"/>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
-      <c r="E1" s="132"/>
-      <c r="F1" s="132"/>
-      <c r="G1" s="132"/>
-      <c r="H1" s="132"/>
-      <c r="I1" s="132"/>
-      <c r="J1" s="132"/>
-      <c r="K1" s="132"/>
-      <c r="L1" s="132"/>
-      <c r="M1" s="132"/>
-      <c r="N1" s="132"/>
-      <c r="O1" s="132"/>
-      <c r="P1" s="132"/>
-      <c r="Q1" s="132"/>
-      <c r="R1" s="132"/>
-      <c r="S1" s="132"/>
-      <c r="T1" s="132"/>
-      <c r="U1" s="132"/>
-      <c r="V1" s="132"/>
-      <c r="W1" s="132"/>
-      <c r="X1" s="132"/>
-      <c r="Y1" s="132"/>
-      <c r="Z1" s="132"/>
-      <c r="AA1" s="132"/>
-      <c r="AB1" s="132"/>
-      <c r="AC1" s="132"/>
-      <c r="AD1" s="132"/>
-      <c r="AE1" s="132"/>
-      <c r="AF1" s="132"/>
-      <c r="AG1" s="132"/>
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="127"/>
+      <c r="J1" s="127"/>
+      <c r="K1" s="127"/>
+      <c r="L1" s="127"/>
+      <c r="M1" s="127"/>
+      <c r="N1" s="127"/>
+      <c r="O1" s="127"/>
+      <c r="P1" s="127"/>
+      <c r="Q1" s="127"/>
+      <c r="R1" s="127"/>
+      <c r="S1" s="127"/>
+      <c r="T1" s="127"/>
+      <c r="U1" s="127"/>
+      <c r="V1" s="127"/>
+      <c r="W1" s="127"/>
+      <c r="X1" s="127"/>
+      <c r="Y1" s="127"/>
+      <c r="Z1" s="127"/>
+      <c r="AA1" s="127"/>
+      <c r="AB1" s="127"/>
+      <c r="AC1" s="127"/>
+      <c r="AD1" s="127"/>
+      <c r="AE1" s="127"/>
+      <c r="AF1" s="127"/>
+      <c r="AG1" s="127"/>
     </row>
     <row r="2" spans="1:178" ht="12" customHeight="1">
       <c r="A2" s="117" t="s">
@@ -19905,10 +19978,10 @@
       <c r="AE5" s="83"/>
       <c r="AF5" s="83"/>
       <c r="AG5" s="83"/>
-      <c r="AH5" s="195"/>
-      <c r="AI5" s="195"/>
-      <c r="AJ5" s="195"/>
-      <c r="AK5" s="195"/>
+      <c r="AH5" s="193"/>
+      <c r="AI5" s="193"/>
+      <c r="AJ5" s="193"/>
+      <c r="AK5" s="193"/>
       <c r="AL5" s="84"/>
       <c r="AM5" s="84"/>
       <c r="AN5" s="84"/>
@@ -20229,8 +20302,8 @@
     </row>
     <row r="12" spans="1:178" ht="12.75" customHeight="1">
       <c r="A12" s="19"/>
-      <c r="B12" s="130"/>
-      <c r="C12" s="130"/>
+      <c r="B12" s="131"/>
+      <c r="C12" s="131"/>
       <c r="D12" s="51"/>
       <c r="E12" s="51"/>
       <c r="F12" s="51"/>
@@ -20241,23 +20314,23 @@
       <c r="S12" s="50"/>
       <c r="T12" s="50"/>
       <c r="U12" s="50"/>
-      <c r="V12" s="130"/>
-      <c r="W12" s="194"/>
-      <c r="X12" s="194"/>
-      <c r="Y12" s="130"/>
-      <c r="Z12" s="194"/>
-      <c r="AA12" s="194"/>
-      <c r="AB12" s="194"/>
-      <c r="AC12" s="194"/>
-      <c r="AD12" s="194"/>
-      <c r="AE12" s="194"/>
+      <c r="V12" s="131"/>
+      <c r="W12" s="192"/>
+      <c r="X12" s="192"/>
+      <c r="Y12" s="131"/>
+      <c r="Z12" s="192"/>
+      <c r="AA12" s="192"/>
+      <c r="AB12" s="192"/>
+      <c r="AC12" s="192"/>
+      <c r="AD12" s="192"/>
+      <c r="AE12" s="192"/>
       <c r="AF12" s="50"/>
       <c r="AG12" s="24"/>
     </row>
     <row r="13" spans="1:178" ht="12.75" customHeight="1">
       <c r="A13" s="19"/>
-      <c r="B13" s="129"/>
-      <c r="C13" s="129"/>
+      <c r="B13" s="130"/>
+      <c r="C13" s="130"/>
       <c r="D13" s="50"/>
       <c r="F13" s="50"/>
       <c r="H13" s="90" t="s">
@@ -20446,10 +20519,10 @@
       <c r="C19" s="97" t="s">
         <v>89</v>
       </c>
-      <c r="D19" s="137" t="s">
+      <c r="D19" s="134" t="s">
         <v>59</v>
       </c>
-      <c r="E19" s="137"/>
+      <c r="E19" s="134"/>
       <c r="F19" s="135" t="s">
         <v>60</v>
       </c>
@@ -20488,64 +20561,64 @@
       <c r="Y19" s="136" t="s">
         <v>92</v>
       </c>
-      <c r="Z19" s="138"/>
-      <c r="AA19" s="139" t="s">
+      <c r="Z19" s="137"/>
+      <c r="AA19" s="138" t="s">
         <v>93</v>
       </c>
-      <c r="AB19" s="139"/>
-      <c r="AC19" s="139"/>
-      <c r="AD19" s="139"/>
+      <c r="AB19" s="138"/>
+      <c r="AC19" s="138"/>
+      <c r="AD19" s="138"/>
       <c r="AE19" s="50"/>
       <c r="AF19" s="51"/>
       <c r="AG19" s="24"/>
     </row>
     <row r="20" spans="1:33" ht="12.75" customHeight="1">
-      <c r="C20" s="134" t="s">
+      <c r="C20" s="139" t="s">
         <v>94</v>
       </c>
-      <c r="D20" s="134" t="s">
+      <c r="D20" s="139" t="s">
         <v>94</v>
       </c>
-      <c r="E20" s="134"/>
-      <c r="F20" s="134" t="s">
+      <c r="E20" s="139"/>
+      <c r="F20" s="139" t="s">
         <v>94</v>
       </c>
-      <c r="G20" s="134"/>
-      <c r="H20" s="134" t="s">
+      <c r="G20" s="139"/>
+      <c r="H20" s="139" t="s">
         <v>94</v>
       </c>
-      <c r="I20" s="134"/>
-      <c r="J20" s="134" t="s">
+      <c r="I20" s="139"/>
+      <c r="J20" s="139" t="s">
         <v>94</v>
       </c>
-      <c r="K20" s="134"/>
-      <c r="L20" s="134" t="s">
+      <c r="K20" s="139"/>
+      <c r="L20" s="139" t="s">
         <v>95</v>
       </c>
-      <c r="M20" s="134"/>
-      <c r="N20" s="134"/>
-      <c r="O20" s="134" t="s">
+      <c r="M20" s="139"/>
+      <c r="N20" s="139"/>
+      <c r="O20" s="139" t="s">
         <v>96</v>
       </c>
-      <c r="P20" s="134"/>
-      <c r="Q20" s="134" t="s">
+      <c r="P20" s="139"/>
+      <c r="Q20" s="139" t="s">
         <v>94</v>
       </c>
-      <c r="R20" s="134"/>
-      <c r="S20" s="134"/>
-      <c r="T20" s="134" t="s">
+      <c r="R20" s="139"/>
+      <c r="S20" s="139"/>
+      <c r="T20" s="139" t="s">
         <v>96</v>
       </c>
-      <c r="U20" s="134"/>
-      <c r="V20" s="134"/>
-      <c r="W20" s="134" t="s">
+      <c r="U20" s="139"/>
+      <c r="V20" s="139"/>
+      <c r="W20" s="139" t="s">
         <v>97</v>
       </c>
       <c r="X20" s="140"/>
-      <c r="Y20" s="134" t="s">
+      <c r="Y20" s="139" t="s">
         <v>97</v>
       </c>
-      <c r="Z20" s="134"/>
+      <c r="Z20" s="139"/>
       <c r="AA20" s="98"/>
       <c r="AB20" s="98"/>
       <c r="AC20" s="50"/>
@@ -20555,30 +20628,30 @@
       <c r="AG20" s="24"/>
     </row>
     <row r="21" spans="1:33" ht="12.75" customHeight="1">
-      <c r="C21" s="134"/>
-      <c r="D21" s="134"/>
-      <c r="E21" s="134"/>
-      <c r="F21" s="134"/>
-      <c r="G21" s="134"/>
-      <c r="H21" s="134"/>
-      <c r="I21" s="134"/>
-      <c r="J21" s="134"/>
-      <c r="K21" s="134"/>
-      <c r="L21" s="134"/>
-      <c r="M21" s="134"/>
-      <c r="N21" s="134"/>
-      <c r="O21" s="134"/>
-      <c r="P21" s="134"/>
-      <c r="Q21" s="134"/>
-      <c r="R21" s="134"/>
-      <c r="S21" s="134"/>
-      <c r="T21" s="134"/>
-      <c r="U21" s="134"/>
-      <c r="V21" s="134"/>
-      <c r="W21" s="134"/>
+      <c r="C21" s="139"/>
+      <c r="D21" s="139"/>
+      <c r="E21" s="139"/>
+      <c r="F21" s="139"/>
+      <c r="G21" s="139"/>
+      <c r="H21" s="139"/>
+      <c r="I21" s="139"/>
+      <c r="J21" s="139"/>
+      <c r="K21" s="139"/>
+      <c r="L21" s="139"/>
+      <c r="M21" s="139"/>
+      <c r="N21" s="139"/>
+      <c r="O21" s="139"/>
+      <c r="P21" s="139"/>
+      <c r="Q21" s="139"/>
+      <c r="R21" s="139"/>
+      <c r="S21" s="139"/>
+      <c r="T21" s="139"/>
+      <c r="U21" s="139"/>
+      <c r="V21" s="139"/>
+      <c r="W21" s="139"/>
       <c r="X21" s="140"/>
-      <c r="Y21" s="134"/>
-      <c r="Z21" s="134"/>
+      <c r="Y21" s="139"/>
+      <c r="Z21" s="139"/>
       <c r="AA21" s="98"/>
       <c r="AB21" s="98"/>
       <c r="AC21" s="50"/>
@@ -21155,10 +21228,10 @@
       <c r="AE42" s="133"/>
       <c r="AF42" s="133"/>
       <c r="AG42" s="133"/>
-      <c r="AH42" s="196"/>
-      <c r="AI42" s="196"/>
-      <c r="AJ42" s="196"/>
-      <c r="AK42" s="196"/>
+      <c r="AH42" s="194"/>
+      <c r="AI42" s="194"/>
+      <c r="AJ42" s="194"/>
+      <c r="AK42" s="194"/>
       <c r="AL42" s="94"/>
       <c r="AM42" s="94"/>
       <c r="AN42" s="94"/>
@@ -21303,30 +21376,6 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:AC3"/>
-    <mergeCell ref="AD3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="A1:AG1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:AC2"/>
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="AH5:AI5"/>
-    <mergeCell ref="AJ5:AK5"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="V12:X12"/>
-    <mergeCell ref="Y12:AE12"/>
-    <mergeCell ref="AJ42:AK42"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="Y19:Z19"/>
-    <mergeCell ref="AA19:AD19"/>
-    <mergeCell ref="W20:X21"/>
-    <mergeCell ref="Y20:Z21"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="A42:AG42"/>
     <mergeCell ref="AH42:AI42"/>
@@ -21343,6 +21392,30 @@
     <mergeCell ref="O20:P21"/>
     <mergeCell ref="Q20:S21"/>
     <mergeCell ref="T20:V21"/>
+    <mergeCell ref="AJ42:AK42"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="Y19:Z19"/>
+    <mergeCell ref="AA19:AD19"/>
+    <mergeCell ref="W20:X21"/>
+    <mergeCell ref="Y20:Z21"/>
+    <mergeCell ref="AH5:AI5"/>
+    <mergeCell ref="AJ5:AK5"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="V12:X12"/>
+    <mergeCell ref="Y12:AE12"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:AC3"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="A1:AG1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:AC2"/>
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="AF2:AG2"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -21365,49 +21438,49 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="4" width="4.140625" style="12" customWidth="1"/>
-    <col min="5" max="6" width="4.140625" style="38" customWidth="1"/>
-    <col min="7" max="33" width="4.140625" style="12" customWidth="1"/>
+    <col min="1" max="4" width="4.125" style="12" customWidth="1"/>
+    <col min="5" max="6" width="4.125" style="38" customWidth="1"/>
+    <col min="7" max="33" width="4.125" style="12" customWidth="1"/>
     <col min="34" max="37" width="4" style="12" customWidth="1"/>
     <col min="38" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:178" ht="12.75" customHeight="1">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="127" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="132"/>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
-      <c r="E1" s="132"/>
-      <c r="F1" s="132"/>
-      <c r="G1" s="132"/>
-      <c r="H1" s="132"/>
-      <c r="I1" s="132"/>
-      <c r="J1" s="132"/>
-      <c r="K1" s="132"/>
-      <c r="L1" s="132"/>
-      <c r="M1" s="132"/>
-      <c r="N1" s="132"/>
-      <c r="O1" s="132"/>
-      <c r="P1" s="132"/>
-      <c r="Q1" s="132"/>
-      <c r="R1" s="132"/>
-      <c r="S1" s="132"/>
-      <c r="T1" s="132"/>
-      <c r="U1" s="132"/>
-      <c r="V1" s="132"/>
-      <c r="W1" s="132"/>
-      <c r="X1" s="132"/>
-      <c r="Y1" s="132"/>
-      <c r="Z1" s="132"/>
-      <c r="AA1" s="132"/>
-      <c r="AB1" s="132"/>
-      <c r="AC1" s="132"/>
-      <c r="AD1" s="132"/>
-      <c r="AE1" s="132"/>
-      <c r="AF1" s="132"/>
-      <c r="AG1" s="132"/>
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="127"/>
+      <c r="J1" s="127"/>
+      <c r="K1" s="127"/>
+      <c r="L1" s="127"/>
+      <c r="M1" s="127"/>
+      <c r="N1" s="127"/>
+      <c r="O1" s="127"/>
+      <c r="P1" s="127"/>
+      <c r="Q1" s="127"/>
+      <c r="R1" s="127"/>
+      <c r="S1" s="127"/>
+      <c r="T1" s="127"/>
+      <c r="U1" s="127"/>
+      <c r="V1" s="127"/>
+      <c r="W1" s="127"/>
+      <c r="X1" s="127"/>
+      <c r="Y1" s="127"/>
+      <c r="Z1" s="127"/>
+      <c r="AA1" s="127"/>
+      <c r="AB1" s="127"/>
+      <c r="AC1" s="127"/>
+      <c r="AD1" s="127"/>
+      <c r="AE1" s="127"/>
+      <c r="AF1" s="127"/>
+      <c r="AG1" s="127"/>
     </row>
     <row r="2" spans="1:178" ht="12" customHeight="1">
       <c r="A2" s="117" t="s">
@@ -21724,10 +21797,10 @@
       <c r="AE5" s="83"/>
       <c r="AF5" s="83"/>
       <c r="AG5" s="83"/>
-      <c r="AH5" s="195"/>
-      <c r="AI5" s="195"/>
-      <c r="AJ5" s="195"/>
-      <c r="AK5" s="195"/>
+      <c r="AH5" s="193"/>
+      <c r="AI5" s="193"/>
+      <c r="AJ5" s="193"/>
+      <c r="AK5" s="193"/>
       <c r="AL5" s="84"/>
       <c r="AM5" s="84"/>
       <c r="AN5" s="84"/>
@@ -22057,12 +22130,12 @@
     </row>
     <row r="12" spans="1:178" ht="12.75" customHeight="1">
       <c r="A12" s="19"/>
-      <c r="B12" s="130"/>
-      <c r="C12" s="130"/>
-      <c r="D12" s="130"/>
-      <c r="E12" s="130"/>
-      <c r="F12" s="130"/>
-      <c r="G12" s="130"/>
+      <c r="B12" s="131"/>
+      <c r="C12" s="131"/>
+      <c r="D12" s="131"/>
+      <c r="E12" s="131"/>
+      <c r="F12" s="131"/>
+      <c r="G12" s="131"/>
       <c r="K12" s="50"/>
       <c r="M12" s="90"/>
       <c r="N12" s="50"/>
@@ -22073,23 +22146,23 @@
       <c r="S12" s="50"/>
       <c r="T12" s="50"/>
       <c r="U12" s="50"/>
-      <c r="V12" s="130"/>
-      <c r="W12" s="194"/>
-      <c r="X12" s="194"/>
-      <c r="Y12" s="130"/>
-      <c r="Z12" s="194"/>
-      <c r="AA12" s="194"/>
-      <c r="AB12" s="194"/>
-      <c r="AC12" s="194"/>
-      <c r="AD12" s="194"/>
-      <c r="AE12" s="194"/>
+      <c r="V12" s="131"/>
+      <c r="W12" s="192"/>
+      <c r="X12" s="192"/>
+      <c r="Y12" s="131"/>
+      <c r="Z12" s="192"/>
+      <c r="AA12" s="192"/>
+      <c r="AB12" s="192"/>
+      <c r="AC12" s="192"/>
+      <c r="AD12" s="192"/>
+      <c r="AE12" s="192"/>
       <c r="AF12" s="50"/>
       <c r="AG12" s="24"/>
     </row>
     <row r="13" spans="1:178" ht="12.75" customHeight="1">
       <c r="A13" s="19"/>
-      <c r="B13" s="129"/>
-      <c r="C13" s="129"/>
+      <c r="B13" s="130"/>
+      <c r="C13" s="130"/>
       <c r="D13" s="50"/>
       <c r="E13" s="50"/>
       <c r="F13" s="50"/>
@@ -22109,9 +22182,9 @@
       <c r="S13" s="78"/>
       <c r="T13" s="78"/>
       <c r="U13" s="79"/>
-      <c r="V13" s="131"/>
-      <c r="W13" s="131"/>
-      <c r="X13" s="131"/>
+      <c r="V13" s="132"/>
+      <c r="W13" s="132"/>
+      <c r="X13" s="132"/>
       <c r="Y13" s="52"/>
       <c r="Z13" s="50"/>
       <c r="AA13" s="50"/>
@@ -23101,10 +23174,10 @@
       <c r="AE42" s="133"/>
       <c r="AF42" s="133"/>
       <c r="AG42" s="133"/>
-      <c r="AH42" s="196"/>
-      <c r="AI42" s="196"/>
-      <c r="AJ42" s="196"/>
-      <c r="AK42" s="196"/>
+      <c r="AH42" s="194"/>
+      <c r="AI42" s="194"/>
+      <c r="AJ42" s="194"/>
+      <c r="AK42" s="194"/>
       <c r="AL42" s="94"/>
       <c r="AM42" s="94"/>
       <c r="AN42" s="94"/>
@@ -23249,6 +23322,17 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A42:AG42"/>
+    <mergeCell ref="AH42:AI42"/>
+    <mergeCell ref="AJ42:AK42"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="V13:X13"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="AH5:AI5"/>
+    <mergeCell ref="AJ5:AK5"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="V12:X12"/>
+    <mergeCell ref="Y12:AE12"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="G3:AC3"/>
     <mergeCell ref="AD3:AE3"/>
@@ -23258,17 +23342,6 @@
     <mergeCell ref="G2:AC2"/>
     <mergeCell ref="AD2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="AH5:AI5"/>
-    <mergeCell ref="AJ5:AK5"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="V12:X12"/>
-    <mergeCell ref="Y12:AE12"/>
-    <mergeCell ref="A42:AG42"/>
-    <mergeCell ref="AH42:AI42"/>
-    <mergeCell ref="AJ42:AK42"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="V13:X13"/>
-    <mergeCell ref="B13:C13"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -23291,49 +23364,49 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="4" width="4.140625" style="12" customWidth="1"/>
-    <col min="5" max="6" width="4.140625" style="38" customWidth="1"/>
-    <col min="7" max="33" width="4.140625" style="12" customWidth="1"/>
+    <col min="1" max="4" width="4.125" style="12" customWidth="1"/>
+    <col min="5" max="6" width="4.125" style="38" customWidth="1"/>
+    <col min="7" max="33" width="4.125" style="12" customWidth="1"/>
     <col min="34" max="37" width="4" style="12" customWidth="1"/>
     <col min="38" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:178" ht="12.75" customHeight="1">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="127" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="132"/>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
-      <c r="E1" s="132"/>
-      <c r="F1" s="132"/>
-      <c r="G1" s="132"/>
-      <c r="H1" s="132"/>
-      <c r="I1" s="132"/>
-      <c r="J1" s="132"/>
-      <c r="K1" s="132"/>
-      <c r="L1" s="132"/>
-      <c r="M1" s="132"/>
-      <c r="N1" s="132"/>
-      <c r="O1" s="132"/>
-      <c r="P1" s="132"/>
-      <c r="Q1" s="132"/>
-      <c r="R1" s="132"/>
-      <c r="S1" s="132"/>
-      <c r="T1" s="132"/>
-      <c r="U1" s="132"/>
-      <c r="V1" s="132"/>
-      <c r="W1" s="132"/>
-      <c r="X1" s="132"/>
-      <c r="Y1" s="132"/>
-      <c r="Z1" s="132"/>
-      <c r="AA1" s="132"/>
-      <c r="AB1" s="132"/>
-      <c r="AC1" s="132"/>
-      <c r="AD1" s="132"/>
-      <c r="AE1" s="132"/>
-      <c r="AF1" s="132"/>
-      <c r="AG1" s="132"/>
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="127"/>
+      <c r="J1" s="127"/>
+      <c r="K1" s="127"/>
+      <c r="L1" s="127"/>
+      <c r="M1" s="127"/>
+      <c r="N1" s="127"/>
+      <c r="O1" s="127"/>
+      <c r="P1" s="127"/>
+      <c r="Q1" s="127"/>
+      <c r="R1" s="127"/>
+      <c r="S1" s="127"/>
+      <c r="T1" s="127"/>
+      <c r="U1" s="127"/>
+      <c r="V1" s="127"/>
+      <c r="W1" s="127"/>
+      <c r="X1" s="127"/>
+      <c r="Y1" s="127"/>
+      <c r="Z1" s="127"/>
+      <c r="AA1" s="127"/>
+      <c r="AB1" s="127"/>
+      <c r="AC1" s="127"/>
+      <c r="AD1" s="127"/>
+      <c r="AE1" s="127"/>
+      <c r="AF1" s="127"/>
+      <c r="AG1" s="127"/>
     </row>
     <row r="2" spans="1:178" ht="12" customHeight="1">
       <c r="A2" s="117" t="s">
@@ -23650,10 +23723,10 @@
       <c r="AE5" s="83"/>
       <c r="AF5" s="83"/>
       <c r="AG5" s="83"/>
-      <c r="AH5" s="195"/>
-      <c r="AI5" s="195"/>
-      <c r="AJ5" s="195"/>
-      <c r="AK5" s="195"/>
+      <c r="AH5" s="193"/>
+      <c r="AI5" s="193"/>
+      <c r="AJ5" s="193"/>
+      <c r="AK5" s="193"/>
       <c r="AL5" s="84"/>
       <c r="AM5" s="84"/>
       <c r="AN5" s="84"/>
@@ -23974,12 +24047,12 @@
     </row>
     <row r="12" spans="1:178" ht="12.75" customHeight="1">
       <c r="A12" s="19"/>
-      <c r="B12" s="130"/>
-      <c r="C12" s="130"/>
-      <c r="D12" s="130"/>
-      <c r="E12" s="130"/>
-      <c r="F12" s="130"/>
-      <c r="G12" s="130"/>
+      <c r="B12" s="131"/>
+      <c r="C12" s="131"/>
+      <c r="D12" s="131"/>
+      <c r="E12" s="131"/>
+      <c r="F12" s="131"/>
+      <c r="G12" s="131"/>
       <c r="N12" s="50"/>
       <c r="P12" s="90"/>
       <c r="Q12" s="50"/>
@@ -23987,23 +24060,23 @@
       <c r="S12" s="50"/>
       <c r="T12" s="50"/>
       <c r="U12" s="50"/>
-      <c r="V12" s="130"/>
-      <c r="W12" s="194"/>
-      <c r="X12" s="194"/>
-      <c r="Y12" s="130"/>
-      <c r="Z12" s="194"/>
-      <c r="AA12" s="194"/>
-      <c r="AB12" s="194"/>
-      <c r="AC12" s="194"/>
-      <c r="AD12" s="194"/>
-      <c r="AE12" s="194"/>
+      <c r="V12" s="131"/>
+      <c r="W12" s="192"/>
+      <c r="X12" s="192"/>
+      <c r="Y12" s="131"/>
+      <c r="Z12" s="192"/>
+      <c r="AA12" s="192"/>
+      <c r="AB12" s="192"/>
+      <c r="AC12" s="192"/>
+      <c r="AD12" s="192"/>
+      <c r="AE12" s="192"/>
       <c r="AF12" s="50"/>
       <c r="AG12" s="24"/>
     </row>
     <row r="13" spans="1:178" ht="12.75" customHeight="1">
       <c r="A13" s="19"/>
-      <c r="B13" s="129"/>
-      <c r="C13" s="129"/>
+      <c r="B13" s="130"/>
+      <c r="C13" s="130"/>
       <c r="D13" s="50"/>
       <c r="E13" s="50"/>
       <c r="F13" s="50"/>
@@ -24020,9 +24093,9 @@
       <c r="S13" s="50"/>
       <c r="T13" s="50"/>
       <c r="U13" s="50"/>
-      <c r="V13" s="131"/>
-      <c r="W13" s="131"/>
-      <c r="X13" s="131"/>
+      <c r="V13" s="132"/>
+      <c r="W13" s="132"/>
+      <c r="X13" s="132"/>
       <c r="Y13" s="52"/>
       <c r="Z13" s="50"/>
       <c r="AA13" s="50"/>
@@ -24928,10 +25001,10 @@
       <c r="AE42" s="133"/>
       <c r="AF42" s="133"/>
       <c r="AG42" s="133"/>
-      <c r="AH42" s="196"/>
-      <c r="AI42" s="196"/>
-      <c r="AJ42" s="196"/>
-      <c r="AK42" s="196"/>
+      <c r="AH42" s="194"/>
+      <c r="AI42" s="194"/>
+      <c r="AJ42" s="194"/>
+      <c r="AK42" s="194"/>
       <c r="AL42" s="94"/>
       <c r="AM42" s="94"/>
       <c r="AN42" s="94"/>
@@ -25076,6 +25149,17 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="V13:X13"/>
+    <mergeCell ref="A42:AG42"/>
+    <mergeCell ref="AH42:AI42"/>
+    <mergeCell ref="AJ42:AK42"/>
+    <mergeCell ref="AH5:AI5"/>
+    <mergeCell ref="AJ5:AK5"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="V12:X12"/>
+    <mergeCell ref="Y12:AE12"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="G3:AC3"/>
     <mergeCell ref="AD3:AE3"/>
@@ -25085,17 +25169,6 @@
     <mergeCell ref="G2:AC2"/>
     <mergeCell ref="AD2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="AH5:AI5"/>
-    <mergeCell ref="AJ5:AK5"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="V12:X12"/>
-    <mergeCell ref="Y12:AE12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="V13:X13"/>
-    <mergeCell ref="A42:AG42"/>
-    <mergeCell ref="AH42:AI42"/>
-    <mergeCell ref="AJ42:AK42"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -25118,49 +25191,49 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="4" width="4.140625" style="12" customWidth="1"/>
-    <col min="5" max="6" width="4.140625" style="38" customWidth="1"/>
-    <col min="7" max="33" width="4.140625" style="12" customWidth="1"/>
+    <col min="1" max="4" width="4.125" style="12" customWidth="1"/>
+    <col min="5" max="6" width="4.125" style="38" customWidth="1"/>
+    <col min="7" max="33" width="4.125" style="12" customWidth="1"/>
     <col min="34" max="37" width="4" style="12" customWidth="1"/>
     <col min="38" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:178" ht="12.75" customHeight="1">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="127" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="132"/>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
-      <c r="E1" s="132"/>
-      <c r="F1" s="132"/>
-      <c r="G1" s="132"/>
-      <c r="H1" s="132"/>
-      <c r="I1" s="132"/>
-      <c r="J1" s="132"/>
-      <c r="K1" s="132"/>
-      <c r="L1" s="132"/>
-      <c r="M1" s="132"/>
-      <c r="N1" s="132"/>
-      <c r="O1" s="132"/>
-      <c r="P1" s="132"/>
-      <c r="Q1" s="132"/>
-      <c r="R1" s="132"/>
-      <c r="S1" s="132"/>
-      <c r="T1" s="132"/>
-      <c r="U1" s="132"/>
-      <c r="V1" s="132"/>
-      <c r="W1" s="132"/>
-      <c r="X1" s="132"/>
-      <c r="Y1" s="132"/>
-      <c r="Z1" s="132"/>
-      <c r="AA1" s="132"/>
-      <c r="AB1" s="132"/>
-      <c r="AC1" s="132"/>
-      <c r="AD1" s="132"/>
-      <c r="AE1" s="132"/>
-      <c r="AF1" s="132"/>
-      <c r="AG1" s="132"/>
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="127"/>
+      <c r="J1" s="127"/>
+      <c r="K1" s="127"/>
+      <c r="L1" s="127"/>
+      <c r="M1" s="127"/>
+      <c r="N1" s="127"/>
+      <c r="O1" s="127"/>
+      <c r="P1" s="127"/>
+      <c r="Q1" s="127"/>
+      <c r="R1" s="127"/>
+      <c r="S1" s="127"/>
+      <c r="T1" s="127"/>
+      <c r="U1" s="127"/>
+      <c r="V1" s="127"/>
+      <c r="W1" s="127"/>
+      <c r="X1" s="127"/>
+      <c r="Y1" s="127"/>
+      <c r="Z1" s="127"/>
+      <c r="AA1" s="127"/>
+      <c r="AB1" s="127"/>
+      <c r="AC1" s="127"/>
+      <c r="AD1" s="127"/>
+      <c r="AE1" s="127"/>
+      <c r="AF1" s="127"/>
+      <c r="AG1" s="127"/>
     </row>
     <row r="2" spans="1:178" ht="12" customHeight="1">
       <c r="A2" s="117" t="s">
@@ -25477,10 +25550,10 @@
       <c r="AE5" s="83"/>
       <c r="AF5" s="83"/>
       <c r="AG5" s="83"/>
-      <c r="AH5" s="195"/>
-      <c r="AI5" s="195"/>
-      <c r="AJ5" s="195"/>
-      <c r="AK5" s="195"/>
+      <c r="AH5" s="193"/>
+      <c r="AI5" s="193"/>
+      <c r="AJ5" s="193"/>
+      <c r="AK5" s="193"/>
       <c r="AL5" s="84"/>
       <c r="AM5" s="84"/>
       <c r="AN5" s="84"/>
@@ -25795,12 +25868,12 @@
     </row>
     <row r="12" spans="1:178" ht="12.75" customHeight="1">
       <c r="A12" s="19"/>
-      <c r="B12" s="130"/>
-      <c r="C12" s="130"/>
-      <c r="D12" s="130"/>
-      <c r="E12" s="130"/>
-      <c r="F12" s="130"/>
-      <c r="G12" s="130"/>
+      <c r="B12" s="131"/>
+      <c r="C12" s="131"/>
+      <c r="D12" s="131"/>
+      <c r="E12" s="131"/>
+      <c r="F12" s="131"/>
+      <c r="G12" s="131"/>
       <c r="N12" s="50"/>
       <c r="P12" s="90"/>
       <c r="Q12" s="50"/>
@@ -25808,23 +25881,23 @@
       <c r="S12" s="50"/>
       <c r="T12" s="50"/>
       <c r="U12" s="50"/>
-      <c r="V12" s="130"/>
-      <c r="W12" s="194"/>
-      <c r="X12" s="194"/>
-      <c r="Y12" s="130"/>
-      <c r="Z12" s="194"/>
-      <c r="AA12" s="194"/>
-      <c r="AB12" s="194"/>
-      <c r="AC12" s="194"/>
-      <c r="AD12" s="194"/>
-      <c r="AE12" s="194"/>
+      <c r="V12" s="131"/>
+      <c r="W12" s="192"/>
+      <c r="X12" s="192"/>
+      <c r="Y12" s="131"/>
+      <c r="Z12" s="192"/>
+      <c r="AA12" s="192"/>
+      <c r="AB12" s="192"/>
+      <c r="AC12" s="192"/>
+      <c r="AD12" s="192"/>
+      <c r="AE12" s="192"/>
       <c r="AF12" s="50"/>
       <c r="AG12" s="24"/>
     </row>
     <row r="13" spans="1:178" ht="12.75" customHeight="1">
       <c r="A13" s="19"/>
-      <c r="B13" s="129"/>
-      <c r="C13" s="129"/>
+      <c r="B13" s="130"/>
+      <c r="C13" s="130"/>
       <c r="D13" s="50"/>
       <c r="E13" s="50"/>
       <c r="F13" s="50"/>
@@ -25837,9 +25910,9 @@
       <c r="S13" s="50"/>
       <c r="T13" s="50"/>
       <c r="U13" s="50"/>
-      <c r="V13" s="131"/>
-      <c r="W13" s="131"/>
-      <c r="X13" s="131"/>
+      <c r="V13" s="132"/>
+      <c r="W13" s="132"/>
+      <c r="X13" s="132"/>
       <c r="Y13" s="52"/>
       <c r="Z13" s="50"/>
       <c r="AA13" s="50"/>
@@ -26709,10 +26782,10 @@
       <c r="AE42" s="133"/>
       <c r="AF42" s="133"/>
       <c r="AG42" s="133"/>
-      <c r="AH42" s="196"/>
-      <c r="AI42" s="196"/>
-      <c r="AJ42" s="196"/>
-      <c r="AK42" s="196"/>
+      <c r="AH42" s="194"/>
+      <c r="AI42" s="194"/>
+      <c r="AJ42" s="194"/>
+      <c r="AK42" s="194"/>
       <c r="AL42" s="94"/>
       <c r="AM42" s="94"/>
       <c r="AN42" s="94"/>
@@ -26857,6 +26930,17 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="V13:X13"/>
+    <mergeCell ref="A42:AG42"/>
+    <mergeCell ref="AH42:AI42"/>
+    <mergeCell ref="AJ42:AK42"/>
+    <mergeCell ref="AH5:AI5"/>
+    <mergeCell ref="AJ5:AK5"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="V12:X12"/>
+    <mergeCell ref="Y12:AE12"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="G3:AC3"/>
     <mergeCell ref="AD3:AE3"/>
@@ -26866,17 +26950,6 @@
     <mergeCell ref="G2:AC2"/>
     <mergeCell ref="AD2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="AH5:AI5"/>
-    <mergeCell ref="AJ5:AK5"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="V12:X12"/>
-    <mergeCell ref="Y12:AE12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="V13:X13"/>
-    <mergeCell ref="A42:AG42"/>
-    <mergeCell ref="AH42:AI42"/>
-    <mergeCell ref="AJ42:AK42"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -26899,49 +26972,49 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="4" width="4.140625" style="12" customWidth="1"/>
-    <col min="5" max="6" width="4.140625" style="38" customWidth="1"/>
-    <col min="7" max="33" width="4.140625" style="12" customWidth="1"/>
+    <col min="1" max="4" width="4.125" style="12" customWidth="1"/>
+    <col min="5" max="6" width="4.125" style="38" customWidth="1"/>
+    <col min="7" max="33" width="4.125" style="12" customWidth="1"/>
     <col min="34" max="37" width="4" style="12" customWidth="1"/>
     <col min="38" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:178" ht="12.75" customHeight="1">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="127" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="132"/>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
-      <c r="E1" s="132"/>
-      <c r="F1" s="132"/>
-      <c r="G1" s="132"/>
-      <c r="H1" s="132"/>
-      <c r="I1" s="132"/>
-      <c r="J1" s="132"/>
-      <c r="K1" s="132"/>
-      <c r="L1" s="132"/>
-      <c r="M1" s="132"/>
-      <c r="N1" s="132"/>
-      <c r="O1" s="132"/>
-      <c r="P1" s="132"/>
-      <c r="Q1" s="132"/>
-      <c r="R1" s="132"/>
-      <c r="S1" s="132"/>
-      <c r="T1" s="132"/>
-      <c r="U1" s="132"/>
-      <c r="V1" s="132"/>
-      <c r="W1" s="132"/>
-      <c r="X1" s="132"/>
-      <c r="Y1" s="132"/>
-      <c r="Z1" s="132"/>
-      <c r="AA1" s="132"/>
-      <c r="AB1" s="132"/>
-      <c r="AC1" s="132"/>
-      <c r="AD1" s="132"/>
-      <c r="AE1" s="132"/>
-      <c r="AF1" s="132"/>
-      <c r="AG1" s="132"/>
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="127"/>
+      <c r="J1" s="127"/>
+      <c r="K1" s="127"/>
+      <c r="L1" s="127"/>
+      <c r="M1" s="127"/>
+      <c r="N1" s="127"/>
+      <c r="O1" s="127"/>
+      <c r="P1" s="127"/>
+      <c r="Q1" s="127"/>
+      <c r="R1" s="127"/>
+      <c r="S1" s="127"/>
+      <c r="T1" s="127"/>
+      <c r="U1" s="127"/>
+      <c r="V1" s="127"/>
+      <c r="W1" s="127"/>
+      <c r="X1" s="127"/>
+      <c r="Y1" s="127"/>
+      <c r="Z1" s="127"/>
+      <c r="AA1" s="127"/>
+      <c r="AB1" s="127"/>
+      <c r="AC1" s="127"/>
+      <c r="AD1" s="127"/>
+      <c r="AE1" s="127"/>
+      <c r="AF1" s="127"/>
+      <c r="AG1" s="127"/>
     </row>
     <row r="2" spans="1:178" ht="12" customHeight="1">
       <c r="A2" s="117" t="s">
@@ -27258,10 +27331,10 @@
       <c r="AE5" s="83"/>
       <c r="AF5" s="83"/>
       <c r="AG5" s="83"/>
-      <c r="AH5" s="195"/>
-      <c r="AI5" s="195"/>
-      <c r="AJ5" s="195"/>
-      <c r="AK5" s="195"/>
+      <c r="AH5" s="193"/>
+      <c r="AI5" s="193"/>
+      <c r="AJ5" s="193"/>
+      <c r="AK5" s="193"/>
       <c r="AL5" s="84"/>
       <c r="AM5" s="84"/>
       <c r="AN5" s="84"/>
@@ -27582,12 +27655,12 @@
     </row>
     <row r="12" spans="1:178" ht="12.75" customHeight="1">
       <c r="A12" s="19"/>
-      <c r="B12" s="130"/>
-      <c r="C12" s="130"/>
-      <c r="D12" s="130"/>
-      <c r="E12" s="130"/>
-      <c r="F12" s="130"/>
-      <c r="G12" s="130"/>
+      <c r="B12" s="131"/>
+      <c r="C12" s="131"/>
+      <c r="D12" s="131"/>
+      <c r="E12" s="131"/>
+      <c r="F12" s="131"/>
+      <c r="G12" s="131"/>
       <c r="N12" s="50"/>
       <c r="P12" s="90"/>
       <c r="Q12" s="50"/>
@@ -27595,23 +27668,23 @@
       <c r="S12" s="50"/>
       <c r="T12" s="50"/>
       <c r="U12" s="50"/>
-      <c r="V12" s="130"/>
-      <c r="W12" s="194"/>
-      <c r="X12" s="194"/>
-      <c r="Y12" s="130"/>
-      <c r="Z12" s="194"/>
-      <c r="AA12" s="194"/>
-      <c r="AB12" s="194"/>
-      <c r="AC12" s="194"/>
-      <c r="AD12" s="194"/>
-      <c r="AE12" s="194"/>
+      <c r="V12" s="131"/>
+      <c r="W12" s="192"/>
+      <c r="X12" s="192"/>
+      <c r="Y12" s="131"/>
+      <c r="Z12" s="192"/>
+      <c r="AA12" s="192"/>
+      <c r="AB12" s="192"/>
+      <c r="AC12" s="192"/>
+      <c r="AD12" s="192"/>
+      <c r="AE12" s="192"/>
       <c r="AF12" s="50"/>
       <c r="AG12" s="24"/>
     </row>
     <row r="13" spans="1:178" ht="12.75" customHeight="1">
       <c r="A13" s="19"/>
-      <c r="B13" s="129"/>
-      <c r="C13" s="129"/>
+      <c r="B13" s="130"/>
+      <c r="C13" s="130"/>
       <c r="D13" s="50"/>
       <c r="E13" s="50"/>
       <c r="F13" s="50"/>
@@ -27628,9 +27701,9 @@
       <c r="S13" s="50"/>
       <c r="T13" s="50"/>
       <c r="U13" s="50"/>
-      <c r="V13" s="131"/>
-      <c r="W13" s="131"/>
-      <c r="X13" s="131"/>
+      <c r="V13" s="132"/>
+      <c r="W13" s="132"/>
+      <c r="X13" s="132"/>
       <c r="Y13" s="52"/>
       <c r="Z13" s="50"/>
       <c r="AA13" s="50"/>
@@ -28536,10 +28609,10 @@
       <c r="AE42" s="133"/>
       <c r="AF42" s="133"/>
       <c r="AG42" s="133"/>
-      <c r="AH42" s="196"/>
-      <c r="AI42" s="196"/>
-      <c r="AJ42" s="196"/>
-      <c r="AK42" s="196"/>
+      <c r="AH42" s="194"/>
+      <c r="AI42" s="194"/>
+      <c r="AJ42" s="194"/>
+      <c r="AK42" s="194"/>
       <c r="AL42" s="94"/>
       <c r="AM42" s="94"/>
       <c r="AN42" s="94"/>
@@ -28684,6 +28757,17 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="V13:X13"/>
+    <mergeCell ref="A42:AG42"/>
+    <mergeCell ref="AH42:AI42"/>
+    <mergeCell ref="AJ42:AK42"/>
+    <mergeCell ref="AH5:AI5"/>
+    <mergeCell ref="AJ5:AK5"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="V12:X12"/>
+    <mergeCell ref="Y12:AE12"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="G3:AC3"/>
     <mergeCell ref="AD3:AE3"/>
@@ -28693,17 +28777,6 @@
     <mergeCell ref="G2:AC2"/>
     <mergeCell ref="AD2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="AH5:AI5"/>
-    <mergeCell ref="AJ5:AK5"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="V12:X12"/>
-    <mergeCell ref="Y12:AE12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="V13:X13"/>
-    <mergeCell ref="A42:AG42"/>
-    <mergeCell ref="AH42:AI42"/>
-    <mergeCell ref="AJ42:AK42"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -28726,49 +28799,49 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="4" width="4.140625" style="12" customWidth="1"/>
-    <col min="5" max="6" width="4.140625" style="38" customWidth="1"/>
-    <col min="7" max="33" width="4.140625" style="12" customWidth="1"/>
+    <col min="1" max="4" width="4.125" style="12" customWidth="1"/>
+    <col min="5" max="6" width="4.125" style="38" customWidth="1"/>
+    <col min="7" max="33" width="4.125" style="12" customWidth="1"/>
     <col min="34" max="37" width="4" style="12" customWidth="1"/>
     <col min="38" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:178" ht="12.75" customHeight="1">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="127" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="132"/>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
-      <c r="E1" s="132"/>
-      <c r="F1" s="132"/>
-      <c r="G1" s="132"/>
-      <c r="H1" s="132"/>
-      <c r="I1" s="132"/>
-      <c r="J1" s="132"/>
-      <c r="K1" s="132"/>
-      <c r="L1" s="132"/>
-      <c r="M1" s="132"/>
-      <c r="N1" s="132"/>
-      <c r="O1" s="132"/>
-      <c r="P1" s="132"/>
-      <c r="Q1" s="132"/>
-      <c r="R1" s="132"/>
-      <c r="S1" s="132"/>
-      <c r="T1" s="132"/>
-      <c r="U1" s="132"/>
-      <c r="V1" s="132"/>
-      <c r="W1" s="132"/>
-      <c r="X1" s="132"/>
-      <c r="Y1" s="132"/>
-      <c r="Z1" s="132"/>
-      <c r="AA1" s="132"/>
-      <c r="AB1" s="132"/>
-      <c r="AC1" s="132"/>
-      <c r="AD1" s="132"/>
-      <c r="AE1" s="132"/>
-      <c r="AF1" s="132"/>
-      <c r="AG1" s="132"/>
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="127"/>
+      <c r="J1" s="127"/>
+      <c r="K1" s="127"/>
+      <c r="L1" s="127"/>
+      <c r="M1" s="127"/>
+      <c r="N1" s="127"/>
+      <c r="O1" s="127"/>
+      <c r="P1" s="127"/>
+      <c r="Q1" s="127"/>
+      <c r="R1" s="127"/>
+      <c r="S1" s="127"/>
+      <c r="T1" s="127"/>
+      <c r="U1" s="127"/>
+      <c r="V1" s="127"/>
+      <c r="W1" s="127"/>
+      <c r="X1" s="127"/>
+      <c r="Y1" s="127"/>
+      <c r="Z1" s="127"/>
+      <c r="AA1" s="127"/>
+      <c r="AB1" s="127"/>
+      <c r="AC1" s="127"/>
+      <c r="AD1" s="127"/>
+      <c r="AE1" s="127"/>
+      <c r="AF1" s="127"/>
+      <c r="AG1" s="127"/>
     </row>
     <row r="2" spans="1:178" ht="12" customHeight="1">
       <c r="A2" s="117" t="s">
@@ -29085,10 +29158,10 @@
       <c r="AE5" s="83"/>
       <c r="AF5" s="83"/>
       <c r="AG5" s="83"/>
-      <c r="AH5" s="195"/>
-      <c r="AI5" s="195"/>
-      <c r="AJ5" s="195"/>
-      <c r="AK5" s="195"/>
+      <c r="AH5" s="193"/>
+      <c r="AI5" s="193"/>
+      <c r="AJ5" s="193"/>
+      <c r="AK5" s="193"/>
       <c r="AL5" s="84"/>
       <c r="AM5" s="84"/>
       <c r="AN5" s="84"/>
@@ -29415,12 +29488,12 @@
     </row>
     <row r="12" spans="1:178" ht="12.75" customHeight="1">
       <c r="A12" s="19"/>
-      <c r="B12" s="130"/>
-      <c r="C12" s="130"/>
-      <c r="D12" s="130"/>
-      <c r="E12" s="130"/>
-      <c r="F12" s="130"/>
-      <c r="G12" s="130"/>
+      <c r="B12" s="131"/>
+      <c r="C12" s="131"/>
+      <c r="D12" s="131"/>
+      <c r="E12" s="131"/>
+      <c r="F12" s="131"/>
+      <c r="G12" s="131"/>
       <c r="N12" s="50"/>
       <c r="P12" s="90"/>
       <c r="Q12" s="50"/>
@@ -29428,23 +29501,23 @@
       <c r="S12" s="50"/>
       <c r="T12" s="50"/>
       <c r="U12" s="50"/>
-      <c r="V12" s="130"/>
-      <c r="W12" s="194"/>
-      <c r="X12" s="194"/>
-      <c r="Y12" s="130"/>
-      <c r="Z12" s="194"/>
-      <c r="AA12" s="194"/>
-      <c r="AB12" s="194"/>
-      <c r="AC12" s="194"/>
-      <c r="AD12" s="194"/>
-      <c r="AE12" s="194"/>
+      <c r="V12" s="131"/>
+      <c r="W12" s="192"/>
+      <c r="X12" s="192"/>
+      <c r="Y12" s="131"/>
+      <c r="Z12" s="192"/>
+      <c r="AA12" s="192"/>
+      <c r="AB12" s="192"/>
+      <c r="AC12" s="192"/>
+      <c r="AD12" s="192"/>
+      <c r="AE12" s="192"/>
       <c r="AF12" s="50"/>
       <c r="AG12" s="24"/>
     </row>
     <row r="13" spans="1:178" ht="12.75" customHeight="1">
       <c r="A13" s="19"/>
-      <c r="B13" s="129"/>
-      <c r="C13" s="129"/>
+      <c r="B13" s="130"/>
+      <c r="C13" s="130"/>
       <c r="D13" s="50"/>
       <c r="E13" s="50"/>
       <c r="F13" s="50"/>
@@ -29457,9 +29530,9 @@
       <c r="S13" s="50"/>
       <c r="T13" s="50"/>
       <c r="U13" s="50"/>
-      <c r="V13" s="131"/>
-      <c r="W13" s="131"/>
-      <c r="X13" s="131"/>
+      <c r="V13" s="132"/>
+      <c r="W13" s="132"/>
+      <c r="X13" s="132"/>
       <c r="Y13" s="52"/>
       <c r="Z13" s="50"/>
       <c r="AA13" s="50"/>
@@ -30329,10 +30402,10 @@
       <c r="AE42" s="133"/>
       <c r="AF42" s="133"/>
       <c r="AG42" s="133"/>
-      <c r="AH42" s="196"/>
-      <c r="AI42" s="196"/>
-      <c r="AJ42" s="196"/>
-      <c r="AK42" s="196"/>
+      <c r="AH42" s="194"/>
+      <c r="AI42" s="194"/>
+      <c r="AJ42" s="194"/>
+      <c r="AK42" s="194"/>
       <c r="AL42" s="94"/>
       <c r="AM42" s="94"/>
       <c r="AN42" s="94"/>
@@ -30477,6 +30550,18 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="V13:X13"/>
+    <mergeCell ref="A42:AG42"/>
+    <mergeCell ref="AH42:AI42"/>
+    <mergeCell ref="AJ42:AK42"/>
+    <mergeCell ref="I9:W10"/>
+    <mergeCell ref="AH5:AI5"/>
+    <mergeCell ref="AJ5:AK5"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="V12:X12"/>
+    <mergeCell ref="Y12:AE12"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="G3:AC3"/>
     <mergeCell ref="AD3:AE3"/>
@@ -30486,18 +30571,6 @@
     <mergeCell ref="G2:AC2"/>
     <mergeCell ref="AD2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="I9:W10"/>
-    <mergeCell ref="AH5:AI5"/>
-    <mergeCell ref="AJ5:AK5"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="V12:X12"/>
-    <mergeCell ref="Y12:AE12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="V13:X13"/>
-    <mergeCell ref="A42:AG42"/>
-    <mergeCell ref="AH42:AI42"/>
-    <mergeCell ref="AJ42:AK42"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -30520,49 +30593,49 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="4" width="4.140625" style="12" customWidth="1"/>
-    <col min="5" max="6" width="4.140625" style="38" customWidth="1"/>
-    <col min="7" max="33" width="4.140625" style="12" customWidth="1"/>
+    <col min="1" max="4" width="4.125" style="12" customWidth="1"/>
+    <col min="5" max="6" width="4.125" style="38" customWidth="1"/>
+    <col min="7" max="33" width="4.125" style="12" customWidth="1"/>
     <col min="34" max="37" width="4" style="12" customWidth="1"/>
     <col min="38" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:178" ht="12.75" customHeight="1">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="127" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="132"/>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
-      <c r="E1" s="132"/>
-      <c r="F1" s="132"/>
-      <c r="G1" s="132"/>
-      <c r="H1" s="132"/>
-      <c r="I1" s="132"/>
-      <c r="J1" s="132"/>
-      <c r="K1" s="132"/>
-      <c r="L1" s="132"/>
-      <c r="M1" s="132"/>
-      <c r="N1" s="132"/>
-      <c r="O1" s="132"/>
-      <c r="P1" s="132"/>
-      <c r="Q1" s="132"/>
-      <c r="R1" s="132"/>
-      <c r="S1" s="132"/>
-      <c r="T1" s="132"/>
-      <c r="U1" s="132"/>
-      <c r="V1" s="132"/>
-      <c r="W1" s="132"/>
-      <c r="X1" s="132"/>
-      <c r="Y1" s="132"/>
-      <c r="Z1" s="132"/>
-      <c r="AA1" s="132"/>
-      <c r="AB1" s="132"/>
-      <c r="AC1" s="132"/>
-      <c r="AD1" s="132"/>
-      <c r="AE1" s="132"/>
-      <c r="AF1" s="132"/>
-      <c r="AG1" s="132"/>
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="127"/>
+      <c r="J1" s="127"/>
+      <c r="K1" s="127"/>
+      <c r="L1" s="127"/>
+      <c r="M1" s="127"/>
+      <c r="N1" s="127"/>
+      <c r="O1" s="127"/>
+      <c r="P1" s="127"/>
+      <c r="Q1" s="127"/>
+      <c r="R1" s="127"/>
+      <c r="S1" s="127"/>
+      <c r="T1" s="127"/>
+      <c r="U1" s="127"/>
+      <c r="V1" s="127"/>
+      <c r="W1" s="127"/>
+      <c r="X1" s="127"/>
+      <c r="Y1" s="127"/>
+      <c r="Z1" s="127"/>
+      <c r="AA1" s="127"/>
+      <c r="AB1" s="127"/>
+      <c r="AC1" s="127"/>
+      <c r="AD1" s="127"/>
+      <c r="AE1" s="127"/>
+      <c r="AF1" s="127"/>
+      <c r="AG1" s="127"/>
     </row>
     <row r="2" spans="1:178" ht="12" customHeight="1">
       <c r="A2" s="117" t="s">
@@ -30879,10 +30952,10 @@
       <c r="AE5" s="83"/>
       <c r="AF5" s="83"/>
       <c r="AG5" s="83"/>
-      <c r="AH5" s="195"/>
-      <c r="AI5" s="195"/>
-      <c r="AJ5" s="195"/>
-      <c r="AK5" s="195"/>
+      <c r="AH5" s="193"/>
+      <c r="AI5" s="193"/>
+      <c r="AJ5" s="193"/>
+      <c r="AK5" s="193"/>
       <c r="AL5" s="84"/>
       <c r="AM5" s="84"/>
       <c r="AN5" s="84"/>
@@ -31209,12 +31282,12 @@
     </row>
     <row r="12" spans="1:178" ht="12.75" customHeight="1">
       <c r="A12" s="19"/>
-      <c r="B12" s="130"/>
-      <c r="C12" s="130"/>
-      <c r="D12" s="130"/>
-      <c r="E12" s="130"/>
-      <c r="F12" s="130"/>
-      <c r="G12" s="130"/>
+      <c r="B12" s="131"/>
+      <c r="C12" s="131"/>
+      <c r="D12" s="131"/>
+      <c r="E12" s="131"/>
+      <c r="F12" s="131"/>
+      <c r="G12" s="131"/>
       <c r="N12" s="50"/>
       <c r="P12" s="90"/>
       <c r="Q12" s="50"/>
@@ -31222,23 +31295,23 @@
       <c r="S12" s="50"/>
       <c r="T12" s="50"/>
       <c r="U12" s="50"/>
-      <c r="V12" s="130"/>
-      <c r="W12" s="194"/>
-      <c r="X12" s="194"/>
-      <c r="Y12" s="130"/>
-      <c r="Z12" s="194"/>
-      <c r="AA12" s="194"/>
-      <c r="AB12" s="194"/>
-      <c r="AC12" s="194"/>
-      <c r="AD12" s="194"/>
-      <c r="AE12" s="194"/>
+      <c r="V12" s="131"/>
+      <c r="W12" s="192"/>
+      <c r="X12" s="192"/>
+      <c r="Y12" s="131"/>
+      <c r="Z12" s="192"/>
+      <c r="AA12" s="192"/>
+      <c r="AB12" s="192"/>
+      <c r="AC12" s="192"/>
+      <c r="AD12" s="192"/>
+      <c r="AE12" s="192"/>
       <c r="AF12" s="50"/>
       <c r="AG12" s="24"/>
     </row>
     <row r="13" spans="1:178" ht="12.75" customHeight="1">
       <c r="A13" s="19"/>
-      <c r="B13" s="129"/>
-      <c r="C13" s="129"/>
+      <c r="B13" s="130"/>
+      <c r="C13" s="130"/>
       <c r="D13" s="50"/>
       <c r="E13" s="50"/>
       <c r="F13" s="50"/>
@@ -31251,9 +31324,9 @@
       <c r="S13" s="50"/>
       <c r="T13" s="50"/>
       <c r="U13" s="50"/>
-      <c r="V13" s="131"/>
-      <c r="W13" s="131"/>
-      <c r="X13" s="131"/>
+      <c r="V13" s="132"/>
+      <c r="W13" s="132"/>
+      <c r="X13" s="132"/>
       <c r="Y13" s="52"/>
       <c r="Z13" s="50"/>
       <c r="AA13" s="50"/>
@@ -32123,10 +32196,10 @@
       <c r="AE42" s="133"/>
       <c r="AF42" s="133"/>
       <c r="AG42" s="133"/>
-      <c r="AH42" s="196"/>
-      <c r="AI42" s="196"/>
-      <c r="AJ42" s="196"/>
-      <c r="AK42" s="196"/>
+      <c r="AH42" s="194"/>
+      <c r="AI42" s="194"/>
+      <c r="AJ42" s="194"/>
+      <c r="AK42" s="194"/>
       <c r="AL42" s="94"/>
       <c r="AM42" s="94"/>
       <c r="AN42" s="94"/>
@@ -32271,6 +32344,18 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="V13:X13"/>
+    <mergeCell ref="A42:AG42"/>
+    <mergeCell ref="AH42:AI42"/>
+    <mergeCell ref="AJ42:AK42"/>
+    <mergeCell ref="AH5:AI5"/>
+    <mergeCell ref="AJ5:AK5"/>
+    <mergeCell ref="I9:W10"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="V12:X12"/>
+    <mergeCell ref="Y12:AE12"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="G3:AC3"/>
     <mergeCell ref="AD3:AE3"/>
@@ -32280,18 +32365,6 @@
     <mergeCell ref="G2:AC2"/>
     <mergeCell ref="AD2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="AH5:AI5"/>
-    <mergeCell ref="AJ5:AK5"/>
-    <mergeCell ref="I9:W10"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="V12:X12"/>
-    <mergeCell ref="Y12:AE12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="V13:X13"/>
-    <mergeCell ref="A42:AG42"/>
-    <mergeCell ref="AH42:AI42"/>
-    <mergeCell ref="AJ42:AK42"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -32314,9 +32387,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="4" width="4.140625" style="12" customWidth="1"/>
-    <col min="5" max="6" width="4.140625" style="38" customWidth="1"/>
-    <col min="7" max="33" width="4.140625" style="12" customWidth="1"/>
+    <col min="1" max="4" width="4.125" style="12" customWidth="1"/>
+    <col min="5" max="6" width="4.125" style="38" customWidth="1"/>
+    <col min="7" max="33" width="4.125" style="12" customWidth="1"/>
     <col min="34" max="37" width="4" style="12" customWidth="1"/>
     <col min="38" max="16384" width="9" style="12"/>
   </cols>
@@ -33869,49 +33942,49 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="4" width="4.140625" style="12" customWidth="1"/>
-    <col min="5" max="6" width="4.140625" style="38" customWidth="1"/>
-    <col min="7" max="33" width="4.140625" style="12" customWidth="1"/>
+    <col min="1" max="4" width="4.125" style="12" customWidth="1"/>
+    <col min="5" max="6" width="4.125" style="38" customWidth="1"/>
+    <col min="7" max="33" width="4.125" style="12" customWidth="1"/>
     <col min="34" max="37" width="4" style="12" customWidth="1"/>
     <col min="38" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:178" ht="12.75" customHeight="1">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="127" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="132"/>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
-      <c r="E1" s="132"/>
-      <c r="F1" s="132"/>
-      <c r="G1" s="132"/>
-      <c r="H1" s="132"/>
-      <c r="I1" s="132"/>
-      <c r="J1" s="132"/>
-      <c r="K1" s="132"/>
-      <c r="L1" s="132"/>
-      <c r="M1" s="132"/>
-      <c r="N1" s="132"/>
-      <c r="O1" s="132"/>
-      <c r="P1" s="132"/>
-      <c r="Q1" s="132"/>
-      <c r="R1" s="132"/>
-      <c r="S1" s="132"/>
-      <c r="T1" s="132"/>
-      <c r="U1" s="132"/>
-      <c r="V1" s="132"/>
-      <c r="W1" s="132"/>
-      <c r="X1" s="132"/>
-      <c r="Y1" s="132"/>
-      <c r="Z1" s="132"/>
-      <c r="AA1" s="132"/>
-      <c r="AB1" s="132"/>
-      <c r="AC1" s="132"/>
-      <c r="AD1" s="132"/>
-      <c r="AE1" s="132"/>
-      <c r="AF1" s="132"/>
-      <c r="AG1" s="132"/>
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="127"/>
+      <c r="J1" s="127"/>
+      <c r="K1" s="127"/>
+      <c r="L1" s="127"/>
+      <c r="M1" s="127"/>
+      <c r="N1" s="127"/>
+      <c r="O1" s="127"/>
+      <c r="P1" s="127"/>
+      <c r="Q1" s="127"/>
+      <c r="R1" s="127"/>
+      <c r="S1" s="127"/>
+      <c r="T1" s="127"/>
+      <c r="U1" s="127"/>
+      <c r="V1" s="127"/>
+      <c r="W1" s="127"/>
+      <c r="X1" s="127"/>
+      <c r="Y1" s="127"/>
+      <c r="Z1" s="127"/>
+      <c r="AA1" s="127"/>
+      <c r="AB1" s="127"/>
+      <c r="AC1" s="127"/>
+      <c r="AD1" s="127"/>
+      <c r="AE1" s="127"/>
+      <c r="AF1" s="127"/>
+      <c r="AG1" s="127"/>
     </row>
     <row r="2" spans="1:178" ht="12" customHeight="1">
       <c r="A2" s="117" t="s">
@@ -34228,10 +34301,10 @@
       <c r="AE5" s="83"/>
       <c r="AF5" s="83"/>
       <c r="AG5" s="83"/>
-      <c r="AH5" s="195"/>
-      <c r="AI5" s="195"/>
-      <c r="AJ5" s="195"/>
-      <c r="AK5" s="195"/>
+      <c r="AH5" s="193"/>
+      <c r="AI5" s="193"/>
+      <c r="AJ5" s="193"/>
+      <c r="AK5" s="193"/>
       <c r="AL5" s="84"/>
       <c r="AM5" s="84"/>
       <c r="AN5" s="84"/>
@@ -34564,12 +34637,12 @@
     </row>
     <row r="12" spans="1:178" ht="12.75" customHeight="1">
       <c r="A12" s="19"/>
-      <c r="B12" s="130"/>
-      <c r="C12" s="130"/>
-      <c r="D12" s="130"/>
-      <c r="E12" s="130"/>
-      <c r="F12" s="130"/>
-      <c r="G12" s="130"/>
+      <c r="B12" s="131"/>
+      <c r="C12" s="131"/>
+      <c r="D12" s="131"/>
+      <c r="E12" s="131"/>
+      <c r="F12" s="131"/>
+      <c r="G12" s="131"/>
       <c r="N12" s="50"/>
       <c r="P12" s="90"/>
       <c r="Q12" s="50"/>
@@ -34577,23 +34650,23 @@
       <c r="S12" s="50"/>
       <c r="T12" s="50"/>
       <c r="U12" s="50"/>
-      <c r="V12" s="130"/>
-      <c r="W12" s="194"/>
-      <c r="X12" s="194"/>
-      <c r="Y12" s="130"/>
-      <c r="Z12" s="194"/>
-      <c r="AA12" s="194"/>
-      <c r="AB12" s="194"/>
-      <c r="AC12" s="194"/>
-      <c r="AD12" s="194"/>
-      <c r="AE12" s="194"/>
+      <c r="V12" s="131"/>
+      <c r="W12" s="192"/>
+      <c r="X12" s="192"/>
+      <c r="Y12" s="131"/>
+      <c r="Z12" s="192"/>
+      <c r="AA12" s="192"/>
+      <c r="AB12" s="192"/>
+      <c r="AC12" s="192"/>
+      <c r="AD12" s="192"/>
+      <c r="AE12" s="192"/>
       <c r="AF12" s="50"/>
       <c r="AG12" s="24"/>
     </row>
     <row r="13" spans="1:178" ht="12.75" customHeight="1">
       <c r="A13" s="19"/>
-      <c r="B13" s="129"/>
-      <c r="C13" s="129"/>
+      <c r="B13" s="130"/>
+      <c r="C13" s="130"/>
       <c r="D13" s="50"/>
       <c r="E13" s="50"/>
       <c r="F13" s="50"/>
@@ -34606,9 +34679,9 @@
       <c r="S13" s="50"/>
       <c r="T13" s="50"/>
       <c r="U13" s="50"/>
-      <c r="V13" s="131"/>
-      <c r="W13" s="131"/>
-      <c r="X13" s="131"/>
+      <c r="V13" s="132"/>
+      <c r="W13" s="132"/>
+      <c r="X13" s="132"/>
       <c r="Y13" s="52"/>
       <c r="Z13" s="50"/>
       <c r="AA13" s="50"/>
@@ -35478,10 +35551,10 @@
       <c r="AE42" s="133"/>
       <c r="AF42" s="133"/>
       <c r="AG42" s="133"/>
-      <c r="AH42" s="196"/>
-      <c r="AI42" s="196"/>
-      <c r="AJ42" s="196"/>
-      <c r="AK42" s="196"/>
+      <c r="AH42" s="194"/>
+      <c r="AI42" s="194"/>
+      <c r="AJ42" s="194"/>
+      <c r="AK42" s="194"/>
       <c r="AL42" s="94"/>
       <c r="AM42" s="94"/>
       <c r="AN42" s="94"/>
@@ -35626,6 +35699,18 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="V13:X13"/>
+    <mergeCell ref="A42:AG42"/>
+    <mergeCell ref="AH42:AI42"/>
+    <mergeCell ref="AJ42:AK42"/>
+    <mergeCell ref="D9:AC10"/>
+    <mergeCell ref="AH5:AI5"/>
+    <mergeCell ref="AJ5:AK5"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="V12:X12"/>
+    <mergeCell ref="Y12:AE12"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="G3:AC3"/>
     <mergeCell ref="AD3:AE3"/>
@@ -35635,18 +35720,6 @@
     <mergeCell ref="G2:AC2"/>
     <mergeCell ref="AD2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="D9:AC10"/>
-    <mergeCell ref="AH5:AI5"/>
-    <mergeCell ref="AJ5:AK5"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="V12:X12"/>
-    <mergeCell ref="Y12:AE12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="V13:X13"/>
-    <mergeCell ref="A42:AG42"/>
-    <mergeCell ref="AH42:AI42"/>
-    <mergeCell ref="AJ42:AK42"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -35669,9 +35742,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="3" width="4.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="4.140625" style="4" customWidth="1"/>
-    <col min="5" max="33" width="4.140625" style="1" customWidth="1"/>
+    <col min="1" max="3" width="4.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="4.125" style="4" customWidth="1"/>
+    <col min="5" max="33" width="4.125" style="1" customWidth="1"/>
     <col min="34" max="37" width="4" style="1" customWidth="1"/>
     <col min="38" max="16384" width="9" style="1"/>
   </cols>
@@ -37431,9 +37504,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="3" width="4.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="4.140625" style="4" customWidth="1"/>
-    <col min="5" max="33" width="4.140625" style="1" customWidth="1"/>
+    <col min="1" max="3" width="4.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="4.125" style="4" customWidth="1"/>
+    <col min="5" max="33" width="4.125" style="1" customWidth="1"/>
     <col min="34" max="37" width="4" style="1" customWidth="1"/>
     <col min="38" max="16384" width="9" style="1"/>
   </cols>
@@ -39382,57 +39455,57 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:FU117"/>
+  <dimension ref="A1:FU174"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A95" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G118" sqref="G118"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A129" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G149" sqref="G149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="4" width="4.140625" style="1" customWidth="1"/>
-    <col min="5" max="6" width="4.140625" style="4" customWidth="1"/>
-    <col min="7" max="33" width="4.140625" style="1" customWidth="1"/>
+    <col min="1" max="4" width="4.125" style="1" customWidth="1"/>
+    <col min="5" max="6" width="4.125" style="4" customWidth="1"/>
+    <col min="7" max="33" width="4.125" style="1" customWidth="1"/>
     <col min="34" max="37" width="4" style="1" customWidth="1"/>
     <col min="38" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A1" s="149" t="s">
+      <c r="A1" s="152" t="s">
         <v>166</v>
       </c>
-      <c r="B1" s="150"/>
-      <c r="C1" s="150"/>
-      <c r="D1" s="150"/>
-      <c r="E1" s="150"/>
-      <c r="F1" s="150"/>
-      <c r="G1" s="150"/>
-      <c r="H1" s="150"/>
-      <c r="I1" s="150"/>
-      <c r="J1" s="150"/>
-      <c r="K1" s="150"/>
-      <c r="L1" s="150"/>
-      <c r="M1" s="150"/>
-      <c r="N1" s="150"/>
-      <c r="O1" s="150"/>
-      <c r="P1" s="150"/>
-      <c r="Q1" s="150"/>
-      <c r="R1" s="150"/>
-      <c r="S1" s="150"/>
-      <c r="T1" s="150"/>
-      <c r="U1" s="150"/>
-      <c r="V1" s="150"/>
-      <c r="W1" s="150"/>
-      <c r="X1" s="150"/>
-      <c r="Y1" s="150"/>
-      <c r="Z1" s="150"/>
-      <c r="AA1" s="150"/>
-      <c r="AB1" s="150"/>
-      <c r="AC1" s="150"/>
-      <c r="AD1" s="150"/>
-      <c r="AE1" s="150"/>
-      <c r="AF1" s="150"/>
-      <c r="AG1" s="151"/>
+      <c r="B1" s="153"/>
+      <c r="C1" s="153"/>
+      <c r="D1" s="153"/>
+      <c r="E1" s="153"/>
+      <c r="F1" s="153"/>
+      <c r="G1" s="153"/>
+      <c r="H1" s="153"/>
+      <c r="I1" s="153"/>
+      <c r="J1" s="153"/>
+      <c r="K1" s="153"/>
+      <c r="L1" s="153"/>
+      <c r="M1" s="153"/>
+      <c r="N1" s="153"/>
+      <c r="O1" s="153"/>
+      <c r="P1" s="153"/>
+      <c r="Q1" s="153"/>
+      <c r="R1" s="153"/>
+      <c r="S1" s="153"/>
+      <c r="T1" s="153"/>
+      <c r="U1" s="153"/>
+      <c r="V1" s="153"/>
+      <c r="W1" s="153"/>
+      <c r="X1" s="153"/>
+      <c r="Y1" s="153"/>
+      <c r="Z1" s="153"/>
+      <c r="AA1" s="153"/>
+      <c r="AB1" s="153"/>
+      <c r="AC1" s="153"/>
+      <c r="AD1" s="153"/>
+      <c r="AE1" s="153"/>
+      <c r="AF1" s="153"/>
+      <c r="AG1" s="154"/>
     </row>
     <row r="2" spans="1:177" s="12" customFormat="1" ht="12">
       <c r="A2" s="117" t="s">
@@ -40197,41 +40270,41 @@
       <c r="AG17" s="31"/>
     </row>
     <row r="18" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A18" s="149" t="s">
+      <c r="A18" s="152" t="s">
         <v>166</v>
       </c>
-      <c r="B18" s="150"/>
-      <c r="C18" s="150"/>
-      <c r="D18" s="150"/>
-      <c r="E18" s="150"/>
-      <c r="F18" s="150"/>
-      <c r="G18" s="150"/>
-      <c r="H18" s="150"/>
-      <c r="I18" s="150"/>
-      <c r="J18" s="150"/>
-      <c r="K18" s="150"/>
-      <c r="L18" s="150"/>
-      <c r="M18" s="150"/>
-      <c r="N18" s="150"/>
-      <c r="O18" s="150"/>
-      <c r="P18" s="150"/>
-      <c r="Q18" s="150"/>
-      <c r="R18" s="150"/>
-      <c r="S18" s="150"/>
-      <c r="T18" s="150"/>
-      <c r="U18" s="150"/>
-      <c r="V18" s="150"/>
-      <c r="W18" s="150"/>
-      <c r="X18" s="150"/>
-      <c r="Y18" s="150"/>
-      <c r="Z18" s="150"/>
-      <c r="AA18" s="150"/>
-      <c r="AB18" s="150"/>
-      <c r="AC18" s="150"/>
-      <c r="AD18" s="150"/>
-      <c r="AE18" s="150"/>
-      <c r="AF18" s="150"/>
-      <c r="AG18" s="151"/>
+      <c r="B18" s="153"/>
+      <c r="C18" s="153"/>
+      <c r="D18" s="153"/>
+      <c r="E18" s="153"/>
+      <c r="F18" s="153"/>
+      <c r="G18" s="153"/>
+      <c r="H18" s="153"/>
+      <c r="I18" s="153"/>
+      <c r="J18" s="153"/>
+      <c r="K18" s="153"/>
+      <c r="L18" s="153"/>
+      <c r="M18" s="153"/>
+      <c r="N18" s="153"/>
+      <c r="O18" s="153"/>
+      <c r="P18" s="153"/>
+      <c r="Q18" s="153"/>
+      <c r="R18" s="153"/>
+      <c r="S18" s="153"/>
+      <c r="T18" s="153"/>
+      <c r="U18" s="153"/>
+      <c r="V18" s="153"/>
+      <c r="W18" s="153"/>
+      <c r="X18" s="153"/>
+      <c r="Y18" s="153"/>
+      <c r="Z18" s="153"/>
+      <c r="AA18" s="153"/>
+      <c r="AB18" s="153"/>
+      <c r="AC18" s="153"/>
+      <c r="AD18" s="153"/>
+      <c r="AE18" s="153"/>
+      <c r="AF18" s="153"/>
+      <c r="AG18" s="154"/>
     </row>
     <row r="19" spans="1:33" ht="12.75" customHeight="1">
       <c r="A19" s="117" t="s">
@@ -40615,11 +40688,11 @@
       <c r="Z28" s="32"/>
       <c r="AA28" s="30"/>
       <c r="AB28" s="32"/>
-      <c r="AC28" s="176"/>
-      <c r="AD28" s="177"/>
-      <c r="AE28" s="177"/>
-      <c r="AF28" s="177"/>
-      <c r="AG28" s="177"/>
+      <c r="AC28" s="12"/>
+      <c r="AD28" s="19"/>
+      <c r="AE28" s="19"/>
+      <c r="AF28" s="19"/>
+      <c r="AG28" s="19"/>
     </row>
     <row r="29" spans="1:33" ht="12.75" customHeight="1">
       <c r="A29" s="29" t="s">
@@ -40656,13 +40729,13 @@
       </c>
       <c r="AA29" s="30"/>
       <c r="AB29" s="32"/>
-      <c r="AC29" s="152" t="s">
+      <c r="AC29" s="149" t="s">
         <v>196</v>
       </c>
-      <c r="AD29" s="153"/>
-      <c r="AE29" s="153"/>
-      <c r="AF29" s="153"/>
-      <c r="AG29" s="154"/>
+      <c r="AD29" s="150"/>
+      <c r="AE29" s="150"/>
+      <c r="AF29" s="150"/>
+      <c r="AG29" s="151"/>
     </row>
     <row r="30" spans="1:33" ht="12.75" customHeight="1">
       <c r="A30" s="29" t="s">
@@ -40699,13 +40772,13 @@
       </c>
       <c r="AA30" s="30"/>
       <c r="AB30" s="58"/>
-      <c r="AC30" s="152" t="s">
+      <c r="AC30" s="149" t="s">
         <v>196</v>
       </c>
-      <c r="AD30" s="153"/>
-      <c r="AE30" s="153"/>
-      <c r="AF30" s="153"/>
-      <c r="AG30" s="154"/>
+      <c r="AD30" s="150"/>
+      <c r="AE30" s="150"/>
+      <c r="AF30" s="150"/>
+      <c r="AG30" s="151"/>
     </row>
     <row r="31" spans="1:33" ht="12.75" customHeight="1">
       <c r="A31" s="29" t="s">
@@ -40742,13 +40815,13 @@
       </c>
       <c r="AA31" s="30"/>
       <c r="AB31" s="58"/>
-      <c r="AC31" s="152" t="s">
+      <c r="AC31" s="149" t="s">
         <v>196</v>
       </c>
-      <c r="AD31" s="153"/>
-      <c r="AE31" s="153"/>
-      <c r="AF31" s="153"/>
-      <c r="AG31" s="154"/>
+      <c r="AD31" s="150"/>
+      <c r="AE31" s="150"/>
+      <c r="AF31" s="150"/>
+      <c r="AG31" s="151"/>
     </row>
     <row r="32" spans="1:33" ht="12.75" customHeight="1">
       <c r="A32" s="29" t="s">
@@ -40785,13 +40858,13 @@
       </c>
       <c r="AA32" s="30"/>
       <c r="AB32" s="58"/>
-      <c r="AC32" s="152" t="s">
+      <c r="AC32" s="149" t="s">
         <v>196</v>
       </c>
-      <c r="AD32" s="153"/>
-      <c r="AE32" s="153"/>
-      <c r="AF32" s="153"/>
-      <c r="AG32" s="154"/>
+      <c r="AD32" s="150"/>
+      <c r="AE32" s="150"/>
+      <c r="AF32" s="150"/>
+      <c r="AG32" s="151"/>
     </row>
     <row r="33" spans="1:33" ht="12.75" customHeight="1">
       <c r="A33" s="29" t="s">
@@ -40829,13 +40902,13 @@
         <v>174</v>
       </c>
       <c r="AB33" s="58"/>
-      <c r="AC33" s="152" t="s">
+      <c r="AC33" s="149" t="s">
         <v>196</v>
       </c>
-      <c r="AD33" s="153"/>
-      <c r="AE33" s="153"/>
-      <c r="AF33" s="153"/>
-      <c r="AG33" s="154"/>
+      <c r="AD33" s="150"/>
+      <c r="AE33" s="150"/>
+      <c r="AF33" s="150"/>
+      <c r="AG33" s="151"/>
     </row>
     <row r="34" spans="1:33" ht="12.75" customHeight="1">
       <c r="A34" s="29" t="s">
@@ -40872,13 +40945,13 @@
       </c>
       <c r="AA34" s="30"/>
       <c r="AB34" s="58"/>
-      <c r="AC34" s="152" t="s">
+      <c r="AC34" s="149" t="s">
         <v>196</v>
       </c>
-      <c r="AD34" s="153"/>
-      <c r="AE34" s="153"/>
-      <c r="AF34" s="153"/>
-      <c r="AG34" s="154"/>
+      <c r="AD34" s="150"/>
+      <c r="AE34" s="150"/>
+      <c r="AF34" s="150"/>
+      <c r="AG34" s="151"/>
     </row>
     <row r="35" spans="1:33" ht="12.75" customHeight="1">
       <c r="A35" s="29" t="s">
@@ -40915,13 +40988,13 @@
       </c>
       <c r="AA35" s="30"/>
       <c r="AB35" s="58"/>
-      <c r="AC35" s="152" t="s">
+      <c r="AC35" s="149" t="s">
         <v>196</v>
       </c>
-      <c r="AD35" s="153"/>
-      <c r="AE35" s="153"/>
-      <c r="AF35" s="153"/>
-      <c r="AG35" s="154"/>
+      <c r="AD35" s="150"/>
+      <c r="AE35" s="150"/>
+      <c r="AF35" s="150"/>
+      <c r="AG35" s="151"/>
     </row>
     <row r="36" spans="1:33" ht="12.75" customHeight="1">
       <c r="A36" s="29" t="s">
@@ -40958,13 +41031,13 @@
       </c>
       <c r="AA36" s="30"/>
       <c r="AB36" s="58"/>
-      <c r="AC36" s="152" t="s">
+      <c r="AC36" s="149" t="s">
         <v>196</v>
       </c>
-      <c r="AD36" s="153"/>
-      <c r="AE36" s="153"/>
-      <c r="AF36" s="153"/>
-      <c r="AG36" s="154"/>
+      <c r="AD36" s="150"/>
+      <c r="AE36" s="150"/>
+      <c r="AF36" s="150"/>
+      <c r="AG36" s="151"/>
     </row>
     <row r="37" spans="1:33" ht="12.75" customHeight="1">
       <c r="A37" s="29" t="s">
@@ -41001,13 +41074,13 @@
       </c>
       <c r="AA37" s="30"/>
       <c r="AB37" s="31"/>
-      <c r="AC37" s="152" t="s">
+      <c r="AC37" s="149" t="s">
         <v>196</v>
       </c>
-      <c r="AD37" s="153"/>
-      <c r="AE37" s="153"/>
-      <c r="AF37" s="153"/>
-      <c r="AG37" s="154"/>
+      <c r="AD37" s="150"/>
+      <c r="AE37" s="150"/>
+      <c r="AF37" s="150"/>
+      <c r="AG37" s="151"/>
     </row>
     <row r="38" spans="1:33" ht="12.75" customHeight="1">
       <c r="A38" s="29" t="s">
@@ -41044,13 +41117,13 @@
       </c>
       <c r="AA38" s="30"/>
       <c r="AB38" s="31"/>
-      <c r="AC38" s="152" t="s">
+      <c r="AC38" s="149" t="s">
         <v>196</v>
       </c>
-      <c r="AD38" s="153"/>
-      <c r="AE38" s="153"/>
-      <c r="AF38" s="153"/>
-      <c r="AG38" s="154"/>
+      <c r="AD38" s="150"/>
+      <c r="AE38" s="150"/>
+      <c r="AF38" s="150"/>
+      <c r="AG38" s="151"/>
     </row>
     <row r="39" spans="1:33" ht="12.75" customHeight="1">
       <c r="A39" s="29" t="s">
@@ -41087,13 +41160,13 @@
       </c>
       <c r="AA39" s="30"/>
       <c r="AB39" s="31"/>
-      <c r="AC39" s="152" t="s">
+      <c r="AC39" s="149" t="s">
         <v>196</v>
       </c>
-      <c r="AD39" s="153"/>
-      <c r="AE39" s="153"/>
-      <c r="AF39" s="153"/>
-      <c r="AG39" s="154"/>
+      <c r="AD39" s="150"/>
+      <c r="AE39" s="150"/>
+      <c r="AF39" s="150"/>
+      <c r="AG39" s="151"/>
     </row>
     <row r="40" spans="1:33" ht="12.75" customHeight="1">
       <c r="A40" s="29" t="s">
@@ -41357,41 +41430,41 @@
       <c r="AG46" s="31"/>
     </row>
     <row r="47" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A47" s="149" t="s">
+      <c r="A47" s="152" t="s">
         <v>166</v>
       </c>
-      <c r="B47" s="150"/>
-      <c r="C47" s="150"/>
-      <c r="D47" s="150"/>
-      <c r="E47" s="150"/>
-      <c r="F47" s="150"/>
-      <c r="G47" s="150"/>
-      <c r="H47" s="150"/>
-      <c r="I47" s="150"/>
-      <c r="J47" s="150"/>
-      <c r="K47" s="150"/>
-      <c r="L47" s="150"/>
-      <c r="M47" s="150"/>
-      <c r="N47" s="150"/>
-      <c r="O47" s="150"/>
-      <c r="P47" s="150"/>
-      <c r="Q47" s="150"/>
-      <c r="R47" s="150"/>
-      <c r="S47" s="150"/>
-      <c r="T47" s="150"/>
-      <c r="U47" s="150"/>
-      <c r="V47" s="150"/>
-      <c r="W47" s="150"/>
-      <c r="X47" s="150"/>
-      <c r="Y47" s="150"/>
-      <c r="Z47" s="150"/>
-      <c r="AA47" s="150"/>
-      <c r="AB47" s="150"/>
-      <c r="AC47" s="150"/>
-      <c r="AD47" s="150"/>
-      <c r="AE47" s="150"/>
-      <c r="AF47" s="150"/>
-      <c r="AG47" s="151"/>
+      <c r="B47" s="153"/>
+      <c r="C47" s="153"/>
+      <c r="D47" s="153"/>
+      <c r="E47" s="153"/>
+      <c r="F47" s="153"/>
+      <c r="G47" s="153"/>
+      <c r="H47" s="153"/>
+      <c r="I47" s="153"/>
+      <c r="J47" s="153"/>
+      <c r="K47" s="153"/>
+      <c r="L47" s="153"/>
+      <c r="M47" s="153"/>
+      <c r="N47" s="153"/>
+      <c r="O47" s="153"/>
+      <c r="P47" s="153"/>
+      <c r="Q47" s="153"/>
+      <c r="R47" s="153"/>
+      <c r="S47" s="153"/>
+      <c r="T47" s="153"/>
+      <c r="U47" s="153"/>
+      <c r="V47" s="153"/>
+      <c r="W47" s="153"/>
+      <c r="X47" s="153"/>
+      <c r="Y47" s="153"/>
+      <c r="Z47" s="153"/>
+      <c r="AA47" s="153"/>
+      <c r="AB47" s="153"/>
+      <c r="AC47" s="153"/>
+      <c r="AD47" s="153"/>
+      <c r="AE47" s="153"/>
+      <c r="AF47" s="153"/>
+      <c r="AG47" s="154"/>
     </row>
     <row r="48" spans="1:33" ht="12.75" customHeight="1">
       <c r="A48" s="117" t="s">
@@ -41740,11 +41813,11 @@
       <c r="Z56" s="32"/>
       <c r="AA56" s="30"/>
       <c r="AB56" s="32"/>
-      <c r="AC56" s="152"/>
-      <c r="AD56" s="153"/>
-      <c r="AE56" s="153"/>
-      <c r="AF56" s="153"/>
-      <c r="AG56" s="154"/>
+      <c r="AC56" s="149"/>
+      <c r="AD56" s="150"/>
+      <c r="AE56" s="150"/>
+      <c r="AF56" s="150"/>
+      <c r="AG56" s="151"/>
     </row>
     <row r="57" spans="1:33" ht="12.75" customHeight="1">
       <c r="A57" s="29" t="s">
@@ -41781,11 +41854,11 @@
       </c>
       <c r="AA57" s="30"/>
       <c r="AB57" s="32"/>
-      <c r="AC57" s="152"/>
-      <c r="AD57" s="153"/>
-      <c r="AE57" s="153"/>
-      <c r="AF57" s="153"/>
-      <c r="AG57" s="154"/>
+      <c r="AC57" s="149"/>
+      <c r="AD57" s="150"/>
+      <c r="AE57" s="150"/>
+      <c r="AF57" s="150"/>
+      <c r="AG57" s="151"/>
     </row>
     <row r="58" spans="1:33" ht="12.75" customHeight="1">
       <c r="A58" s="29" t="s">
@@ -42796,41 +42869,41 @@
       <c r="AG83" s="31"/>
     </row>
     <row r="84" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A84" s="149" t="s">
+      <c r="A84" s="152" t="s">
         <v>166</v>
       </c>
-      <c r="B84" s="150"/>
-      <c r="C84" s="150"/>
-      <c r="D84" s="150"/>
-      <c r="E84" s="150"/>
-      <c r="F84" s="150"/>
-      <c r="G84" s="150"/>
-      <c r="H84" s="150"/>
-      <c r="I84" s="150"/>
-      <c r="J84" s="150"/>
-      <c r="K84" s="150"/>
-      <c r="L84" s="150"/>
-      <c r="M84" s="150"/>
-      <c r="N84" s="150"/>
-      <c r="O84" s="150"/>
-      <c r="P84" s="150"/>
-      <c r="Q84" s="150"/>
-      <c r="R84" s="150"/>
-      <c r="S84" s="150"/>
-      <c r="T84" s="150"/>
-      <c r="U84" s="150"/>
-      <c r="V84" s="150"/>
-      <c r="W84" s="150"/>
-      <c r="X84" s="150"/>
-      <c r="Y84" s="150"/>
-      <c r="Z84" s="150"/>
-      <c r="AA84" s="150"/>
-      <c r="AB84" s="150"/>
-      <c r="AC84" s="150"/>
-      <c r="AD84" s="150"/>
-      <c r="AE84" s="150"/>
-      <c r="AF84" s="150"/>
-      <c r="AG84" s="151"/>
+      <c r="B84" s="153"/>
+      <c r="C84" s="153"/>
+      <c r="D84" s="153"/>
+      <c r="E84" s="153"/>
+      <c r="F84" s="153"/>
+      <c r="G84" s="153"/>
+      <c r="H84" s="153"/>
+      <c r="I84" s="153"/>
+      <c r="J84" s="153"/>
+      <c r="K84" s="153"/>
+      <c r="L84" s="153"/>
+      <c r="M84" s="153"/>
+      <c r="N84" s="153"/>
+      <c r="O84" s="153"/>
+      <c r="P84" s="153"/>
+      <c r="Q84" s="153"/>
+      <c r="R84" s="153"/>
+      <c r="S84" s="153"/>
+      <c r="T84" s="153"/>
+      <c r="U84" s="153"/>
+      <c r="V84" s="153"/>
+      <c r="W84" s="153"/>
+      <c r="X84" s="153"/>
+      <c r="Y84" s="153"/>
+      <c r="Z84" s="153"/>
+      <c r="AA84" s="153"/>
+      <c r="AB84" s="153"/>
+      <c r="AC84" s="153"/>
+      <c r="AD84" s="153"/>
+      <c r="AE84" s="153"/>
+      <c r="AF84" s="153"/>
+      <c r="AG84" s="154"/>
     </row>
     <row r="85" spans="1:33" ht="12.75" customHeight="1">
       <c r="A85" s="117" t="s">
@@ -43179,11 +43252,11 @@
       <c r="Z93" s="32"/>
       <c r="AA93" s="30"/>
       <c r="AB93" s="32"/>
-      <c r="AC93" s="152"/>
-      <c r="AD93" s="153"/>
-      <c r="AE93" s="153"/>
-      <c r="AF93" s="153"/>
-      <c r="AG93" s="154"/>
+      <c r="AC93" s="149"/>
+      <c r="AD93" s="150"/>
+      <c r="AE93" s="150"/>
+      <c r="AF93" s="150"/>
+      <c r="AG93" s="151"/>
     </row>
     <row r="94" spans="1:33" ht="12.75" customHeight="1">
       <c r="A94" s="29" t="s">
@@ -43218,11 +43291,11 @@
       <c r="Z94" s="32"/>
       <c r="AA94" s="30"/>
       <c r="AB94" s="32"/>
-      <c r="AC94" s="152"/>
-      <c r="AD94" s="153"/>
-      <c r="AE94" s="153"/>
-      <c r="AF94" s="153"/>
-      <c r="AG94" s="154"/>
+      <c r="AC94" s="149"/>
+      <c r="AD94" s="150"/>
+      <c r="AE94" s="150"/>
+      <c r="AF94" s="150"/>
+      <c r="AG94" s="151"/>
     </row>
     <row r="95" spans="1:33" ht="12.75" customHeight="1">
       <c r="A95" s="29"/>
@@ -43260,41 +43333,41 @@
       <c r="AG95" s="112"/>
     </row>
     <row r="96" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A96" s="149" t="s">
+      <c r="A96" s="152" t="s">
         <v>166</v>
       </c>
-      <c r="B96" s="150"/>
-      <c r="C96" s="150"/>
-      <c r="D96" s="150"/>
-      <c r="E96" s="150"/>
-      <c r="F96" s="150"/>
-      <c r="G96" s="150"/>
-      <c r="H96" s="150"/>
-      <c r="I96" s="150"/>
-      <c r="J96" s="150"/>
-      <c r="K96" s="150"/>
-      <c r="L96" s="150"/>
-      <c r="M96" s="150"/>
-      <c r="N96" s="150"/>
-      <c r="O96" s="150"/>
-      <c r="P96" s="150"/>
-      <c r="Q96" s="150"/>
-      <c r="R96" s="150"/>
-      <c r="S96" s="150"/>
-      <c r="T96" s="150"/>
-      <c r="U96" s="150"/>
-      <c r="V96" s="150"/>
-      <c r="W96" s="150"/>
-      <c r="X96" s="150"/>
-      <c r="Y96" s="150"/>
-      <c r="Z96" s="150"/>
-      <c r="AA96" s="150"/>
-      <c r="AB96" s="150"/>
-      <c r="AC96" s="150"/>
-      <c r="AD96" s="150"/>
-      <c r="AE96" s="150"/>
-      <c r="AF96" s="150"/>
-      <c r="AG96" s="151"/>
+      <c r="B96" s="153"/>
+      <c r="C96" s="153"/>
+      <c r="D96" s="153"/>
+      <c r="E96" s="153"/>
+      <c r="F96" s="153"/>
+      <c r="G96" s="153"/>
+      <c r="H96" s="153"/>
+      <c r="I96" s="153"/>
+      <c r="J96" s="153"/>
+      <c r="K96" s="153"/>
+      <c r="L96" s="153"/>
+      <c r="M96" s="153"/>
+      <c r="N96" s="153"/>
+      <c r="O96" s="153"/>
+      <c r="P96" s="153"/>
+      <c r="Q96" s="153"/>
+      <c r="R96" s="153"/>
+      <c r="S96" s="153"/>
+      <c r="T96" s="153"/>
+      <c r="U96" s="153"/>
+      <c r="V96" s="153"/>
+      <c r="W96" s="153"/>
+      <c r="X96" s="153"/>
+      <c r="Y96" s="153"/>
+      <c r="Z96" s="153"/>
+      <c r="AA96" s="153"/>
+      <c r="AB96" s="153"/>
+      <c r="AC96" s="153"/>
+      <c r="AD96" s="153"/>
+      <c r="AE96" s="153"/>
+      <c r="AF96" s="153"/>
+      <c r="AG96" s="154"/>
     </row>
     <row r="97" spans="1:33" ht="12.75" customHeight="1">
       <c r="A97" s="117" t="s">
@@ -43641,11 +43714,11 @@
       <c r="Z105" s="32"/>
       <c r="AA105" s="30"/>
       <c r="AB105" s="32"/>
-      <c r="AC105" s="152"/>
-      <c r="AD105" s="153"/>
-      <c r="AE105" s="153"/>
-      <c r="AF105" s="153"/>
-      <c r="AG105" s="154"/>
+      <c r="AC105" s="149"/>
+      <c r="AD105" s="150"/>
+      <c r="AE105" s="150"/>
+      <c r="AF105" s="150"/>
+      <c r="AG105" s="151"/>
     </row>
     <row r="106" spans="1:33" ht="12.75" customHeight="1">
       <c r="A106" s="29"/>
@@ -43678,11 +43751,11 @@
       <c r="Z106" s="32"/>
       <c r="AA106" s="30"/>
       <c r="AB106" s="58"/>
-      <c r="AC106" s="152"/>
-      <c r="AD106" s="153"/>
-      <c r="AE106" s="153"/>
-      <c r="AF106" s="153"/>
-      <c r="AG106" s="154"/>
+      <c r="AC106" s="149"/>
+      <c r="AD106" s="150"/>
+      <c r="AE106" s="150"/>
+      <c r="AF106" s="150"/>
+      <c r="AG106" s="151"/>
     </row>
     <row r="107" spans="1:33" ht="12.75" customHeight="1">
       <c r="A107" s="29" t="s">
@@ -43717,11 +43790,11 @@
       <c r="Z107" s="32"/>
       <c r="AA107" s="30"/>
       <c r="AB107" s="58"/>
-      <c r="AC107" s="152"/>
-      <c r="AD107" s="153"/>
-      <c r="AE107" s="153"/>
-      <c r="AF107" s="153"/>
-      <c r="AG107" s="154"/>
+      <c r="AC107" s="149"/>
+      <c r="AD107" s="150"/>
+      <c r="AE107" s="150"/>
+      <c r="AF107" s="150"/>
+      <c r="AG107" s="151"/>
     </row>
     <row r="108" spans="1:33" ht="12.75" customHeight="1">
       <c r="A108" s="29"/>
@@ -43754,11 +43827,11 @@
       <c r="Z108" s="32"/>
       <c r="AA108" s="30"/>
       <c r="AB108" s="58"/>
-      <c r="AC108" s="152"/>
-      <c r="AD108" s="153"/>
-      <c r="AE108" s="153"/>
-      <c r="AF108" s="153"/>
-      <c r="AG108" s="154"/>
+      <c r="AC108" s="149"/>
+      <c r="AD108" s="150"/>
+      <c r="AE108" s="150"/>
+      <c r="AF108" s="150"/>
+      <c r="AG108" s="151"/>
     </row>
     <row r="109" spans="1:33" ht="12.75" customHeight="1">
       <c r="A109" s="29"/>
@@ -43790,11 +43863,11 @@
       <c r="Y109" s="30"/>
       <c r="AA109" s="32"/>
       <c r="AB109" s="58"/>
-      <c r="AC109" s="152"/>
-      <c r="AD109" s="153"/>
-      <c r="AE109" s="153"/>
-      <c r="AF109" s="153"/>
-      <c r="AG109" s="154"/>
+      <c r="AC109" s="149"/>
+      <c r="AD109" s="150"/>
+      <c r="AE109" s="150"/>
+      <c r="AF109" s="150"/>
+      <c r="AG109" s="151"/>
     </row>
     <row r="110" spans="1:33" ht="12.75" customHeight="1">
       <c r="A110" s="29"/>
@@ -43827,11 +43900,11 @@
       <c r="Z110" s="32"/>
       <c r="AA110" s="30"/>
       <c r="AB110" s="58"/>
-      <c r="AC110" s="152"/>
-      <c r="AD110" s="153"/>
-      <c r="AE110" s="153"/>
-      <c r="AF110" s="153"/>
-      <c r="AG110" s="154"/>
+      <c r="AC110" s="149"/>
+      <c r="AD110" s="150"/>
+      <c r="AE110" s="150"/>
+      <c r="AF110" s="150"/>
+      <c r="AG110" s="151"/>
     </row>
     <row r="111" spans="1:33" ht="12.75" customHeight="1">
       <c r="A111" s="29" t="s">
@@ -43866,11 +43939,11 @@
       <c r="Z111" s="32"/>
       <c r="AA111" s="30"/>
       <c r="AB111" s="58"/>
-      <c r="AC111" s="152"/>
-      <c r="AD111" s="153"/>
-      <c r="AE111" s="153"/>
-      <c r="AF111" s="153"/>
-      <c r="AG111" s="154"/>
+      <c r="AC111" s="149"/>
+      <c r="AD111" s="150"/>
+      <c r="AE111" s="150"/>
+      <c r="AF111" s="150"/>
+      <c r="AG111" s="151"/>
     </row>
     <row r="112" spans="1:33" ht="12.75" customHeight="1">
       <c r="A112" s="29" t="s">
@@ -43905,11 +43978,11 @@
       <c r="Z112" s="32"/>
       <c r="AA112" s="30"/>
       <c r="AB112" s="58"/>
-      <c r="AC112" s="152"/>
-      <c r="AD112" s="153"/>
-      <c r="AE112" s="153"/>
-      <c r="AF112" s="153"/>
-      <c r="AG112" s="154"/>
+      <c r="AC112" s="149"/>
+      <c r="AD112" s="150"/>
+      <c r="AE112" s="150"/>
+      <c r="AF112" s="150"/>
+      <c r="AG112" s="151"/>
     </row>
     <row r="113" spans="1:33" ht="12.75" customHeight="1">
       <c r="A113" s="29" t="s">
@@ -43944,11 +44017,11 @@
       <c r="Z113" s="32"/>
       <c r="AA113" s="30"/>
       <c r="AB113" s="31"/>
-      <c r="AC113" s="152"/>
-      <c r="AD113" s="153"/>
-      <c r="AE113" s="153"/>
-      <c r="AF113" s="153"/>
-      <c r="AG113" s="154"/>
+      <c r="AC113" s="149"/>
+      <c r="AD113" s="150"/>
+      <c r="AE113" s="150"/>
+      <c r="AF113" s="150"/>
+      <c r="AG113" s="151"/>
     </row>
     <row r="114" spans="1:33" ht="12.75" customHeight="1">
       <c r="A114" s="29" t="s">
@@ -43983,11 +44056,11 @@
       <c r="Z114" s="32"/>
       <c r="AA114" s="30"/>
       <c r="AB114" s="31"/>
-      <c r="AC114" s="152"/>
-      <c r="AD114" s="153"/>
-      <c r="AE114" s="153"/>
-      <c r="AF114" s="153"/>
-      <c r="AG114" s="154"/>
+      <c r="AC114" s="149"/>
+      <c r="AD114" s="150"/>
+      <c r="AE114" s="150"/>
+      <c r="AF114" s="150"/>
+      <c r="AG114" s="151"/>
     </row>
     <row r="115" spans="1:33" ht="12.75" customHeight="1">
       <c r="A115" s="29" t="s">
@@ -44022,11 +44095,11 @@
       <c r="Z115" s="32"/>
       <c r="AA115" s="30"/>
       <c r="AB115" s="31"/>
-      <c r="AC115" s="152"/>
-      <c r="AD115" s="153"/>
-      <c r="AE115" s="153"/>
-      <c r="AF115" s="153"/>
-      <c r="AG115" s="154"/>
+      <c r="AC115" s="149"/>
+      <c r="AD115" s="150"/>
+      <c r="AE115" s="150"/>
+      <c r="AF115" s="150"/>
+      <c r="AG115" s="151"/>
     </row>
     <row r="116" spans="1:33" ht="12.75" customHeight="1">
       <c r="A116" s="29" t="s">
@@ -44106,70 +44179,2262 @@
       <c r="AF117" s="30"/>
       <c r="AG117" s="31"/>
     </row>
+    <row r="118" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A118" s="29" t="s">
+        <v>250</v>
+      </c>
+      <c r="B118" s="30"/>
+      <c r="C118" s="30"/>
+      <c r="D118" s="30"/>
+      <c r="E118" s="30"/>
+      <c r="F118" s="58"/>
+      <c r="G118" s="30" t="s">
+        <v>251</v>
+      </c>
+      <c r="H118" s="30"/>
+      <c r="I118" s="30"/>
+      <c r="J118" s="30"/>
+      <c r="K118" s="30"/>
+      <c r="L118" s="30"/>
+      <c r="M118" s="30"/>
+      <c r="N118" s="30"/>
+      <c r="O118" s="30"/>
+      <c r="P118" s="30"/>
+      <c r="Q118" s="30"/>
+      <c r="R118" s="30"/>
+      <c r="S118" s="30"/>
+      <c r="T118" s="30"/>
+      <c r="U118" s="32"/>
+      <c r="V118" s="30"/>
+      <c r="W118" s="30"/>
+      <c r="X118" s="30"/>
+      <c r="Y118" s="30"/>
+      <c r="Z118" s="32"/>
+      <c r="AA118" s="30"/>
+      <c r="AB118" s="58"/>
+      <c r="AC118" s="110"/>
+      <c r="AD118" s="111"/>
+      <c r="AE118" s="111"/>
+      <c r="AF118" s="111"/>
+      <c r="AG118" s="112"/>
+    </row>
+    <row r="119" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A119" s="29"/>
+      <c r="B119" s="30"/>
+      <c r="C119" s="30"/>
+      <c r="D119" s="30"/>
+      <c r="E119" s="30"/>
+      <c r="F119" s="58"/>
+      <c r="G119" s="30"/>
+      <c r="H119" s="30" t="s">
+        <v>252</v>
+      </c>
+      <c r="I119" s="30"/>
+      <c r="J119" s="30"/>
+      <c r="K119" s="30"/>
+      <c r="L119" s="30"/>
+      <c r="M119" s="30"/>
+      <c r="N119" s="30"/>
+      <c r="O119" s="30"/>
+      <c r="P119" s="30"/>
+      <c r="Q119" s="30"/>
+      <c r="R119" s="30"/>
+      <c r="S119" s="30"/>
+      <c r="T119" s="30"/>
+      <c r="U119" s="32"/>
+      <c r="V119" s="30"/>
+      <c r="W119" s="30"/>
+      <c r="X119" s="30"/>
+      <c r="Y119" s="30"/>
+      <c r="Z119" s="32"/>
+      <c r="AA119" s="30"/>
+      <c r="AB119" s="58"/>
+      <c r="AC119" s="110"/>
+      <c r="AD119" s="111"/>
+      <c r="AE119" s="111"/>
+      <c r="AF119" s="111"/>
+      <c r="AG119" s="112"/>
+    </row>
+    <row r="120" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A120" s="29"/>
+      <c r="B120" s="30"/>
+      <c r="C120" s="30"/>
+      <c r="D120" s="30"/>
+      <c r="E120" s="30"/>
+      <c r="F120" s="58"/>
+      <c r="G120" s="30"/>
+      <c r="H120" s="30"/>
+      <c r="I120" s="30" t="s">
+        <v>253</v>
+      </c>
+      <c r="J120" s="30"/>
+      <c r="K120" s="30"/>
+      <c r="L120" s="30"/>
+      <c r="M120" s="30"/>
+      <c r="N120" s="30"/>
+      <c r="O120" s="30"/>
+      <c r="P120" s="30"/>
+      <c r="Q120" s="30"/>
+      <c r="R120" s="30"/>
+      <c r="S120" s="30"/>
+      <c r="T120" s="30"/>
+      <c r="U120" s="32"/>
+      <c r="V120" s="30"/>
+      <c r="W120" s="30"/>
+      <c r="X120" s="30"/>
+      <c r="Y120" s="30"/>
+      <c r="Z120" s="32"/>
+      <c r="AA120" s="30"/>
+      <c r="AB120" s="58"/>
+      <c r="AC120" s="110"/>
+      <c r="AD120" s="111"/>
+      <c r="AE120" s="111"/>
+      <c r="AF120" s="111"/>
+      <c r="AG120" s="112"/>
+    </row>
+    <row r="121" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A121" s="29"/>
+      <c r="B121" s="30"/>
+      <c r="C121" s="30"/>
+      <c r="D121" s="30"/>
+      <c r="E121" s="30"/>
+      <c r="F121" s="58"/>
+      <c r="G121" s="30"/>
+      <c r="H121" s="30"/>
+      <c r="I121" s="30"/>
+      <c r="J121" s="30" t="s">
+        <v>254</v>
+      </c>
+      <c r="K121" s="30"/>
+      <c r="L121" s="30"/>
+      <c r="M121" s="30"/>
+      <c r="N121" s="30"/>
+      <c r="O121" s="30"/>
+      <c r="P121" s="30"/>
+      <c r="Q121" s="30"/>
+      <c r="R121" s="30"/>
+      <c r="S121" s="30"/>
+      <c r="T121" s="30"/>
+      <c r="U121" s="32"/>
+      <c r="V121" s="30"/>
+      <c r="W121" s="30"/>
+      <c r="X121" s="30"/>
+      <c r="Y121" s="30"/>
+      <c r="Z121" s="32"/>
+      <c r="AA121" s="30"/>
+      <c r="AB121" s="58"/>
+      <c r="AC121" s="110"/>
+      <c r="AD121" s="111"/>
+      <c r="AE121" s="111"/>
+      <c r="AF121" s="111"/>
+      <c r="AG121" s="112"/>
+    </row>
+    <row r="122" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A122" s="29"/>
+      <c r="B122" s="30"/>
+      <c r="C122" s="30"/>
+      <c r="D122" s="30"/>
+      <c r="E122" s="30"/>
+      <c r="F122" s="58"/>
+      <c r="G122" s="30"/>
+      <c r="H122" s="30"/>
+      <c r="I122" s="30"/>
+      <c r="J122" s="30"/>
+      <c r="K122" s="30" t="s">
+        <v>255</v>
+      </c>
+      <c r="L122" s="30"/>
+      <c r="M122" s="30"/>
+      <c r="N122" s="30"/>
+      <c r="O122" s="30"/>
+      <c r="P122" s="30"/>
+      <c r="Q122" s="30"/>
+      <c r="R122" s="30"/>
+      <c r="S122" s="30"/>
+      <c r="T122" s="30"/>
+      <c r="U122" s="32"/>
+      <c r="V122" s="30"/>
+      <c r="W122" s="30"/>
+      <c r="X122" s="30"/>
+      <c r="Y122" s="30"/>
+      <c r="Z122" s="32"/>
+      <c r="AA122" s="30"/>
+      <c r="AB122" s="58"/>
+      <c r="AC122" s="110"/>
+      <c r="AD122" s="111"/>
+      <c r="AE122" s="111"/>
+      <c r="AF122" s="111"/>
+      <c r="AG122" s="112"/>
+    </row>
+    <row r="123" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A123" s="29" t="s">
+        <v>256</v>
+      </c>
+      <c r="B123" s="30"/>
+      <c r="C123" s="30"/>
+      <c r="D123" s="30"/>
+      <c r="E123" s="30"/>
+      <c r="F123" s="58"/>
+      <c r="G123" s="30" t="s">
+        <v>257</v>
+      </c>
+      <c r="H123" s="30"/>
+      <c r="I123" s="30"/>
+      <c r="J123" s="30"/>
+      <c r="K123" s="30"/>
+      <c r="L123" s="30"/>
+      <c r="M123" s="30"/>
+      <c r="N123" s="30"/>
+      <c r="O123" s="30"/>
+      <c r="P123" s="30"/>
+      <c r="Q123" s="30"/>
+      <c r="R123" s="30"/>
+      <c r="S123" s="30"/>
+      <c r="T123" s="30"/>
+      <c r="U123" s="32"/>
+      <c r="V123" s="30"/>
+      <c r="W123" s="30"/>
+      <c r="X123" s="30"/>
+      <c r="Y123" s="30"/>
+      <c r="Z123" s="32"/>
+      <c r="AA123" s="30"/>
+      <c r="AB123" s="58"/>
+      <c r="AC123" s="110"/>
+      <c r="AD123" s="111"/>
+      <c r="AE123" s="111"/>
+      <c r="AF123" s="111"/>
+      <c r="AG123" s="112"/>
+    </row>
+    <row r="124" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A124" s="29" t="s">
+        <v>258</v>
+      </c>
+      <c r="B124" s="30"/>
+      <c r="C124" s="30"/>
+      <c r="D124" s="30"/>
+      <c r="E124" s="30"/>
+      <c r="F124" s="58"/>
+      <c r="G124" s="30" t="s">
+        <v>259</v>
+      </c>
+      <c r="H124" s="30"/>
+      <c r="I124" s="30"/>
+      <c r="J124" s="30"/>
+      <c r="K124" s="30"/>
+      <c r="L124" s="30"/>
+      <c r="M124" s="30"/>
+      <c r="N124" s="30"/>
+      <c r="O124" s="30"/>
+      <c r="P124" s="30"/>
+      <c r="Q124" s="30"/>
+      <c r="R124" s="30"/>
+      <c r="S124" s="30"/>
+      <c r="T124" s="30"/>
+      <c r="U124" s="32"/>
+      <c r="V124" s="30"/>
+      <c r="W124" s="30"/>
+      <c r="X124" s="30"/>
+      <c r="Y124" s="30"/>
+      <c r="Z124" s="32"/>
+      <c r="AA124" s="30"/>
+      <c r="AB124" s="58"/>
+      <c r="AC124" s="110"/>
+      <c r="AD124" s="111"/>
+      <c r="AE124" s="111"/>
+      <c r="AF124" s="111"/>
+      <c r="AG124" s="112"/>
+    </row>
+    <row r="125" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A125" s="29"/>
+      <c r="B125" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="C125" s="30"/>
+      <c r="D125" s="30"/>
+      <c r="E125" s="30"/>
+      <c r="F125" s="58"/>
+      <c r="G125" s="30"/>
+      <c r="H125" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="I125" s="30"/>
+      <c r="J125" s="30"/>
+      <c r="K125" s="30"/>
+      <c r="L125" s="30"/>
+      <c r="M125" s="30"/>
+      <c r="N125" s="30"/>
+      <c r="O125" s="30"/>
+      <c r="P125" s="30"/>
+      <c r="Q125" s="30"/>
+      <c r="R125" s="30"/>
+      <c r="S125" s="30"/>
+      <c r="T125" s="30"/>
+      <c r="U125" s="32"/>
+      <c r="V125" s="30"/>
+      <c r="W125" s="30"/>
+      <c r="X125" s="30"/>
+      <c r="Y125" s="30"/>
+      <c r="Z125" s="32"/>
+      <c r="AA125" s="30"/>
+      <c r="AB125" s="58"/>
+      <c r="AC125" s="110"/>
+      <c r="AD125" s="111"/>
+      <c r="AE125" s="111"/>
+      <c r="AF125" s="111"/>
+      <c r="AG125" s="112"/>
+    </row>
+    <row r="126" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A126" s="29"/>
+      <c r="B126" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="C126" s="30"/>
+      <c r="D126" s="30"/>
+      <c r="E126" s="30"/>
+      <c r="F126" s="58"/>
+      <c r="G126" s="30"/>
+      <c r="H126" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="I126" s="30"/>
+      <c r="J126" s="30"/>
+      <c r="K126" s="30"/>
+      <c r="L126" s="30"/>
+      <c r="M126" s="30"/>
+      <c r="N126" s="30"/>
+      <c r="O126" s="30"/>
+      <c r="P126" s="30"/>
+      <c r="Q126" s="30"/>
+      <c r="R126" s="30"/>
+      <c r="S126" s="30"/>
+      <c r="T126" s="30"/>
+      <c r="U126" s="32"/>
+      <c r="V126" s="30"/>
+      <c r="W126" s="30"/>
+      <c r="X126" s="30"/>
+      <c r="Y126" s="30"/>
+      <c r="Z126" s="32"/>
+      <c r="AA126" s="30"/>
+      <c r="AB126" s="58"/>
+      <c r="AC126" s="110"/>
+      <c r="AD126" s="111"/>
+      <c r="AE126" s="111"/>
+      <c r="AF126" s="111"/>
+      <c r="AG126" s="112"/>
+    </row>
+    <row r="127" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A127" s="29"/>
+      <c r="B127" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="C127" s="30"/>
+      <c r="D127" s="30"/>
+      <c r="E127" s="30"/>
+      <c r="F127" s="58"/>
+      <c r="G127" s="30"/>
+      <c r="H127" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="I127" s="30"/>
+      <c r="J127" s="30"/>
+      <c r="K127" s="30"/>
+      <c r="L127" s="30"/>
+      <c r="M127" s="30"/>
+      <c r="N127" s="30"/>
+      <c r="O127" s="30"/>
+      <c r="P127" s="30"/>
+      <c r="Q127" s="30"/>
+      <c r="R127" s="30"/>
+      <c r="S127" s="30"/>
+      <c r="T127" s="30"/>
+      <c r="U127" s="32"/>
+      <c r="V127" s="30"/>
+      <c r="W127" s="30"/>
+      <c r="X127" s="30"/>
+      <c r="Y127" s="30"/>
+      <c r="Z127" s="32"/>
+      <c r="AA127" s="30"/>
+      <c r="AB127" s="58"/>
+      <c r="AC127" s="110"/>
+      <c r="AD127" s="111"/>
+      <c r="AE127" s="111"/>
+      <c r="AF127" s="111"/>
+      <c r="AG127" s="112"/>
+    </row>
+    <row r="128" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A128" s="29"/>
+      <c r="B128" s="30" t="s">
+        <v>260</v>
+      </c>
+      <c r="C128" s="30"/>
+      <c r="D128" s="30"/>
+      <c r="E128" s="30"/>
+      <c r="F128" s="58"/>
+      <c r="G128" s="30"/>
+      <c r="H128" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="I128" s="30"/>
+      <c r="J128" s="30"/>
+      <c r="K128" s="30"/>
+      <c r="L128" s="30"/>
+      <c r="M128" s="30"/>
+      <c r="N128" s="30"/>
+      <c r="O128" s="30"/>
+      <c r="P128" s="30"/>
+      <c r="Q128" s="30"/>
+      <c r="R128" s="30"/>
+      <c r="S128" s="30"/>
+      <c r="T128" s="30"/>
+      <c r="U128" s="32"/>
+      <c r="V128" s="30"/>
+      <c r="W128" s="30"/>
+      <c r="X128" s="30"/>
+      <c r="Y128" s="30"/>
+      <c r="Z128" s="32"/>
+      <c r="AA128" s="30"/>
+      <c r="AB128" s="58"/>
+      <c r="AC128" s="110"/>
+      <c r="AD128" s="111"/>
+      <c r="AE128" s="111"/>
+      <c r="AF128" s="111"/>
+      <c r="AG128" s="112"/>
+    </row>
+    <row r="129" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A129" s="29"/>
+      <c r="B129" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C129" s="30"/>
+      <c r="D129" s="30"/>
+      <c r="E129" s="30"/>
+      <c r="F129" s="58"/>
+      <c r="G129" s="30"/>
+      <c r="H129" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="I129" s="30"/>
+      <c r="J129" s="30"/>
+      <c r="K129" s="30"/>
+      <c r="L129" s="30"/>
+      <c r="M129" s="30"/>
+      <c r="N129" s="30"/>
+      <c r="O129" s="30"/>
+      <c r="P129" s="30"/>
+      <c r="Q129" s="30"/>
+      <c r="R129" s="30"/>
+      <c r="S129" s="30"/>
+      <c r="T129" s="30"/>
+      <c r="U129" s="32"/>
+      <c r="V129" s="30"/>
+      <c r="W129" s="30"/>
+      <c r="X129" s="30"/>
+      <c r="Y129" s="30"/>
+      <c r="Z129" s="32"/>
+      <c r="AA129" s="30"/>
+      <c r="AB129" s="58"/>
+      <c r="AC129" s="110"/>
+      <c r="AD129" s="111"/>
+      <c r="AE129" s="111"/>
+      <c r="AF129" s="111"/>
+      <c r="AG129" s="112"/>
+    </row>
+    <row r="130" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A130" s="29"/>
+      <c r="B130" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="C130" s="30"/>
+      <c r="D130" s="30"/>
+      <c r="E130" s="30"/>
+      <c r="F130" s="58"/>
+      <c r="G130" s="30"/>
+      <c r="H130" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="I130" s="30"/>
+      <c r="J130" s="30"/>
+      <c r="K130" s="30"/>
+      <c r="L130" s="30"/>
+      <c r="M130" s="30"/>
+      <c r="N130" s="30"/>
+      <c r="O130" s="30"/>
+      <c r="P130" s="30"/>
+      <c r="Q130" s="30"/>
+      <c r="R130" s="30"/>
+      <c r="S130" s="30"/>
+      <c r="T130" s="30"/>
+      <c r="U130" s="32"/>
+      <c r="V130" s="30"/>
+      <c r="W130" s="30"/>
+      <c r="X130" s="30"/>
+      <c r="Y130" s="30"/>
+      <c r="Z130" s="32"/>
+      <c r="AA130" s="30"/>
+      <c r="AB130" s="58"/>
+      <c r="AC130" s="110"/>
+      <c r="AD130" s="111"/>
+      <c r="AE130" s="111"/>
+      <c r="AF130" s="111"/>
+      <c r="AG130" s="112"/>
+    </row>
+    <row r="131" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A131" s="29"/>
+      <c r="B131" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="C131" s="30"/>
+      <c r="D131" s="30"/>
+      <c r="E131" s="30"/>
+      <c r="F131" s="58"/>
+      <c r="G131" s="30"/>
+      <c r="H131" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="I131" s="30"/>
+      <c r="J131" s="30"/>
+      <c r="K131" s="30"/>
+      <c r="L131" s="30"/>
+      <c r="M131" s="30"/>
+      <c r="N131" s="30"/>
+      <c r="O131" s="30"/>
+      <c r="P131" s="30"/>
+      <c r="Q131" s="30"/>
+      <c r="R131" s="30"/>
+      <c r="S131" s="30"/>
+      <c r="T131" s="30"/>
+      <c r="U131" s="32"/>
+      <c r="V131" s="30"/>
+      <c r="W131" s="30"/>
+      <c r="X131" s="30"/>
+      <c r="Y131" s="30"/>
+      <c r="Z131" s="32"/>
+      <c r="AA131" s="30"/>
+      <c r="AB131" s="58"/>
+      <c r="AC131" s="110"/>
+      <c r="AD131" s="111"/>
+      <c r="AE131" s="111"/>
+      <c r="AF131" s="111"/>
+      <c r="AG131" s="112"/>
+    </row>
+    <row r="132" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A132" s="29"/>
+      <c r="B132" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="C132" s="30"/>
+      <c r="D132" s="30"/>
+      <c r="E132" s="30"/>
+      <c r="F132" s="58"/>
+      <c r="G132" s="30"/>
+      <c r="H132" s="30" t="s">
+        <v>261</v>
+      </c>
+      <c r="I132" s="30"/>
+      <c r="J132" s="30"/>
+      <c r="K132" s="30"/>
+      <c r="L132" s="30"/>
+      <c r="M132" s="30"/>
+      <c r="N132" s="30"/>
+      <c r="O132" s="30"/>
+      <c r="P132" s="30"/>
+      <c r="Q132" s="30"/>
+      <c r="R132" s="30"/>
+      <c r="S132" s="30"/>
+      <c r="T132" s="30"/>
+      <c r="U132" s="32"/>
+      <c r="V132" s="30"/>
+      <c r="W132" s="30"/>
+      <c r="X132" s="30"/>
+      <c r="Y132" s="30"/>
+      <c r="Z132" s="32"/>
+      <c r="AA132" s="30"/>
+      <c r="AB132" s="58"/>
+      <c r="AC132" s="110"/>
+      <c r="AD132" s="111"/>
+      <c r="AE132" s="111"/>
+      <c r="AF132" s="111"/>
+      <c r="AG132" s="112"/>
+    </row>
+    <row r="133" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A133" s="29"/>
+      <c r="B133" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="C133" s="30"/>
+      <c r="D133" s="30"/>
+      <c r="E133" s="30"/>
+      <c r="F133" s="58"/>
+      <c r="G133" s="30"/>
+      <c r="H133" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="I133" s="30"/>
+      <c r="J133" s="30"/>
+      <c r="K133" s="30"/>
+      <c r="L133" s="30"/>
+      <c r="M133" s="30"/>
+      <c r="N133" s="30"/>
+      <c r="O133" s="30"/>
+      <c r="P133" s="30"/>
+      <c r="Q133" s="30"/>
+      <c r="R133" s="30"/>
+      <c r="S133" s="30"/>
+      <c r="T133" s="30"/>
+      <c r="U133" s="32"/>
+      <c r="V133" s="30"/>
+      <c r="W133" s="30"/>
+      <c r="X133" s="30"/>
+      <c r="Y133" s="30"/>
+      <c r="Z133" s="32"/>
+      <c r="AA133" s="30"/>
+      <c r="AB133" s="58"/>
+      <c r="AC133" s="110"/>
+      <c r="AD133" s="111"/>
+      <c r="AE133" s="111"/>
+      <c r="AF133" s="111"/>
+      <c r="AG133" s="112"/>
+    </row>
+    <row r="134" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A134" s="29"/>
+      <c r="B134" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="C134" s="30"/>
+      <c r="D134" s="30"/>
+      <c r="E134" s="30"/>
+      <c r="F134" s="58"/>
+      <c r="G134" s="30"/>
+      <c r="H134" s="30" t="s">
+        <v>162</v>
+      </c>
+      <c r="I134" s="30"/>
+      <c r="J134" s="30"/>
+      <c r="K134" s="30"/>
+      <c r="L134" s="30"/>
+      <c r="M134" s="30"/>
+      <c r="N134" s="30"/>
+      <c r="O134" s="30"/>
+      <c r="P134" s="30"/>
+      <c r="Q134" s="30"/>
+      <c r="R134" s="30"/>
+      <c r="S134" s="30"/>
+      <c r="T134" s="30"/>
+      <c r="U134" s="32"/>
+      <c r="V134" s="30"/>
+      <c r="W134" s="30"/>
+      <c r="X134" s="30"/>
+      <c r="Y134" s="30"/>
+      <c r="Z134" s="32"/>
+      <c r="AA134" s="30"/>
+      <c r="AB134" s="58"/>
+      <c r="AC134" s="110"/>
+      <c r="AD134" s="111"/>
+      <c r="AE134" s="111"/>
+      <c r="AF134" s="111"/>
+      <c r="AG134" s="112"/>
+    </row>
+    <row r="135" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A135" s="29"/>
+      <c r="B135" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="C135" s="30"/>
+      <c r="D135" s="30"/>
+      <c r="E135" s="30"/>
+      <c r="F135" s="58"/>
+      <c r="G135" s="30"/>
+      <c r="H135" s="30" t="s">
+        <v>164</v>
+      </c>
+      <c r="I135" s="30"/>
+      <c r="J135" s="30"/>
+      <c r="K135" s="30"/>
+      <c r="L135" s="30"/>
+      <c r="M135" s="30"/>
+      <c r="N135" s="30"/>
+      <c r="O135" s="30"/>
+      <c r="P135" s="30"/>
+      <c r="Q135" s="30"/>
+      <c r="R135" s="30"/>
+      <c r="S135" s="30"/>
+      <c r="T135" s="30"/>
+      <c r="U135" s="32"/>
+      <c r="V135" s="30"/>
+      <c r="W135" s="30"/>
+      <c r="X135" s="30"/>
+      <c r="Y135" s="30"/>
+      <c r="Z135" s="32"/>
+      <c r="AA135" s="30"/>
+      <c r="AB135" s="58"/>
+      <c r="AC135" s="110"/>
+      <c r="AD135" s="111"/>
+      <c r="AE135" s="111"/>
+      <c r="AF135" s="111"/>
+      <c r="AG135" s="112"/>
+    </row>
+    <row r="136" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A136" s="29"/>
+      <c r="B136" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="C136" s="30"/>
+      <c r="D136" s="30"/>
+      <c r="E136" s="30"/>
+      <c r="F136" s="58"/>
+      <c r="G136" s="30"/>
+      <c r="H136" s="30" t="s">
+        <v>262</v>
+      </c>
+      <c r="I136" s="30"/>
+      <c r="J136" s="30"/>
+      <c r="K136" s="30"/>
+      <c r="L136" s="30"/>
+      <c r="M136" s="30"/>
+      <c r="N136" s="30"/>
+      <c r="O136" s="30"/>
+      <c r="P136" s="30"/>
+      <c r="Q136" s="30"/>
+      <c r="R136" s="30"/>
+      <c r="S136" s="30"/>
+      <c r="T136" s="30"/>
+      <c r="U136" s="32"/>
+      <c r="V136" s="30"/>
+      <c r="W136" s="30"/>
+      <c r="X136" s="30"/>
+      <c r="Y136" s="30"/>
+      <c r="Z136" s="32"/>
+      <c r="AA136" s="30"/>
+      <c r="AB136" s="58"/>
+      <c r="AC136" s="110"/>
+      <c r="AD136" s="111"/>
+      <c r="AE136" s="111"/>
+      <c r="AF136" s="111"/>
+      <c r="AG136" s="112"/>
+    </row>
+    <row r="137" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A137" s="29"/>
+      <c r="B137" s="30"/>
+      <c r="C137" s="30" t="s">
+        <v>263</v>
+      </c>
+      <c r="D137" s="30"/>
+      <c r="E137" s="30"/>
+      <c r="F137" s="58"/>
+      <c r="G137" s="30"/>
+      <c r="H137" s="30"/>
+      <c r="I137" s="30" t="s">
+        <v>264</v>
+      </c>
+      <c r="J137" s="30"/>
+      <c r="K137" s="30"/>
+      <c r="L137" s="30"/>
+      <c r="M137" s="30"/>
+      <c r="N137" s="30"/>
+      <c r="O137" s="30"/>
+      <c r="P137" s="30"/>
+      <c r="Q137" s="30"/>
+      <c r="R137" s="30"/>
+      <c r="S137" s="30"/>
+      <c r="T137" s="30"/>
+      <c r="U137" s="32"/>
+      <c r="V137" s="30"/>
+      <c r="W137" s="30"/>
+      <c r="X137" s="30"/>
+      <c r="Y137" s="30"/>
+      <c r="Z137" s="32"/>
+      <c r="AA137" s="30"/>
+      <c r="AB137" s="58"/>
+      <c r="AC137" s="110"/>
+      <c r="AD137" s="111"/>
+      <c r="AE137" s="111"/>
+      <c r="AF137" s="111"/>
+      <c r="AG137" s="112"/>
+    </row>
+    <row r="138" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A138" s="29"/>
+      <c r="B138" s="30"/>
+      <c r="C138" s="30" t="s">
+        <v>265</v>
+      </c>
+      <c r="D138" s="30"/>
+      <c r="E138" s="30"/>
+      <c r="F138" s="58"/>
+      <c r="G138" s="30"/>
+      <c r="H138" s="30"/>
+      <c r="I138" s="30" t="s">
+        <v>266</v>
+      </c>
+      <c r="J138" s="30"/>
+      <c r="K138" s="30"/>
+      <c r="L138" s="30"/>
+      <c r="M138" s="30"/>
+      <c r="N138" s="30"/>
+      <c r="O138" s="30"/>
+      <c r="P138" s="30"/>
+      <c r="Q138" s="30"/>
+      <c r="R138" s="30"/>
+      <c r="S138" s="30"/>
+      <c r="T138" s="30"/>
+      <c r="U138" s="32"/>
+      <c r="V138" s="30"/>
+      <c r="W138" s="30"/>
+      <c r="X138" s="30"/>
+      <c r="Y138" s="30"/>
+      <c r="Z138" s="32"/>
+      <c r="AA138" s="30"/>
+      <c r="AB138" s="58"/>
+      <c r="AC138" s="110"/>
+      <c r="AD138" s="111"/>
+      <c r="AE138" s="111"/>
+      <c r="AF138" s="111"/>
+      <c r="AG138" s="112"/>
+    </row>
+    <row r="139" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A139" s="29"/>
+      <c r="B139" s="30"/>
+      <c r="C139" s="30"/>
+      <c r="D139" s="30"/>
+      <c r="E139" s="30"/>
+      <c r="F139" s="58"/>
+      <c r="G139" s="30"/>
+      <c r="H139" s="30" t="s">
+        <v>267</v>
+      </c>
+      <c r="I139" s="30"/>
+      <c r="J139" s="30"/>
+      <c r="K139" s="30"/>
+      <c r="L139" s="30"/>
+      <c r="M139" s="30"/>
+      <c r="N139" s="30"/>
+      <c r="O139" s="30"/>
+      <c r="P139" s="30"/>
+      <c r="Q139" s="30"/>
+      <c r="R139" s="30"/>
+      <c r="S139" s="30"/>
+      <c r="T139" s="30"/>
+      <c r="U139" s="32"/>
+      <c r="V139" s="30"/>
+      <c r="W139" s="30"/>
+      <c r="X139" s="30"/>
+      <c r="Y139" s="30"/>
+      <c r="Z139" s="32"/>
+      <c r="AA139" s="30"/>
+      <c r="AB139" s="58"/>
+      <c r="AC139" s="110"/>
+      <c r="AD139" s="111"/>
+      <c r="AE139" s="111"/>
+      <c r="AF139" s="111"/>
+      <c r="AG139" s="112"/>
+    </row>
+    <row r="140" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A140" s="29"/>
+      <c r="B140" s="30"/>
+      <c r="C140" s="30"/>
+      <c r="D140" s="30"/>
+      <c r="E140" s="30"/>
+      <c r="F140" s="58"/>
+      <c r="G140" s="30"/>
+      <c r="H140" s="30"/>
+      <c r="I140" s="30" t="s">
+        <v>268</v>
+      </c>
+      <c r="J140" s="30"/>
+      <c r="K140" s="30"/>
+      <c r="L140" s="30"/>
+      <c r="M140" s="30"/>
+      <c r="N140" s="30"/>
+      <c r="O140" s="30"/>
+      <c r="P140" s="30"/>
+      <c r="Q140" s="30"/>
+      <c r="R140" s="30"/>
+      <c r="S140" s="30"/>
+      <c r="T140" s="30"/>
+      <c r="U140" s="32"/>
+      <c r="V140" s="30"/>
+      <c r="W140" s="30"/>
+      <c r="X140" s="30"/>
+      <c r="Y140" s="30"/>
+      <c r="Z140" s="32"/>
+      <c r="AA140" s="30"/>
+      <c r="AB140" s="58"/>
+      <c r="AC140" s="110"/>
+      <c r="AD140" s="111"/>
+      <c r="AE140" s="111"/>
+      <c r="AF140" s="111"/>
+      <c r="AG140" s="112"/>
+    </row>
+    <row r="141" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A141" s="29" t="s">
+        <v>258</v>
+      </c>
+      <c r="B141" s="30"/>
+      <c r="C141" s="30"/>
+      <c r="D141" s="30"/>
+      <c r="E141" s="30"/>
+      <c r="F141" s="58"/>
+      <c r="G141" s="30" t="s">
+        <v>269</v>
+      </c>
+      <c r="H141" s="30"/>
+      <c r="I141" s="30"/>
+      <c r="J141" s="30"/>
+      <c r="K141" s="30"/>
+      <c r="L141" s="30"/>
+      <c r="M141" s="30"/>
+      <c r="N141" s="30"/>
+      <c r="O141" s="30"/>
+      <c r="P141" s="30"/>
+      <c r="Q141" s="30"/>
+      <c r="R141" s="30"/>
+      <c r="S141" s="30"/>
+      <c r="T141" s="30"/>
+      <c r="U141" s="32"/>
+      <c r="V141" s="30"/>
+      <c r="W141" s="30"/>
+      <c r="X141" s="30"/>
+      <c r="Y141" s="30"/>
+      <c r="Z141" s="32"/>
+      <c r="AA141" s="30"/>
+      <c r="AB141" s="58"/>
+      <c r="AC141" s="110"/>
+      <c r="AD141" s="111"/>
+      <c r="AE141" s="111"/>
+      <c r="AF141" s="111"/>
+      <c r="AG141" s="112"/>
+    </row>
+    <row r="142" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A142" s="29"/>
+      <c r="B142" s="30"/>
+      <c r="C142" s="30"/>
+      <c r="D142" s="30"/>
+      <c r="E142" s="30"/>
+      <c r="F142" s="58"/>
+      <c r="G142" s="30"/>
+      <c r="H142" s="30" t="s">
+        <v>270</v>
+      </c>
+      <c r="I142" s="30"/>
+      <c r="J142" s="30"/>
+      <c r="K142" s="30"/>
+      <c r="L142" s="30"/>
+      <c r="M142" s="30"/>
+      <c r="N142" s="30"/>
+      <c r="O142" s="30"/>
+      <c r="P142" s="30"/>
+      <c r="Q142" s="30"/>
+      <c r="R142" s="30"/>
+      <c r="S142" s="30"/>
+      <c r="T142" s="30"/>
+      <c r="U142" s="32"/>
+      <c r="V142" s="30"/>
+      <c r="W142" s="30"/>
+      <c r="X142" s="30"/>
+      <c r="Y142" s="30"/>
+      <c r="Z142" s="32"/>
+      <c r="AA142" s="30"/>
+      <c r="AB142" s="58"/>
+      <c r="AC142" s="110"/>
+      <c r="AD142" s="111"/>
+      <c r="AE142" s="111"/>
+      <c r="AF142" s="111"/>
+      <c r="AG142" s="112"/>
+    </row>
+    <row r="143" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A143" s="29" t="s">
+        <v>271</v>
+      </c>
+      <c r="B143" s="30"/>
+      <c r="C143" s="30"/>
+      <c r="D143" s="30"/>
+      <c r="E143" s="30"/>
+      <c r="F143" s="58"/>
+      <c r="G143" s="30" t="s">
+        <v>272</v>
+      </c>
+      <c r="H143" s="30"/>
+      <c r="I143" s="30"/>
+      <c r="J143" s="30"/>
+      <c r="K143" s="30"/>
+      <c r="L143" s="30"/>
+      <c r="M143" s="30"/>
+      <c r="N143" s="30"/>
+      <c r="O143" s="30"/>
+      <c r="P143" s="30"/>
+      <c r="Q143" s="30"/>
+      <c r="R143" s="30"/>
+      <c r="S143" s="30"/>
+      <c r="T143" s="30"/>
+      <c r="U143" s="32"/>
+      <c r="V143" s="30"/>
+      <c r="W143" s="30"/>
+      <c r="X143" s="30"/>
+      <c r="Y143" s="30"/>
+      <c r="Z143" s="32"/>
+      <c r="AA143" s="30"/>
+      <c r="AB143" s="58"/>
+      <c r="AC143" s="110"/>
+      <c r="AD143" s="111"/>
+      <c r="AE143" s="111"/>
+      <c r="AF143" s="111"/>
+      <c r="AG143" s="112"/>
+    </row>
+    <row r="144" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A144" s="29" t="s">
+        <v>273</v>
+      </c>
+      <c r="B144" s="30"/>
+      <c r="C144" s="30"/>
+      <c r="D144" s="30"/>
+      <c r="E144" s="30"/>
+      <c r="F144" s="58"/>
+      <c r="G144" s="30" t="s">
+        <v>274</v>
+      </c>
+      <c r="H144" s="30"/>
+      <c r="I144" s="30"/>
+      <c r="J144" s="30"/>
+      <c r="K144" s="30"/>
+      <c r="L144" s="30"/>
+      <c r="M144" s="30"/>
+      <c r="N144" s="30"/>
+      <c r="O144" s="30"/>
+      <c r="P144" s="30"/>
+      <c r="Q144" s="30"/>
+      <c r="R144" s="30"/>
+      <c r="S144" s="30"/>
+      <c r="T144" s="30"/>
+      <c r="U144" s="32"/>
+      <c r="V144" s="30"/>
+      <c r="W144" s="30"/>
+      <c r="X144" s="30"/>
+      <c r="Y144" s="30"/>
+      <c r="Z144" s="32"/>
+      <c r="AA144" s="30"/>
+      <c r="AB144" s="58"/>
+      <c r="AC144" s="110"/>
+      <c r="AD144" s="111"/>
+      <c r="AE144" s="111"/>
+      <c r="AF144" s="111"/>
+      <c r="AG144" s="112"/>
+    </row>
+    <row r="145" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A145" s="29"/>
+      <c r="B145" s="30"/>
+      <c r="C145" s="30"/>
+      <c r="D145" s="30"/>
+      <c r="E145" s="30"/>
+      <c r="F145" s="58"/>
+      <c r="G145" s="30"/>
+      <c r="H145" s="30"/>
+      <c r="I145" s="30"/>
+      <c r="J145" s="30"/>
+      <c r="K145" s="30"/>
+      <c r="L145" s="30"/>
+      <c r="M145" s="30"/>
+      <c r="N145" s="30"/>
+      <c r="O145" s="30"/>
+      <c r="P145" s="30"/>
+      <c r="Q145" s="30"/>
+      <c r="R145" s="30"/>
+      <c r="S145" s="30"/>
+      <c r="T145" s="30"/>
+      <c r="U145" s="32"/>
+      <c r="V145" s="30"/>
+      <c r="W145" s="30"/>
+      <c r="X145" s="30"/>
+      <c r="Y145" s="30"/>
+      <c r="Z145" s="32"/>
+      <c r="AA145" s="30"/>
+      <c r="AB145" s="58"/>
+      <c r="AC145" s="110"/>
+      <c r="AD145" s="111"/>
+      <c r="AE145" s="111"/>
+      <c r="AF145" s="111"/>
+      <c r="AG145" s="112"/>
+    </row>
+    <row r="146" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A146" s="152" t="s">
+        <v>166</v>
+      </c>
+      <c r="B146" s="153"/>
+      <c r="C146" s="153"/>
+      <c r="D146" s="153"/>
+      <c r="E146" s="153"/>
+      <c r="F146" s="153"/>
+      <c r="G146" s="153"/>
+      <c r="H146" s="153"/>
+      <c r="I146" s="153"/>
+      <c r="J146" s="153"/>
+      <c r="K146" s="153"/>
+      <c r="L146" s="153"/>
+      <c r="M146" s="153"/>
+      <c r="N146" s="153"/>
+      <c r="O146" s="153"/>
+      <c r="P146" s="153"/>
+      <c r="Q146" s="153"/>
+      <c r="R146" s="153"/>
+      <c r="S146" s="153"/>
+      <c r="T146" s="153"/>
+      <c r="U146" s="153"/>
+      <c r="V146" s="153"/>
+      <c r="W146" s="153"/>
+      <c r="X146" s="153"/>
+      <c r="Y146" s="153"/>
+      <c r="Z146" s="153"/>
+      <c r="AA146" s="153"/>
+      <c r="AB146" s="153"/>
+      <c r="AC146" s="153"/>
+      <c r="AD146" s="153"/>
+      <c r="AE146" s="153"/>
+      <c r="AF146" s="153"/>
+      <c r="AG146" s="154"/>
+    </row>
+    <row r="147" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A147" s="117" t="s">
+        <v>16</v>
+      </c>
+      <c r="B147" s="118"/>
+      <c r="C147" s="118"/>
+      <c r="D147" s="118"/>
+      <c r="E147" s="118"/>
+      <c r="F147" s="119"/>
+      <c r="G147" s="117" t="s">
+        <v>17</v>
+      </c>
+      <c r="H147" s="118"/>
+      <c r="I147" s="118"/>
+      <c r="J147" s="118"/>
+      <c r="K147" s="118"/>
+      <c r="L147" s="118"/>
+      <c r="M147" s="118"/>
+      <c r="N147" s="118"/>
+      <c r="O147" s="118"/>
+      <c r="P147" s="118"/>
+      <c r="Q147" s="118"/>
+      <c r="R147" s="118"/>
+      <c r="S147" s="118"/>
+      <c r="T147" s="118"/>
+      <c r="U147" s="118"/>
+      <c r="V147" s="118"/>
+      <c r="W147" s="118"/>
+      <c r="X147" s="118"/>
+      <c r="Y147" s="118"/>
+      <c r="Z147" s="118"/>
+      <c r="AA147" s="118"/>
+      <c r="AB147" s="118"/>
+      <c r="AC147" s="119"/>
+      <c r="AD147" s="117" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE147" s="119"/>
+      <c r="AF147" s="117" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG147" s="119"/>
+    </row>
+    <row r="148" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A148" s="117" t="s">
+        <v>167</v>
+      </c>
+      <c r="B148" s="118"/>
+      <c r="C148" s="118"/>
+      <c r="D148" s="118"/>
+      <c r="E148" s="118"/>
+      <c r="F148" s="119"/>
+      <c r="G148" s="117" t="s">
+        <v>275</v>
+      </c>
+      <c r="H148" s="118"/>
+      <c r="I148" s="118"/>
+      <c r="J148" s="118"/>
+      <c r="K148" s="118"/>
+      <c r="L148" s="118"/>
+      <c r="M148" s="118"/>
+      <c r="N148" s="118"/>
+      <c r="O148" s="118"/>
+      <c r="P148" s="118"/>
+      <c r="Q148" s="118"/>
+      <c r="R148" s="118"/>
+      <c r="S148" s="118"/>
+      <c r="T148" s="118"/>
+      <c r="U148" s="118"/>
+      <c r="V148" s="118"/>
+      <c r="W148" s="118"/>
+      <c r="X148" s="118"/>
+      <c r="Y148" s="118"/>
+      <c r="Z148" s="118"/>
+      <c r="AA148" s="118"/>
+      <c r="AB148" s="118"/>
+      <c r="AC148" s="119"/>
+      <c r="AD148" s="117" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE148" s="119"/>
+      <c r="AF148" s="117" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG148" s="119"/>
+    </row>
+    <row r="149" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A149" s="107" t="s">
+        <v>168</v>
+      </c>
+      <c r="B149" s="108"/>
+      <c r="C149" s="108"/>
+      <c r="D149" s="108"/>
+      <c r="E149" s="108"/>
+      <c r="F149" s="109"/>
+      <c r="G149" s="107" t="s">
+        <v>169</v>
+      </c>
+      <c r="H149" s="108"/>
+      <c r="I149" s="108"/>
+      <c r="J149" s="108"/>
+      <c r="K149" s="108"/>
+      <c r="L149" s="108"/>
+      <c r="M149" s="108"/>
+      <c r="N149" s="108"/>
+      <c r="O149" s="108"/>
+      <c r="P149" s="108"/>
+      <c r="Q149" s="108"/>
+      <c r="R149" s="108"/>
+      <c r="S149" s="108"/>
+      <c r="T149" s="108"/>
+      <c r="U149" s="108"/>
+      <c r="V149" s="108"/>
+      <c r="W149" s="108"/>
+      <c r="X149" s="108"/>
+      <c r="Y149" s="108"/>
+      <c r="Z149" s="108"/>
+      <c r="AA149" s="108"/>
+      <c r="AB149" s="109"/>
+      <c r="AC149" s="107" t="s">
+        <v>170</v>
+      </c>
+      <c r="AD149" s="108"/>
+      <c r="AE149" s="108"/>
+      <c r="AF149" s="108"/>
+      <c r="AG149" s="109"/>
+    </row>
+    <row r="150" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A150" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="B150" s="30"/>
+      <c r="C150" s="30"/>
+      <c r="D150" s="30"/>
+      <c r="E150" s="30"/>
+      <c r="F150" s="31"/>
+      <c r="G150" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="H150" s="30"/>
+      <c r="I150" s="30"/>
+      <c r="J150" s="30"/>
+      <c r="K150" s="30"/>
+      <c r="L150" s="30"/>
+      <c r="M150" s="30"/>
+      <c r="N150" s="30"/>
+      <c r="O150" s="30"/>
+      <c r="P150" s="30"/>
+      <c r="Q150" s="30"/>
+      <c r="R150" s="30"/>
+      <c r="S150" s="30"/>
+      <c r="T150" s="30"/>
+      <c r="U150" s="30"/>
+      <c r="V150" s="30"/>
+      <c r="W150" s="30"/>
+      <c r="X150" s="30"/>
+      <c r="Y150" s="30"/>
+      <c r="Z150" s="30"/>
+      <c r="AA150" s="30"/>
+      <c r="AB150" s="31"/>
+      <c r="AC150" s="30"/>
+      <c r="AD150" s="30"/>
+      <c r="AE150" s="30"/>
+      <c r="AF150" s="30"/>
+      <c r="AG150" s="31"/>
+    </row>
+    <row r="151" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A151" s="29"/>
+      <c r="B151" s="30"/>
+      <c r="C151" s="30"/>
+      <c r="D151" s="30"/>
+      <c r="E151" s="30"/>
+      <c r="F151" s="58"/>
+      <c r="G151" s="32"/>
+      <c r="H151" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="I151" s="30"/>
+      <c r="J151" s="30"/>
+      <c r="K151" s="30"/>
+      <c r="L151" s="30"/>
+      <c r="M151" s="30"/>
+      <c r="N151" s="30"/>
+      <c r="O151" s="30"/>
+      <c r="P151" s="30"/>
+      <c r="Q151" s="30"/>
+      <c r="R151" s="30"/>
+      <c r="S151" s="30"/>
+      <c r="T151" s="30"/>
+      <c r="U151" s="32"/>
+      <c r="V151" s="30"/>
+      <c r="W151" s="30"/>
+      <c r="X151" s="30"/>
+      <c r="Y151" s="30"/>
+      <c r="Z151" s="32"/>
+      <c r="AA151" s="30"/>
+      <c r="AB151" s="58"/>
+      <c r="AC151" s="32"/>
+      <c r="AD151" s="30"/>
+      <c r="AE151" s="30"/>
+      <c r="AF151" s="30"/>
+      <c r="AG151" s="31"/>
+    </row>
+    <row r="152" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A152" s="29"/>
+      <c r="B152" s="30"/>
+      <c r="C152" s="30"/>
+      <c r="D152" s="30"/>
+      <c r="E152" s="30"/>
+      <c r="F152" s="58"/>
+      <c r="G152" s="32"/>
+      <c r="H152" s="30"/>
+      <c r="I152" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="J152" s="30"/>
+      <c r="K152" s="30"/>
+      <c r="L152" s="30"/>
+      <c r="M152" s="30"/>
+      <c r="N152" s="30"/>
+      <c r="O152" s="30"/>
+      <c r="P152" s="30"/>
+      <c r="Q152" s="30"/>
+      <c r="R152" s="30"/>
+      <c r="S152" s="30"/>
+      <c r="T152" s="30"/>
+      <c r="U152" s="32"/>
+      <c r="V152" s="30"/>
+      <c r="W152" s="30"/>
+      <c r="X152" s="30"/>
+      <c r="Y152" s="30"/>
+      <c r="Z152" s="32"/>
+      <c r="AA152" s="30"/>
+      <c r="AB152" s="58"/>
+      <c r="AC152" s="32"/>
+      <c r="AD152" s="30"/>
+      <c r="AE152" s="30"/>
+      <c r="AF152" s="30"/>
+      <c r="AG152" s="31"/>
+    </row>
+    <row r="153" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A153" s="29"/>
+      <c r="B153" s="30"/>
+      <c r="C153" s="30"/>
+      <c r="D153" s="30"/>
+      <c r="E153" s="30"/>
+      <c r="F153" s="58"/>
+      <c r="G153" s="32"/>
+      <c r="H153" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="I153" s="30"/>
+      <c r="J153" s="30"/>
+      <c r="K153" s="30"/>
+      <c r="L153" s="30"/>
+      <c r="M153" s="30"/>
+      <c r="N153" s="30"/>
+      <c r="O153" s="30"/>
+      <c r="P153" s="30"/>
+      <c r="Q153" s="30"/>
+      <c r="R153" s="30"/>
+      <c r="S153" s="30"/>
+      <c r="T153" s="30"/>
+      <c r="U153" s="32"/>
+      <c r="V153" s="30"/>
+      <c r="W153" s="30"/>
+      <c r="X153" s="30"/>
+      <c r="Y153" s="30"/>
+      <c r="Z153" s="32"/>
+      <c r="AA153" s="30"/>
+      <c r="AB153" s="58"/>
+      <c r="AC153" s="32"/>
+      <c r="AD153" s="30"/>
+      <c r="AE153" s="30"/>
+      <c r="AF153" s="30"/>
+      <c r="AG153" s="31"/>
+    </row>
+    <row r="154" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A154" s="29"/>
+      <c r="B154" s="30"/>
+      <c r="C154" s="30"/>
+      <c r="D154" s="30"/>
+      <c r="E154" s="30"/>
+      <c r="F154" s="58"/>
+      <c r="G154" s="32"/>
+      <c r="H154" s="30"/>
+      <c r="I154" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="J154" s="30"/>
+      <c r="K154" s="30"/>
+      <c r="L154" s="30"/>
+      <c r="M154" s="30"/>
+      <c r="N154" s="30"/>
+      <c r="O154" s="30"/>
+      <c r="P154" s="30"/>
+      <c r="Q154" s="30"/>
+      <c r="R154" s="30"/>
+      <c r="S154" s="30"/>
+      <c r="T154" s="30"/>
+      <c r="U154" s="32"/>
+      <c r="V154" s="30"/>
+      <c r="W154" s="30"/>
+      <c r="X154" s="30"/>
+      <c r="Y154" s="30"/>
+      <c r="Z154" s="32"/>
+      <c r="AA154" s="30"/>
+      <c r="AB154" s="58"/>
+      <c r="AC154" s="32"/>
+      <c r="AD154" s="30"/>
+      <c r="AE154" s="30"/>
+      <c r="AF154" s="30"/>
+      <c r="AG154" s="31"/>
+    </row>
+    <row r="155" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A155" s="29"/>
+      <c r="B155" s="30"/>
+      <c r="C155" s="30"/>
+      <c r="D155" s="30"/>
+      <c r="E155" s="30"/>
+      <c r="F155" s="58"/>
+      <c r="G155" s="32" t="s">
+        <v>193</v>
+      </c>
+      <c r="H155" s="30"/>
+      <c r="I155" s="30"/>
+      <c r="J155" s="30"/>
+      <c r="K155" s="30"/>
+      <c r="L155" s="30"/>
+      <c r="M155" s="30"/>
+      <c r="N155" s="30"/>
+      <c r="O155" s="30"/>
+      <c r="P155" s="30"/>
+      <c r="Q155" s="30"/>
+      <c r="R155" s="30"/>
+      <c r="S155" s="30"/>
+      <c r="T155" s="30"/>
+      <c r="U155" s="32"/>
+      <c r="V155" s="30"/>
+      <c r="W155" s="30"/>
+      <c r="X155" s="30"/>
+      <c r="Y155" s="30"/>
+      <c r="Z155" s="32"/>
+      <c r="AA155" s="30"/>
+      <c r="AB155" s="58"/>
+      <c r="AC155" s="32"/>
+      <c r="AD155" s="30"/>
+      <c r="AE155" s="30"/>
+      <c r="AF155" s="30"/>
+      <c r="AG155" s="31"/>
+    </row>
+    <row r="156" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A156" s="29"/>
+      <c r="B156" s="30"/>
+      <c r="C156" s="30"/>
+      <c r="D156" s="30"/>
+      <c r="E156" s="30"/>
+      <c r="F156" s="58"/>
+      <c r="G156" s="32"/>
+      <c r="H156" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="I156" s="30"/>
+      <c r="J156" s="30"/>
+      <c r="K156" s="30"/>
+      <c r="L156" s="30"/>
+      <c r="M156" s="30"/>
+      <c r="N156" s="30"/>
+      <c r="O156" s="30"/>
+      <c r="P156" s="30"/>
+      <c r="Q156" s="30"/>
+      <c r="R156" s="30"/>
+      <c r="S156" s="30"/>
+      <c r="T156" s="30"/>
+      <c r="U156" s="32"/>
+      <c r="V156" s="30"/>
+      <c r="W156" s="30"/>
+      <c r="X156" s="30"/>
+      <c r="Y156" s="30"/>
+      <c r="Z156" s="32"/>
+      <c r="AA156" s="30"/>
+      <c r="AB156" s="32"/>
+      <c r="AC156" s="12"/>
+      <c r="AD156" s="19"/>
+      <c r="AE156" s="19"/>
+      <c r="AF156" s="19"/>
+      <c r="AG156" s="19"/>
+    </row>
+    <row r="157" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A157" s="29" t="s">
+        <v>195</v>
+      </c>
+      <c r="B157" s="30"/>
+      <c r="C157" s="30"/>
+      <c r="D157" s="30"/>
+      <c r="E157" s="30"/>
+      <c r="F157" s="58"/>
+      <c r="G157" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="H157" s="30"/>
+      <c r="I157" s="30"/>
+      <c r="J157" s="30"/>
+      <c r="K157" s="30"/>
+      <c r="L157" s="30"/>
+      <c r="M157" s="30"/>
+      <c r="N157" s="30"/>
+      <c r="O157" s="30"/>
+      <c r="P157" s="30"/>
+      <c r="Q157" s="30"/>
+      <c r="R157" s="30"/>
+      <c r="S157" s="30"/>
+      <c r="T157" s="30"/>
+      <c r="U157" s="32"/>
+      <c r="V157" s="30"/>
+      <c r="W157" s="30"/>
+      <c r="X157" s="30"/>
+      <c r="Y157" s="30"/>
+      <c r="Z157" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="AA157" s="30"/>
+      <c r="AB157" s="32"/>
+      <c r="AC157" s="149" t="s">
+        <v>196</v>
+      </c>
+      <c r="AD157" s="150"/>
+      <c r="AE157" s="150"/>
+      <c r="AF157" s="150"/>
+      <c r="AG157" s="151"/>
+    </row>
+    <row r="158" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A158" s="29" t="s">
+        <v>197</v>
+      </c>
+      <c r="B158" s="30"/>
+      <c r="C158" s="30"/>
+      <c r="D158" s="30"/>
+      <c r="E158" s="30"/>
+      <c r="F158" s="58"/>
+      <c r="G158" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="H158" s="30"/>
+      <c r="I158" s="30"/>
+      <c r="J158" s="30"/>
+      <c r="K158" s="30"/>
+      <c r="L158" s="30"/>
+      <c r="M158" s="30"/>
+      <c r="N158" s="30"/>
+      <c r="O158" s="30"/>
+      <c r="P158" s="30"/>
+      <c r="Q158" s="30"/>
+      <c r="R158" s="30"/>
+      <c r="S158" s="30"/>
+      <c r="T158" s="30"/>
+      <c r="U158" s="32"/>
+      <c r="V158" s="30"/>
+      <c r="W158" s="30"/>
+      <c r="X158" s="30"/>
+      <c r="Y158" s="30"/>
+      <c r="Z158" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="AA158" s="30"/>
+      <c r="AB158" s="58"/>
+      <c r="AC158" s="149" t="s">
+        <v>196</v>
+      </c>
+      <c r="AD158" s="150"/>
+      <c r="AE158" s="150"/>
+      <c r="AF158" s="150"/>
+      <c r="AG158" s="151"/>
+    </row>
+    <row r="159" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A159" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="B159" s="30"/>
+      <c r="C159" s="30"/>
+      <c r="D159" s="30"/>
+      <c r="E159" s="30"/>
+      <c r="F159" s="58"/>
+      <c r="G159" s="32" t="s">
+        <v>146</v>
+      </c>
+      <c r="H159" s="30"/>
+      <c r="I159" s="30"/>
+      <c r="J159" s="30"/>
+      <c r="K159" s="30"/>
+      <c r="L159" s="30"/>
+      <c r="M159" s="30"/>
+      <c r="N159" s="30"/>
+      <c r="O159" s="30"/>
+      <c r="P159" s="30"/>
+      <c r="Q159" s="30"/>
+      <c r="R159" s="30"/>
+      <c r="S159" s="30"/>
+      <c r="T159" s="30"/>
+      <c r="U159" s="32"/>
+      <c r="V159" s="30"/>
+      <c r="W159" s="30"/>
+      <c r="X159" s="30"/>
+      <c r="Y159" s="30"/>
+      <c r="Z159" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="AA159" s="30"/>
+      <c r="AB159" s="58"/>
+      <c r="AC159" s="149" t="s">
+        <v>196</v>
+      </c>
+      <c r="AD159" s="150"/>
+      <c r="AE159" s="150"/>
+      <c r="AF159" s="150"/>
+      <c r="AG159" s="151"/>
+    </row>
+    <row r="160" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A160" s="29" t="s">
+        <v>199</v>
+      </c>
+      <c r="B160" s="30"/>
+      <c r="C160" s="30"/>
+      <c r="D160" s="30"/>
+      <c r="E160" s="30"/>
+      <c r="F160" s="58"/>
+      <c r="G160" s="32" t="s">
+        <v>146</v>
+      </c>
+      <c r="H160" s="30"/>
+      <c r="I160" s="30"/>
+      <c r="J160" s="30"/>
+      <c r="K160" s="30"/>
+      <c r="L160" s="30"/>
+      <c r="M160" s="30"/>
+      <c r="N160" s="30"/>
+      <c r="O160" s="30"/>
+      <c r="P160" s="30"/>
+      <c r="Q160" s="30"/>
+      <c r="R160" s="30"/>
+      <c r="S160" s="30"/>
+      <c r="T160" s="30"/>
+      <c r="U160" s="32"/>
+      <c r="V160" s="30"/>
+      <c r="W160" s="30"/>
+      <c r="X160" s="30"/>
+      <c r="Y160" s="30"/>
+      <c r="Z160" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="AA160" s="30"/>
+      <c r="AB160" s="58"/>
+      <c r="AC160" s="149" t="s">
+        <v>196</v>
+      </c>
+      <c r="AD160" s="150"/>
+      <c r="AE160" s="150"/>
+      <c r="AF160" s="150"/>
+      <c r="AG160" s="151"/>
+    </row>
+    <row r="161" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A161" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="B161" s="30"/>
+      <c r="C161" s="30"/>
+      <c r="D161" s="30"/>
+      <c r="E161" s="30"/>
+      <c r="F161" s="31"/>
+      <c r="G161" s="30" t="s">
+        <v>200</v>
+      </c>
+      <c r="H161" s="30"/>
+      <c r="I161" s="30"/>
+      <c r="J161" s="30"/>
+      <c r="K161" s="30"/>
+      <c r="L161" s="30"/>
+      <c r="M161" s="30"/>
+      <c r="N161" s="30"/>
+      <c r="O161" s="30"/>
+      <c r="P161" s="30"/>
+      <c r="Q161" s="30"/>
+      <c r="R161" s="30"/>
+      <c r="S161" s="30"/>
+      <c r="T161" s="30"/>
+      <c r="U161" s="30"/>
+      <c r="V161" s="30"/>
+      <c r="W161" s="30" t="s">
+        <v>201</v>
+      </c>
+      <c r="X161" s="30"/>
+      <c r="Y161" s="30"/>
+      <c r="AA161" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="AB161" s="58"/>
+      <c r="AC161" s="149" t="s">
+        <v>196</v>
+      </c>
+      <c r="AD161" s="150"/>
+      <c r="AE161" s="150"/>
+      <c r="AF161" s="150"/>
+      <c r="AG161" s="151"/>
+    </row>
+    <row r="162" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A162" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="B162" s="30"/>
+      <c r="C162" s="30"/>
+      <c r="D162" s="30"/>
+      <c r="E162" s="30"/>
+      <c r="F162" s="31"/>
+      <c r="G162" s="30" t="s">
+        <v>202</v>
+      </c>
+      <c r="H162" s="30"/>
+      <c r="I162" s="30"/>
+      <c r="J162" s="30"/>
+      <c r="K162" s="30"/>
+      <c r="L162" s="30"/>
+      <c r="M162" s="30"/>
+      <c r="N162" s="30"/>
+      <c r="O162" s="30"/>
+      <c r="P162" s="30"/>
+      <c r="Q162" s="30"/>
+      <c r="R162" s="30"/>
+      <c r="S162" s="30"/>
+      <c r="T162" s="30"/>
+      <c r="U162" s="30"/>
+      <c r="V162" s="30"/>
+      <c r="W162" s="30"/>
+      <c r="X162" s="30"/>
+      <c r="Y162" s="30"/>
+      <c r="Z162" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="AA162" s="30"/>
+      <c r="AB162" s="58"/>
+      <c r="AC162" s="149" t="s">
+        <v>196</v>
+      </c>
+      <c r="AD162" s="150"/>
+      <c r="AE162" s="150"/>
+      <c r="AF162" s="150"/>
+      <c r="AG162" s="151"/>
+    </row>
+    <row r="163" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A163" s="29" t="s">
+        <v>203</v>
+      </c>
+      <c r="B163" s="30"/>
+      <c r="C163" s="30"/>
+      <c r="D163" s="30"/>
+      <c r="E163" s="30"/>
+      <c r="F163" s="31"/>
+      <c r="G163" s="30" t="s">
+        <v>204</v>
+      </c>
+      <c r="H163" s="30"/>
+      <c r="I163" s="30"/>
+      <c r="J163" s="30"/>
+      <c r="K163" s="30"/>
+      <c r="L163" s="30"/>
+      <c r="M163" s="30"/>
+      <c r="N163" s="30"/>
+      <c r="O163" s="30"/>
+      <c r="P163" s="30"/>
+      <c r="Q163" s="30"/>
+      <c r="R163" s="30"/>
+      <c r="S163" s="30"/>
+      <c r="T163" s="30"/>
+      <c r="U163" s="30"/>
+      <c r="V163" s="30"/>
+      <c r="W163" s="30"/>
+      <c r="X163" s="30"/>
+      <c r="Y163" s="30"/>
+      <c r="Z163" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="AA163" s="30"/>
+      <c r="AB163" s="58"/>
+      <c r="AC163" s="149" t="s">
+        <v>196</v>
+      </c>
+      <c r="AD163" s="150"/>
+      <c r="AE163" s="150"/>
+      <c r="AF163" s="150"/>
+      <c r="AG163" s="151"/>
+    </row>
+    <row r="164" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A164" s="29" t="s">
+        <v>205</v>
+      </c>
+      <c r="B164" s="30"/>
+      <c r="C164" s="30"/>
+      <c r="D164" s="30"/>
+      <c r="E164" s="30"/>
+      <c r="F164" s="31"/>
+      <c r="G164" s="30" t="s">
+        <v>206</v>
+      </c>
+      <c r="H164" s="30"/>
+      <c r="I164" s="30"/>
+      <c r="J164" s="30"/>
+      <c r="K164" s="30"/>
+      <c r="L164" s="30"/>
+      <c r="M164" s="30"/>
+      <c r="N164" s="30"/>
+      <c r="O164" s="30"/>
+      <c r="P164" s="30"/>
+      <c r="Q164" s="30"/>
+      <c r="R164" s="30"/>
+      <c r="S164" s="30"/>
+      <c r="T164" s="30"/>
+      <c r="U164" s="30"/>
+      <c r="V164" s="30"/>
+      <c r="W164" s="30"/>
+      <c r="X164" s="30"/>
+      <c r="Y164" s="30"/>
+      <c r="Z164" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="AA164" s="30"/>
+      <c r="AB164" s="58"/>
+      <c r="AC164" s="149" t="s">
+        <v>196</v>
+      </c>
+      <c r="AD164" s="150"/>
+      <c r="AE164" s="150"/>
+      <c r="AF164" s="150"/>
+      <c r="AG164" s="151"/>
+    </row>
+    <row r="165" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A165" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="B165" s="30"/>
+      <c r="C165" s="30"/>
+      <c r="D165" s="30"/>
+      <c r="E165" s="30"/>
+      <c r="F165" s="31"/>
+      <c r="G165" s="29" t="s">
+        <v>208</v>
+      </c>
+      <c r="H165" s="30"/>
+      <c r="I165" s="32"/>
+      <c r="J165" s="30"/>
+      <c r="K165" s="30"/>
+      <c r="L165" s="30"/>
+      <c r="M165" s="30"/>
+      <c r="N165" s="30"/>
+      <c r="O165" s="30"/>
+      <c r="P165" s="30"/>
+      <c r="Q165" s="30"/>
+      <c r="R165" s="30"/>
+      <c r="S165" s="30"/>
+      <c r="T165" s="30"/>
+      <c r="U165" s="30"/>
+      <c r="V165" s="30"/>
+      <c r="W165" s="30"/>
+      <c r="X165" s="30"/>
+      <c r="Y165" s="30"/>
+      <c r="Z165" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="AA165" s="30"/>
+      <c r="AB165" s="31"/>
+      <c r="AC165" s="149" t="s">
+        <v>196</v>
+      </c>
+      <c r="AD165" s="150"/>
+      <c r="AE165" s="150"/>
+      <c r="AF165" s="150"/>
+      <c r="AG165" s="151"/>
+    </row>
+    <row r="166" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A166" s="29" t="s">
+        <v>209</v>
+      </c>
+      <c r="B166" s="30"/>
+      <c r="C166" s="30"/>
+      <c r="D166" s="30"/>
+      <c r="E166" s="30"/>
+      <c r="F166" s="58"/>
+      <c r="G166" s="30" t="s">
+        <v>210</v>
+      </c>
+      <c r="H166" s="30"/>
+      <c r="I166" s="30"/>
+      <c r="J166" s="30"/>
+      <c r="K166" s="30"/>
+      <c r="L166" s="30"/>
+      <c r="M166" s="30"/>
+      <c r="N166" s="30"/>
+      <c r="O166" s="30"/>
+      <c r="P166" s="30"/>
+      <c r="Q166" s="30"/>
+      <c r="R166" s="30"/>
+      <c r="S166" s="30"/>
+      <c r="T166" s="30"/>
+      <c r="U166" s="30"/>
+      <c r="V166" s="30"/>
+      <c r="W166" s="30"/>
+      <c r="X166" s="30"/>
+      <c r="Y166" s="30"/>
+      <c r="Z166" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="AA166" s="30"/>
+      <c r="AB166" s="31"/>
+      <c r="AC166" s="149" t="s">
+        <v>196</v>
+      </c>
+      <c r="AD166" s="150"/>
+      <c r="AE166" s="150"/>
+      <c r="AF166" s="150"/>
+      <c r="AG166" s="151"/>
+    </row>
+    <row r="167" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A167" s="29" t="s">
+        <v>211</v>
+      </c>
+      <c r="B167" s="30"/>
+      <c r="C167" s="30"/>
+      <c r="D167" s="30"/>
+      <c r="E167" s="30"/>
+      <c r="F167" s="31"/>
+      <c r="G167" s="30" t="s">
+        <v>210</v>
+      </c>
+      <c r="H167" s="30"/>
+      <c r="I167" s="30"/>
+      <c r="J167" s="30"/>
+      <c r="K167" s="30"/>
+      <c r="L167" s="30"/>
+      <c r="M167" s="30"/>
+      <c r="N167" s="30"/>
+      <c r="O167" s="30"/>
+      <c r="P167" s="30"/>
+      <c r="Q167" s="30"/>
+      <c r="R167" s="30"/>
+      <c r="S167" s="30"/>
+      <c r="T167" s="30"/>
+      <c r="U167" s="30"/>
+      <c r="V167" s="30"/>
+      <c r="W167" s="30"/>
+      <c r="X167" s="30"/>
+      <c r="Y167" s="30"/>
+      <c r="Z167" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="AA167" s="30"/>
+      <c r="AB167" s="31"/>
+      <c r="AC167" s="149" t="s">
+        <v>196</v>
+      </c>
+      <c r="AD167" s="150"/>
+      <c r="AE167" s="150"/>
+      <c r="AF167" s="150"/>
+      <c r="AG167" s="151"/>
+    </row>
+    <row r="168" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A168" s="29" t="s">
+        <v>212</v>
+      </c>
+      <c r="B168" s="30"/>
+      <c r="C168" s="30"/>
+      <c r="D168" s="30"/>
+      <c r="E168" s="30"/>
+      <c r="F168" s="31"/>
+      <c r="G168" s="29" t="s">
+        <v>208</v>
+      </c>
+      <c r="H168" s="30"/>
+      <c r="I168" s="30"/>
+      <c r="J168" s="30"/>
+      <c r="K168" s="30"/>
+      <c r="L168" s="30"/>
+      <c r="M168" s="30"/>
+      <c r="N168" s="30"/>
+      <c r="O168" s="30"/>
+      <c r="P168" s="30"/>
+      <c r="Q168" s="30"/>
+      <c r="R168" s="30"/>
+      <c r="S168" s="30"/>
+      <c r="T168" s="30"/>
+      <c r="U168" s="30"/>
+      <c r="V168" s="30"/>
+      <c r="W168" s="30"/>
+      <c r="X168" s="30"/>
+      <c r="Y168" s="30"/>
+      <c r="Z168" s="30"/>
+      <c r="AA168" s="30"/>
+      <c r="AB168" s="31"/>
+      <c r="AC168" s="30"/>
+      <c r="AD168" s="30"/>
+      <c r="AE168" s="30"/>
+      <c r="AF168" s="30"/>
+      <c r="AG168" s="31"/>
+    </row>
+    <row r="169" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A169" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="B169" s="30"/>
+      <c r="C169" s="30"/>
+      <c r="D169" s="30"/>
+      <c r="E169" s="30"/>
+      <c r="F169" s="31"/>
+      <c r="G169" s="30" t="s">
+        <v>214</v>
+      </c>
+      <c r="H169" s="30"/>
+      <c r="I169" s="30"/>
+      <c r="J169" s="30"/>
+      <c r="K169" s="30"/>
+      <c r="L169" s="30"/>
+      <c r="M169" s="30"/>
+      <c r="N169" s="30"/>
+      <c r="O169" s="30"/>
+      <c r="P169" s="30"/>
+      <c r="Q169" s="30"/>
+      <c r="R169" s="30"/>
+      <c r="S169" s="30"/>
+      <c r="T169" s="30"/>
+      <c r="U169" s="30"/>
+      <c r="V169" s="30"/>
+      <c r="W169" s="30"/>
+      <c r="X169" s="30"/>
+      <c r="Y169" s="30"/>
+      <c r="Z169" s="30"/>
+      <c r="AA169" s="30"/>
+      <c r="AB169" s="31"/>
+      <c r="AC169" s="30"/>
+      <c r="AD169" s="30"/>
+      <c r="AE169" s="30"/>
+      <c r="AF169" s="30"/>
+      <c r="AG169" s="31"/>
+    </row>
+    <row r="170" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A170" s="29"/>
+      <c r="B170" s="30"/>
+      <c r="C170" s="30"/>
+      <c r="D170" s="30"/>
+      <c r="E170" s="30"/>
+      <c r="F170" s="58"/>
+      <c r="G170" s="30"/>
+      <c r="H170" s="30" t="s">
+        <v>215</v>
+      </c>
+      <c r="I170" s="30"/>
+      <c r="J170" s="30"/>
+      <c r="K170" s="30"/>
+      <c r="L170" s="30"/>
+      <c r="M170" s="30"/>
+      <c r="N170" s="30"/>
+      <c r="O170" s="30"/>
+      <c r="P170" s="30"/>
+      <c r="Q170" s="30"/>
+      <c r="R170" s="30"/>
+      <c r="S170" s="30"/>
+      <c r="T170" s="30"/>
+      <c r="U170" s="30"/>
+      <c r="V170" s="30"/>
+      <c r="W170" s="30"/>
+      <c r="X170" s="30"/>
+      <c r="Y170" s="30"/>
+      <c r="Z170" s="30"/>
+      <c r="AA170" s="30"/>
+      <c r="AB170" s="31"/>
+      <c r="AC170" s="30"/>
+      <c r="AD170" s="30"/>
+      <c r="AE170" s="30"/>
+      <c r="AF170" s="30"/>
+      <c r="AG170" s="31"/>
+    </row>
+    <row r="171" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A171" s="29"/>
+      <c r="B171" s="30"/>
+      <c r="C171" s="30"/>
+      <c r="D171" s="30"/>
+      <c r="E171" s="30"/>
+      <c r="F171" s="31"/>
+      <c r="G171" s="30"/>
+      <c r="H171" s="30"/>
+      <c r="I171" s="30" t="s">
+        <v>216</v>
+      </c>
+      <c r="J171" s="30"/>
+      <c r="K171" s="30"/>
+      <c r="L171" s="30"/>
+      <c r="M171" s="30"/>
+      <c r="N171" s="30"/>
+      <c r="O171" s="30"/>
+      <c r="P171" s="30"/>
+      <c r="Q171" s="30"/>
+      <c r="R171" s="30"/>
+      <c r="S171" s="30"/>
+      <c r="T171" s="30"/>
+      <c r="U171" s="30"/>
+      <c r="V171" s="30"/>
+      <c r="W171" s="30"/>
+      <c r="X171" s="30"/>
+      <c r="Y171" s="30"/>
+      <c r="Z171" s="30"/>
+      <c r="AA171" s="30"/>
+      <c r="AB171" s="31"/>
+      <c r="AC171" s="30"/>
+      <c r="AD171" s="30"/>
+      <c r="AE171" s="30"/>
+      <c r="AF171" s="30"/>
+      <c r="AG171" s="31"/>
+    </row>
+    <row r="172" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A172" s="29"/>
+      <c r="B172" s="30"/>
+      <c r="C172" s="30"/>
+      <c r="D172" s="30"/>
+      <c r="E172" s="30"/>
+      <c r="F172" s="31"/>
+      <c r="G172" s="30"/>
+      <c r="H172" s="30" t="s">
+        <v>217</v>
+      </c>
+      <c r="I172" s="30"/>
+      <c r="J172" s="30"/>
+      <c r="K172" s="30"/>
+      <c r="L172" s="30"/>
+      <c r="M172" s="30"/>
+      <c r="N172" s="30"/>
+      <c r="O172" s="30"/>
+      <c r="P172" s="30"/>
+      <c r="Q172" s="30"/>
+      <c r="R172" s="30"/>
+      <c r="S172" s="30"/>
+      <c r="T172" s="30"/>
+      <c r="U172" s="30"/>
+      <c r="V172" s="30"/>
+      <c r="W172" s="30"/>
+      <c r="X172" s="30"/>
+      <c r="Y172" s="30"/>
+      <c r="Z172" s="30"/>
+      <c r="AA172" s="30"/>
+      <c r="AB172" s="31"/>
+      <c r="AC172" s="30"/>
+      <c r="AD172" s="30"/>
+      <c r="AE172" s="30"/>
+      <c r="AF172" s="30"/>
+      <c r="AG172" s="31"/>
+    </row>
+    <row r="173" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A173" s="29"/>
+      <c r="B173" s="30"/>
+      <c r="C173" s="30"/>
+      <c r="D173" s="30"/>
+      <c r="E173" s="30"/>
+      <c r="F173" s="58"/>
+      <c r="G173" s="32"/>
+      <c r="H173" s="30"/>
+      <c r="I173" s="30" t="s">
+        <v>218</v>
+      </c>
+      <c r="J173" s="30"/>
+      <c r="K173" s="30"/>
+      <c r="L173" s="30"/>
+      <c r="M173" s="30"/>
+      <c r="N173" s="30"/>
+      <c r="O173" s="30"/>
+      <c r="P173" s="30"/>
+      <c r="Q173" s="30"/>
+      <c r="R173" s="30"/>
+      <c r="S173" s="30"/>
+      <c r="T173" s="30"/>
+      <c r="U173" s="30"/>
+      <c r="V173" s="30"/>
+      <c r="W173" s="30"/>
+      <c r="X173" s="30"/>
+      <c r="Y173" s="30"/>
+      <c r="Z173" s="30"/>
+      <c r="AA173" s="30"/>
+      <c r="AB173" s="31"/>
+      <c r="AC173" s="30"/>
+      <c r="AD173" s="30"/>
+      <c r="AE173" s="30"/>
+      <c r="AF173" s="30"/>
+      <c r="AG173" s="31"/>
+    </row>
+    <row r="174" spans="1:33" ht="12.75" customHeight="1">
+      <c r="A174" s="29"/>
+      <c r="B174" s="30"/>
+      <c r="C174" s="30"/>
+      <c r="D174" s="30"/>
+      <c r="E174" s="30"/>
+      <c r="F174" s="58"/>
+      <c r="G174" s="32"/>
+      <c r="H174" s="30"/>
+      <c r="I174" s="30"/>
+      <c r="J174" s="30"/>
+      <c r="K174" s="30"/>
+      <c r="L174" s="30"/>
+      <c r="M174" s="30"/>
+      <c r="N174" s="30"/>
+      <c r="O174" s="30"/>
+      <c r="P174" s="30"/>
+      <c r="Q174" s="30"/>
+      <c r="R174" s="30"/>
+      <c r="S174" s="30"/>
+      <c r="T174" s="30"/>
+      <c r="U174" s="30"/>
+      <c r="V174" s="30"/>
+      <c r="W174" s="30"/>
+      <c r="X174" s="30"/>
+      <c r="Y174" s="30"/>
+      <c r="Z174" s="30"/>
+      <c r="AA174" s="30"/>
+      <c r="AB174" s="31"/>
+      <c r="AC174" s="30"/>
+      <c r="AD174" s="30"/>
+      <c r="AE174" s="30"/>
+      <c r="AF174" s="30"/>
+      <c r="AG174" s="31"/>
+    </row>
   </sheetData>
-  <mergeCells count="71">
-    <mergeCell ref="AC111:AG111"/>
-    <mergeCell ref="AC112:AG112"/>
-    <mergeCell ref="AC113:AG113"/>
-    <mergeCell ref="AC114:AG114"/>
-    <mergeCell ref="AC115:AG115"/>
-    <mergeCell ref="AC106:AG106"/>
-    <mergeCell ref="AC107:AG107"/>
-    <mergeCell ref="AC108:AG108"/>
-    <mergeCell ref="AC109:AG109"/>
-    <mergeCell ref="AC110:AG110"/>
-    <mergeCell ref="A98:F98"/>
-    <mergeCell ref="G98:AC98"/>
-    <mergeCell ref="AD98:AE98"/>
-    <mergeCell ref="AF98:AG98"/>
-    <mergeCell ref="AC105:AG105"/>
-    <mergeCell ref="AC94:AG94"/>
-    <mergeCell ref="A96:AG96"/>
-    <mergeCell ref="A97:F97"/>
-    <mergeCell ref="G97:AC97"/>
-    <mergeCell ref="AD97:AE97"/>
-    <mergeCell ref="AF97:AG97"/>
-    <mergeCell ref="A86:F86"/>
-    <mergeCell ref="G86:AC86"/>
-    <mergeCell ref="AD86:AE86"/>
-    <mergeCell ref="AF86:AG86"/>
-    <mergeCell ref="AC93:AG93"/>
-    <mergeCell ref="A84:AG84"/>
-    <mergeCell ref="A85:F85"/>
-    <mergeCell ref="G85:AC85"/>
-    <mergeCell ref="AD85:AE85"/>
-    <mergeCell ref="AF85:AG85"/>
-    <mergeCell ref="AC57:AG57"/>
-    <mergeCell ref="A49:F49"/>
-    <mergeCell ref="G49:AC49"/>
-    <mergeCell ref="AD49:AE49"/>
-    <mergeCell ref="AF49:AG49"/>
-    <mergeCell ref="AC56:AG56"/>
-    <mergeCell ref="A47:AG47"/>
-    <mergeCell ref="A48:F48"/>
-    <mergeCell ref="G48:AC48"/>
-    <mergeCell ref="AD48:AE48"/>
-    <mergeCell ref="AF48:AG48"/>
-    <mergeCell ref="AC35:AG35"/>
-    <mergeCell ref="AC36:AG36"/>
-    <mergeCell ref="AC37:AG37"/>
-    <mergeCell ref="AC38:AG38"/>
-    <mergeCell ref="AC39:AG39"/>
-    <mergeCell ref="AC30:AG30"/>
-    <mergeCell ref="AC31:AG31"/>
-    <mergeCell ref="AC32:AG32"/>
-    <mergeCell ref="AC33:AG33"/>
-    <mergeCell ref="AC34:AG34"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="G20:AC20"/>
-    <mergeCell ref="AD20:AE20"/>
-    <mergeCell ref="AF20:AG20"/>
-    <mergeCell ref="AC29:AG29"/>
-    <mergeCell ref="A18:AG18"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="G19:AC19"/>
-    <mergeCell ref="AD19:AE19"/>
-    <mergeCell ref="AF19:AG19"/>
+  <mergeCells count="91">
+    <mergeCell ref="AC163:AG163"/>
+    <mergeCell ref="AC164:AG164"/>
+    <mergeCell ref="AC165:AG165"/>
+    <mergeCell ref="AC166:AG166"/>
+    <mergeCell ref="AC167:AG167"/>
+    <mergeCell ref="AC158:AG158"/>
+    <mergeCell ref="AC159:AG159"/>
+    <mergeCell ref="AC160:AG160"/>
+    <mergeCell ref="AC161:AG161"/>
+    <mergeCell ref="AC162:AG162"/>
+    <mergeCell ref="A148:F148"/>
+    <mergeCell ref="G148:AC148"/>
+    <mergeCell ref="AD148:AE148"/>
+    <mergeCell ref="AF148:AG148"/>
+    <mergeCell ref="AC157:AG157"/>
+    <mergeCell ref="A146:AG146"/>
+    <mergeCell ref="A147:F147"/>
+    <mergeCell ref="G147:AC147"/>
+    <mergeCell ref="AD147:AE147"/>
+    <mergeCell ref="AF147:AG147"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="G3:AC3"/>
     <mergeCell ref="AD3:AE3"/>
@@ -44179,6 +46444,68 @@
     <mergeCell ref="G2:AC2"/>
     <mergeCell ref="AD2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="A18:AG18"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="G19:AC19"/>
+    <mergeCell ref="AD19:AE19"/>
+    <mergeCell ref="AF19:AG19"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="G20:AC20"/>
+    <mergeCell ref="AD20:AE20"/>
+    <mergeCell ref="AF20:AG20"/>
+    <mergeCell ref="AC29:AG29"/>
+    <mergeCell ref="AC30:AG30"/>
+    <mergeCell ref="AC31:AG31"/>
+    <mergeCell ref="AC32:AG32"/>
+    <mergeCell ref="AC33:AG33"/>
+    <mergeCell ref="AC34:AG34"/>
+    <mergeCell ref="AC35:AG35"/>
+    <mergeCell ref="AC36:AG36"/>
+    <mergeCell ref="AC37:AG37"/>
+    <mergeCell ref="AC38:AG38"/>
+    <mergeCell ref="AC39:AG39"/>
+    <mergeCell ref="A47:AG47"/>
+    <mergeCell ref="A48:F48"/>
+    <mergeCell ref="G48:AC48"/>
+    <mergeCell ref="AD48:AE48"/>
+    <mergeCell ref="AF48:AG48"/>
+    <mergeCell ref="AC57:AG57"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="G49:AC49"/>
+    <mergeCell ref="AD49:AE49"/>
+    <mergeCell ref="AF49:AG49"/>
+    <mergeCell ref="AC56:AG56"/>
+    <mergeCell ref="A84:AG84"/>
+    <mergeCell ref="A85:F85"/>
+    <mergeCell ref="G85:AC85"/>
+    <mergeCell ref="AD85:AE85"/>
+    <mergeCell ref="AF85:AG85"/>
+    <mergeCell ref="A86:F86"/>
+    <mergeCell ref="G86:AC86"/>
+    <mergeCell ref="AD86:AE86"/>
+    <mergeCell ref="AF86:AG86"/>
+    <mergeCell ref="AC93:AG93"/>
+    <mergeCell ref="AC94:AG94"/>
+    <mergeCell ref="A96:AG96"/>
+    <mergeCell ref="A97:F97"/>
+    <mergeCell ref="G97:AC97"/>
+    <mergeCell ref="AD97:AE97"/>
+    <mergeCell ref="AF97:AG97"/>
+    <mergeCell ref="A98:F98"/>
+    <mergeCell ref="G98:AC98"/>
+    <mergeCell ref="AD98:AE98"/>
+    <mergeCell ref="AF98:AG98"/>
+    <mergeCell ref="AC105:AG105"/>
+    <mergeCell ref="AC106:AG106"/>
+    <mergeCell ref="AC107:AG107"/>
+    <mergeCell ref="AC108:AG108"/>
+    <mergeCell ref="AC109:AG109"/>
+    <mergeCell ref="AC110:AG110"/>
+    <mergeCell ref="AC111:AG111"/>
+    <mergeCell ref="AC112:AG112"/>
+    <mergeCell ref="AC113:AG113"/>
+    <mergeCell ref="AC114:AG114"/>
+    <mergeCell ref="AC115:AG115"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -44198,16 +46525,16 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="4.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="4.140625" style="4" customWidth="1"/>
-    <col min="4" max="33" width="4.140625" style="1" customWidth="1"/>
+    <col min="1" max="2" width="4.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="4.125" style="4" customWidth="1"/>
+    <col min="4" max="33" width="4.125" style="1" customWidth="1"/>
     <col min="34" max="36" width="4" style="1" customWidth="1"/>
     <col min="37" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:177" ht="12.75" customHeight="1">
       <c r="A1" s="146" t="s">
-        <v>250</v>
+        <v>276</v>
       </c>
       <c r="B1" s="147"/>
       <c r="C1" s="147"/>
@@ -44287,7 +46614,7 @@
     </row>
     <row r="3" spans="1:177" s="12" customFormat="1" ht="12">
       <c r="A3" s="117" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="B3" s="118"/>
       <c r="C3" s="118"/>
@@ -44295,7 +46622,7 @@
       <c r="E3" s="118"/>
       <c r="F3" s="119"/>
       <c r="G3" s="117" t="s">
-        <v>252</v>
+        <v>278</v>
       </c>
       <c r="H3" s="118"/>
       <c r="I3" s="118"/>
@@ -44330,7 +46657,7 @@
     </row>
     <row r="4" spans="1:177" ht="14.25" customHeight="1">
       <c r="A4" s="155" t="s">
-        <v>253</v>
+        <v>279</v>
       </c>
       <c r="B4" s="156"/>
       <c r="C4" s="156"/>
@@ -44342,7 +46669,7 @@
       <c r="I4" s="156"/>
       <c r="J4" s="157"/>
       <c r="K4" s="170" t="s">
-        <v>254</v>
+        <v>280</v>
       </c>
       <c r="L4" s="171"/>
       <c r="M4" s="171"/>
@@ -44350,7 +46677,7 @@
       <c r="O4" s="171"/>
       <c r="P4" s="172"/>
       <c r="Q4" s="167" t="s">
-        <v>255</v>
+        <v>281</v>
       </c>
       <c r="R4" s="168"/>
       <c r="S4" s="168"/>
@@ -44373,7 +46700,7 @@
     </row>
     <row r="5" spans="1:177" s="3" customFormat="1" ht="15.75" customHeight="1">
       <c r="A5" s="158" t="s">
-        <v>256</v>
+        <v>282</v>
       </c>
       <c r="B5" s="159"/>
       <c r="C5" s="159"/>
@@ -44389,7 +46716,7 @@
         <v>119</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>257</v>
+        <v>283</v>
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="173"/>
@@ -44399,21 +46726,21 @@
       <c r="O5" s="174"/>
       <c r="P5" s="175"/>
       <c r="Q5" s="158" t="s">
-        <v>258</v>
+        <v>284</v>
       </c>
       <c r="R5" s="159"/>
       <c r="S5" s="159"/>
       <c r="T5" s="159"/>
       <c r="U5" s="160"/>
       <c r="V5" s="6" t="s">
-        <v>259</v>
+        <v>285</v>
       </c>
       <c r="W5" s="7"/>
       <c r="X5" s="7"/>
       <c r="Y5" s="7"/>
       <c r="Z5" s="8"/>
       <c r="AA5" s="8" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="AB5" s="164"/>
       <c r="AC5" s="165"/>
@@ -44578,7 +46905,7 @@
       <c r="I6" s="30"/>
       <c r="J6" s="31"/>
       <c r="K6" s="29" t="s">
-        <v>261</v>
+        <v>286</v>
       </c>
       <c r="L6" s="30"/>
       <c r="M6" s="30"/>
@@ -44586,14 +46913,14 @@
       <c r="O6" s="30"/>
       <c r="P6" s="31"/>
       <c r="Q6" s="29" t="s">
-        <v>262</v>
+        <v>287</v>
       </c>
       <c r="R6" s="30"/>
       <c r="S6" s="30"/>
       <c r="T6" s="30"/>
       <c r="U6" s="30"/>
       <c r="V6" s="29" t="s">
-        <v>263</v>
+        <v>288</v>
       </c>
       <c r="W6" s="30"/>
       <c r="X6" s="30"/>
@@ -44609,27 +46936,27 @@
     </row>
     <row r="7" spans="1:177" ht="12.75" customHeight="1">
       <c r="A7" s="29" t="s">
-        <v>264</v>
+        <v>289</v>
       </c>
       <c r="B7" s="30"/>
       <c r="C7" s="30"/>
       <c r="D7" s="30"/>
       <c r="E7" s="31"/>
       <c r="F7" s="56" t="s">
-        <v>265</v>
+        <v>290</v>
       </c>
       <c r="G7" s="57" t="s">
-        <v>266</v>
+        <v>291</v>
       </c>
       <c r="H7" s="56">
         <v>10</v>
       </c>
       <c r="I7" s="30" t="s">
-        <v>267</v>
+        <v>292</v>
       </c>
       <c r="J7" s="31"/>
       <c r="K7" s="29" t="s">
-        <v>264</v>
+        <v>289</v>
       </c>
       <c r="L7" s="30"/>
       <c r="M7" s="30"/>
@@ -44642,14 +46969,14 @@
       <c r="T7" s="30"/>
       <c r="U7" s="30"/>
       <c r="V7" s="29" t="s">
-        <v>264</v>
+        <v>289</v>
       </c>
       <c r="W7" s="30"/>
       <c r="X7" s="30"/>
       <c r="Y7" s="30"/>
       <c r="Z7" s="31"/>
       <c r="AA7" s="57" t="s">
-        <v>266</v>
+        <v>291</v>
       </c>
       <c r="AB7" s="30"/>
       <c r="AC7" s="30"/>
@@ -44660,27 +46987,27 @@
     </row>
     <row r="8" spans="1:177" ht="12.75" customHeight="1">
       <c r="A8" s="29" t="s">
-        <v>268</v>
+        <v>293</v>
       </c>
       <c r="B8" s="30"/>
       <c r="C8" s="30"/>
       <c r="D8" s="30"/>
       <c r="E8" s="57"/>
       <c r="F8" s="56" t="s">
-        <v>265</v>
+        <v>290</v>
       </c>
       <c r="G8" s="57" t="s">
-        <v>266</v>
+        <v>291</v>
       </c>
       <c r="H8" s="56">
         <v>8</v>
       </c>
       <c r="I8" s="30" t="s">
-        <v>269</v>
+        <v>294</v>
       </c>
       <c r="J8" s="31"/>
       <c r="K8" s="29" t="s">
-        <v>268</v>
+        <v>293</v>
       </c>
       <c r="L8" s="30"/>
       <c r="M8" s="30"/>
@@ -44693,14 +47020,14 @@
       <c r="T8" s="30"/>
       <c r="U8" s="30"/>
       <c r="V8" s="29" t="s">
-        <v>268</v>
+        <v>293</v>
       </c>
       <c r="W8" s="30"/>
       <c r="X8" s="30"/>
       <c r="Y8" s="30"/>
       <c r="Z8" s="31"/>
       <c r="AA8" s="57" t="s">
-        <v>266</v>
+        <v>291</v>
       </c>
       <c r="AB8" s="30"/>
       <c r="AC8" s="30"/>
@@ -44711,27 +47038,27 @@
     </row>
     <row r="9" spans="1:177" ht="12.75" customHeight="1">
       <c r="A9" s="29" t="s">
-        <v>270</v>
+        <v>295</v>
       </c>
       <c r="B9" s="30"/>
       <c r="C9" s="30"/>
       <c r="D9" s="30"/>
       <c r="E9" s="31"/>
       <c r="F9" s="56" t="s">
-        <v>265</v>
+        <v>290</v>
       </c>
       <c r="G9" s="57" t="s">
-        <v>266</v>
+        <v>291</v>
       </c>
       <c r="H9" s="56">
         <v>8</v>
       </c>
       <c r="I9" s="30" t="s">
-        <v>269</v>
+        <v>294</v>
       </c>
       <c r="J9" s="31"/>
       <c r="K9" s="29" t="s">
-        <v>270</v>
+        <v>295</v>
       </c>
       <c r="L9" s="30"/>
       <c r="M9" s="30"/>
@@ -44744,14 +47071,14 @@
       <c r="T9" s="30"/>
       <c r="U9" s="30"/>
       <c r="V9" s="29" t="s">
-        <v>270</v>
+        <v>295</v>
       </c>
       <c r="W9" s="30"/>
       <c r="X9" s="32"/>
       <c r="Y9" s="32"/>
       <c r="Z9" s="58"/>
       <c r="AA9" s="57" t="s">
-        <v>266</v>
+        <v>291</v>
       </c>
       <c r="AB9" s="30"/>
       <c r="AC9" s="30"/>
@@ -44762,27 +47089,27 @@
     </row>
     <row r="10" spans="1:177" ht="12.75" customHeight="1">
       <c r="A10" s="29" t="s">
-        <v>271</v>
+        <v>296</v>
       </c>
       <c r="B10" s="30"/>
       <c r="C10" s="30"/>
       <c r="D10" s="30"/>
       <c r="E10" s="31"/>
       <c r="F10" s="56" t="s">
-        <v>265</v>
+        <v>290</v>
       </c>
       <c r="G10" s="57" t="s">
-        <v>266</v>
+        <v>291</v>
       </c>
       <c r="H10" s="56">
         <v>8</v>
       </c>
       <c r="I10" s="30" t="s">
-        <v>269</v>
+        <v>294</v>
       </c>
       <c r="J10" s="31"/>
       <c r="K10" s="29" t="s">
-        <v>271</v>
+        <v>296</v>
       </c>
       <c r="L10" s="30"/>
       <c r="M10" s="30"/>
@@ -44795,14 +47122,14 @@
       <c r="T10" s="30"/>
       <c r="U10" s="30"/>
       <c r="V10" s="29" t="s">
-        <v>271</v>
+        <v>296</v>
       </c>
       <c r="W10" s="30"/>
       <c r="X10" s="30"/>
       <c r="Y10" s="32"/>
       <c r="Z10" s="58"/>
       <c r="AA10" s="57" t="s">
-        <v>266</v>
+        <v>291</v>
       </c>
       <c r="AB10" s="30"/>
       <c r="AC10" s="30"/>
@@ -44813,27 +47140,27 @@
     </row>
     <row r="11" spans="1:177" ht="12.75" customHeight="1">
       <c r="A11" s="29" t="s">
-        <v>272</v>
+        <v>297</v>
       </c>
       <c r="B11" s="30"/>
       <c r="C11" s="30"/>
       <c r="D11" s="30"/>
       <c r="E11" s="31"/>
       <c r="F11" s="56" t="s">
-        <v>265</v>
+        <v>290</v>
       </c>
       <c r="G11" s="57" t="s">
-        <v>266</v>
+        <v>291</v>
       </c>
       <c r="H11" s="56">
         <v>2</v>
       </c>
       <c r="I11" s="30" t="s">
-        <v>269</v>
+        <v>294</v>
       </c>
       <c r="J11" s="31"/>
       <c r="K11" s="29" t="s">
-        <v>272</v>
+        <v>297</v>
       </c>
       <c r="L11" s="30"/>
       <c r="M11" s="30"/>
@@ -44846,14 +47173,14 @@
       <c r="T11" s="30"/>
       <c r="U11" s="30"/>
       <c r="V11" s="29" t="s">
-        <v>272</v>
+        <v>297</v>
       </c>
       <c r="W11" s="30"/>
       <c r="X11" s="30"/>
       <c r="Y11" s="32"/>
       <c r="Z11" s="58"/>
       <c r="AA11" s="57" t="s">
-        <v>266</v>
+        <v>291</v>
       </c>
       <c r="AB11" s="30"/>
       <c r="AC11" s="30"/>
@@ -44864,27 +47191,27 @@
     </row>
     <row r="12" spans="1:177" ht="12.75" customHeight="1">
       <c r="A12" s="29" t="s">
-        <v>273</v>
+        <v>298</v>
       </c>
       <c r="B12" s="30"/>
       <c r="C12" s="30"/>
       <c r="D12" s="30"/>
       <c r="E12" s="31"/>
       <c r="F12" s="56" t="s">
-        <v>265</v>
+        <v>290</v>
       </c>
       <c r="G12" s="57" t="s">
-        <v>266</v>
+        <v>291</v>
       </c>
       <c r="H12" s="56">
         <v>10</v>
       </c>
       <c r="I12" s="30" t="s">
-        <v>274</v>
+        <v>299</v>
       </c>
       <c r="J12" s="31"/>
       <c r="K12" s="29" t="s">
-        <v>273</v>
+        <v>298</v>
       </c>
       <c r="L12" s="30"/>
       <c r="M12" s="30"/>
@@ -44897,14 +47224,14 @@
       <c r="T12" s="30"/>
       <c r="U12" s="30"/>
       <c r="V12" s="29" t="s">
-        <v>273</v>
+        <v>298</v>
       </c>
       <c r="W12" s="30"/>
       <c r="X12" s="32"/>
       <c r="Y12" s="32"/>
       <c r="Z12" s="58"/>
       <c r="AA12" s="57" t="s">
-        <v>266</v>
+        <v>291</v>
       </c>
       <c r="AB12" s="30"/>
       <c r="AC12" s="30"/>
@@ -44915,25 +47242,25 @@
     </row>
     <row r="13" spans="1:177" ht="12.75" customHeight="1">
       <c r="A13" s="29" t="s">
-        <v>275</v>
+        <v>300</v>
       </c>
       <c r="B13" s="30"/>
       <c r="C13" s="30"/>
       <c r="D13" s="30"/>
       <c r="E13" s="31"/>
       <c r="F13" s="56" t="s">
-        <v>265</v>
+        <v>290</v>
       </c>
       <c r="G13" s="57"/>
       <c r="H13" s="56">
         <v>7</v>
       </c>
       <c r="I13" s="30" t="s">
-        <v>269</v>
+        <v>294</v>
       </c>
       <c r="J13" s="31"/>
       <c r="K13" s="29" t="s">
-        <v>275</v>
+        <v>300</v>
       </c>
       <c r="L13" s="30"/>
       <c r="M13" s="30"/>
@@ -44946,14 +47273,14 @@
       <c r="T13" s="30"/>
       <c r="U13" s="30"/>
       <c r="V13" s="29" t="s">
-        <v>275</v>
+        <v>300</v>
       </c>
       <c r="W13" s="30"/>
       <c r="X13" s="30"/>
       <c r="Y13" s="30"/>
       <c r="Z13" s="31"/>
       <c r="AA13" s="57" t="s">
-        <v>266</v>
+        <v>291</v>
       </c>
       <c r="AB13" s="30"/>
       <c r="AC13" s="30"/>
@@ -44964,25 +47291,25 @@
     </row>
     <row r="14" spans="1:177" ht="12.75" customHeight="1">
       <c r="A14" s="29" t="s">
-        <v>276</v>
+        <v>301</v>
       </c>
       <c r="B14" s="30"/>
       <c r="C14" s="30"/>
       <c r="D14" s="30"/>
       <c r="E14" s="31"/>
       <c r="F14" s="56" t="s">
-        <v>265</v>
+        <v>290</v>
       </c>
       <c r="G14" s="57"/>
       <c r="H14" s="56">
         <v>7</v>
       </c>
       <c r="I14" s="30" t="s">
-        <v>269</v>
+        <v>294</v>
       </c>
       <c r="J14" s="31"/>
       <c r="K14" s="29" t="s">
-        <v>276</v>
+        <v>301</v>
       </c>
       <c r="L14" s="30"/>
       <c r="M14" s="30"/>
@@ -44995,14 +47322,14 @@
       <c r="T14" s="30"/>
       <c r="U14" s="30"/>
       <c r="V14" s="29" t="s">
-        <v>276</v>
+        <v>301</v>
       </c>
       <c r="W14" s="30"/>
       <c r="X14" s="30"/>
       <c r="Y14" s="30"/>
       <c r="Z14" s="31"/>
       <c r="AA14" s="57" t="s">
-        <v>266</v>
+        <v>291</v>
       </c>
       <c r="AB14" s="30"/>
       <c r="AC14" s="30"/>
@@ -45013,27 +47340,27 @@
     </row>
     <row r="15" spans="1:177" ht="12.75" customHeight="1">
       <c r="A15" s="29" t="s">
-        <v>277</v>
+        <v>302</v>
       </c>
       <c r="B15" s="30"/>
       <c r="C15" s="30"/>
       <c r="D15" s="30"/>
       <c r="E15" s="31"/>
       <c r="F15" s="56" t="s">
-        <v>265</v>
+        <v>290</v>
       </c>
       <c r="G15" s="57" t="s">
-        <v>266</v>
+        <v>291</v>
       </c>
       <c r="H15" s="56">
         <v>1</v>
       </c>
       <c r="I15" s="30" t="s">
-        <v>269</v>
+        <v>294</v>
       </c>
       <c r="J15" s="31"/>
       <c r="K15" s="29" t="s">
-        <v>277</v>
+        <v>302</v>
       </c>
       <c r="L15" s="30"/>
       <c r="M15" s="30"/>
@@ -45046,14 +47373,14 @@
       <c r="T15" s="30"/>
       <c r="U15" s="30"/>
       <c r="V15" s="29" t="s">
-        <v>277</v>
+        <v>302</v>
       </c>
       <c r="W15" s="30"/>
       <c r="X15" s="30"/>
       <c r="Y15" s="30"/>
       <c r="Z15" s="58"/>
       <c r="AA15" s="57" t="s">
-        <v>266</v>
+        <v>291</v>
       </c>
       <c r="AB15" s="30"/>
       <c r="AC15" s="30"/>
@@ -46044,9 +48371,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="4" width="4.140625" style="12" customWidth="1"/>
-    <col min="5" max="6" width="4.140625" style="38" customWidth="1"/>
-    <col min="7" max="33" width="4.140625" style="12" customWidth="1"/>
+    <col min="1" max="4" width="4.125" style="12" customWidth="1"/>
+    <col min="5" max="6" width="4.125" style="38" customWidth="1"/>
+    <col min="7" max="33" width="4.125" style="12" customWidth="1"/>
     <col min="34" max="37" width="4" style="12" customWidth="1"/>
     <col min="38" max="16384" width="9" style="12"/>
   </cols>
@@ -46133,7 +48460,7 @@
     </row>
     <row r="3" spans="1:177" ht="12">
       <c r="A3" s="117" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="B3" s="118"/>
       <c r="C3" s="118"/>
@@ -46141,7 +48468,7 @@
       <c r="E3" s="118"/>
       <c r="F3" s="119"/>
       <c r="G3" s="117" t="s">
-        <v>252</v>
+        <v>278</v>
       </c>
       <c r="H3" s="118"/>
       <c r="I3" s="118"/>
@@ -46356,7 +48683,7 @@
     <row r="5" spans="1:177" ht="12.75" customHeight="1">
       <c r="A5" s="22"/>
       <c r="B5" s="19" t="s">
-        <v>278</v>
+        <v>303</v>
       </c>
       <c r="C5" s="19"/>
       <c r="D5" s="19"/>
@@ -46389,7 +48716,7 @@
       <c r="A6" s="22"/>
       <c r="B6" s="19"/>
       <c r="C6" s="19" t="s">
-        <v>279</v>
+        <v>304</v>
       </c>
       <c r="D6" s="19"/>
       <c r="E6" s="19"/>
@@ -46449,7 +48776,7 @@
     <row r="8" spans="1:177" ht="12.75" customHeight="1">
       <c r="A8" s="22"/>
       <c r="B8" s="19" t="s">
-        <v>280</v>
+        <v>305</v>
       </c>
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
@@ -46474,7 +48801,7 @@
       <c r="A9" s="22"/>
       <c r="B9" s="19"/>
       <c r="C9" s="19" t="s">
-        <v>281</v>
+        <v>306</v>
       </c>
       <c r="D9" s="19"/>
       <c r="E9" s="19"/>
@@ -46499,7 +48826,7 @@
       <c r="A10" s="22"/>
       <c r="B10" s="19"/>
       <c r="C10" s="19" t="s">
-        <v>282</v>
+        <v>307</v>
       </c>
       <c r="D10" s="19"/>
       <c r="E10" s="19"/>
@@ -46525,7 +48852,7 @@
       <c r="B11" s="19"/>
       <c r="C11" s="19"/>
       <c r="D11" s="19" t="s">
-        <v>283</v>
+        <v>308</v>
       </c>
       <c r="E11" s="19"/>
       <c r="F11" s="19"/>
@@ -47617,9 +49944,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="4" width="4.140625" style="1" customWidth="1"/>
-    <col min="5" max="6" width="4.140625" style="4" customWidth="1"/>
-    <col min="7" max="33" width="4.140625" style="1" customWidth="1"/>
+    <col min="1" max="4" width="4.125" style="1" customWidth="1"/>
+    <col min="5" max="6" width="4.125" style="4" customWidth="1"/>
+    <col min="7" max="33" width="4.125" style="1" customWidth="1"/>
     <col min="34" max="37" width="4" style="1" customWidth="1"/>
     <col min="38" max="16384" width="9" style="1"/>
   </cols>
@@ -49291,9 +51618,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="4" width="4.140625" style="1" customWidth="1"/>
-    <col min="5" max="6" width="4.140625" style="4" customWidth="1"/>
-    <col min="7" max="33" width="4.140625" style="1" customWidth="1"/>
+    <col min="1" max="4" width="4.125" style="1" customWidth="1"/>
+    <col min="5" max="6" width="4.125" style="4" customWidth="1"/>
+    <col min="7" max="33" width="4.125" style="1" customWidth="1"/>
     <col min="34" max="37" width="4" style="1" customWidth="1"/>
     <col min="38" max="16384" width="9" style="1"/>
   </cols>
@@ -50965,9 +53292,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="4" width="4.140625" style="1" customWidth="1"/>
-    <col min="5" max="6" width="4.140625" style="4" customWidth="1"/>
-    <col min="7" max="33" width="4.140625" style="1" customWidth="1"/>
+    <col min="1" max="4" width="4.125" style="1" customWidth="1"/>
+    <col min="5" max="6" width="4.125" style="4" customWidth="1"/>
+    <col min="7" max="33" width="4.125" style="1" customWidth="1"/>
     <col min="34" max="37" width="4" style="1" customWidth="1"/>
     <col min="38" max="16384" width="9" style="1"/>
   </cols>
@@ -52637,9 +54964,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="4" width="4.140625" style="1" customWidth="1"/>
-    <col min="5" max="6" width="4.140625" style="4" customWidth="1"/>
-    <col min="7" max="33" width="4.140625" style="1" customWidth="1"/>
+    <col min="1" max="4" width="4.125" style="1" customWidth="1"/>
+    <col min="5" max="6" width="4.125" style="4" customWidth="1"/>
+    <col min="7" max="33" width="4.125" style="1" customWidth="1"/>
     <col min="34" max="37" width="4" style="1" customWidth="1"/>
     <col min="38" max="16384" width="9" style="1"/>
   </cols>
@@ -54311,9 +56638,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="4" width="4.140625" style="1" customWidth="1"/>
-    <col min="5" max="6" width="4.140625" style="4" customWidth="1"/>
-    <col min="7" max="33" width="4.140625" style="1" customWidth="1"/>
+    <col min="1" max="4" width="4.125" style="1" customWidth="1"/>
+    <col min="5" max="6" width="4.125" style="4" customWidth="1"/>
+    <col min="7" max="33" width="4.125" style="1" customWidth="1"/>
     <col min="34" max="37" width="4" style="1" customWidth="1"/>
     <col min="38" max="16384" width="9" style="1"/>
   </cols>
@@ -55985,49 +58312,49 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="4" width="4.140625" style="12" customWidth="1"/>
-    <col min="5" max="6" width="4.140625" style="38" customWidth="1"/>
-    <col min="7" max="33" width="4.140625" style="12" customWidth="1"/>
+    <col min="1" max="4" width="4.125" style="12" customWidth="1"/>
+    <col min="5" max="6" width="4.125" style="38" customWidth="1"/>
+    <col min="7" max="33" width="4.125" style="12" customWidth="1"/>
     <col min="34" max="37" width="4" style="12" customWidth="1"/>
     <col min="38" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="127" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="132"/>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
-      <c r="E1" s="132"/>
-      <c r="F1" s="132"/>
-      <c r="G1" s="132"/>
-      <c r="H1" s="132"/>
-      <c r="I1" s="132"/>
-      <c r="J1" s="132"/>
-      <c r="K1" s="132"/>
-      <c r="L1" s="132"/>
-      <c r="M1" s="132"/>
-      <c r="N1" s="132"/>
-      <c r="O1" s="132"/>
-      <c r="P1" s="132"/>
-      <c r="Q1" s="132"/>
-      <c r="R1" s="132"/>
-      <c r="S1" s="132"/>
-      <c r="T1" s="132"/>
-      <c r="U1" s="132"/>
-      <c r="V1" s="132"/>
-      <c r="W1" s="132"/>
-      <c r="X1" s="132"/>
-      <c r="Y1" s="132"/>
-      <c r="Z1" s="132"/>
-      <c r="AA1" s="132"/>
-      <c r="AB1" s="132"/>
-      <c r="AC1" s="132"/>
-      <c r="AD1" s="132"/>
-      <c r="AE1" s="132"/>
-      <c r="AF1" s="132"/>
-      <c r="AG1" s="132"/>
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="127"/>
+      <c r="J1" s="127"/>
+      <c r="K1" s="127"/>
+      <c r="L1" s="127"/>
+      <c r="M1" s="127"/>
+      <c r="N1" s="127"/>
+      <c r="O1" s="127"/>
+      <c r="P1" s="127"/>
+      <c r="Q1" s="127"/>
+      <c r="R1" s="127"/>
+      <c r="S1" s="127"/>
+      <c r="T1" s="127"/>
+      <c r="U1" s="127"/>
+      <c r="V1" s="127"/>
+      <c r="W1" s="127"/>
+      <c r="X1" s="127"/>
+      <c r="Y1" s="127"/>
+      <c r="Z1" s="127"/>
+      <c r="AA1" s="127"/>
+      <c r="AB1" s="127"/>
+      <c r="AC1" s="127"/>
+      <c r="AD1" s="127"/>
+      <c r="AE1" s="127"/>
+      <c r="AF1" s="127"/>
+      <c r="AG1" s="127"/>
     </row>
     <row r="2" spans="1:177" ht="12" customHeight="1">
       <c r="A2" s="117" t="s">
@@ -56494,12 +58821,12 @@
     </row>
     <row r="12" spans="1:177" ht="12.75" customHeight="1">
       <c r="A12" s="19"/>
-      <c r="B12" s="130"/>
-      <c r="C12" s="130"/>
-      <c r="D12" s="130"/>
-      <c r="E12" s="130"/>
-      <c r="F12" s="130"/>
-      <c r="G12" s="130"/>
+      <c r="B12" s="131"/>
+      <c r="C12" s="131"/>
+      <c r="D12" s="131"/>
+      <c r="E12" s="131"/>
+      <c r="F12" s="131"/>
+      <c r="G12" s="131"/>
       <c r="H12" s="50"/>
       <c r="I12" s="51"/>
       <c r="J12" s="51"/>
@@ -56514,23 +58841,23 @@
       <c r="S12" s="50"/>
       <c r="T12" s="50"/>
       <c r="U12" s="50"/>
-      <c r="V12" s="130"/>
-      <c r="W12" s="194"/>
-      <c r="X12" s="194"/>
-      <c r="Y12" s="130"/>
-      <c r="Z12" s="194"/>
-      <c r="AA12" s="194"/>
-      <c r="AB12" s="194"/>
-      <c r="AC12" s="194"/>
-      <c r="AD12" s="194"/>
-      <c r="AE12" s="194"/>
+      <c r="V12" s="131"/>
+      <c r="W12" s="192"/>
+      <c r="X12" s="192"/>
+      <c r="Y12" s="131"/>
+      <c r="Z12" s="192"/>
+      <c r="AA12" s="192"/>
+      <c r="AB12" s="192"/>
+      <c r="AC12" s="192"/>
+      <c r="AD12" s="192"/>
+      <c r="AE12" s="192"/>
       <c r="AF12" s="50"/>
       <c r="AG12" s="24"/>
     </row>
     <row r="13" spans="1:177" ht="12.75" customHeight="1">
       <c r="A13" s="19"/>
-      <c r="B13" s="129"/>
-      <c r="C13" s="129"/>
+      <c r="B13" s="130"/>
+      <c r="C13" s="130"/>
       <c r="D13" s="50"/>
       <c r="E13" s="50"/>
       <c r="F13" s="50"/>
@@ -56549,9 +58876,9 @@
       <c r="S13" s="50"/>
       <c r="T13" s="50"/>
       <c r="U13" s="50"/>
-      <c r="V13" s="131"/>
-      <c r="W13" s="131"/>
-      <c r="X13" s="131"/>
+      <c r="V13" s="132"/>
+      <c r="W13" s="132"/>
+      <c r="X13" s="132"/>
       <c r="Y13" s="52"/>
       <c r="Z13" s="50"/>
       <c r="AA13" s="50"/>
@@ -57491,44 +59818,51 @@
       <c r="AG41" s="24"/>
     </row>
     <row r="42" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A42" s="127" t="s">
+      <c r="A42" s="128" t="s">
         <v>54</v>
       </c>
-      <c r="B42" s="127"/>
-      <c r="C42" s="127"/>
-      <c r="D42" s="127"/>
-      <c r="E42" s="127"/>
-      <c r="F42" s="127"/>
-      <c r="G42" s="127"/>
-      <c r="H42" s="127"/>
-      <c r="I42" s="127"/>
-      <c r="J42" s="127"/>
-      <c r="K42" s="127"/>
-      <c r="L42" s="127"/>
-      <c r="M42" s="127"/>
-      <c r="N42" s="127"/>
-      <c r="O42" s="127"/>
-      <c r="P42" s="127"/>
-      <c r="Q42" s="127"/>
-      <c r="R42" s="127"/>
-      <c r="S42" s="127"/>
-      <c r="T42" s="127"/>
-      <c r="U42" s="127"/>
-      <c r="V42" s="127"/>
-      <c r="W42" s="127"/>
-      <c r="X42" s="127"/>
-      <c r="Y42" s="127"/>
-      <c r="Z42" s="127"/>
-      <c r="AA42" s="127"/>
-      <c r="AB42" s="127"/>
-      <c r="AC42" s="127"/>
-      <c r="AD42" s="127"/>
-      <c r="AE42" s="127"/>
-      <c r="AF42" s="127"/>
-      <c r="AG42" s="128"/>
+      <c r="B42" s="128"/>
+      <c r="C42" s="128"/>
+      <c r="D42" s="128"/>
+      <c r="E42" s="128"/>
+      <c r="F42" s="128"/>
+      <c r="G42" s="128"/>
+      <c r="H42" s="128"/>
+      <c r="I42" s="128"/>
+      <c r="J42" s="128"/>
+      <c r="K42" s="128"/>
+      <c r="L42" s="128"/>
+      <c r="M42" s="128"/>
+      <c r="N42" s="128"/>
+      <c r="O42" s="128"/>
+      <c r="P42" s="128"/>
+      <c r="Q42" s="128"/>
+      <c r="R42" s="128"/>
+      <c r="S42" s="128"/>
+      <c r="T42" s="128"/>
+      <c r="U42" s="128"/>
+      <c r="V42" s="128"/>
+      <c r="W42" s="128"/>
+      <c r="X42" s="128"/>
+      <c r="Y42" s="128"/>
+      <c r="Z42" s="128"/>
+      <c r="AA42" s="128"/>
+      <c r="AB42" s="128"/>
+      <c r="AC42" s="128"/>
+      <c r="AD42" s="128"/>
+      <c r="AE42" s="128"/>
+      <c r="AF42" s="128"/>
+      <c r="AG42" s="129"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A42:AG42"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="V12:X12"/>
+    <mergeCell ref="V13:X13"/>
+    <mergeCell ref="Y12:AE12"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:G12"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="G3:AC3"/>
     <mergeCell ref="AD3:AE3"/>
@@ -57538,13 +59872,6 @@
     <mergeCell ref="G2:AC2"/>
     <mergeCell ref="AD2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="A42:AG42"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="V12:X12"/>
-    <mergeCell ref="V13:X13"/>
-    <mergeCell ref="Y12:AE12"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:G12"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -57567,49 +59894,49 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="4" width="4.140625" style="12" customWidth="1"/>
-    <col min="5" max="6" width="4.140625" style="38" customWidth="1"/>
-    <col min="7" max="33" width="4.140625" style="12" customWidth="1"/>
+    <col min="1" max="4" width="4.125" style="12" customWidth="1"/>
+    <col min="5" max="6" width="4.125" style="38" customWidth="1"/>
+    <col min="7" max="33" width="4.125" style="12" customWidth="1"/>
     <col min="34" max="37" width="4" style="12" customWidth="1"/>
     <col min="38" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:178" ht="12.75" customHeight="1">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="127" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="132"/>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
-      <c r="E1" s="132"/>
-      <c r="F1" s="132"/>
-      <c r="G1" s="132"/>
-      <c r="H1" s="132"/>
-      <c r="I1" s="132"/>
-      <c r="J1" s="132"/>
-      <c r="K1" s="132"/>
-      <c r="L1" s="132"/>
-      <c r="M1" s="132"/>
-      <c r="N1" s="132"/>
-      <c r="O1" s="132"/>
-      <c r="P1" s="132"/>
-      <c r="Q1" s="132"/>
-      <c r="R1" s="132"/>
-      <c r="S1" s="132"/>
-      <c r="T1" s="132"/>
-      <c r="U1" s="132"/>
-      <c r="V1" s="132"/>
-      <c r="W1" s="132"/>
-      <c r="X1" s="132"/>
-      <c r="Y1" s="132"/>
-      <c r="Z1" s="132"/>
-      <c r="AA1" s="132"/>
-      <c r="AB1" s="132"/>
-      <c r="AC1" s="132"/>
-      <c r="AD1" s="132"/>
-      <c r="AE1" s="132"/>
-      <c r="AF1" s="132"/>
-      <c r="AG1" s="132"/>
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="127"/>
+      <c r="J1" s="127"/>
+      <c r="K1" s="127"/>
+      <c r="L1" s="127"/>
+      <c r="M1" s="127"/>
+      <c r="N1" s="127"/>
+      <c r="O1" s="127"/>
+      <c r="P1" s="127"/>
+      <c r="Q1" s="127"/>
+      <c r="R1" s="127"/>
+      <c r="S1" s="127"/>
+      <c r="T1" s="127"/>
+      <c r="U1" s="127"/>
+      <c r="V1" s="127"/>
+      <c r="W1" s="127"/>
+      <c r="X1" s="127"/>
+      <c r="Y1" s="127"/>
+      <c r="Z1" s="127"/>
+      <c r="AA1" s="127"/>
+      <c r="AB1" s="127"/>
+      <c r="AC1" s="127"/>
+      <c r="AD1" s="127"/>
+      <c r="AE1" s="127"/>
+      <c r="AF1" s="127"/>
+      <c r="AG1" s="127"/>
     </row>
     <row r="2" spans="1:178" ht="12" customHeight="1">
       <c r="A2" s="117" t="s">
@@ -57926,10 +60253,10 @@
       <c r="AE5" s="83"/>
       <c r="AF5" s="83"/>
       <c r="AG5" s="83"/>
-      <c r="AH5" s="195"/>
-      <c r="AI5" s="195"/>
-      <c r="AJ5" s="195"/>
-      <c r="AK5" s="195"/>
+      <c r="AH5" s="193"/>
+      <c r="AI5" s="193"/>
+      <c r="AJ5" s="193"/>
+      <c r="AK5" s="193"/>
       <c r="AL5" s="84"/>
       <c r="AM5" s="84"/>
       <c r="AN5" s="84"/>
@@ -58255,12 +60582,12 @@
     </row>
     <row r="12" spans="1:178" ht="12.75" customHeight="1">
       <c r="A12" s="19"/>
-      <c r="B12" s="130"/>
-      <c r="C12" s="130"/>
-      <c r="D12" s="130"/>
-      <c r="E12" s="130"/>
-      <c r="F12" s="130"/>
-      <c r="G12" s="130"/>
+      <c r="B12" s="131"/>
+      <c r="C12" s="131"/>
+      <c r="D12" s="131"/>
+      <c r="E12" s="131"/>
+      <c r="F12" s="131"/>
+      <c r="G12" s="131"/>
       <c r="K12" s="50"/>
       <c r="M12" s="90"/>
       <c r="N12" s="50"/>
@@ -58271,23 +60598,23 @@
       <c r="S12" s="50"/>
       <c r="T12" s="50"/>
       <c r="U12" s="50"/>
-      <c r="V12" s="130"/>
-      <c r="W12" s="194"/>
-      <c r="X12" s="194"/>
-      <c r="Y12" s="130"/>
-      <c r="Z12" s="194"/>
-      <c r="AA12" s="194"/>
-      <c r="AB12" s="194"/>
-      <c r="AC12" s="194"/>
-      <c r="AD12" s="194"/>
-      <c r="AE12" s="194"/>
+      <c r="V12" s="131"/>
+      <c r="W12" s="192"/>
+      <c r="X12" s="192"/>
+      <c r="Y12" s="131"/>
+      <c r="Z12" s="192"/>
+      <c r="AA12" s="192"/>
+      <c r="AB12" s="192"/>
+      <c r="AC12" s="192"/>
+      <c r="AD12" s="192"/>
+      <c r="AE12" s="192"/>
       <c r="AF12" s="50"/>
       <c r="AG12" s="24"/>
     </row>
     <row r="13" spans="1:178" ht="12.75" customHeight="1">
       <c r="A13" s="19"/>
-      <c r="B13" s="129"/>
-      <c r="C13" s="129"/>
+      <c r="B13" s="130"/>
+      <c r="C13" s="130"/>
       <c r="D13" s="50"/>
       <c r="E13" s="50"/>
       <c r="F13" s="50"/>
@@ -58305,9 +60632,9 @@
       <c r="S13" s="78"/>
       <c r="T13" s="78"/>
       <c r="U13" s="79"/>
-      <c r="V13" s="131"/>
-      <c r="W13" s="131"/>
-      <c r="X13" s="131"/>
+      <c r="V13" s="132"/>
+      <c r="W13" s="132"/>
+      <c r="X13" s="132"/>
       <c r="Y13" s="52"/>
       <c r="Z13" s="50"/>
       <c r="AA13" s="50"/>
@@ -59283,10 +61610,10 @@
       <c r="AE42" s="133"/>
       <c r="AF42" s="133"/>
       <c r="AG42" s="133"/>
-      <c r="AH42" s="196"/>
-      <c r="AI42" s="196"/>
-      <c r="AJ42" s="196"/>
-      <c r="AK42" s="196"/>
+      <c r="AH42" s="194"/>
+      <c r="AI42" s="194"/>
+      <c r="AJ42" s="194"/>
+      <c r="AK42" s="194"/>
       <c r="AL42" s="94"/>
       <c r="AM42" s="94"/>
       <c r="AN42" s="94"/>
@@ -59431,15 +61758,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:AC3"/>
-    <mergeCell ref="AD3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="A1:AG1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:AC2"/>
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="A42:AG42"/>
     <mergeCell ref="AH5:AI5"/>
     <mergeCell ref="AJ5:AK5"/>
@@ -59451,6 +61769,15 @@
     <mergeCell ref="Y12:AE12"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="V13:X13"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:AC3"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="A1:AG1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:AC2"/>
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="AF2:AG2"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
